--- a/External Data/Résultats de la course française.xlsx
+++ b/External Data/Résultats de la course française.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumedaudin/Répertoires GIT/2016-Hamburg-Impact-of-War/External Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumedaudin/Répertoires Git/2016-Hamburg-Impact-of-War/External Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC66A508-E8B7-FF40-A480-35415D5373EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECE3BB8-8C7E-2E48-AAD5-53F39B26D71B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38040" yWindow="2400" windowWidth="28040" windowHeight="16860" xr2:uid="{E3D52932-A783-EC49-8617-8937D12F747E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="1" xr2:uid="{E3D52932-A783-EC49-8617-8937D12F747E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Calcul" sheetId="1" r:id="rId1"/>
+    <sheet name="Output" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="61">
   <si>
     <t>Estimation de l’armement corsaire à Dunkerque, Saint-Malo et Bayonne (en milliers de lt) Villier 2002, p. 327</t>
   </si>
@@ -179,6 +178,45 @@
   </si>
   <si>
     <t>Roll of English Merchant-Vessels captured by the French during the War</t>
+  </si>
+  <si>
+    <t>Crowhurst par Acerra Meyer "Appendice 1 Marine et Révolution"</t>
+  </si>
+  <si>
+    <t>Nombre d’armements (?)</t>
+  </si>
+  <si>
+    <t>Dukerque guerre d’Amérique : 198 armements (voir Villiers p. 670) pour 19 M d’investissement.</t>
+  </si>
+  <si>
+    <t>Armement moyen :</t>
+  </si>
+  <si>
+    <t>Investissement Villiers / Crowhurst</t>
+  </si>
+  <si>
+    <t>Prises en utilisant le ratio de la guerre d’Amérpque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valeur par prise : </t>
+  </si>
+  <si>
+    <t>Prises en utilisant Normann</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>French investment</t>
+  </si>
+  <si>
+    <t>Part de captures privées</t>
+  </si>
+  <si>
+    <t>Ivestissement en utilisant Normann (que pour course privée)</t>
+  </si>
+  <si>
+    <t>French income</t>
   </si>
 </sst>
 </file>
@@ -539,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747C72A1-6A8D-9E42-88DE-481B3F912E70}">
-  <dimension ref="A1:L190"/>
+  <dimension ref="A1:L231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="A188" sqref="A188"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1582,11 +1620,11 @@
         <v>1756</v>
       </c>
       <c r="B94" s="1">
-        <f>B68*E79/E54</f>
+        <f t="shared" ref="B94:B100" si="13">B68*E79/E54</f>
         <v>7697.7600927145941</v>
       </c>
       <c r="C94" s="2">
-        <f>B94/B68</f>
+        <f t="shared" ref="C94:C101" si="14">B94/B68</f>
         <v>2.2771483264640833</v>
       </c>
       <c r="D94" s="1">
@@ -1599,7 +1637,7 @@
         <v>1757</v>
       </c>
       <c r="B95" s="1">
-        <f>B69*E80/E55</f>
+        <f t="shared" si="13"/>
         <v>10493.906116551223</v>
       </c>
       <c r="C95" s="2">
@@ -1607,7 +1645,7 @@
         <v>0.98733895649953818</v>
       </c>
       <c r="D95" s="1">
-        <f t="shared" ref="D95:D100" si="13">$A$104*B95/$B$101</f>
+        <f t="shared" ref="D95:D100" si="15">$A$104*B95/$B$101</f>
         <v>1698.1346656424962</v>
       </c>
     </row>
@@ -1616,15 +1654,15 @@
         <v>1758</v>
       </c>
       <c r="B96" s="1">
-        <f>B70*E81/E56</f>
+        <f t="shared" si="13"/>
         <v>5847.2293417575765</v>
       </c>
       <c r="C96" s="2">
-        <f>B96/B70</f>
+        <f t="shared" si="14"/>
         <v>1.0262687714355536</v>
       </c>
       <c r="D96" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>946.20465753354233</v>
       </c>
     </row>
@@ -1633,15 +1671,15 @@
         <v>1759</v>
       </c>
       <c r="B97" s="1">
-        <f>B71*E82/E57</f>
+        <f t="shared" si="13"/>
         <v>6808.6733157894741</v>
       </c>
       <c r="C97" s="2">
-        <f>B97/B71</f>
+        <f t="shared" si="14"/>
         <v>2.3815461496450028</v>
       </c>
       <c r="D97" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1101.7865088712038</v>
       </c>
     </row>
@@ -1650,15 +1688,15 @@
         <v>1760</v>
       </c>
       <c r="B98" s="1">
-        <f>B72*E83/E58</f>
+        <f t="shared" si="13"/>
         <v>13751.472459119865</v>
       </c>
       <c r="C98" s="2">
-        <f>B98/B72</f>
+        <f t="shared" si="14"/>
         <v>3.9996016398260634</v>
       </c>
       <c r="D98" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2225.2773969102354</v>
       </c>
     </row>
@@ -1667,15 +1705,15 @@
         <v>1761</v>
       </c>
       <c r="B99" s="1">
-        <f>B73*E84/E59</f>
+        <f t="shared" si="13"/>
         <v>6688.8031702564049</v>
       </c>
       <c r="C99" s="2">
-        <f>B99/B73</f>
+        <f t="shared" si="14"/>
         <v>2.1635556730485477</v>
       </c>
       <c r="D99" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1082.3889988073142</v>
       </c>
     </row>
@@ -1684,15 +1722,15 @@
         <v>1762</v>
       </c>
       <c r="B100" s="1">
-        <f>B74*E85/E60</f>
+        <f t="shared" si="13"/>
         <v>4329.1551209921654</v>
       </c>
       <c r="C100" s="2">
-        <f>B100/B74</f>
+        <f t="shared" si="14"/>
         <v>1.2441574894008587</v>
       </c>
       <c r="D100" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>700.54832797728193</v>
       </c>
     </row>
@@ -1702,7 +1740,7 @@
         <v>55616.999617181304</v>
       </c>
       <c r="C101" s="2">
-        <f>B101/B75</f>
+        <f t="shared" si="14"/>
         <v>1.7073637464023181</v>
       </c>
       <c r="D101" s="1">
@@ -1894,7 +1932,7 @@
         <v>1779</v>
       </c>
       <c r="B131" s="1">
-        <f t="shared" ref="B131:B135" si="14">B123/$B$128*$A$108</f>
+        <f t="shared" ref="B131:B135" si="16">B123/$B$128*$A$108</f>
         <v>5858.5858585858587</v>
       </c>
     </row>
@@ -1903,7 +1941,7 @@
         <v>1780</v>
       </c>
       <c r="B132" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>9292.9292929292933</v>
       </c>
     </row>
@@ -1912,7 +1950,7 @@
         <v>1781</v>
       </c>
       <c r="B133" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>9494.9494949494947</v>
       </c>
     </row>
@@ -1921,7 +1959,7 @@
         <v>1782</v>
       </c>
       <c r="B134" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>10707.070707070707</v>
       </c>
     </row>
@@ -1930,8 +1968,14 @@
         <v>1783</v>
       </c>
       <c r="B135" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>606.06060606060612</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B136" s="1">
+        <f>SUM(B130:B135)</f>
+        <v>40000</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -1953,7 +1997,7 @@
         <v>1779</v>
       </c>
       <c r="B139" s="1">
-        <f t="shared" ref="B139:B143" si="15">B123/$B$128*$B$119</f>
+        <f t="shared" ref="B139:B143" si="17">B123/$B$128*$B$119</f>
         <v>4086.8564641655207</v>
       </c>
     </row>
@@ -1962,7 +2006,7 @@
         <v>1780</v>
       </c>
       <c r="B140" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6482.5999086763431</v>
       </c>
     </row>
@@ -1971,7 +2015,7 @@
         <v>1781</v>
       </c>
       <c r="B141" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6623.5259936475677</v>
       </c>
     </row>
@@ -1980,7 +2024,7 @@
         <v>1782</v>
       </c>
       <c r="B142" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7469.0825034749168</v>
       </c>
     </row>
@@ -1989,7 +2033,7 @@
         <v>1783</v>
       </c>
       <c r="B143" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>422.77825491367457</v>
       </c>
     </row>
@@ -2072,7 +2116,7 @@
         <v>1779</v>
       </c>
       <c r="B157" s="1">
-        <f t="shared" ref="B157:B161" si="16">$A$110/$B$153*B148</f>
+        <f t="shared" ref="B157:B161" si="18">$A$110/$B$153*B148</f>
         <v>4761.2156295224313</v>
       </c>
     </row>
@@ -2081,7 +2125,7 @@
         <v>1780</v>
       </c>
       <c r="B158" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5774.2402315484806</v>
       </c>
     </row>
@@ -2090,7 +2134,7 @@
         <v>1781</v>
       </c>
       <c r="B159" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>9876.9898697539793</v>
       </c>
     </row>
@@ -2099,37 +2143,44 @@
         <v>1782</v>
       </c>
       <c r="B160" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3494.9348769898697</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>1783</v>
       </c>
       <c r="B161" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>202.60492040520984</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D161" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B162" s="1">
         <f>SUM(B156:B161)</f>
         <v>35000</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D162" s="2">
+        <f>B136/(B136+B162)</f>
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>1793</v>
       </c>
@@ -2137,7 +2188,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>1794</v>
       </c>
@@ -2145,7 +2196,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>1795</v>
       </c>
@@ -2153,7 +2204,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>1796</v>
       </c>
@@ -2161,7 +2212,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>1797</v>
       </c>
@@ -2169,7 +2220,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>1798</v>
       </c>
@@ -2177,7 +2228,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>1799</v>
       </c>
@@ -2185,7 +2236,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>1800</v>
       </c>
@@ -2303,10 +2354,1163 @@
       </c>
       <c r="B190" s="1">
         <v>145</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B194" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195" s="1">
+        <v>1793</v>
+      </c>
+      <c r="B195" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196" s="1">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197" s="1">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198" s="1">
+        <v>1796</v>
+      </c>
+      <c r="B198" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199" s="1">
+        <v>1797</v>
+      </c>
+      <c r="B199" s="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200" s="1">
+        <v>1798</v>
+      </c>
+      <c r="B200" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201" s="1">
+        <v>1799</v>
+      </c>
+      <c r="B201" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202" s="1">
+        <v>1800</v>
+      </c>
+      <c r="B202" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203" s="1">
+        <v>1801</v>
+      </c>
+      <c r="B203" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D206" s="1">
+        <f>19000/198</f>
+        <v>95.959595959595958</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B209" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H209" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I209" s="1">
+        <f>SUM(C210:C218)/(SUM(B169:B177)-B170-B171)</f>
+        <v>24.225126676157274</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A210" s="1">
+        <v>1793</v>
+      </c>
+      <c r="B210" s="1">
+        <f>B195*$D$206</f>
+        <v>12666.666666666666</v>
+      </c>
+      <c r="C210" s="1">
+        <f>B210*$C$119</f>
+        <v>18157.90568115942</v>
+      </c>
+      <c r="D210" s="1">
+        <f>B169*$I$209</f>
+        <v>8527.2445900073599</v>
+      </c>
+      <c r="E210" s="1">
+        <f>D210/$C$119*$D$162</f>
+        <v>3172.5175565471377</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A211" s="1">
+        <v>1794</v>
+      </c>
+      <c r="D211" s="1">
+        <f t="shared" ref="D211:D238" si="19">B170*$I$209</f>
+        <v>15600.981579445284</v>
+      </c>
+      <c r="E211" s="1">
+        <f t="shared" ref="E211:E231" si="20">D211/$C$119*$D$162</f>
+        <v>5804.2650750464682</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A212" s="1">
+        <v>1795</v>
+      </c>
+      <c r="D212" s="1">
+        <f t="shared" si="19"/>
+        <v>15504.081072740655</v>
+      </c>
+      <c r="E212" s="1">
+        <f t="shared" si="20"/>
+        <v>5768.2137391766146</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A213" s="1">
+        <v>1796</v>
+      </c>
+      <c r="B213" s="1">
+        <f t="shared" ref="B211:B218" si="21">B198*$D$206</f>
+        <v>4318.181818181818</v>
+      </c>
+      <c r="C213" s="1">
+        <f>B213*1.5</f>
+        <v>6477.272727272727</v>
+      </c>
+      <c r="D213" s="1">
+        <f t="shared" si="19"/>
+        <v>11846.086944640907</v>
+      </c>
+      <c r="E213" s="1">
+        <f t="shared" si="20"/>
+        <v>4407.2758100896317</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A214" s="1">
+        <v>1797</v>
+      </c>
+      <c r="B214" s="1">
+        <f t="shared" si="21"/>
+        <v>13914.141414141413</v>
+      </c>
+      <c r="C214" s="1">
+        <f t="shared" ref="C214:C218" si="22">B214*1.5</f>
+        <v>20871.21212121212</v>
+      </c>
+      <c r="D214" s="1">
+        <f t="shared" si="19"/>
+        <v>22989.645215673252</v>
+      </c>
+      <c r="E214" s="1">
+        <f t="shared" si="20"/>
+        <v>8553.1794351228236</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A215" s="1">
+        <v>1798</v>
+      </c>
+      <c r="B215" s="1">
+        <f t="shared" si="21"/>
+        <v>13818.181818181818</v>
+      </c>
+      <c r="C215" s="1">
+        <f t="shared" si="22"/>
+        <v>20727.272727272728</v>
+      </c>
+      <c r="D215" s="1">
+        <f t="shared" si="19"/>
+        <v>16666.887153196203</v>
+      </c>
+      <c r="E215" s="1">
+        <f t="shared" si="20"/>
+        <v>6200.8297696148602</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A216" s="1">
+        <v>1799</v>
+      </c>
+      <c r="B216" s="1">
+        <f t="shared" si="21"/>
+        <v>11227.272727272728</v>
+      </c>
+      <c r="C216" s="1">
+        <f t="shared" si="22"/>
+        <v>16840.909090909092</v>
+      </c>
+      <c r="D216" s="1">
+        <f t="shared" si="19"/>
+        <v>17684.34247359481</v>
+      </c>
+      <c r="E216" s="1">
+        <f t="shared" si="20"/>
+        <v>6579.3687962483255</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A217" s="1">
+        <v>1800</v>
+      </c>
+      <c r="B217" s="1">
+        <f t="shared" si="21"/>
+        <v>8348.484848484848</v>
+      </c>
+      <c r="C217" s="1">
+        <f t="shared" si="22"/>
+        <v>12522.727272727272</v>
+      </c>
+      <c r="D217" s="1">
+        <f t="shared" si="19"/>
+        <v>16133.934366320744</v>
+      </c>
+      <c r="E217" s="1">
+        <f t="shared" si="20"/>
+        <v>6002.5474223306637</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A218" s="1">
+        <v>1801</v>
+      </c>
+      <c r="B218" s="1">
+        <f t="shared" si="21"/>
+        <v>5277.7777777777774</v>
+      </c>
+      <c r="C218" s="1">
+        <f t="shared" si="22"/>
+        <v>7916.6666666666661</v>
+      </c>
+      <c r="D218" s="1">
+        <f t="shared" si="19"/>
+        <v>9665.825543786752</v>
+      </c>
+      <c r="E218" s="1">
+        <f t="shared" si="20"/>
+        <v>3596.1207530179199</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A219" s="1">
+        <v>1802</v>
+      </c>
+      <c r="D219" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E219" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A220" s="1">
+        <v>1803</v>
+      </c>
+      <c r="D220" s="1">
+        <f t="shared" si="19"/>
+        <v>5377.9781221069152</v>
+      </c>
+      <c r="E220" s="1">
+        <f t="shared" si="20"/>
+        <v>2000.8491407768881</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A221" s="1">
+        <v>1804</v>
+      </c>
+      <c r="D221" s="1">
+        <f t="shared" si="19"/>
+        <v>9375.1240236728645</v>
+      </c>
+      <c r="E221" s="1">
+        <f t="shared" si="20"/>
+        <v>3487.9667454083587</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A222" s="1">
+        <v>1805</v>
+      </c>
+      <c r="D222" s="1">
+        <f t="shared" si="19"/>
+        <v>12282.139224811737</v>
+      </c>
+      <c r="E222" s="1">
+        <f t="shared" si="20"/>
+        <v>4569.5068215039746</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A223" s="1">
+        <v>1806</v>
+      </c>
+      <c r="D223" s="1">
+        <f t="shared" si="19"/>
+        <v>12572.840744925625</v>
+      </c>
+      <c r="E223" s="1">
+        <f t="shared" si="20"/>
+        <v>4677.6608291135353</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A224" s="1">
+        <v>1807</v>
+      </c>
+      <c r="D224" s="1">
+        <f t="shared" si="19"/>
+        <v>13541.845811971916</v>
+      </c>
+      <c r="E224" s="1">
+        <f t="shared" si="20"/>
+        <v>5038.1741878120738</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A225" s="1">
+        <v>1808</v>
+      </c>
+      <c r="D225" s="1">
+        <f t="shared" si="19"/>
+        <v>11361.584411117761</v>
+      </c>
+      <c r="E225" s="1">
+        <f t="shared" si="20"/>
+        <v>4227.0191307403629</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A226" s="1">
+        <v>1809</v>
+      </c>
+      <c r="D226" s="1">
+        <f t="shared" si="19"/>
+        <v>13832.547332085804</v>
+      </c>
+      <c r="E226" s="1">
+        <f t="shared" si="20"/>
+        <v>5146.3281954216354</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A227" s="1">
+        <v>1810</v>
+      </c>
+      <c r="D227" s="1">
+        <f t="shared" si="19"/>
+        <v>14995.353412541352</v>
+      </c>
+      <c r="E227" s="1">
+        <f t="shared" si="20"/>
+        <v>5578.944225859882</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A228" s="1">
+        <v>1811</v>
+      </c>
+      <c r="D228" s="1">
+        <f t="shared" si="19"/>
+        <v>11385.809537793919</v>
+      </c>
+      <c r="E228" s="1">
+        <f t="shared" si="20"/>
+        <v>4236.0319647078259</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A229" s="1">
+        <v>1812</v>
+      </c>
+      <c r="D229" s="1">
+        <f t="shared" si="19"/>
+        <v>11506.935171174706</v>
+      </c>
+      <c r="E229" s="1">
+        <f t="shared" si="20"/>
+        <v>4281.0961345451433</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A230" s="1">
+        <v>1813</v>
+      </c>
+      <c r="D230" s="1">
+        <f t="shared" si="19"/>
+        <v>8987.5219968543479</v>
+      </c>
+      <c r="E230" s="1">
+        <f t="shared" si="20"/>
+        <v>3343.7614019289431</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A231" s="1">
+        <v>1814</v>
+      </c>
+      <c r="D231" s="1">
+        <f t="shared" si="19"/>
+        <v>3512.6433680428045</v>
+      </c>
+      <c r="E231" s="1">
+        <f t="shared" si="20"/>
+        <v>1306.8609252822016</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F52ADF-FFA8-0A46-9CC0-C7AD4F73CE98}">
+  <dimension ref="A1:C72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1744</v>
+      </c>
+      <c r="B2" s="1">
+        <f>Calcul!B42</f>
+        <v>9360.5419791403019</v>
+      </c>
+      <c r="C2" s="1">
+        <f>Calcul!B25</f>
+        <v>5575.554826863925</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1745</v>
+      </c>
+      <c r="B3" s="1">
+        <f>Calcul!B43</f>
+        <v>16809.35865041571</v>
+      </c>
+      <c r="C3" s="1">
+        <f>Calcul!B26</f>
+        <v>10012.401094794281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1746</v>
+      </c>
+      <c r="B4" s="1">
+        <f>Calcul!B44</f>
+        <v>17059.364373168148</v>
+      </c>
+      <c r="C4" s="1">
+        <f>Calcul!B27</f>
+        <v>10161.315614631088</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1747</v>
+      </c>
+      <c r="B5" s="1">
+        <f>Calcul!B45</f>
+        <v>12445.762981954955</v>
+      </c>
+      <c r="C5" s="1">
+        <f>Calcul!B28</f>
+        <v>7413.2495770737905</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1748</v>
+      </c>
+      <c r="B6" s="1">
+        <f>Calcul!B46</f>
+        <v>6473.6748871199152</v>
+      </c>
+      <c r="C6" s="1">
+        <f>Calcul!B29</f>
+        <v>3856.0084816524932</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1749</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1756</v>
+      </c>
+      <c r="B14" s="1">
+        <f>Calcul!B94+Calcul!D94</f>
+        <v>8943.4195369725203</v>
+      </c>
+      <c r="C14" s="1">
+        <f>Calcul!B68</f>
+        <v>3380.4385964912281</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1757</v>
+      </c>
+      <c r="B15" s="1">
+        <f>Calcul!B95+Calcul!D95</f>
+        <v>12192.040782193719</v>
+      </c>
+      <c r="C15" s="1">
+        <f>Calcul!B69</f>
+        <v>10628.473684210527</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1758</v>
+      </c>
+      <c r="B16" s="1">
+        <f>Calcul!B96+Calcul!D96</f>
+        <v>6793.4339992911191</v>
+      </c>
+      <c r="C16" s="1">
+        <f>Calcul!B70</f>
+        <v>5697.5614035087719</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1759</v>
+      </c>
+      <c r="B17" s="1">
+        <f>Calcul!B97+Calcul!D97</f>
+        <v>7910.4598246606784</v>
+      </c>
+      <c r="C17" s="1">
+        <f>Calcul!B71</f>
+        <v>2858.9298245614036</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1760</v>
+      </c>
+      <c r="B18" s="1">
+        <f>Calcul!B98+Calcul!D98</f>
+        <v>15976.749856030099</v>
+      </c>
+      <c r="C18" s="1">
+        <f>Calcul!B72</f>
+        <v>3438.2105263157896</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1761</v>
+      </c>
+      <c r="B19" s="1">
+        <f>Calcul!B99+Calcul!D99</f>
+        <v>7771.1921690637191</v>
+      </c>
+      <c r="C19" s="1">
+        <f>Calcul!B73</f>
+        <v>3091.5789473684208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1762</v>
+      </c>
+      <c r="B20" s="1">
+        <f>Calcul!B100+Calcul!D100</f>
+        <v>5029.703448969447</v>
+      </c>
+      <c r="C20" s="1">
+        <f>Calcul!B74</f>
+        <v>3479.5877192982457</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1763</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1778</v>
+      </c>
+      <c r="B36" s="1">
+        <f>Calcul!B130+Calcul!B156</f>
+        <v>14930.418512184069</v>
+      </c>
+      <c r="C36" s="1">
+        <f>Calcul!B138</f>
+        <v>2818.521699424497</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1779</v>
+      </c>
+      <c r="B37" s="1">
+        <f>Calcul!B131+Calcul!B157</f>
+        <v>10619.801488108289</v>
+      </c>
+      <c r="C37" s="1">
+        <f>Calcul!B139</f>
+        <v>4086.8564641655207</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1780</v>
+      </c>
+      <c r="B38" s="1">
+        <f>Calcul!B132+Calcul!B158</f>
+        <v>15067.169524477773</v>
+      </c>
+      <c r="C38" s="1">
+        <f>Calcul!B140</f>
+        <v>6482.5999086763431</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1781</v>
+      </c>
+      <c r="B39" s="1">
+        <f>Calcul!B133+Calcul!B159</f>
+        <v>19371.939364703474</v>
+      </c>
+      <c r="C39" s="1">
+        <f>Calcul!B141</f>
+        <v>6623.5259936475677</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1782</v>
+      </c>
+      <c r="B40" s="1">
+        <f>Calcul!B134+Calcul!B160</f>
+        <v>14202.005584060576</v>
+      </c>
+      <c r="C40" s="1">
+        <f>Calcul!B142</f>
+        <v>7469.0825034749168</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1783</v>
+      </c>
+      <c r="B41" s="1">
+        <f>Calcul!B135+Calcul!B161</f>
+        <v>808.6655264658159</v>
+      </c>
+      <c r="C41" s="1">
+        <f>Calcul!B143</f>
+        <v>422.77825491367457</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>1784</v>
+      </c>
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>1793</v>
+      </c>
+      <c r="B51" s="1">
+        <f>Calcul!D210</f>
+        <v>8527.2445900073599</v>
+      </c>
+      <c r="C51" s="1">
+        <f>Calcul!E210</f>
+        <v>3172.5175565471377</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>1794</v>
+      </c>
+      <c r="B52" s="1">
+        <f>Calcul!D211</f>
+        <v>15600.981579445284</v>
+      </c>
+      <c r="C52" s="1">
+        <f>Calcul!E211</f>
+        <v>5804.2650750464682</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>1795</v>
+      </c>
+      <c r="B53" s="1">
+        <f>Calcul!D212</f>
+        <v>15504.081072740655</v>
+      </c>
+      <c r="C53" s="1">
+        <f>Calcul!E212</f>
+        <v>5768.2137391766146</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>1796</v>
+      </c>
+      <c r="B54" s="1">
+        <f>Calcul!D213</f>
+        <v>11846.086944640907</v>
+      </c>
+      <c r="C54" s="1">
+        <f>Calcul!E213</f>
+        <v>4407.2758100896317</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>1797</v>
+      </c>
+      <c r="B55" s="1">
+        <f>Calcul!D214</f>
+        <v>22989.645215673252</v>
+      </c>
+      <c r="C55" s="1">
+        <f>Calcul!E214</f>
+        <v>8553.1794351228236</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>1798</v>
+      </c>
+      <c r="B56" s="1">
+        <f>Calcul!D215</f>
+        <v>16666.887153196203</v>
+      </c>
+      <c r="C56" s="1">
+        <f>Calcul!E215</f>
+        <v>6200.8297696148602</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>1799</v>
+      </c>
+      <c r="B57" s="1">
+        <f>Calcul!D216</f>
+        <v>17684.34247359481</v>
+      </c>
+      <c r="C57" s="1">
+        <f>Calcul!E216</f>
+        <v>6579.3687962483255</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>1800</v>
+      </c>
+      <c r="B58" s="1">
+        <f>Calcul!D217</f>
+        <v>16133.934366320744</v>
+      </c>
+      <c r="C58" s="1">
+        <f>Calcul!E217</f>
+        <v>6002.5474223306637</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>1801</v>
+      </c>
+      <c r="B59" s="1">
+        <f>Calcul!D218</f>
+        <v>9665.825543786752</v>
+      </c>
+      <c r="C59" s="1">
+        <f>Calcul!E218</f>
+        <v>3596.1207530179199</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>1802</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>1803</v>
+      </c>
+      <c r="B61" s="1">
+        <f>Calcul!D220</f>
+        <v>5377.9781221069152</v>
+      </c>
+      <c r="C61" s="1">
+        <f>Calcul!E220</f>
+        <v>2000.8491407768881</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>1804</v>
+      </c>
+      <c r="B62" s="1">
+        <f>Calcul!D221</f>
+        <v>9375.1240236728645</v>
+      </c>
+      <c r="C62" s="1">
+        <f>Calcul!E221</f>
+        <v>3487.9667454083587</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>1805</v>
+      </c>
+      <c r="B63" s="1">
+        <f>Calcul!D222</f>
+        <v>12282.139224811737</v>
+      </c>
+      <c r="C63" s="1">
+        <f>Calcul!E222</f>
+        <v>4569.5068215039746</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>1806</v>
+      </c>
+      <c r="B64" s="1">
+        <f>Calcul!D223</f>
+        <v>12572.840744925625</v>
+      </c>
+      <c r="C64" s="1">
+        <f>Calcul!E223</f>
+        <v>4677.6608291135353</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>1807</v>
+      </c>
+      <c r="B65" s="1">
+        <f>Calcul!D224</f>
+        <v>13541.845811971916</v>
+      </c>
+      <c r="C65" s="1">
+        <f>Calcul!E224</f>
+        <v>5038.1741878120738</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>1808</v>
+      </c>
+      <c r="B66" s="1">
+        <f>Calcul!D225</f>
+        <v>11361.584411117761</v>
+      </c>
+      <c r="C66" s="1">
+        <f>Calcul!E225</f>
+        <v>4227.0191307403629</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>1809</v>
+      </c>
+      <c r="B67" s="1">
+        <f>Calcul!D226</f>
+        <v>13832.547332085804</v>
+      </c>
+      <c r="C67" s="1">
+        <f>Calcul!E226</f>
+        <v>5146.3281954216354</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>1810</v>
+      </c>
+      <c r="B68" s="1">
+        <f>Calcul!D227</f>
+        <v>14995.353412541352</v>
+      </c>
+      <c r="C68" s="1">
+        <f>Calcul!E227</f>
+        <v>5578.944225859882</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>1811</v>
+      </c>
+      <c r="B69" s="1">
+        <f>Calcul!D228</f>
+        <v>11385.809537793919</v>
+      </c>
+      <c r="C69" s="1">
+        <f>Calcul!E228</f>
+        <v>4236.0319647078259</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>1812</v>
+      </c>
+      <c r="B70" s="1">
+        <f>Calcul!D229</f>
+        <v>11506.935171174706</v>
+      </c>
+      <c r="C70" s="1">
+        <f>Calcul!E229</f>
+        <v>4281.0961345451433</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>1813</v>
+      </c>
+      <c r="B71" s="1">
+        <f>Calcul!D230</f>
+        <v>8987.5219968543479</v>
+      </c>
+      <c r="C71" s="1">
+        <f>Calcul!E230</f>
+        <v>3343.7614019289431</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>1814</v>
+      </c>
+      <c r="B72" s="1">
+        <f>Calcul!D231</f>
+        <v>3512.6433680428045</v>
+      </c>
+      <c r="C72" s="1">
+        <f>Calcul!E231</f>
+        <v>1306.8609252822016</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/External Data/Résultats de la course française.xlsx
+++ b/External Data/Résultats de la course française.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumedaudin/Répertoires Git/2016-Hamburg-Impact-of-War/External Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECE3BB8-8C7E-2E48-AAD5-53F39B26D71B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C72CBE-D315-0F4B-B0BA-2B44C29FB11B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="1" xr2:uid="{E3D52932-A783-EC49-8617-8937D12F747E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{E3D52932-A783-EC49-8617-8937D12F747E}"/>
   </bookViews>
   <sheets>
     <sheet name="Calcul" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
   <si>
     <t>Estimation de l’armement corsaire à Dunkerque, Saint-Malo et Bayonne (en milliers de lt) Villier 2002, p. 327</t>
   </si>
@@ -72,12 +72,6 @@
     <t>Dunkerque (voir p. 332 -- erreur il le compare à 7 300 d’investissement -- note 207 de J. Le May La Guerre de Course...)</t>
   </si>
   <si>
-    <t>Saint-Malo (p. 333)</t>
-  </si>
-  <si>
-    <t>inconnue</t>
-  </si>
-  <si>
     <t>Donc hypothèse de rentrées brutes</t>
   </si>
   <si>
@@ -217,12 +211,39 @@
   </si>
   <si>
     <t>French income</t>
+  </si>
+  <si>
+    <t>Saint-Malo (p. 333 // 2007 : 10-12)</t>
+  </si>
+  <si>
+    <t>Prises Martiniqe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Villier 2007 p. 43</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>valeur en livres coloniales</t>
+  </si>
+  <si>
+    <t>Conversion livre tournois / livre coloniales</t>
+  </si>
+  <si>
+    <t>valeur en livres tournois</t>
+  </si>
+  <si>
+    <t>Il annonce 10 M l.t : je mets le résidu en 1748</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -258,11 +279,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,15 +599,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747C72A1-6A8D-9E42-88DE-481B3F912E70}">
-  <dimension ref="A1:L231"/>
+  <dimension ref="A1:L249"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="20.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.83203125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -679,7 +704,7 @@
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <f>4800/3292</f>
         <v>1.4580801944106927</v>
       </c>
@@ -688,7 +713,7 @@
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <f>7300/6821</f>
         <v>1.0702243072863216</v>
       </c>
@@ -906,1200 +931,1213 @@
         <v>37018.529595015571</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B36" s="1">
         <v>12000</v>
       </c>
       <c r="C36" s="1">
-        <v>10500</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11000</v>
+      </c>
+      <c r="D36" s="1">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E38" s="2">
-        <f>(B36+C36)/(B17+C17)</f>
-        <v>1.6788539024026266</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <f>(B36+C36+D36)/(B17+C17+D17)</f>
+        <v>1.7631146749106366</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J40" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>1744</v>
       </c>
       <c r="B42" s="1">
-        <f>B25*$E$38</f>
-        <v>9360.5419791403019</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="C42" s="1">
+        <v>921</v>
+      </c>
+      <c r="D42" s="1">
+        <f>C42/$J$40</f>
+        <v>614</v>
+      </c>
+      <c r="E42" s="1">
+        <f>D42</f>
+        <v>614</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>1745</v>
       </c>
       <c r="B43" s="1">
-        <f t="shared" ref="B43:B46" si="5">B26*$E$38</f>
-        <v>16809.35865041571</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1116</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" ref="D43:D45" si="5">C43/$J$40</f>
+        <v>744</v>
+      </c>
+      <c r="E43" s="1">
+        <f t="shared" ref="E43:E45" si="6">D43</f>
+        <v>744</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>1746</v>
       </c>
       <c r="B44" s="1">
+        <v>122</v>
+      </c>
+      <c r="C44" s="1">
+        <v>4679</v>
+      </c>
+      <c r="D44" s="1">
         <f t="shared" si="5"/>
-        <v>17059.364373168148</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3119.3333333333335</v>
+      </c>
+      <c r="E44" s="1">
+        <f t="shared" si="6"/>
+        <v>3119.3333333333335</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>1747</v>
       </c>
       <c r="B45" s="1">
+        <v>99</v>
+      </c>
+      <c r="C45" s="1">
+        <v>4441</v>
+      </c>
+      <c r="D45" s="1">
         <f t="shared" si="5"/>
-        <v>12445.762981954955</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2960.6666666666665</v>
+      </c>
+      <c r="E45" s="1">
+        <f t="shared" si="6"/>
+        <v>2960.6666666666665</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>1748</v>
       </c>
-      <c r="B46" s="1">
-        <f t="shared" si="5"/>
-        <v>6473.6748871199152</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B46" s="3"/>
+      <c r="E46" s="1">
+        <f>10000-D47</f>
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B47" s="1">
         <f>SUM(B42:B46)</f>
-        <v>62148.702871799032</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C47" s="1">
+        <f>SUM(C42:C45)</f>
+        <v>11157</v>
+      </c>
+      <c r="D47" s="1">
+        <f>SUM(D42:D45)</f>
+        <v>7438</v>
+      </c>
+      <c r="E47" s="1">
+        <f>SUM(E42:E46)</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>1744</v>
+      </c>
+      <c r="B52" s="1">
+        <f>B25*$E$38</f>
+        <v>9830.3425360126203</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>1745</v>
+      </c>
+      <c r="B53" s="1">
+        <f>B26*$E$38</f>
+        <v>17653.01130132312</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>1746</v>
+      </c>
+      <c r="B54" s="1">
+        <f>B27*$E$38</f>
+        <v>17915.564676554666</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>1747</v>
+      </c>
+      <c r="B55" s="1">
+        <f>B28*$E$38</f>
+        <v>13070.40911811387</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>1748</v>
+      </c>
+      <c r="B56" s="1">
+        <f>B29*$E$38</f>
+        <v>6798.5851405813928</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B57" s="1">
+        <f>SUM(B52:B56)</f>
+        <v>65267.912772585674</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>1756</v>
+      </c>
+      <c r="B72" s="1">
+        <v>980</v>
+      </c>
+      <c r="C72" s="1">
+        <v>755</v>
+      </c>
+      <c r="D72" s="1">
+        <v>430</v>
+      </c>
+      <c r="E72" s="1">
+        <f>SUM(B72:D72)</f>
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>1757</v>
+      </c>
+      <c r="B73" s="1">
+        <v>2050</v>
+      </c>
+      <c r="C73" s="1">
+        <v>2517</v>
+      </c>
+      <c r="D73" s="1">
+        <v>2240</v>
+      </c>
+      <c r="E73" s="1">
+        <f t="shared" ref="E73:E79" si="7">SUM(B73:D73)</f>
+        <v>6807</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>1758</v>
+      </c>
+      <c r="B74" s="1">
+        <v>2204</v>
+      </c>
+      <c r="C74" s="1">
+        <v>410</v>
+      </c>
+      <c r="D74" s="1">
+        <v>1035</v>
+      </c>
+      <c r="E74" s="1">
+        <f t="shared" si="7"/>
+        <v>3649</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>1759</v>
+      </c>
+      <c r="B75" s="1">
+        <v>1056</v>
+      </c>
+      <c r="C75" s="1">
+        <v>130</v>
+      </c>
+      <c r="D75" s="1">
+        <v>645</v>
+      </c>
+      <c r="E75" s="1">
+        <f t="shared" si="7"/>
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>1760</v>
+      </c>
+      <c r="B76" s="1">
+        <v>662</v>
+      </c>
+      <c r="C76" s="1">
+        <v>985</v>
+      </c>
+      <c r="D76" s="1">
+        <v>555</v>
+      </c>
+      <c r="E76" s="1">
+        <f t="shared" si="7"/>
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>1761</v>
+      </c>
+      <c r="B77" s="1">
+        <v>490</v>
+      </c>
+      <c r="C77" s="1">
+        <v>592.5</v>
+      </c>
+      <c r="D77" s="1">
+        <v>897.5</v>
+      </c>
+      <c r="E77" s="1">
+        <f t="shared" si="7"/>
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>1762</v>
+      </c>
+      <c r="B78" s="1">
+        <v>836</v>
+      </c>
+      <c r="C78" s="1">
+        <v>792.5</v>
+      </c>
+      <c r="D78" s="1">
+        <v>600</v>
+      </c>
+      <c r="E78" s="1">
+        <f t="shared" si="7"/>
+        <v>2228.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B79" s="1">
+        <f>SUM(B72:B78)</f>
+        <v>8278</v>
+      </c>
+      <c r="C79" s="1">
+        <f t="shared" ref="C79:D79" si="8">SUM(C72:C78)</f>
+        <v>6182</v>
+      </c>
+      <c r="D79" s="1">
+        <f t="shared" si="8"/>
+        <v>6402.5</v>
+      </c>
+      <c r="E79" s="1">
+        <f t="shared" si="7"/>
+        <v>20862.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E82" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B53" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
-        <v>1756</v>
-      </c>
-      <c r="B54" s="1">
-        <v>980</v>
-      </c>
-      <c r="C54" s="1">
-        <v>755</v>
-      </c>
-      <c r="D54" s="1">
-        <v>430</v>
-      </c>
-      <c r="E54" s="1">
-        <f>SUM(B54:D54)</f>
-        <v>2165</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
-        <v>1757</v>
-      </c>
-      <c r="B55" s="1">
-        <v>2050</v>
-      </c>
-      <c r="C55" s="1">
-        <v>2517</v>
-      </c>
-      <c r="D55" s="1">
-        <v>2240</v>
-      </c>
-      <c r="E55" s="1">
-        <f t="shared" ref="E55:E61" si="6">SUM(B55:D55)</f>
-        <v>6807</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
-        <v>1758</v>
-      </c>
-      <c r="B56" s="1">
-        <v>2204</v>
-      </c>
-      <c r="C56" s="1">
-        <v>410</v>
-      </c>
-      <c r="D56" s="1">
-        <v>1035</v>
-      </c>
-      <c r="E56" s="1">
-        <f t="shared" si="6"/>
-        <v>3649</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
-        <v>1759</v>
-      </c>
-      <c r="B57" s="1">
-        <v>1056</v>
-      </c>
-      <c r="C57" s="1">
-        <v>130</v>
-      </c>
-      <c r="D57" s="1">
-        <v>645</v>
-      </c>
-      <c r="E57" s="1">
-        <f t="shared" si="6"/>
-        <v>1831</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
-        <v>1760</v>
-      </c>
-      <c r="B58" s="1">
-        <v>662</v>
-      </c>
-      <c r="C58" s="1">
-        <v>985</v>
-      </c>
-      <c r="D58" s="1">
-        <v>555</v>
-      </c>
-      <c r="E58" s="1">
-        <f t="shared" si="6"/>
-        <v>2202</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
-        <v>1761</v>
-      </c>
-      <c r="B59" s="1">
-        <v>490</v>
-      </c>
-      <c r="C59" s="1">
-        <v>592.5</v>
-      </c>
-      <c r="D59" s="1">
-        <v>897.5</v>
-      </c>
-      <c r="E59" s="1">
-        <f t="shared" si="6"/>
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
-        <v>1762</v>
-      </c>
-      <c r="B60" s="1">
-        <v>836</v>
-      </c>
-      <c r="C60" s="1">
-        <v>792.5</v>
-      </c>
-      <c r="D60" s="1">
-        <v>600</v>
-      </c>
-      <c r="E60" s="1">
-        <f t="shared" si="6"/>
-        <v>2228.5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B61" s="1">
-        <f>SUM(B54:B60)</f>
-        <v>8278</v>
-      </c>
-      <c r="C61" s="1">
-        <f t="shared" ref="C61:D61" si="7">SUM(C54:C60)</f>
-        <v>6182</v>
-      </c>
-      <c r="D61" s="1">
-        <f t="shared" si="7"/>
-        <v>6402.5</v>
-      </c>
-      <c r="E61" s="1">
-        <f t="shared" si="6"/>
-        <v>20862.5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B64" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E64" s="1" t="s">
+      <c r="G82" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G64" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B65" s="1">
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B83" s="1">
         <v>145</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C83" s="1">
         <v>69</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D83" s="1">
         <v>128</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E83" s="1">
         <f>54+32+21+35+50</f>
         <v>192</v>
       </c>
-      <c r="G65" s="2">
-        <f>SUM(B65:E65)/SUM(B65:D65)</f>
+      <c r="G83" s="2">
+        <f>SUM(B83:E83)/SUM(B83:D83)</f>
         <v>1.5614035087719298</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
         <v>1756</v>
       </c>
-      <c r="B68" s="1">
-        <f>(B54+C54+D54)*$G$65</f>
+      <c r="B86" s="1">
+        <f>(B72+C72+D72)*$G$83</f>
         <v>3380.4385964912281</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
         <v>1757</v>
       </c>
-      <c r="B69" s="1">
-        <f t="shared" ref="B69:B74" si="8">(B55+C55+D55)*$G$65</f>
+      <c r="B87" s="1">
+        <f t="shared" ref="B87:B92" si="9">(B73+C73+D73)*$G$83</f>
         <v>10628.473684210527</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
         <v>1758</v>
       </c>
-      <c r="B70" s="1">
-        <f t="shared" si="8"/>
+      <c r="B88" s="1">
+        <f t="shared" si="9"/>
         <v>5697.5614035087719</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
         <v>1759</v>
       </c>
-      <c r="B71" s="1">
-        <f t="shared" si="8"/>
+      <c r="B89" s="1">
+        <f t="shared" si="9"/>
         <v>2858.9298245614036</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
         <v>1760</v>
       </c>
-      <c r="B72" s="1">
-        <f t="shared" si="8"/>
+      <c r="B90" s="1">
+        <f t="shared" si="9"/>
         <v>3438.2105263157896</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
         <v>1761</v>
       </c>
-      <c r="B73" s="1">
-        <f t="shared" si="8"/>
+      <c r="B91" s="1">
+        <f t="shared" si="9"/>
         <v>3091.5789473684208</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
         <v>1762</v>
       </c>
-      <c r="B74" s="1">
-        <f t="shared" si="8"/>
+      <c r="B92" s="1">
+        <f t="shared" si="9"/>
         <v>3479.5877192982457</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B75" s="1">
-        <f>SUM(B68:B74)</f>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B93" s="1">
+        <f>SUM(B86:B92)</f>
         <v>32574.780701754386</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B96" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B78" s="1" t="s">
+      <c r="E96" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F96" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="G96" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L96" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K78" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L78" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
         <v>1756</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B97" s="1">
         <v>1182.06</v>
       </c>
-      <c r="C79" s="1">
-        <f>(K79*F$86+L79*G$86)*$C$91</f>
+      <c r="C97" s="1">
+        <f>(K97*F$104+L97*G$104)*$C$109</f>
         <v>1530.65412679474</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D97" s="1">
         <v>2217.3119999999999</v>
       </c>
-      <c r="E79" s="1">
-        <f>SUM(B79:D79)</f>
+      <c r="E97" s="1">
+        <f>SUM(B97:D97)</f>
         <v>4930.0261267947399</v>
       </c>
-      <c r="F79" s="1">
+      <c r="F97" s="1">
         <f>1841.163/44</f>
         <v>41.84461363636364</v>
       </c>
-      <c r="G79" s="1">
+      <c r="G97" s="1">
         <f>46.9/9</f>
         <v>5.2111111111111112</v>
       </c>
-      <c r="K79" s="1">
+      <c r="K97" s="1">
         <v>47</v>
       </c>
-      <c r="L79" s="1">
+      <c r="L97" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A80" s="1">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
         <v>1757</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B98" s="1">
         <v>1568.0419999999999</v>
       </c>
-      <c r="C80" s="1">
-        <f t="shared" ref="C80:C85" si="9">(K80*F$86+L80*G$86)*$C$91</f>
+      <c r="C98" s="1">
+        <f t="shared" ref="C98:C103" si="10">(K98*F$104+L98*G$104)*$C$109</f>
         <v>2490.7132768923552</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D98" s="1">
         <v>2662.0610000000001</v>
       </c>
-      <c r="E80" s="1">
-        <f t="shared" ref="E80:E86" si="10">SUM(B80:D80)</f>
+      <c r="E98" s="1">
+        <f t="shared" ref="E98:E104" si="11">SUM(B98:D98)</f>
         <v>6720.8162768923557</v>
       </c>
-      <c r="F80" s="1">
+      <c r="F98" s="1">
         <f>1388.369/50</f>
         <v>27.767379999999999</v>
       </c>
-      <c r="G80" s="1">
+      <c r="G98" s="1">
         <f>179.673/31</f>
         <v>5.7959032258064518</v>
       </c>
-      <c r="K80" s="1">
+      <c r="K98" s="1">
         <v>76</v>
       </c>
-      <c r="L80" s="1">
+      <c r="L98" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A81" s="1">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
         <v>1758</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B99" s="1">
         <v>2450.9899999999998</v>
       </c>
-      <c r="C81" s="1">
-        <f t="shared" si="9"/>
+      <c r="C99" s="1">
+        <f t="shared" si="10"/>
         <v>428.5767469683355</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D99" s="1">
         <v>865.28800000000001</v>
       </c>
-      <c r="E81" s="1">
-        <f t="shared" si="10"/>
+      <c r="E99" s="1">
+        <f t="shared" si="11"/>
         <v>3744.8547469683353</v>
       </c>
-      <c r="F81" s="1">
+      <c r="F99" s="1">
         <f>1906.108/74</f>
         <v>25.758216216216216</v>
       </c>
-      <c r="G81" s="1">
+      <c r="G99" s="1">
         <f>544.889/81</f>
         <v>6.7270246913580252</v>
       </c>
-      <c r="K81" s="1">
+      <c r="K99" s="1">
         <v>13</v>
       </c>
-      <c r="L81" s="1">
+      <c r="L99" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
         <v>1759</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B100" s="1">
         <v>2626.9</v>
       </c>
-      <c r="C82" s="1">
-        <f t="shared" si="9"/>
+      <c r="C100" s="1">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="D82" s="1">
+      <c r="D100" s="1">
         <v>1733.711</v>
       </c>
-      <c r="E82" s="1">
-        <f t="shared" si="10"/>
+      <c r="E100" s="1">
+        <f t="shared" si="11"/>
         <v>4360.6109999999999</v>
       </c>
-      <c r="F82" s="1">
+      <c r="F100" s="1">
         <f>1807.506/47</f>
         <v>38.457574468085106</v>
       </c>
-      <c r="G82" s="1">
+      <c r="G100" s="1">
         <f>819.399/102</f>
         <v>8.0333235294117653</v>
       </c>
-      <c r="K82" s="1">
+      <c r="K100" s="1">
         <v>0</v>
       </c>
-      <c r="L82" s="1">
+      <c r="L100" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A83" s="1">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
         <v>1760</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B101" s="1">
         <v>4335.57</v>
       </c>
-      <c r="C83" s="1">
-        <f t="shared" si="9"/>
+      <c r="C101" s="1">
+        <f t="shared" si="10"/>
         <v>1852.3018108969927</v>
       </c>
-      <c r="D83" s="1">
+      <c r="D101" s="1">
         <v>2619.2510000000002</v>
       </c>
-      <c r="E83" s="1">
-        <f t="shared" si="10"/>
+      <c r="E101" s="1">
+        <f t="shared" si="11"/>
         <v>8807.1228108969917</v>
       </c>
-      <c r="F83" s="1">
+      <c r="F101" s="1">
         <f>3840.059/33</f>
         <v>116.36542424242425</v>
       </c>
-      <c r="G83" s="1">
+      <c r="G101" s="1">
         <f>495.514/50</f>
         <v>9.9102800000000002</v>
       </c>
-      <c r="K83" s="1">
+      <c r="K101" s="1">
         <v>54</v>
       </c>
-      <c r="L83" s="1">
+      <c r="L101" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A84" s="1">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
         <v>1761</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B102" s="1">
         <v>584.55600000000004</v>
       </c>
-      <c r="C84" s="1">
-        <f t="shared" si="9"/>
+      <c r="C102" s="1">
+        <f t="shared" si="10"/>
         <v>641.95423263612508</v>
       </c>
-      <c r="D84" s="1">
+      <c r="D102" s="1">
         <v>3057.33</v>
       </c>
-      <c r="E84" s="1">
-        <f t="shared" si="10"/>
+      <c r="E102" s="1">
+        <f t="shared" si="11"/>
         <v>4283.8402326361247</v>
       </c>
-      <c r="F84" s="1">
+      <c r="F102" s="1">
         <f>542.314/21</f>
         <v>25.82447619047619</v>
       </c>
-      <c r="G84" s="1">
+      <c r="G102" s="1">
         <f>42.242/9</f>
         <v>4.6935555555555553</v>
       </c>
-      <c r="K84" s="1">
+      <c r="K102" s="1">
         <v>13</v>
       </c>
-      <c r="L84" s="1">
+      <c r="L102" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
         <v>1762</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B103" s="1">
         <v>352.976</v>
       </c>
-      <c r="C85" s="1">
-        <f t="shared" si="9"/>
+      <c r="C103" s="1">
+        <f t="shared" si="10"/>
         <v>493.71096512981376</v>
       </c>
-      <c r="D85" s="1">
+      <c r="D103" s="1">
         <v>1925.9179999999999</v>
       </c>
-      <c r="E85" s="1">
-        <f t="shared" si="10"/>
+      <c r="E103" s="1">
+        <f t="shared" si="11"/>
         <v>2772.6049651298135</v>
       </c>
-      <c r="F85" s="1">
+      <c r="F103" s="1">
         <f>139.71/5</f>
         <v>27.942</v>
       </c>
-      <c r="G85" s="1">
+      <c r="G103" s="1">
         <f>213.266/26</f>
         <v>8.2025384615384613</v>
       </c>
-      <c r="K85" s="1">
+      <c r="K103" s="1">
         <v>15</v>
       </c>
-      <c r="L85" s="1">
+      <c r="L103" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B86" s="1">
-        <f>SUM(B79:B85)</f>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B104" s="1">
+        <f>SUM(B97:B103)</f>
         <v>13101.094000000001</v>
       </c>
-      <c r="C86" s="1">
-        <f t="shared" ref="C86:D86" si="11">SUM(C79:C85)</f>
+      <c r="C104" s="1">
+        <f t="shared" ref="C104:D104" si="12">SUM(C97:C103)</f>
         <v>7437.9111593183625</v>
       </c>
-      <c r="D86" s="1">
+      <c r="D104" s="1">
+        <f t="shared" si="12"/>
+        <v>15080.870999999999</v>
+      </c>
+      <c r="E104" s="1">
         <f t="shared" si="11"/>
-        <v>15080.870999999999</v>
-      </c>
-      <c r="E86" s="1">
-        <f t="shared" si="10"/>
         <v>35619.876159318359</v>
       </c>
-      <c r="F86" s="1">
-        <f>AVERAGE(F79:F85)</f>
+      <c r="F104" s="1">
+        <f>AVERAGE(F97:F103)</f>
         <v>43.422812107652199</v>
       </c>
-      <c r="G86" s="1">
-        <f>AVERAGE(G79:G85)</f>
+      <c r="G104" s="1">
+        <f>AVERAGE(G97:G103)</f>
         <v>6.9391052249687677</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B87" s="2">
-        <f>B86/B61</f>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B105" s="2">
+        <f>B104/B79</f>
         <v>1.5826400096641702</v>
       </c>
-      <c r="C87" s="2">
-        <f t="shared" ref="C87:D87" si="12">C86/C61</f>
+      <c r="C105" s="2">
+        <f t="shared" ref="C105:D105" si="13">C104/C79</f>
         <v>1.2031561241213786</v>
       </c>
-      <c r="D87" s="2">
-        <f t="shared" si="12"/>
+      <c r="D105" s="2">
+        <f t="shared" si="13"/>
         <v>2.3554659898477155</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C88" s="1" t="s">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C106" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C107" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C108" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C89" s="1" t="s">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C109" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C90" s="1" t="s">
+      <c r="D111" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>1756</v>
+      </c>
+      <c r="B112" s="1">
+        <f t="shared" ref="B112:B118" si="14">B86*E97/E72</f>
+        <v>7697.7600927145941</v>
+      </c>
+      <c r="C112" s="2">
+        <f t="shared" ref="C112:C119" si="15">B112/B86</f>
+        <v>2.2771483264640833</v>
+      </c>
+      <c r="D112" s="1">
+        <f>$A$122*B112/$B$119</f>
+        <v>1245.659444257926</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>1757</v>
+      </c>
+      <c r="B113" s="1">
+        <f t="shared" si="14"/>
+        <v>10493.906116551223</v>
+      </c>
+      <c r="C113" s="2">
+        <f>B113/B87</f>
+        <v>0.98733895649953818</v>
+      </c>
+      <c r="D113" s="1">
+        <f t="shared" ref="D113:D118" si="16">$A$122*B113/$B$119</f>
+        <v>1698.1346656424962</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>1758</v>
+      </c>
+      <c r="B114" s="1">
+        <f t="shared" si="14"/>
+        <v>5847.2293417575765</v>
+      </c>
+      <c r="C114" s="2">
+        <f t="shared" si="15"/>
+        <v>1.0262687714355536</v>
+      </c>
+      <c r="D114" s="1">
+        <f t="shared" si="16"/>
+        <v>946.20465753354233</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>1759</v>
+      </c>
+      <c r="B115" s="1">
+        <f t="shared" si="14"/>
+        <v>6808.6733157894741</v>
+      </c>
+      <c r="C115" s="2">
+        <f t="shared" si="15"/>
+        <v>2.3815461496450028</v>
+      </c>
+      <c r="D115" s="1">
+        <f t="shared" si="16"/>
+        <v>1101.7865088712038</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>1760</v>
+      </c>
+      <c r="B116" s="1">
+        <f t="shared" si="14"/>
+        <v>13751.472459119865</v>
+      </c>
+      <c r="C116" s="2">
+        <f t="shared" si="15"/>
+        <v>3.9996016398260634</v>
+      </c>
+      <c r="D116" s="1">
+        <f t="shared" si="16"/>
+        <v>2225.2773969102354</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>1761</v>
+      </c>
+      <c r="B117" s="1">
+        <f t="shared" si="14"/>
+        <v>6688.8031702564049</v>
+      </c>
+      <c r="C117" s="2">
+        <f t="shared" si="15"/>
+        <v>2.1635556730485477</v>
+      </c>
+      <c r="D117" s="1">
+        <f t="shared" si="16"/>
+        <v>1082.3889988073142</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>1762</v>
+      </c>
+      <c r="B118" s="1">
+        <f t="shared" si="14"/>
+        <v>4329.1551209921654</v>
+      </c>
+      <c r="C118" s="2">
+        <f t="shared" si="15"/>
+        <v>1.2441574894008587</v>
+      </c>
+      <c r="D118" s="1">
+        <f t="shared" si="16"/>
+        <v>700.54832797728193</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B119" s="1">
+        <f>SUM(B112:B118)</f>
+        <v>55616.999617181304</v>
+      </c>
+      <c r="C119" s="2">
+        <f t="shared" si="15"/>
+        <v>1.7073637464023181</v>
+      </c>
+      <c r="D119" s="1">
+        <f>SUM(D112:D118)</f>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C120" s="2"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C121" s="2"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>9000</v>
+      </c>
+      <c r="C122" s="2"/>
+    </row>
+    <row r="124" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C91" s="2">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C93" s="1" t="s">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
-        <v>1756</v>
-      </c>
-      <c r="B94" s="1">
-        <f t="shared" ref="B94:B100" si="13">B68*E79/E54</f>
-        <v>7697.7600927145941</v>
-      </c>
-      <c r="C94" s="2">
-        <f t="shared" ref="C94:C101" si="14">B94/B68</f>
-        <v>2.2771483264640833</v>
-      </c>
-      <c r="D94" s="1">
-        <f>$A$104*B94/$B$101</f>
-        <v>1245.659444257926</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A95" s="1">
-        <v>1757</v>
-      </c>
-      <c r="B95" s="1">
-        <f t="shared" si="13"/>
-        <v>10493.906116551223</v>
-      </c>
-      <c r="C95" s="2">
-        <f>B95/B69</f>
-        <v>0.98733895649953818</v>
-      </c>
-      <c r="D95" s="1">
-        <f t="shared" ref="D95:D100" si="15">$A$104*B95/$B$101</f>
-        <v>1698.1346656424962</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A96" s="1">
-        <v>1758</v>
-      </c>
-      <c r="B96" s="1">
-        <f t="shared" si="13"/>
-        <v>5847.2293417575765</v>
-      </c>
-      <c r="C96" s="2">
-        <f t="shared" si="14"/>
-        <v>1.0262687714355536</v>
-      </c>
-      <c r="D96" s="1">
-        <f t="shared" si="15"/>
-        <v>946.20465753354233</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="1">
-        <v>1759</v>
-      </c>
-      <c r="B97" s="1">
-        <f t="shared" si="13"/>
-        <v>6808.6733157894741</v>
-      </c>
-      <c r="C97" s="2">
-        <f t="shared" si="14"/>
-        <v>2.3815461496450028</v>
-      </c>
-      <c r="D97" s="1">
-        <f t="shared" si="15"/>
-        <v>1101.7865088712038</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
-        <v>1760</v>
-      </c>
-      <c r="B98" s="1">
-        <f t="shared" si="13"/>
-        <v>13751.472459119865</v>
-      </c>
-      <c r="C98" s="2">
-        <f t="shared" si="14"/>
-        <v>3.9996016398260634</v>
-      </c>
-      <c r="D98" s="1">
-        <f t="shared" si="15"/>
-        <v>2225.2773969102354</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="1">
-        <v>1761</v>
-      </c>
-      <c r="B99" s="1">
-        <f t="shared" si="13"/>
-        <v>6688.8031702564049</v>
-      </c>
-      <c r="C99" s="2">
-        <f t="shared" si="14"/>
-        <v>2.1635556730485477</v>
-      </c>
-      <c r="D99" s="1">
-        <f t="shared" si="15"/>
-        <v>1082.3889988073142</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="1">
-        <v>1762</v>
-      </c>
-      <c r="B100" s="1">
-        <f t="shared" si="13"/>
-        <v>4329.1551209921654</v>
-      </c>
-      <c r="C100" s="2">
-        <f t="shared" si="14"/>
-        <v>1.2441574894008587</v>
-      </c>
-      <c r="D100" s="1">
-        <f t="shared" si="15"/>
-        <v>700.54832797728193</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B101" s="1">
-        <f>SUM(B94:B100)</f>
-        <v>55616.999617181304</v>
-      </c>
-      <c r="C101" s="2">
-        <f t="shared" si="14"/>
-        <v>1.7073637464023181</v>
-      </c>
-      <c r="D101" s="1">
-        <f>SUM(D94:D100)</f>
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C102" s="2"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C103" s="2"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="1">
-        <v>9000</v>
-      </c>
-      <c r="C104" s="2"/>
-    </row>
-    <row r="106" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="1">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B131" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="1">
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
+      <c r="D131" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B132" s="1">
+        <v>19000</v>
+      </c>
+      <c r="C132" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D132" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B113" s="1" t="s">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B134" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D113" s="1" t="s">
+      <c r="C134" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D134" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B114" s="1">
-        <v>19000</v>
-      </c>
-      <c r="C114" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D114" s="1">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B116" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B117" s="1">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B135" s="1">
         <f>18000+7576</f>
         <v>25576</v>
       </c>
-      <c r="C117" s="1">
+      <c r="C135" s="1">
         <v>2032.0550000000001</v>
       </c>
-      <c r="D117" s="1">
+      <c r="D135" s="1">
         <v>5362.8789999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B137" s="1">
+        <f>A126*(B132+C132+D132)/(B135+C135+D135)</f>
+        <v>27903.36482430252</v>
+      </c>
+      <c r="C137" s="2">
+        <f>A126/B137</f>
+        <v>1.4335188695652175</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>1778</v>
+      </c>
+      <c r="B140" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>1779</v>
+      </c>
+      <c r="B141" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>1780</v>
+      </c>
+      <c r="B142" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>1781</v>
+      </c>
+      <c r="B143" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>1782</v>
+      </c>
+      <c r="B144" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>1783</v>
+      </c>
+      <c r="B145" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B146" s="1">
+        <f>SUM(B140:B145)</f>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B119" s="1">
-        <f>A108*(B114+C114+D114)/(B117+C117+D117)</f>
-        <v>27903.36482430252</v>
-      </c>
-      <c r="C119" s="2">
-        <f>A108/B119</f>
-        <v>1.4335188695652175</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="1">
-        <v>1778</v>
-      </c>
-      <c r="B122" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="1">
-        <v>1779</v>
-      </c>
-      <c r="B123" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="1">
-        <v>1780</v>
-      </c>
-      <c r="B124" s="1">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="1">
-        <v>1781</v>
-      </c>
-      <c r="B125" s="1">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="1">
-        <v>1782</v>
-      </c>
-      <c r="B126" s="1">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="1">
-        <v>1783</v>
-      </c>
-      <c r="B127" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B128" s="1">
-        <f>SUM(B122:B127)</f>
-        <v>198</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" s="1">
-        <v>1778</v>
-      </c>
-      <c r="B130" s="1">
-        <f>B122/$B$128*$A$108</f>
-        <v>4040.4040404040402</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" s="1">
-        <v>1779</v>
-      </c>
-      <c r="B131" s="1">
-        <f t="shared" ref="B131:B135" si="16">B123/$B$128*$A$108</f>
-        <v>5858.5858585858587</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" s="1">
-        <v>1780</v>
-      </c>
-      <c r="B132" s="1">
-        <f t="shared" si="16"/>
-        <v>9292.9292929292933</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" s="1">
-        <v>1781</v>
-      </c>
-      <c r="B133" s="1">
-        <f t="shared" si="16"/>
-        <v>9494.9494949494947</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" s="1">
-        <v>1782</v>
-      </c>
-      <c r="B134" s="1">
-        <f t="shared" si="16"/>
-        <v>10707.070707070707</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" s="1">
-        <v>1783</v>
-      </c>
-      <c r="B135" s="1">
-        <f t="shared" si="16"/>
-        <v>606.06060606060612</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B136" s="1">
-        <f>SUM(B130:B135)</f>
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" s="1">
-        <v>1778</v>
-      </c>
-      <c r="B138" s="1">
-        <f>B122/$B$128*$B$119</f>
-        <v>2818.521699424497</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" s="1">
-        <v>1779</v>
-      </c>
-      <c r="B139" s="1">
-        <f t="shared" ref="B139:B143" si="17">B123/$B$128*$B$119</f>
-        <v>4086.8564641655207</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" s="1">
-        <v>1780</v>
-      </c>
-      <c r="B140" s="1">
-        <f t="shared" si="17"/>
-        <v>6482.5999086763431</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" s="1">
-        <v>1781</v>
-      </c>
-      <c r="B141" s="1">
-        <f t="shared" si="17"/>
-        <v>6623.5259936475677</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" s="1">
-        <v>1782</v>
-      </c>
-      <c r="B142" s="1">
-        <f t="shared" si="17"/>
-        <v>7469.0825034749168</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" s="1">
-        <v>1783</v>
-      </c>
-      <c r="B143" s="1">
-        <f t="shared" si="17"/>
-        <v>422.77825491367457</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" s="1">
-        <v>1778</v>
-      </c>
-      <c r="B147" s="1">
-        <f>215</f>
-        <v>215</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="B148" s="1">
-        <v>94</v>
+        <f>B140/$B$146*$A$126</f>
+        <v>4040.4040404040402</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="B149" s="1">
-        <v>114</v>
+        <f t="shared" ref="B149:B153" si="17">B141/$B$146*$A$126</f>
+        <v>5858.5858585858587</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="B150" s="1">
-        <v>195</v>
+        <f t="shared" si="17"/>
+        <v>9292.9292929292933</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="B151" s="1">
-        <v>69</v>
+        <f t="shared" si="17"/>
+        <v>9494.9494949494947</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
+        <v>1782</v>
+      </c>
+      <c r="B152" s="1">
+        <f t="shared" si="17"/>
+        <v>10707.070707070707</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
         <v>1783</v>
       </c>
-      <c r="B152" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B153" s="1">
-        <f>SUM(B147:B152)</f>
-        <v>691</v>
+        <f t="shared" si="17"/>
+        <v>606.06060606060612</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B154" s="1">
+        <f>SUM(B148:B153)</f>
+        <v>40000</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
@@ -2107,8 +2145,8 @@
         <v>1778</v>
       </c>
       <c r="B156" s="1">
-        <f>$A$110/$B$153*B147</f>
-        <v>10890.014471780029</v>
+        <f>B140/$B$146*$B$137</f>
+        <v>2818.521699424497</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
@@ -2116,8 +2154,8 @@
         <v>1779</v>
       </c>
       <c r="B157" s="1">
-        <f t="shared" ref="B157:B161" si="18">$A$110/$B$153*B148</f>
-        <v>4761.2156295224313</v>
+        <f t="shared" ref="B157:B161" si="18">B141/$B$146*$B$137</f>
+        <v>4086.8564641655207</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
@@ -2126,7 +2164,7 @@
       </c>
       <c r="B158" s="1">
         <f t="shared" si="18"/>
-        <v>5774.2402315484806</v>
+        <v>6482.5999086763431</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
@@ -2135,7 +2173,7 @@
       </c>
       <c r="B159" s="1">
         <f t="shared" si="18"/>
-        <v>9876.9898697539793</v>
+        <v>6623.5259936475677</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
@@ -2144,668 +2182,787 @@
       </c>
       <c r="B160" s="1">
         <f t="shared" si="18"/>
-        <v>3494.9348769898697</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7469.0825034749168</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>1783</v>
       </c>
       <c r="B161" s="1">
         <f t="shared" si="18"/>
+        <v>422.77825491367457</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
+        <v>1778</v>
+      </c>
+      <c r="B165" s="1">
+        <f>215</f>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
+        <v>1779</v>
+      </c>
+      <c r="B166" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
+        <v>1780</v>
+      </c>
+      <c r="B167" s="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
+        <v>1781</v>
+      </c>
+      <c r="B168" s="1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
+        <v>1782</v>
+      </c>
+      <c r="B169" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
+        <v>1783</v>
+      </c>
+      <c r="B170" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B171" s="1">
+        <f>SUM(B165:B170)</f>
+        <v>691</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
+        <v>1778</v>
+      </c>
+      <c r="B174" s="1">
+        <f>$A$128/$B$171*B165</f>
+        <v>10890.014471780029</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
+        <v>1779</v>
+      </c>
+      <c r="B175" s="1">
+        <f t="shared" ref="B175:B179" si="19">$A$128/$B$171*B166</f>
+        <v>4761.2156295224313</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" s="1">
+        <v>1780</v>
+      </c>
+      <c r="B176" s="1">
+        <f t="shared" si="19"/>
+        <v>5774.2402315484806</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" s="1">
+        <v>1781</v>
+      </c>
+      <c r="B177" s="1">
+        <f t="shared" si="19"/>
+        <v>9876.9898697539793</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" s="1">
+        <v>1782</v>
+      </c>
+      <c r="B178" s="1">
+        <f t="shared" si="19"/>
+        <v>3494.9348769898697</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" s="1">
+        <v>1783</v>
+      </c>
+      <c r="B179" s="1">
+        <f t="shared" si="19"/>
         <v>202.60492040520984</v>
       </c>
-      <c r="D161" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B162" s="1">
-        <f>SUM(B156:B161)</f>
+      <c r="D179" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B180" s="1">
+        <f>SUM(B174:B179)</f>
         <v>35000</v>
       </c>
-      <c r="D162" s="2">
-        <f>B136/(B136+B162)</f>
+      <c r="D180" s="2">
+        <f>B154/(B154+B180)</f>
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="166" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A167" s="1" t="s">
+    <row r="184" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
+        <v>1793</v>
+      </c>
+      <c r="B187" s="1">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" s="1">
+        <v>1794</v>
+      </c>
+      <c r="B188" s="1">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
+        <v>1795</v>
+      </c>
+      <c r="B189" s="1">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
+        <v>1796</v>
+      </c>
+      <c r="B190" s="1">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
+        <v>1797</v>
+      </c>
+      <c r="B191" s="1">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" s="1">
+        <v>1798</v>
+      </c>
+      <c r="B192" s="1">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" s="1">
+        <v>1799</v>
+      </c>
+      <c r="B193" s="1">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" s="1">
+        <v>1800</v>
+      </c>
+      <c r="B194" s="1">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" s="1">
+        <v>1801</v>
+      </c>
+      <c r="B195" s="1">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" s="1">
+        <v>1802</v>
+      </c>
+      <c r="B196" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" s="1">
+        <v>1803</v>
+      </c>
+      <c r="B197" s="1">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" s="1">
+        <v>1804</v>
+      </c>
+      <c r="B198" s="1">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" s="1">
+        <v>1805</v>
+      </c>
+      <c r="B199" s="1">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" s="1">
+        <v>1806</v>
+      </c>
+      <c r="B200" s="1">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" s="1">
+        <v>1807</v>
+      </c>
+      <c r="B201" s="1">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" s="1">
+        <v>1808</v>
+      </c>
+      <c r="B202" s="1">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" s="1">
+        <v>1809</v>
+      </c>
+      <c r="B203" s="1">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" s="1">
+        <v>1810</v>
+      </c>
+      <c r="B204" s="1">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" s="1">
+        <v>1811</v>
+      </c>
+      <c r="B205" s="1">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" s="1">
+        <v>1812</v>
+      </c>
+      <c r="B206" s="1">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" s="1">
+        <v>1813</v>
+      </c>
+      <c r="B207" s="1">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" s="1">
+        <v>1814</v>
+      </c>
+      <c r="B208" s="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A168" s="1" t="s">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B212" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A169" s="1">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213" s="1">
         <v>1793</v>
       </c>
-      <c r="B169" s="1">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A170" s="1">
+      <c r="B213" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214" s="1">
         <v>1794</v>
       </c>
-      <c r="B170" s="1">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A171" s="1">
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215" s="1">
         <v>1795</v>
       </c>
-      <c r="B171" s="1">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A172" s="1">
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216" s="1">
         <v>1796</v>
       </c>
-      <c r="B172" s="1">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A173" s="1">
+      <c r="B216" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217" s="1">
         <v>1797</v>
       </c>
-      <c r="B173" s="1">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A174" s="1">
+      <c r="B217" s="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218" s="1">
         <v>1798</v>
       </c>
-      <c r="B174" s="1">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A175" s="1">
+      <c r="B218" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219" s="1">
         <v>1799</v>
       </c>
-      <c r="B175" s="1">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A176" s="1">
+      <c r="B219" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220" s="1">
         <v>1800</v>
       </c>
-      <c r="B176" s="1">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177" s="1">
+      <c r="B220" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221" s="1">
         <v>1801</v>
       </c>
-      <c r="B177" s="1">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A178" s="1">
-        <v>1802</v>
-      </c>
-      <c r="B178" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A179" s="1">
-        <v>1803</v>
-      </c>
-      <c r="B179" s="1">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180" s="1">
-        <v>1804</v>
-      </c>
-      <c r="B180" s="1">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181" s="1">
-        <v>1805</v>
-      </c>
-      <c r="B181" s="1">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A182" s="1">
-        <v>1806</v>
-      </c>
-      <c r="B182" s="1">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A183" s="1">
-        <v>1807</v>
-      </c>
-      <c r="B183" s="1">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A184" s="1">
-        <v>1808</v>
-      </c>
-      <c r="B184" s="1">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A185" s="1">
-        <v>1809</v>
-      </c>
-      <c r="B185" s="1">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A186" s="1">
-        <v>1810</v>
-      </c>
-      <c r="B186" s="1">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A187" s="1">
-        <v>1811</v>
-      </c>
-      <c r="B187" s="1">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A188" s="1">
-        <v>1812</v>
-      </c>
-      <c r="B188" s="1">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A189" s="1">
-        <v>1813</v>
-      </c>
-      <c r="B189" s="1">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A190" s="1">
-        <v>1814</v>
-      </c>
-      <c r="B190" s="1">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" s="1" t="s">
+      <c r="B221" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B194" s="1" t="s">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195" s="1">
-        <v>1793</v>
-      </c>
-      <c r="B195" s="1">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196" s="1">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A197" s="1">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198" s="1">
-        <v>1796</v>
-      </c>
-      <c r="B198" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A199" s="1">
-        <v>1797</v>
-      </c>
-      <c r="B199" s="1">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200" s="1">
-        <v>1798</v>
-      </c>
-      <c r="B200" s="1">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201" s="1">
-        <v>1799</v>
-      </c>
-      <c r="B201" s="1">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A202" s="1">
-        <v>1800</v>
-      </c>
-      <c r="B202" s="1">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203" s="1">
-        <v>1801</v>
-      </c>
-      <c r="B203" s="1">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A205" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D206" s="1">
+      <c r="D224" s="1">
         <f>19000/198</f>
         <v>95.959595959595958</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B209" s="1" t="s">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B227" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H227" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C209" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H209" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I209" s="1">
-        <f>SUM(C210:C218)/(SUM(B169:B177)-B170-B171)</f>
+      <c r="I227" s="1">
+        <f>SUM(C228:C236)/(SUM(B187:B195)-B188-B189)</f>
         <v>24.225126676157274</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A210" s="1">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A228" s="1">
         <v>1793</v>
       </c>
-      <c r="B210" s="1">
-        <f>B195*$D$206</f>
+      <c r="B228" s="1">
+        <f>B213*$D$224</f>
         <v>12666.666666666666</v>
       </c>
-      <c r="C210" s="1">
-        <f>B210*$C$119</f>
+      <c r="C228" s="1">
+        <f>B228*$C$137</f>
         <v>18157.90568115942</v>
       </c>
-      <c r="D210" s="1">
-        <f>B169*$I$209</f>
+      <c r="D228" s="1">
+        <f>B187*$I$227</f>
         <v>8527.2445900073599</v>
       </c>
-      <c r="E210" s="1">
-        <f>D210/$C$119*$D$162</f>
+      <c r="E228" s="1">
+        <f>D228/$C$137*$D$180</f>
         <v>3172.5175565471377</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A211" s="1">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A229" s="1">
         <v>1794</v>
       </c>
-      <c r="D211" s="1">
-        <f t="shared" ref="D211:D238" si="19">B170*$I$209</f>
+      <c r="D229" s="1">
+        <f t="shared" ref="D229:D249" si="20">B188*$I$227</f>
         <v>15600.981579445284</v>
       </c>
-      <c r="E211" s="1">
-        <f t="shared" ref="E211:E231" si="20">D211/$C$119*$D$162</f>
+      <c r="E229" s="1">
+        <f t="shared" ref="E229:E249" si="21">D229/$C$137*$D$180</f>
         <v>5804.2650750464682</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A212" s="1">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A230" s="1">
         <v>1795</v>
       </c>
-      <c r="D212" s="1">
-        <f t="shared" si="19"/>
+      <c r="D230" s="1">
+        <f t="shared" si="20"/>
         <v>15504.081072740655</v>
       </c>
-      <c r="E212" s="1">
+      <c r="E230" s="1">
+        <f t="shared" si="21"/>
+        <v>5768.2137391766146</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A231" s="1">
+        <v>1796</v>
+      </c>
+      <c r="B231" s="1">
+        <f t="shared" ref="B231:B236" si="22">B216*$D$224</f>
+        <v>4318.181818181818</v>
+      </c>
+      <c r="C231" s="1">
+        <f>B231*1.5</f>
+        <v>6477.272727272727</v>
+      </c>
+      <c r="D231" s="1">
         <f t="shared" si="20"/>
-        <v>5768.2137391766146</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A213" s="1">
-        <v>1796</v>
-      </c>
-      <c r="B213" s="1">
-        <f t="shared" ref="B211:B218" si="21">B198*$D$206</f>
-        <v>4318.181818181818</v>
-      </c>
-      <c r="C213" s="1">
-        <f>B213*1.5</f>
-        <v>6477.272727272727</v>
-      </c>
-      <c r="D213" s="1">
-        <f t="shared" si="19"/>
         <v>11846.086944640907</v>
       </c>
-      <c r="E213" s="1">
+      <c r="E231" s="1">
+        <f t="shared" si="21"/>
+        <v>4407.2758100896317</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A232" s="1">
+        <v>1797</v>
+      </c>
+      <c r="B232" s="1">
+        <f t="shared" si="22"/>
+        <v>13914.141414141413</v>
+      </c>
+      <c r="C232" s="1">
+        <f t="shared" ref="C232:C236" si="23">B232*1.5</f>
+        <v>20871.21212121212</v>
+      </c>
+      <c r="D232" s="1">
         <f t="shared" si="20"/>
-        <v>4407.2758100896317</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A214" s="1">
-        <v>1797</v>
-      </c>
-      <c r="B214" s="1">
+        <v>22989.645215673252</v>
+      </c>
+      <c r="E232" s="1">
         <f t="shared" si="21"/>
-        <v>13914.141414141413</v>
-      </c>
-      <c r="C214" s="1">
-        <f t="shared" ref="C214:C218" si="22">B214*1.5</f>
-        <v>20871.21212121212</v>
-      </c>
-      <c r="D214" s="1">
-        <f t="shared" si="19"/>
-        <v>22989.645215673252</v>
-      </c>
-      <c r="E214" s="1">
+        <v>8553.1794351228236</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A233" s="1">
+        <v>1798</v>
+      </c>
+      <c r="B233" s="1">
+        <f t="shared" si="22"/>
+        <v>13818.181818181818</v>
+      </c>
+      <c r="C233" s="1">
+        <f t="shared" si="23"/>
+        <v>20727.272727272728</v>
+      </c>
+      <c r="D233" s="1">
         <f t="shared" si="20"/>
-        <v>8553.1794351228236</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A215" s="1">
-        <v>1798</v>
-      </c>
-      <c r="B215" s="1">
+        <v>16666.887153196203</v>
+      </c>
+      <c r="E233" s="1">
         <f t="shared" si="21"/>
-        <v>13818.181818181818</v>
-      </c>
-      <c r="C215" s="1">
+        <v>6200.8297696148602</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A234" s="1">
+        <v>1799</v>
+      </c>
+      <c r="B234" s="1">
         <f t="shared" si="22"/>
-        <v>20727.272727272728</v>
-      </c>
-      <c r="D215" s="1">
-        <f t="shared" si="19"/>
-        <v>16666.887153196203</v>
-      </c>
-      <c r="E215" s="1">
+        <v>11227.272727272728</v>
+      </c>
+      <c r="C234" s="1">
+        <f t="shared" si="23"/>
+        <v>16840.909090909092</v>
+      </c>
+      <c r="D234" s="1">
         <f t="shared" si="20"/>
-        <v>6200.8297696148602</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A216" s="1">
-        <v>1799</v>
-      </c>
-      <c r="B216" s="1">
+        <v>17684.34247359481</v>
+      </c>
+      <c r="E234" s="1">
         <f t="shared" si="21"/>
-        <v>11227.272727272728</v>
-      </c>
-      <c r="C216" s="1">
+        <v>6579.3687962483255</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A235" s="1">
+        <v>1800</v>
+      </c>
+      <c r="B235" s="1">
         <f t="shared" si="22"/>
-        <v>16840.909090909092</v>
-      </c>
-      <c r="D216" s="1">
-        <f t="shared" si="19"/>
-        <v>17684.34247359481</v>
-      </c>
-      <c r="E216" s="1">
+        <v>8348.484848484848</v>
+      </c>
+      <c r="C235" s="1">
+        <f t="shared" si="23"/>
+        <v>12522.727272727272</v>
+      </c>
+      <c r="D235" s="1">
         <f t="shared" si="20"/>
-        <v>6579.3687962483255</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A217" s="1">
-        <v>1800</v>
-      </c>
-      <c r="B217" s="1">
+        <v>16133.934366320744</v>
+      </c>
+      <c r="E235" s="1">
         <f t="shared" si="21"/>
-        <v>8348.484848484848</v>
-      </c>
-      <c r="C217" s="1">
+        <v>6002.5474223306637</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A236" s="1">
+        <v>1801</v>
+      </c>
+      <c r="B236" s="1">
         <f t="shared" si="22"/>
-        <v>12522.727272727272</v>
-      </c>
-      <c r="D217" s="1">
-        <f t="shared" si="19"/>
-        <v>16133.934366320744</v>
-      </c>
-      <c r="E217" s="1">
+        <v>5277.7777777777774</v>
+      </c>
+      <c r="C236" s="1">
+        <f t="shared" si="23"/>
+        <v>7916.6666666666661</v>
+      </c>
+      <c r="D236" s="1">
         <f t="shared" si="20"/>
-        <v>6002.5474223306637</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A218" s="1">
-        <v>1801</v>
-      </c>
-      <c r="B218" s="1">
+        <v>9665.825543786752</v>
+      </c>
+      <c r="E236" s="1">
         <f t="shared" si="21"/>
-        <v>5277.7777777777774</v>
-      </c>
-      <c r="C218" s="1">
-        <f t="shared" si="22"/>
-        <v>7916.6666666666661</v>
-      </c>
-      <c r="D218" s="1">
-        <f t="shared" si="19"/>
-        <v>9665.825543786752</v>
-      </c>
-      <c r="E218" s="1">
-        <f t="shared" si="20"/>
         <v>3596.1207530179199</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A219" s="1">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A237" s="1">
         <v>1802</v>
       </c>
-      <c r="D219" s="1">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="E219" s="1">
+      <c r="D237" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A220" s="1">
+      <c r="E237" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A238" s="1">
         <v>1803</v>
       </c>
-      <c r="D220" s="1">
-        <f t="shared" si="19"/>
+      <c r="D238" s="1">
+        <f t="shared" si="20"/>
         <v>5377.9781221069152</v>
       </c>
-      <c r="E220" s="1">
+      <c r="E238" s="1">
+        <f t="shared" si="21"/>
+        <v>2000.8491407768881</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A239" s="1">
+        <v>1804</v>
+      </c>
+      <c r="D239" s="1">
         <f t="shared" si="20"/>
-        <v>2000.8491407768881</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A221" s="1">
-        <v>1804</v>
-      </c>
-      <c r="D221" s="1">
-        <f t="shared" si="19"/>
         <v>9375.1240236728645</v>
       </c>
-      <c r="E221" s="1">
+      <c r="E239" s="1">
+        <f t="shared" si="21"/>
+        <v>3487.9667454083587</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A240" s="1">
+        <v>1805</v>
+      </c>
+      <c r="D240" s="1">
         <f t="shared" si="20"/>
-        <v>3487.9667454083587</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A222" s="1">
-        <v>1805</v>
-      </c>
-      <c r="D222" s="1">
-        <f t="shared" si="19"/>
         <v>12282.139224811737</v>
       </c>
-      <c r="E222" s="1">
+      <c r="E240" s="1">
+        <f t="shared" si="21"/>
+        <v>4569.5068215039746</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A241" s="1">
+        <v>1806</v>
+      </c>
+      <c r="D241" s="1">
         <f t="shared" si="20"/>
-        <v>4569.5068215039746</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A223" s="1">
-        <v>1806</v>
-      </c>
-      <c r="D223" s="1">
-        <f t="shared" si="19"/>
         <v>12572.840744925625</v>
       </c>
-      <c r="E223" s="1">
+      <c r="E241" s="1">
+        <f t="shared" si="21"/>
+        <v>4677.6608291135353</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A242" s="1">
+        <v>1807</v>
+      </c>
+      <c r="D242" s="1">
         <f t="shared" si="20"/>
-        <v>4677.6608291135353</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A224" s="1">
-        <v>1807</v>
-      </c>
-      <c r="D224" s="1">
-        <f t="shared" si="19"/>
         <v>13541.845811971916</v>
       </c>
-      <c r="E224" s="1">
+      <c r="E242" s="1">
+        <f t="shared" si="21"/>
+        <v>5038.1741878120738</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A243" s="1">
+        <v>1808</v>
+      </c>
+      <c r="D243" s="1">
         <f t="shared" si="20"/>
-        <v>5038.1741878120738</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A225" s="1">
-        <v>1808</v>
-      </c>
-      <c r="D225" s="1">
-        <f t="shared" si="19"/>
         <v>11361.584411117761</v>
       </c>
-      <c r="E225" s="1">
+      <c r="E243" s="1">
+        <f t="shared" si="21"/>
+        <v>4227.0191307403629</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A244" s="1">
+        <v>1809</v>
+      </c>
+      <c r="D244" s="1">
         <f t="shared" si="20"/>
-        <v>4227.0191307403629</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A226" s="1">
-        <v>1809</v>
-      </c>
-      <c r="D226" s="1">
-        <f t="shared" si="19"/>
         <v>13832.547332085804</v>
       </c>
-      <c r="E226" s="1">
+      <c r="E244" s="1">
+        <f t="shared" si="21"/>
+        <v>5146.3281954216354</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A245" s="1">
+        <v>1810</v>
+      </c>
+      <c r="D245" s="1">
         <f t="shared" si="20"/>
-        <v>5146.3281954216354</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A227" s="1">
-        <v>1810</v>
-      </c>
-      <c r="D227" s="1">
-        <f t="shared" si="19"/>
         <v>14995.353412541352</v>
       </c>
-      <c r="E227" s="1">
+      <c r="E245" s="1">
+        <f t="shared" si="21"/>
+        <v>5578.944225859882</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A246" s="1">
+        <v>1811</v>
+      </c>
+      <c r="D246" s="1">
         <f t="shared" si="20"/>
-        <v>5578.944225859882</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A228" s="1">
-        <v>1811</v>
-      </c>
-      <c r="D228" s="1">
-        <f t="shared" si="19"/>
         <v>11385.809537793919</v>
       </c>
-      <c r="E228" s="1">
+      <c r="E246" s="1">
+        <f t="shared" si="21"/>
+        <v>4236.0319647078259</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A247" s="1">
+        <v>1812</v>
+      </c>
+      <c r="D247" s="1">
         <f t="shared" si="20"/>
-        <v>4236.0319647078259</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A229" s="1">
-        <v>1812</v>
-      </c>
-      <c r="D229" s="1">
-        <f t="shared" si="19"/>
         <v>11506.935171174706</v>
       </c>
-      <c r="E229" s="1">
+      <c r="E247" s="1">
+        <f t="shared" si="21"/>
+        <v>4281.0961345451433</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A248" s="1">
+        <v>1813</v>
+      </c>
+      <c r="D248" s="1">
         <f t="shared" si="20"/>
-        <v>4281.0961345451433</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A230" s="1">
-        <v>1813</v>
-      </c>
-      <c r="D230" s="1">
-        <f t="shared" si="19"/>
         <v>8987.5219968543479</v>
       </c>
-      <c r="E230" s="1">
+      <c r="E248" s="1">
+        <f t="shared" si="21"/>
+        <v>3343.7614019289431</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A249" s="1">
+        <v>1814</v>
+      </c>
+      <c r="D249" s="1">
         <f t="shared" si="20"/>
-        <v>3343.7614019289431</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A231" s="1">
-        <v>1814</v>
-      </c>
-      <c r="D231" s="1">
-        <f t="shared" si="19"/>
         <v>3512.6433680428045</v>
       </c>
-      <c r="E231" s="1">
-        <f t="shared" si="20"/>
+      <c r="E249" s="1">
+        <f t="shared" si="21"/>
         <v>1306.8609252822016</v>
       </c>
     </row>
@@ -2819,21 +2976,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F52ADF-FFA8-0A46-9CC0-C7AD4F73CE98}">
   <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2841,8 +2998,8 @@
         <v>1744</v>
       </c>
       <c r="B2" s="1">
-        <f>Calcul!B42</f>
-        <v>9360.5419791403019</v>
+        <f>Calcul!B52</f>
+        <v>9830.3425360126203</v>
       </c>
       <c r="C2" s="1">
         <f>Calcul!B25</f>
@@ -2854,8 +3011,8 @@
         <v>1745</v>
       </c>
       <c r="B3" s="1">
-        <f>Calcul!B43</f>
-        <v>16809.35865041571</v>
+        <f>Calcul!B53</f>
+        <v>17653.01130132312</v>
       </c>
       <c r="C3" s="1">
         <f>Calcul!B26</f>
@@ -2867,8 +3024,8 @@
         <v>1746</v>
       </c>
       <c r="B4" s="1">
-        <f>Calcul!B44</f>
-        <v>17059.364373168148</v>
+        <f>Calcul!B54</f>
+        <v>17915.564676554666</v>
       </c>
       <c r="C4" s="1">
         <f>Calcul!B27</f>
@@ -2880,8 +3037,8 @@
         <v>1747</v>
       </c>
       <c r="B5" s="1">
-        <f>Calcul!B45</f>
-        <v>12445.762981954955</v>
+        <f>Calcul!B55</f>
+        <v>13070.40911811387</v>
       </c>
       <c r="C5" s="1">
         <f>Calcul!B28</f>
@@ -2893,8 +3050,8 @@
         <v>1748</v>
       </c>
       <c r="B6" s="1">
-        <f>Calcul!B46</f>
-        <v>6473.6748871199152</v>
+        <f>Calcul!B56</f>
+        <v>6798.5851405813928</v>
       </c>
       <c r="C6" s="1">
         <f>Calcul!B29</f>
@@ -2943,11 +3100,11 @@
         <v>1756</v>
       </c>
       <c r="B14" s="1">
-        <f>Calcul!B94+Calcul!D94</f>
+        <f>Calcul!B112+Calcul!D112</f>
         <v>8943.4195369725203</v>
       </c>
       <c r="C14" s="1">
-        <f>Calcul!B68</f>
+        <f>Calcul!B86</f>
         <v>3380.4385964912281</v>
       </c>
     </row>
@@ -2956,11 +3113,11 @@
         <v>1757</v>
       </c>
       <c r="B15" s="1">
-        <f>Calcul!B95+Calcul!D95</f>
+        <f>Calcul!B113+Calcul!D113</f>
         <v>12192.040782193719</v>
       </c>
       <c r="C15" s="1">
-        <f>Calcul!B69</f>
+        <f>Calcul!B87</f>
         <v>10628.473684210527</v>
       </c>
     </row>
@@ -2969,11 +3126,11 @@
         <v>1758</v>
       </c>
       <c r="B16" s="1">
-        <f>Calcul!B96+Calcul!D96</f>
+        <f>Calcul!B114+Calcul!D114</f>
         <v>6793.4339992911191</v>
       </c>
       <c r="C16" s="1">
-        <f>Calcul!B70</f>
+        <f>Calcul!B88</f>
         <v>5697.5614035087719</v>
       </c>
     </row>
@@ -2982,11 +3139,11 @@
         <v>1759</v>
       </c>
       <c r="B17" s="1">
-        <f>Calcul!B97+Calcul!D97</f>
+        <f>Calcul!B115+Calcul!D115</f>
         <v>7910.4598246606784</v>
       </c>
       <c r="C17" s="1">
-        <f>Calcul!B71</f>
+        <f>Calcul!B89</f>
         <v>2858.9298245614036</v>
       </c>
     </row>
@@ -2995,11 +3152,11 @@
         <v>1760</v>
       </c>
       <c r="B18" s="1">
-        <f>Calcul!B98+Calcul!D98</f>
+        <f>Calcul!B116+Calcul!D116</f>
         <v>15976.749856030099</v>
       </c>
       <c r="C18" s="1">
-        <f>Calcul!B72</f>
+        <f>Calcul!B90</f>
         <v>3438.2105263157896</v>
       </c>
     </row>
@@ -3008,11 +3165,11 @@
         <v>1761</v>
       </c>
       <c r="B19" s="1">
-        <f>Calcul!B99+Calcul!D99</f>
+        <f>Calcul!B117+Calcul!D117</f>
         <v>7771.1921690637191</v>
       </c>
       <c r="C19" s="1">
-        <f>Calcul!B73</f>
+        <f>Calcul!B91</f>
         <v>3091.5789473684208</v>
       </c>
     </row>
@@ -3021,11 +3178,11 @@
         <v>1762</v>
       </c>
       <c r="B20" s="1">
-        <f>Calcul!B100+Calcul!D100</f>
+        <f>Calcul!B118+Calcul!D118</f>
         <v>5029.703448969447</v>
       </c>
       <c r="C20" s="1">
-        <f>Calcul!B74</f>
+        <f>Calcul!B92</f>
         <v>3479.5877192982457</v>
       </c>
     </row>
@@ -3111,11 +3268,11 @@
         <v>1778</v>
       </c>
       <c r="B36" s="1">
-        <f>Calcul!B130+Calcul!B156</f>
+        <f>Calcul!B148+Calcul!B174</f>
         <v>14930.418512184069</v>
       </c>
       <c r="C36" s="1">
-        <f>Calcul!B138</f>
+        <f>Calcul!B156</f>
         <v>2818.521699424497</v>
       </c>
     </row>
@@ -3124,11 +3281,11 @@
         <v>1779</v>
       </c>
       <c r="B37" s="1">
-        <f>Calcul!B131+Calcul!B157</f>
+        <f>Calcul!B149+Calcul!B175</f>
         <v>10619.801488108289</v>
       </c>
       <c r="C37" s="1">
-        <f>Calcul!B139</f>
+        <f>Calcul!B157</f>
         <v>4086.8564641655207</v>
       </c>
     </row>
@@ -3137,11 +3294,11 @@
         <v>1780</v>
       </c>
       <c r="B38" s="1">
-        <f>Calcul!B132+Calcul!B158</f>
+        <f>Calcul!B150+Calcul!B176</f>
         <v>15067.169524477773</v>
       </c>
       <c r="C38" s="1">
-        <f>Calcul!B140</f>
+        <f>Calcul!B158</f>
         <v>6482.5999086763431</v>
       </c>
     </row>
@@ -3150,11 +3307,11 @@
         <v>1781</v>
       </c>
       <c r="B39" s="1">
-        <f>Calcul!B133+Calcul!B159</f>
+        <f>Calcul!B151+Calcul!B177</f>
         <v>19371.939364703474</v>
       </c>
       <c r="C39" s="1">
-        <f>Calcul!B141</f>
+        <f>Calcul!B159</f>
         <v>6623.5259936475677</v>
       </c>
     </row>
@@ -3163,11 +3320,11 @@
         <v>1782</v>
       </c>
       <c r="B40" s="1">
-        <f>Calcul!B134+Calcul!B160</f>
+        <f>Calcul!B152+Calcul!B178</f>
         <v>14202.005584060576</v>
       </c>
       <c r="C40" s="1">
-        <f>Calcul!B142</f>
+        <f>Calcul!B160</f>
         <v>7469.0825034749168</v>
       </c>
     </row>
@@ -3176,11 +3333,11 @@
         <v>1783</v>
       </c>
       <c r="B41" s="1">
-        <f>Calcul!B135+Calcul!B161</f>
+        <f>Calcul!B153+Calcul!B179</f>
         <v>808.6655264658159</v>
       </c>
       <c r="C41" s="1">
-        <f>Calcul!B143</f>
+        <f>Calcul!B161</f>
         <v>422.77825491367457</v>
       </c>
     </row>
@@ -3235,11 +3392,11 @@
         <v>1793</v>
       </c>
       <c r="B51" s="1">
-        <f>Calcul!D210</f>
+        <f>Calcul!D228</f>
         <v>8527.2445900073599</v>
       </c>
       <c r="C51" s="1">
-        <f>Calcul!E210</f>
+        <f>Calcul!E228</f>
         <v>3172.5175565471377</v>
       </c>
     </row>
@@ -3248,11 +3405,11 @@
         <v>1794</v>
       </c>
       <c r="B52" s="1">
-        <f>Calcul!D211</f>
+        <f>Calcul!D229</f>
         <v>15600.981579445284</v>
       </c>
       <c r="C52" s="1">
-        <f>Calcul!E211</f>
+        <f>Calcul!E229</f>
         <v>5804.2650750464682</v>
       </c>
     </row>
@@ -3261,11 +3418,11 @@
         <v>1795</v>
       </c>
       <c r="B53" s="1">
-        <f>Calcul!D212</f>
+        <f>Calcul!D230</f>
         <v>15504.081072740655</v>
       </c>
       <c r="C53" s="1">
-        <f>Calcul!E212</f>
+        <f>Calcul!E230</f>
         <v>5768.2137391766146</v>
       </c>
     </row>
@@ -3274,11 +3431,11 @@
         <v>1796</v>
       </c>
       <c r="B54" s="1">
-        <f>Calcul!D213</f>
+        <f>Calcul!D231</f>
         <v>11846.086944640907</v>
       </c>
       <c r="C54" s="1">
-        <f>Calcul!E213</f>
+        <f>Calcul!E231</f>
         <v>4407.2758100896317</v>
       </c>
     </row>
@@ -3287,11 +3444,11 @@
         <v>1797</v>
       </c>
       <c r="B55" s="1">
-        <f>Calcul!D214</f>
+        <f>Calcul!D232</f>
         <v>22989.645215673252</v>
       </c>
       <c r="C55" s="1">
-        <f>Calcul!E214</f>
+        <f>Calcul!E232</f>
         <v>8553.1794351228236</v>
       </c>
     </row>
@@ -3300,11 +3457,11 @@
         <v>1798</v>
       </c>
       <c r="B56" s="1">
-        <f>Calcul!D215</f>
+        <f>Calcul!D233</f>
         <v>16666.887153196203</v>
       </c>
       <c r="C56" s="1">
-        <f>Calcul!E215</f>
+        <f>Calcul!E233</f>
         <v>6200.8297696148602</v>
       </c>
     </row>
@@ -3313,11 +3470,11 @@
         <v>1799</v>
       </c>
       <c r="B57" s="1">
-        <f>Calcul!D216</f>
+        <f>Calcul!D234</f>
         <v>17684.34247359481</v>
       </c>
       <c r="C57" s="1">
-        <f>Calcul!E216</f>
+        <f>Calcul!E234</f>
         <v>6579.3687962483255</v>
       </c>
     </row>
@@ -3326,11 +3483,11 @@
         <v>1800</v>
       </c>
       <c r="B58" s="1">
-        <f>Calcul!D217</f>
+        <f>Calcul!D235</f>
         <v>16133.934366320744</v>
       </c>
       <c r="C58" s="1">
-        <f>Calcul!E217</f>
+        <f>Calcul!E235</f>
         <v>6002.5474223306637</v>
       </c>
     </row>
@@ -3339,11 +3496,11 @@
         <v>1801</v>
       </c>
       <c r="B59" s="1">
-        <f>Calcul!D218</f>
+        <f>Calcul!D236</f>
         <v>9665.825543786752</v>
       </c>
       <c r="C59" s="1">
-        <f>Calcul!E218</f>
+        <f>Calcul!E236</f>
         <v>3596.1207530179199</v>
       </c>
     </row>
@@ -3359,11 +3516,11 @@
         <v>1803</v>
       </c>
       <c r="B61" s="1">
-        <f>Calcul!D220</f>
+        <f>Calcul!D238</f>
         <v>5377.9781221069152</v>
       </c>
       <c r="C61" s="1">
-        <f>Calcul!E220</f>
+        <f>Calcul!E238</f>
         <v>2000.8491407768881</v>
       </c>
     </row>
@@ -3372,11 +3529,11 @@
         <v>1804</v>
       </c>
       <c r="B62" s="1">
-        <f>Calcul!D221</f>
+        <f>Calcul!D239</f>
         <v>9375.1240236728645</v>
       </c>
       <c r="C62" s="1">
-        <f>Calcul!E221</f>
+        <f>Calcul!E239</f>
         <v>3487.9667454083587</v>
       </c>
     </row>
@@ -3385,11 +3542,11 @@
         <v>1805</v>
       </c>
       <c r="B63" s="1">
-        <f>Calcul!D222</f>
+        <f>Calcul!D240</f>
         <v>12282.139224811737</v>
       </c>
       <c r="C63" s="1">
-        <f>Calcul!E222</f>
+        <f>Calcul!E240</f>
         <v>4569.5068215039746</v>
       </c>
     </row>
@@ -3398,11 +3555,11 @@
         <v>1806</v>
       </c>
       <c r="B64" s="1">
-        <f>Calcul!D223</f>
+        <f>Calcul!D241</f>
         <v>12572.840744925625</v>
       </c>
       <c r="C64" s="1">
-        <f>Calcul!E223</f>
+        <f>Calcul!E241</f>
         <v>4677.6608291135353</v>
       </c>
     </row>
@@ -3411,11 +3568,11 @@
         <v>1807</v>
       </c>
       <c r="B65" s="1">
-        <f>Calcul!D224</f>
+        <f>Calcul!D242</f>
         <v>13541.845811971916</v>
       </c>
       <c r="C65" s="1">
-        <f>Calcul!E224</f>
+        <f>Calcul!E242</f>
         <v>5038.1741878120738</v>
       </c>
     </row>
@@ -3424,11 +3581,11 @@
         <v>1808</v>
       </c>
       <c r="B66" s="1">
-        <f>Calcul!D225</f>
+        <f>Calcul!D243</f>
         <v>11361.584411117761</v>
       </c>
       <c r="C66" s="1">
-        <f>Calcul!E225</f>
+        <f>Calcul!E243</f>
         <v>4227.0191307403629</v>
       </c>
     </row>
@@ -3437,11 +3594,11 @@
         <v>1809</v>
       </c>
       <c r="B67" s="1">
-        <f>Calcul!D226</f>
+        <f>Calcul!D244</f>
         <v>13832.547332085804</v>
       </c>
       <c r="C67" s="1">
-        <f>Calcul!E226</f>
+        <f>Calcul!E244</f>
         <v>5146.3281954216354</v>
       </c>
     </row>
@@ -3450,11 +3607,11 @@
         <v>1810</v>
       </c>
       <c r="B68" s="1">
-        <f>Calcul!D227</f>
+        <f>Calcul!D245</f>
         <v>14995.353412541352</v>
       </c>
       <c r="C68" s="1">
-        <f>Calcul!E227</f>
+        <f>Calcul!E245</f>
         <v>5578.944225859882</v>
       </c>
     </row>
@@ -3463,11 +3620,11 @@
         <v>1811</v>
       </c>
       <c r="B69" s="1">
-        <f>Calcul!D228</f>
+        <f>Calcul!D246</f>
         <v>11385.809537793919</v>
       </c>
       <c r="C69" s="1">
-        <f>Calcul!E228</f>
+        <f>Calcul!E246</f>
         <v>4236.0319647078259</v>
       </c>
     </row>
@@ -3476,11 +3633,11 @@
         <v>1812</v>
       </c>
       <c r="B70" s="1">
-        <f>Calcul!D229</f>
+        <f>Calcul!D247</f>
         <v>11506.935171174706</v>
       </c>
       <c r="C70" s="1">
-        <f>Calcul!E229</f>
+        <f>Calcul!E247</f>
         <v>4281.0961345451433</v>
       </c>
     </row>
@@ -3489,11 +3646,11 @@
         <v>1813</v>
       </c>
       <c r="B71" s="1">
-        <f>Calcul!D230</f>
+        <f>Calcul!D248</f>
         <v>8987.5219968543479</v>
       </c>
       <c r="C71" s="1">
-        <f>Calcul!E230</f>
+        <f>Calcul!E248</f>
         <v>3343.7614019289431</v>
       </c>
     </row>
@@ -3502,11 +3659,11 @@
         <v>1814</v>
       </c>
       <c r="B72" s="1">
-        <f>Calcul!D231</f>
+        <f>Calcul!D249</f>
         <v>3512.6433680428045</v>
       </c>
       <c r="C72" s="1">
-        <f>Calcul!E231</f>
+        <f>Calcul!E249</f>
         <v>1306.8609252822016</v>
       </c>
     </row>

--- a/External Data/Résultats de la course française.xlsx
+++ b/External Data/Résultats de la course française.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumedaudin/Répertoires Git/2016-Hamburg-Impact-of-War/External Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumedaudin/Répertoires GIT/2016-Hamburg-Impact-of-War/External Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C72CBE-D315-0F4B-B0BA-2B44C29FB11B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F3BAB3-B224-0E46-BF2B-4DE62DD365B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{E3D52932-A783-EC49-8617-8937D12F747E}"/>
+    <workbookView xWindow="38560" yWindow="2180" windowWidth="28800" windowHeight="16220" xr2:uid="{E3D52932-A783-EC49-8617-8937D12F747E}"/>
   </bookViews>
   <sheets>
     <sheet name="Calcul" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="68">
   <si>
     <t>Estimation de l’armement corsaire à Dunkerque, Saint-Malo et Bayonne (en milliers de lt) Villier 2002, p. 327</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>Il annonce 10 M l.t : je mets le résidu en 1748</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -601,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747C72A1-6A8D-9E42-88DE-481B3F912E70}">
   <dimension ref="A1:L249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1342,6 +1345,9 @@
       <c r="E82" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F82" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="G82" s="1" t="s">
         <v>17</v>
       </c>
@@ -1359,6 +1365,10 @@
       <c r="E83" s="1">
         <f>54+32+21+35+50</f>
         <v>192</v>
+      </c>
+      <c r="F83" s="1">
+        <f>SUM(B83:E83)</f>
+        <v>534</v>
       </c>
       <c r="G83" s="2">
         <f>SUM(B83:E83)/SUM(B83:D83)</f>

--- a/External Data/Résultats de la course française.xlsx
+++ b/External Data/Résultats de la course française.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumedaudin/Répertoires GIT/2016-Hamburg-Impact-of-War/External Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumedaudin/Répertoires Git/2016-Hamburg-Impact-of-War/External Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F3BAB3-B224-0E46-BF2B-4DE62DD365B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3E5A8C-2A85-7B44-9C3D-2B0E7662A554}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38560" yWindow="2180" windowWidth="28800" windowHeight="16220" xr2:uid="{E3D52932-A783-EC49-8617-8937D12F747E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16720" xr2:uid="{E3D52932-A783-EC49-8617-8937D12F747E}"/>
   </bookViews>
   <sheets>
     <sheet name="Calcul" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={702D1D19-A33E-BE4D-B99F-139199713421}</author>
+  </authors>
+  <commentList>
+    <comment ref="K41" authorId="0" shapeId="0" xr:uid="{702D1D19-A33E-BE4D-B99F-139199713421}">
+      <text>
+        <t xml:space="preserve">[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    Il donne 446... </t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="117">
   <si>
     <t>Estimation de l’armement corsaire à Dunkerque, Saint-Malo et Bayonne (en milliers de lt) Villier 2002, p. 327</t>
   </si>
@@ -238,22 +256,176 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>GUERRE DE SUCCESSION D’Autriche</t>
+  </si>
+  <si>
+    <t>GUERRE DE HOLLANDE</t>
+  </si>
+  <si>
+    <t>Villiers (2002), p. 123 : pas de chiffres sauf sur Dunkerque</t>
+  </si>
+  <si>
+    <t>De toutes les manières, course contre la Hollande qui ne nous intéresse pas beaucoup</t>
+  </si>
+  <si>
+    <t>Valeur capturée par Dunkerque</t>
+  </si>
+  <si>
+    <t>Villiers 2002 p. 129</t>
+  </si>
+  <si>
+    <t>0-19tx</t>
+  </si>
+  <si>
+    <t>20-49tx</t>
+  </si>
+  <si>
+    <t>50-99tx</t>
+  </si>
+  <si>
+    <t>100-199tx</t>
+  </si>
+  <si>
+    <t>200-399tx</t>
+  </si>
+  <si>
+    <t>400-599tx</t>
+  </si>
+  <si>
+    <t>plus de 600tx</t>
+  </si>
+  <si>
+    <t>Armement à Saint-Malo p. 134</t>
+  </si>
+  <si>
+    <t>Évaluation du coût p. 136</t>
+  </si>
+  <si>
+    <t>Il trouve 29 millions ?</t>
+  </si>
+  <si>
+    <t>Armement à Dunkerque p. 134</t>
+  </si>
+  <si>
+    <t>Nbr armements</t>
+  </si>
+  <si>
+    <t>Valeur totale des armements</t>
+  </si>
+  <si>
+    <t>En prenant en compte qu’on connaît 90% des tonnages (422 sur 381)</t>
+  </si>
+  <si>
+    <t>Total connu</t>
+  </si>
+  <si>
+    <t>En faisant confiance aux 16 M…</t>
+  </si>
+  <si>
+    <t>Armement à Dunkerque Villiers 2007, p. 34-35</t>
+  </si>
+  <si>
+    <t>Il dit 10 M p. 36 ?</t>
+  </si>
+  <si>
+    <t>Donne total de 446…</t>
+  </si>
+  <si>
+    <t>Il trouve 16 M p. 136 ??? C’est bien ce que donne un total de 446…</t>
+  </si>
+  <si>
+    <t>Donc je pense que le 16M est une erreur. 18,7 M est plus juste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 M : sans doute une erreur. </t>
+  </si>
+  <si>
+    <t>1695 jugements de bonne prise</t>
+  </si>
+  <si>
+    <t>Autre Manche</t>
+  </si>
+  <si>
+    <t>Atlantique</t>
+  </si>
+  <si>
+    <t>Méditerranée</t>
+  </si>
+  <si>
+    <t>Hors France</t>
+  </si>
+  <si>
+    <t>Donne 745…</t>
+  </si>
+  <si>
+    <t>Villiers 2007 p. 37</t>
+  </si>
+  <si>
+    <t>(dont 22 000 000 pour la vente des prises)</t>
+  </si>
+  <si>
+    <t>Estimation de l’investissement total</t>
+  </si>
+  <si>
+    <t>GUERRE DE LA LIGUE D’AUGSBOURG 1688-1698 -- aussi des captures hollandaises en Manche, espagnole en Méditerranée et Atlantique…</t>
+  </si>
+  <si>
+    <t>donc % Dunkerque et Saint-Malo</t>
+  </si>
+  <si>
+    <t>La discussion p. 137 semble indiquer que la course de Saint-Malo n’a pas été rentable pour les investisseurs. Bon, mettons 25% de pertes ?</t>
+  </si>
+  <si>
+    <t>Soit…</t>
+  </si>
+  <si>
+    <t>Ce qui donne pour le total capturé</t>
+  </si>
+  <si>
+    <t>Donc pour ces deux ports</t>
+  </si>
+  <si>
+    <t>En supposant qu’ils soientt représentatifs (bof)</t>
+  </si>
+  <si>
+    <t>Répartition annuelle</t>
+  </si>
+  <si>
+    <t>Captures royales ? On ne connaît que la valeur du convoi de Smyrne (hollandais) : 30 M de lt</t>
+  </si>
+  <si>
+    <t>Trois autres exploits : raid sur les baleiniers du Spitzberg (1/3 de la flotte hollandaise du coin), convoi anglais des Antilles, prise de Cartagène (espagnole). Impossible à chiffrer.</t>
+  </si>
+  <si>
+    <t>De toutes les manières, sans doute pas sur les britanniques</t>
+  </si>
+  <si>
+    <t>Donc je mets 0 pour tout cela.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -282,12 +454,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -303,6 +477,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="GUILLAUME DAUDIN" id="{2F9B96DD-8612-EA43-B1B7-D218C1C35987}" userId="S::guillaume.daudin@dauphine.psl.eu::15dcbe30-cd68-45c5-94ba-64069fedf1cb" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -600,12 +780,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="K41" dT="2024-04-15T14:56:48.99" personId="{2F9B96DD-8612-EA43-B1B7-D218C1C35987}" id="{702D1D19-A33E-BE4D-B99F-139199713421}">
+    <text xml:space="preserve">Il donne 446... </text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747C72A1-6A8D-9E42-88DE-481B3F912E70}">
-  <dimension ref="A1:L249"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747C72A1-6A8D-9E42-88DE-481B3F912E70}">
+  <dimension ref="A1:N360"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -613,2381 +801,4367 @@
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="20.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.83203125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>1688</v>
+      </c>
+      <c r="B12" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>7</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>B12*B$26+C12*C$26+D12*D$26+E12*E$26+F12*F$26+G12*G$26+H12*H$26</f>
+        <v>704000</v>
+      </c>
+      <c r="J12" s="6">
+        <f>I12*422/381</f>
+        <v>779758.53018372704</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>1689</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1">
+        <v>19</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" ref="I13:I21" si="0">B13*B$26+C13*C$26+D13*D$26+E13*E$26+F13*F$26+G13*G$26+H13*H$26</f>
+        <v>2230000</v>
+      </c>
+      <c r="J13" s="6">
+        <f t="shared" ref="J13:J21" si="1">I13*422/381</f>
+        <v>2469973.7532808399</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>1690</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>12</v>
+      </c>
+      <c r="F14" s="1">
+        <v>15</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="0"/>
+        <v>2230000</v>
+      </c>
+      <c r="J14" s="6">
+        <f t="shared" si="1"/>
+        <v>2469973.7532808399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>1691</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>15</v>
+      </c>
+      <c r="F15" s="1">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="0"/>
+        <v>2460000</v>
+      </c>
+      <c r="J15" s="6">
+        <f t="shared" si="1"/>
+        <v>2724724.4094488188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>1692</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1">
+        <v>22</v>
+      </c>
+      <c r="F16" s="1">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="0"/>
+        <v>3424000</v>
+      </c>
+      <c r="J16" s="6">
+        <f t="shared" si="1"/>
+        <v>3792461.9422572181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>1693</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1">
+        <v>12</v>
+      </c>
+      <c r="E17" s="1">
+        <v>11</v>
+      </c>
+      <c r="F17" s="1">
+        <v>11</v>
+      </c>
+      <c r="G17" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="0"/>
+        <v>2610000</v>
+      </c>
+      <c r="J17" s="6">
+        <f t="shared" si="1"/>
+        <v>2890866.1417322834</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>1694</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1">
+        <v>13</v>
+      </c>
+      <c r="E18" s="1">
+        <v>9</v>
+      </c>
+      <c r="F18" s="1">
+        <v>11</v>
+      </c>
+      <c r="G18" s="1">
+        <v>4</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="0"/>
+        <v>2898000</v>
+      </c>
+      <c r="J18" s="6">
+        <f t="shared" si="1"/>
+        <v>3209858.2677165354</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>1695</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1">
+        <v>14</v>
+      </c>
+      <c r="E19" s="1">
+        <v>20</v>
+      </c>
+      <c r="F19" s="1">
+        <v>10</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="0"/>
+        <v>3358000</v>
+      </c>
+      <c r="J19" s="6">
+        <f t="shared" si="1"/>
+        <v>3719359.5800524936</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>1696</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1">
+        <v>15</v>
+      </c>
+      <c r="E20" s="1">
+        <v>16</v>
+      </c>
+      <c r="F20" s="1">
+        <v>6</v>
+      </c>
+      <c r="G20" s="1">
+        <v>5</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="0"/>
+        <v>2988000</v>
+      </c>
+      <c r="J20" s="6">
+        <f t="shared" si="1"/>
+        <v>3309543.307086614</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>1697</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1">
+        <v>11</v>
+      </c>
+      <c r="E21" s="1">
+        <v>12</v>
+      </c>
+      <c r="F21" s="1">
+        <v>12</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="0"/>
+        <v>2614000</v>
+      </c>
+      <c r="J21" s="6">
+        <f t="shared" si="1"/>
+        <v>2895296.5879265093</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I22" s="1">
+        <f>SUM(I12:I21)</f>
+        <v>25516000</v>
+      </c>
+      <c r="J22" s="1">
+        <f>SUM(J12:J21)</f>
+        <v>28261816.272965882</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B26" s="1">
+        <v>4000</v>
+      </c>
+      <c r="C26" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D26" s="1">
+        <v>40000</v>
+      </c>
+      <c r="E26" s="1">
+        <v>70000</v>
+      </c>
+      <c r="F26" s="1">
+        <v>90000</v>
+      </c>
+      <c r="G26" s="1">
+        <v>110000</v>
+      </c>
+      <c r="H26" s="1">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>1688</v>
+      </c>
+      <c r="B31" s="1">
+        <v>4</v>
+      </c>
+      <c r="C31" s="1">
+        <v>8</v>
+      </c>
+      <c r="D31" s="1">
+        <v>4</v>
+      </c>
+      <c r="E31" s="1">
+        <v>4</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <f>SUM(B31:H31)</f>
+        <v>21</v>
+      </c>
+      <c r="J31" s="1">
+        <f>B31*B$26+C31*C$26+D31*D$26+E31*E$26+F31*F$26+G31*G$26+H31*H$26</f>
+        <v>626000</v>
+      </c>
+      <c r="K31" s="1">
+        <v>29</v>
+      </c>
+      <c r="L31" s="6">
+        <f>K31/I31*J31</f>
+        <v>864476.19047619042</v>
+      </c>
+      <c r="N31" s="1">
+        <f>L31*16000000/L$41</f>
+        <v>738147.77144962759</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>1689</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2</v>
+      </c>
+      <c r="C32" s="1">
+        <v>11</v>
+      </c>
+      <c r="D32" s="1">
+        <v>6</v>
+      </c>
+      <c r="E32" s="1">
+        <v>3</v>
+      </c>
+      <c r="F32" s="1">
+        <v>5</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" ref="I32:I40" si="2">SUM(B32:H32)</f>
+        <v>27</v>
+      </c>
+      <c r="J32" s="1">
+        <f>B32*B$26+C32*C$26+D32*D$26+E32*E$26+F32*F$26+G32*G$26+H32*H$26</f>
+        <v>1018000</v>
+      </c>
+      <c r="K32" s="1">
+        <v>31</v>
+      </c>
+      <c r="L32" s="6">
+        <f t="shared" ref="L32:L40" si="3">K32/I32*J32</f>
+        <v>1168814.8148148148</v>
+      </c>
+      <c r="N32" s="1">
+        <f t="shared" ref="N32:N40" si="4">L32*16000000/L$41</f>
+        <v>998012.50780269701</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>1690</v>
+      </c>
+      <c r="B33" s="1">
+        <v>3</v>
+      </c>
+      <c r="C33" s="1">
+        <v>10</v>
+      </c>
+      <c r="D33" s="1">
+        <v>13</v>
+      </c>
+      <c r="E33" s="1">
+        <v>6</v>
+      </c>
+      <c r="F33" s="1">
+        <v>3</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="J33" s="1">
+        <f>B33*B$26+C33*C$26+D33*D$26+E33*E$26+F33*F$26+G33*G$26+H33*H$26</f>
+        <v>1322000</v>
+      </c>
+      <c r="K33" s="1">
+        <v>50</v>
+      </c>
+      <c r="L33" s="6">
+        <f t="shared" si="3"/>
+        <v>1888571.4285714286</v>
+      </c>
+      <c r="N33" s="1">
+        <f t="shared" si="4"/>
+        <v>1612588.9950254618</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>1691</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1">
+        <v>7</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="J34" s="1">
+        <f>B34*B$26+C34*C$26+D34*D$26+E34*E$26+F34*F$26+G34*G$26+H34*H$26</f>
+        <v>530000</v>
+      </c>
+      <c r="K34" s="1">
+        <v>31</v>
+      </c>
+      <c r="L34" s="6">
+        <f t="shared" si="3"/>
+        <v>1369166.6666666667</v>
+      </c>
+      <c r="N34" s="1">
+        <f t="shared" si="4"/>
+        <v>1169086.3610557134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>1692</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2</v>
+      </c>
+      <c r="F35" s="1">
+        <v>2</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="J35" s="1">
+        <f>B35*B$26+C35*C$26+D34*D$26+E35*E$26+F35*F$26+G35*G$26+H35*H$26</f>
+        <v>620000</v>
+      </c>
+      <c r="K35" s="1">
+        <v>37</v>
+      </c>
+      <c r="L35" s="6">
+        <f t="shared" si="3"/>
+        <v>2548888.8888888885</v>
+      </c>
+      <c r="N35" s="1">
+        <f t="shared" si="4"/>
+        <v>2176412.3451100071</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>1693</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2</v>
+      </c>
+      <c r="C36" s="1">
+        <v>9</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1">
+        <v>7</v>
+      </c>
+      <c r="F36" s="1">
+        <v>2</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="J36" s="1">
+        <f>B36*B$26+C36*C$26+D35*D$26+E36*E$26+F36*F$26+G36*G$26+H36*H$26</f>
+        <v>888000</v>
+      </c>
+      <c r="K36" s="1">
+        <v>89</v>
+      </c>
+      <c r="L36" s="6">
+        <f t="shared" si="3"/>
+        <v>3763428.5714285714</v>
+      </c>
+      <c r="N36" s="1">
+        <f t="shared" si="4"/>
+        <v>3213467.8127799365</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>1694</v>
+      </c>
+      <c r="B37" s="1">
+        <v>6</v>
+      </c>
+      <c r="C37" s="1">
+        <v>12</v>
+      </c>
+      <c r="D37" s="1">
+        <v>10</v>
+      </c>
+      <c r="E37" s="1">
+        <v>10</v>
+      </c>
+      <c r="F37" s="1">
+        <v>5</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="J37" s="1">
+        <f>B37*B$26+C37*C$26+D36*D$26+E37*E$26+F37*F$26+G37*G$26+H37*H$26</f>
+        <v>1334000</v>
+      </c>
+      <c r="K37" s="1">
+        <v>89</v>
+      </c>
+      <c r="L37" s="6">
+        <f t="shared" si="3"/>
+        <v>2761069.7674418604</v>
+      </c>
+      <c r="N37" s="1">
+        <f t="shared" si="4"/>
+        <v>2357586.6150014964</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>1695</v>
+      </c>
+      <c r="B38" s="1">
+        <v>8</v>
+      </c>
+      <c r="C38" s="1">
+        <v>11</v>
+      </c>
+      <c r="D38" s="1">
+        <v>8</v>
+      </c>
+      <c r="E38" s="1">
+        <v>7</v>
+      </c>
+      <c r="F38" s="1">
+        <v>2</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="J38" s="1">
+        <f>B38*B$26+C38*C$26+D37*D$26+E38*E$26+F38*F$26+G38*G$26+H38*H$26</f>
+        <v>1212000</v>
+      </c>
+      <c r="K38" s="1">
+        <v>62</v>
+      </c>
+      <c r="L38" s="6">
+        <f t="shared" si="3"/>
+        <v>2087333.3333333335</v>
+      </c>
+      <c r="N38" s="1">
+        <f t="shared" si="4"/>
+        <v>1782305.2447792762</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>1696</v>
+      </c>
+      <c r="B39" s="1">
+        <v>13</v>
+      </c>
+      <c r="C39" s="1">
+        <v>29</v>
+      </c>
+      <c r="D39" s="1">
+        <v>25</v>
+      </c>
+      <c r="E39" s="1">
+        <v>8</v>
+      </c>
+      <c r="F39" s="1">
+        <v>6</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="J39" s="1">
+        <f>B39*B$26+C39*C$26+D38*D$26+E39*E$26+F39*F$26+G39*G$26+H39*H$26</f>
+        <v>1872000</v>
+      </c>
+      <c r="K39" s="1">
+        <v>84</v>
+      </c>
+      <c r="L39" s="6">
+        <f t="shared" si="3"/>
+        <v>1917658.5365853659</v>
+      </c>
+      <c r="N39" s="1">
+        <f t="shared" si="4"/>
+        <v>1637425.5193796786</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>1697</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2</v>
+      </c>
+      <c r="C40" s="1">
+        <v>7</v>
+      </c>
+      <c r="D40" s="1">
+        <v>8</v>
+      </c>
+      <c r="E40" s="1">
+        <v>3</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="J40" s="1">
+        <f>B40*B$26+C40*C$26+D39*D$26+E40*E$26+F40*F$26+G40*G$26+H40*H$26</f>
+        <v>1488000</v>
+      </c>
+      <c r="K40" s="1">
+        <v>27</v>
+      </c>
+      <c r="L40" s="6">
+        <f t="shared" si="3"/>
+        <v>1826181.8181818181</v>
+      </c>
+      <c r="N40" s="1">
+        <f t="shared" si="4"/>
+        <v>1559316.5597888895</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B41" s="1">
+        <f>SUM(B31:B40)</f>
+        <v>40</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" ref="C41:I41" si="5">SUM(C31:C40)</f>
+        <v>101</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="5"/>
+        <v>85</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <f t="shared" si="5"/>
+        <v>308</v>
+      </c>
+      <c r="J41" s="1">
+        <f>SUM(J31:J40)</f>
+        <v>10910000</v>
+      </c>
+      <c r="K41" s="1">
+        <f>SUM(K31:K40)</f>
+        <v>529</v>
+      </c>
+      <c r="L41" s="1">
+        <f>K41/I41*J41</f>
+        <v>18738279.220779222</v>
+      </c>
+      <c r="N41" s="1">
+        <f>SUM(N31:N40)</f>
+        <v>17244349.732172783</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K43" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>1688</v>
+      </c>
+      <c r="B46" s="1">
+        <v>4</v>
+      </c>
+      <c r="C46" s="1">
+        <v>13</v>
+      </c>
+      <c r="D46" s="1">
+        <v>5</v>
+      </c>
+      <c r="E46" s="1">
+        <v>4</v>
+      </c>
+      <c r="F46" s="1">
+        <v>3</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1">
+        <f>SUM(B46:H46)</f>
+        <v>29</v>
+      </c>
+      <c r="J46" s="1">
+        <f>B46*B$26+C46*C$26+D46*D$26+E46*E$26+F46*F$26+G46*G$26+H46*H$26</f>
+        <v>896000</v>
+      </c>
+      <c r="K46" s="1">
+        <v>30</v>
+      </c>
+      <c r="L46" s="1">
+        <f>K46/I46*J46</f>
+        <v>926896.55172413797</v>
+      </c>
+      <c r="N46" s="1">
+        <f>L46*16000000/L$41</f>
+        <v>791446.46383220539</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>1689</v>
+      </c>
+      <c r="B47" s="1">
+        <v>10</v>
+      </c>
+      <c r="C47" s="1">
+        <v>14</v>
+      </c>
+      <c r="D47" s="1">
+        <v>6</v>
+      </c>
+      <c r="E47" s="1">
+        <v>4</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1">
+        <f t="shared" ref="I47:I54" si="6">SUM(B47:H47)</f>
+        <v>35</v>
+      </c>
+      <c r="J47" s="1">
+        <f>B47*B$26+C47*C$26+D47*D$26+E47*E$26+F47*F$26+G47*G$26+H47*H$26</f>
+        <v>790000</v>
+      </c>
+      <c r="K47" s="1">
+        <v>51</v>
+      </c>
+      <c r="L47" s="1">
+        <f t="shared" ref="L47:L55" si="7">K47/I47*J47</f>
+        <v>1151142.857142857</v>
+      </c>
+      <c r="N47" s="1">
+        <f t="shared" ref="N47:N55" si="8">L47*16000000/L$41</f>
+        <v>982923.00468344695</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>1690</v>
+      </c>
+      <c r="B48" s="1">
+        <v>2</v>
+      </c>
+      <c r="C48" s="1">
+        <v>12</v>
+      </c>
+      <c r="D48" s="1">
+        <v>13</v>
+      </c>
+      <c r="E48" s="1">
+        <v>6</v>
+      </c>
+      <c r="F48" s="1">
+        <v>3</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="J48" s="1">
+        <f>B48*B$26+C48*C$26+D48*D$26+E48*E$26+F48*F$26+G48*G$26+H48*H$26</f>
+        <v>1338000</v>
+      </c>
+      <c r="K48" s="1">
+        <v>57</v>
+      </c>
+      <c r="L48" s="1">
+        <f t="shared" si="7"/>
+        <v>2118500</v>
+      </c>
+      <c r="N48" s="1">
+        <f t="shared" si="8"/>
+        <v>1808917.4358343484</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>1691</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0</v>
+      </c>
+      <c r="C49" s="1">
+        <v>7</v>
+      </c>
+      <c r="D49" s="1">
+        <v>7</v>
+      </c>
+      <c r="E49" s="1">
+        <v>2</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="J49" s="1">
+        <f>B49*B$26+C49*C$26+D49*D$26+E49*E$26+F49*F$26+G49*G$26+H49*H$26</f>
+        <v>580000</v>
+      </c>
+      <c r="K49" s="1">
+        <v>34</v>
+      </c>
+      <c r="L49" s="1">
+        <f t="shared" si="7"/>
+        <v>1160000</v>
+      </c>
+      <c r="N49" s="1">
+        <f t="shared" si="8"/>
+        <v>990485.82750429271</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>1692</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1">
+        <v>2</v>
+      </c>
+      <c r="D50" s="1">
+        <v>5</v>
+      </c>
+      <c r="E50" s="1">
+        <v>4</v>
+      </c>
+      <c r="F50" s="1">
+        <v>3</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="J50" s="1">
+        <f>B50*B$26+C50*C$26+D49*D$26+E50*E$26+F50*F$26+G50*G$26+H50*H$26</f>
+        <v>850000</v>
+      </c>
+      <c r="K50" s="1">
+        <v>37</v>
+      </c>
+      <c r="L50" s="1">
+        <f t="shared" si="7"/>
+        <v>2246428.5714285714</v>
+      </c>
+      <c r="N50" s="1">
+        <f t="shared" si="8"/>
+        <v>1918151.433190271</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>1693</v>
+      </c>
+      <c r="B51" s="1">
+        <v>2</v>
+      </c>
+      <c r="C51" s="1">
+        <v>9</v>
+      </c>
+      <c r="D51" s="1">
+        <v>8</v>
+      </c>
+      <c r="E51" s="1">
+        <v>9</v>
+      </c>
+      <c r="F51" s="1">
+        <v>4</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="J51" s="1">
+        <f>B51*B$26+C51*C$26+D50*D$26+E51*E$26+F51*F$26+G51*G$26+H51*H$26</f>
+        <v>1288000</v>
+      </c>
+      <c r="K51" s="1">
+        <v>75</v>
+      </c>
+      <c r="L51" s="1">
+        <f t="shared" si="7"/>
+        <v>3018750</v>
+      </c>
+      <c r="N51" s="1">
+        <f t="shared" si="8"/>
+        <v>2577611.2860160205</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>1694</v>
+      </c>
+      <c r="B52" s="1">
+        <v>4</v>
+      </c>
+      <c r="C52" s="1">
+        <v>10</v>
+      </c>
+      <c r="D52" s="1">
+        <v>17</v>
+      </c>
+      <c r="E52" s="1">
+        <v>14</v>
+      </c>
+      <c r="F52" s="1">
+        <v>6</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0</v>
+      </c>
+      <c r="I52" s="1">
+        <f t="shared" si="6"/>
+        <v>51</v>
+      </c>
+      <c r="J52" s="1">
+        <f>B52*B$26+C52*C$26+D51*D$26+E52*E$26+F52*F$26+G52*G$26+H52*H$26</f>
+        <v>1956000</v>
+      </c>
+      <c r="K52" s="1">
+        <v>93</v>
+      </c>
+      <c r="L52" s="1">
+        <f t="shared" si="7"/>
+        <v>3566823.5294117648</v>
+      </c>
+      <c r="N52" s="1">
+        <f t="shared" si="8"/>
+        <v>3045593.2371475808</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>1695</v>
+      </c>
+      <c r="B53" s="1">
+        <v>7</v>
+      </c>
+      <c r="C53" s="1">
+        <v>16</v>
+      </c>
+      <c r="D53" s="1">
+        <v>12</v>
+      </c>
+      <c r="E53" s="1">
+        <v>9</v>
+      </c>
+      <c r="F53" s="1">
+        <v>2</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0</v>
+      </c>
+      <c r="I53" s="1">
+        <f t="shared" si="6"/>
+        <v>46</v>
+      </c>
+      <c r="J53" s="1">
+        <f>B53*B$26+C53*C$26+D52*D$26+E53*E$26+F53*F$26+G53*G$26+H53*H$26</f>
+        <v>1678000</v>
+      </c>
+      <c r="K53" s="1">
+        <v>61</v>
+      </c>
+      <c r="L53" s="1">
+        <f t="shared" si="7"/>
+        <v>2225173.913043478</v>
+      </c>
+      <c r="N53" s="1">
+        <f t="shared" si="8"/>
+        <v>1900002.7798291675</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>1696</v>
+      </c>
+      <c r="B54" s="1">
+        <v>13</v>
+      </c>
+      <c r="C54" s="1">
+        <v>30</v>
+      </c>
+      <c r="D54" s="1">
+        <v>26</v>
+      </c>
+      <c r="E54" s="1">
+        <v>8</v>
+      </c>
+      <c r="F54" s="1">
+        <v>8</v>
+      </c>
+      <c r="G54" s="1">
+        <v>1</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0</v>
+      </c>
+      <c r="I54" s="1">
+        <f t="shared" si="6"/>
+        <v>86</v>
+      </c>
+      <c r="J54" s="1">
+        <f>B54*B$26+C54*C$26+D53*D$26+E54*E$26+F54*F$26+G54*G$26+H54*H$26</f>
+        <v>2222000</v>
+      </c>
+      <c r="K54" s="1">
+        <v>89</v>
+      </c>
+      <c r="L54" s="1">
+        <f t="shared" si="7"/>
+        <v>2299511.6279069767</v>
+      </c>
+      <c r="N54" s="1">
+        <f t="shared" si="8"/>
+        <v>1963477.308295849</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>1697</v>
+      </c>
+      <c r="B55" s="1">
+        <v>2</v>
+      </c>
+      <c r="C55" s="1">
+        <v>8</v>
+      </c>
+      <c r="D55" s="1">
+        <v>12</v>
+      </c>
+      <c r="E55" s="1">
+        <v>4</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1</v>
+      </c>
+      <c r="G55" s="1">
+        <v>1</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0</v>
+      </c>
+      <c r="I55" s="1">
+        <f>SUM(B55:H55)</f>
+        <v>28</v>
+      </c>
+      <c r="J55" s="1">
+        <f>B55*B$26+C55*C$26+D54*D$26+E55*E$26+F55*F$26+G55*G$26+H55*H$26</f>
+        <v>1608000</v>
+      </c>
+      <c r="K55" s="1">
+        <v>34</v>
+      </c>
+      <c r="L55" s="1">
+        <f t="shared" si="7"/>
+        <v>1952571.4285714284</v>
+      </c>
+      <c r="N55" s="1">
+        <f t="shared" si="8"/>
+        <v>1667236.4889567329</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B56" s="1">
+        <f>SUM(B46:B55)</f>
+        <v>44</v>
+      </c>
+      <c r="C56" s="1">
+        <f t="shared" ref="C56" si="9">SUM(C46:C55)</f>
+        <v>121</v>
+      </c>
+      <c r="D56" s="1">
+        <f t="shared" ref="D56" si="10">SUM(D46:D55)</f>
+        <v>111</v>
+      </c>
+      <c r="E56" s="1">
+        <f t="shared" ref="E56" si="11">SUM(E46:E55)</f>
+        <v>64</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" ref="F56" si="12">SUM(F46:F55)</f>
+        <v>32</v>
+      </c>
+      <c r="G56" s="1">
+        <f t="shared" ref="G56" si="13">SUM(G46:G55)</f>
+        <v>2</v>
+      </c>
+      <c r="H56" s="1">
+        <f t="shared" ref="H56" si="14">SUM(H46:H55)</f>
+        <v>0</v>
+      </c>
+      <c r="I56" s="1">
+        <f t="shared" ref="I56" si="15">SUM(I46:I55)</f>
+        <v>374</v>
+      </c>
+      <c r="J56" s="1">
+        <f>SUM(J46:J55)</f>
+        <v>13206000</v>
+      </c>
+      <c r="K56" s="1">
+        <f>SUM(K46:K55)</f>
+        <v>561</v>
+      </c>
+      <c r="L56" s="1">
+        <f>SUM(L46:L55)</f>
+        <v>20665798.479229216</v>
+      </c>
+      <c r="N56" s="1">
+        <f>SUM(N46:N55)</f>
+        <v>17645845.265289918</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L57" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L58" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="1">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B63" s="1">
+        <f>493-B61-B62</f>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B64" s="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B65" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B66" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B67" s="1">
+        <f>SUM(B61:B66)</f>
+        <v>746</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G67" s="5">
+        <f>(B61+B62)/B67</f>
+        <v>0.51206434316353888</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>1688</v>
+      </c>
+      <c r="B70" s="3">
+        <f>(J12+L31)/G$67/1000</f>
+        <v>3210.9924125976399</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>1689</v>
+      </c>
+      <c r="B71" s="3">
+        <f t="shared" ref="B71:B79" si="16">(J13+L32)/G$67/1000</f>
+        <v>7106.1158947627182</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>1690</v>
+      </c>
+      <c r="B72" s="3">
+        <f t="shared" si="16"/>
+        <v>8511.7138891669947</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>1691</v>
+      </c>
+      <c r="B73" s="3">
+        <f t="shared" si="16"/>
+        <v>7994.8762900056336</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>1692</v>
+      </c>
+      <c r="B74" s="3">
+        <f t="shared" si="16"/>
+        <v>12383.894555065433</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>1693</v>
+      </c>
+      <c r="B75" s="3">
+        <f t="shared" si="16"/>
+        <v>12995.036272298423</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>1694</v>
+      </c>
+      <c r="B76" s="3">
+        <f t="shared" si="16"/>
+        <v>11660.503440387862</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>1695</v>
+      </c>
+      <c r="B77" s="3">
+        <f t="shared" si="16"/>
+        <v>11339.772024570229</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>1696</v>
+      </c>
+      <c r="B78" s="3">
+        <f t="shared" si="16"/>
+        <v>10208.095747066222</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>1697</v>
+      </c>
+      <c r="B79" s="3">
+        <f t="shared" si="16"/>
+        <v>9220.4787721382509</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B80" s="1">
+        <f>SUM(B70:B79)</f>
+        <v>94631.479298059392</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C82" s="1">
+        <v>58500000</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L83" s="1">
+        <f>0.75*J22</f>
+        <v>21196362.204724412</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L84" s="1">
+        <f>C82/22000000*L83</f>
+        <v>56363054.044380829</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E85" s="1">
+        <f>C82+L84</f>
+        <v>114863054.04438083</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E86" s="1">
+        <f>E85/G67</f>
+        <v>224313712.87201074</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>1688</v>
+      </c>
+      <c r="B89" s="3">
+        <f>B70*E$86/B$80/1000</f>
+        <v>7611.3111135567196</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>1689</v>
+      </c>
+      <c r="B90" s="3">
+        <f t="shared" ref="B90:B98" si="17">B71*E$86/B$80/1000</f>
+        <v>16844.281123752065</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>1690</v>
+      </c>
+      <c r="B91" s="3">
+        <f t="shared" si="17"/>
+        <v>20176.099534169123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>1691</v>
+      </c>
+      <c r="B92" s="3">
+        <f t="shared" si="17"/>
+        <v>18950.991761579138</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>1692</v>
+      </c>
+      <c r="B93" s="3">
+        <f t="shared" si="17"/>
+        <v>29354.686073465731</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>1693</v>
+      </c>
+      <c r="B94" s="3">
+        <f t="shared" si="17"/>
+        <v>30803.331584456068</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>1694</v>
+      </c>
+      <c r="B95" s="3">
+        <f t="shared" si="17"/>
+        <v>27639.965475250632</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>1695</v>
+      </c>
+      <c r="B96" s="3">
+        <f t="shared" si="17"/>
+        <v>26879.706254424676</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>1696</v>
+      </c>
+      <c r="B97" s="3">
+        <f t="shared" si="17"/>
+        <v>24197.189723360516</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>1697</v>
+      </c>
+      <c r="B98" s="3">
+        <f t="shared" si="17"/>
+        <v>21856.150227996106</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B113" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
         <v>1744</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B114" s="1">
         <f>865</f>
         <v>865</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C114" s="1">
         <v>915</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D114" s="1">
         <v>880</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
         <v>1745</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B115" s="1">
         <v>630</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C115" s="1">
         <v>2872</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D115" s="1">
         <v>1690</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
         <v>1746</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B116" s="1">
         <v>747</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C116" s="1">
         <v>2820</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D116" s="1">
         <v>1657</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
         <v>1747</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B117" s="1">
         <v>492</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C117" s="1">
         <v>1655</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D117" s="1">
         <v>1657</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
         <v>1748</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B118" s="1">
         <v>558</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C118" s="1">
         <v>340</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D118" s="1">
         <v>937</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E120" s="2">
         <f>4800/3292</f>
         <v>1.4580801944106927</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E121" s="2">
         <f>7300/6821</f>
         <v>1.0702243072863216</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B122" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C122" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D122" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
         <v>1744</v>
       </c>
-      <c r="B12" s="1">
-        <f>B3*$E$9</f>
+      <c r="B123" s="1">
+        <f>B114*$E$120</f>
         <v>1261.2393681652493</v>
       </c>
-      <c r="C12" s="1">
-        <f>C3</f>
+      <c r="C123" s="1">
+        <f>C114</f>
         <v>915</v>
       </c>
-      <c r="D12" s="1">
-        <f>D3*$E$10</f>
+      <c r="D123" s="1">
+        <f>D114*$E$121</f>
         <v>941.79739041196297</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
         <v>1745</v>
       </c>
-      <c r="B13" s="1">
-        <f t="shared" ref="B13:B16" si="0">B4*$E$9</f>
+      <c r="B124" s="1">
+        <f>B115*$E$120</f>
         <v>918.59052247873637</v>
       </c>
-      <c r="C13" s="1">
-        <f t="shared" ref="C13:C16" si="1">C4</f>
+      <c r="C124" s="1">
+        <f t="shared" ref="C124:C127" si="18">C115</f>
         <v>2872</v>
       </c>
-      <c r="D13" s="1">
-        <f t="shared" ref="D13:D16" si="2">D4*$E$10</f>
+      <c r="D124" s="1">
+        <f>D115*$E$121</f>
         <v>1808.6790793138834</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
         <v>1746</v>
       </c>
-      <c r="B14" s="1">
-        <f t="shared" si="0"/>
+      <c r="B125" s="1">
+        <f>B116*$E$120</f>
         <v>1089.1859052247873</v>
       </c>
-      <c r="C14" s="1">
-        <f t="shared" si="1"/>
+      <c r="C125" s="1">
+        <f t="shared" si="18"/>
         <v>2820</v>
       </c>
-      <c r="D14" s="1">
-        <f t="shared" si="2"/>
+      <c r="D125" s="1">
+        <f>D116*$E$121</f>
         <v>1773.3616771734348</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
         <v>1747</v>
       </c>
-      <c r="B15" s="1">
-        <f t="shared" si="0"/>
+      <c r="B126" s="1">
+        <f>B117*$E$120</f>
         <v>717.37545565006076</v>
       </c>
-      <c r="C15" s="1">
-        <f t="shared" si="1"/>
+      <c r="C126" s="1">
+        <f t="shared" si="18"/>
         <v>1655</v>
       </c>
-      <c r="D15" s="1">
-        <f t="shared" si="2"/>
+      <c r="D126" s="1">
+        <f>D117*$E$121</f>
         <v>1773.3616771734348</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
         <v>1748</v>
       </c>
-      <c r="B16" s="1">
-        <f t="shared" si="0"/>
+      <c r="B127" s="1">
+        <f>B118*$E$120</f>
         <v>813.60874848116657</v>
       </c>
-      <c r="C16" s="1">
-        <f t="shared" si="1"/>
+      <c r="C127" s="1">
+        <f t="shared" si="18"/>
         <v>340</v>
       </c>
-      <c r="D16" s="1">
-        <f t="shared" si="2"/>
+      <c r="D127" s="1">
+        <f>D118*$E$121</f>
         <v>1002.8001759272832</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="1">
-        <f>SUM(B12:B16)</f>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B128" s="1">
+        <f>SUM(B123:B127)</f>
         <v>4800.0000000000009</v>
       </c>
-      <c r="C17" s="1">
-        <f t="shared" ref="C17:D17" si="3">SUM(C12:C16)</f>
+      <c r="C128" s="1">
+        <f t="shared" ref="C128:D128" si="19">SUM(C123:C127)</f>
         <v>8602</v>
       </c>
-      <c r="D17" s="1">
-        <f t="shared" si="3"/>
+      <c r="D128" s="1">
+        <f t="shared" si="19"/>
         <v>7299.9999999999991</v>
       </c>
-      <c r="E17" s="1">
-        <f>SUM(B17:D17)</f>
+      <c r="E128" s="1">
+        <f>SUM(B128:D128)</f>
         <v>20702</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B131" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C131" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D131" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E131" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="1">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B132" s="1">
         <v>130</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C132" s="1">
         <v>88</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D132" s="1">
         <v>103</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E132" s="1">
         <f>3+53+60+13+18+1+8+13+2+2+12+6+1+11+6+1+7+16+20</f>
         <v>253</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="1">
-        <f>E21/(B21+C21+D21)*E17</f>
+      <c r="E133" s="1">
+        <f>E132/(B132+C132+D132)*E128</f>
         <v>16316.529595015576</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
         <v>1744</v>
       </c>
-      <c r="B25" s="1">
-        <f>(B12+C12+D12)*($E$17+$E$22)/$E$17</f>
+      <c r="B136" s="1">
+        <f>(B123+C123+D123)*($E$128+$E$133)/$E$128</f>
         <v>5575.554826863925</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
         <v>1745</v>
       </c>
-      <c r="B26" s="1">
-        <f t="shared" ref="B26:B29" si="4">(B13+C13+D13)*($E$17+$E$22)/$E$17</f>
+      <c r="B137" s="1">
+        <f>(B124+C124+D124)*($E$128+$E$133)/$E$128</f>
         <v>10012.401094794281</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
         <v>1746</v>
       </c>
-      <c r="B27" s="1">
-        <f t="shared" si="4"/>
+      <c r="B138" s="1">
+        <f>(B125+C125+D125)*($E$128+$E$133)/$E$128</f>
         <v>10161.315614631088</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
         <v>1747</v>
       </c>
-      <c r="B28" s="1">
-        <f t="shared" si="4"/>
+      <c r="B139" s="1">
+        <f>(B126+C126+D126)*($E$128+$E$133)/$E$128</f>
         <v>7413.2495770737905</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
         <v>1748</v>
       </c>
-      <c r="B29" s="1">
-        <f t="shared" si="4"/>
+      <c r="B140" s="1">
+        <f>(B127+C127+D127)*($E$128+$E$133)/$E$128</f>
         <v>3856.0084816524932</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="1">
-        <f>SUM(B25:B29)</f>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B141" s="1">
+        <f>SUM(B136:B140)</f>
         <v>37018.529595015571</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B146" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C146" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D146" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B36" s="1">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B147" s="1">
         <v>12000</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C147" s="1">
         <v>11000</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D147" s="1">
         <v>13500</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="2">
-        <f>(B36+C36+D36)/(B17+C17+D17)</f>
+      <c r="E149" s="2">
+        <f>(B147+C147+D147)/(B128+C128+D128)</f>
         <v>1.7631146749106366</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B151" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F151" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J40" s="4">
+      <c r="J151" s="4">
         <v>1.5</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B41" s="1" t="s">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B152" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C152" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D152" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F152" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+    <row r="153" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
         <v>1744</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B153" s="1">
         <v>31</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C153" s="1">
         <v>921</v>
       </c>
-      <c r="D42" s="1">
-        <f>C42/$J$40</f>
+      <c r="D153" s="1">
+        <f>C153/$J$151</f>
         <v>614</v>
       </c>
-      <c r="E42" s="1">
-        <f>D42</f>
+      <c r="E153" s="1">
+        <f>D153</f>
         <v>614</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="I153" s="1"/>
+      <c r="J153" s="1"/>
+      <c r="K153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="1"/>
+      <c r="N153" s="1"/>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
         <v>1745</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B154" s="1">
         <v>53</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C154" s="1">
         <v>1116</v>
       </c>
-      <c r="D43" s="1">
-        <f t="shared" ref="D43:D45" si="5">C43/$J$40</f>
+      <c r="D154" s="1">
+        <f>C154/$J$151</f>
         <v>744</v>
       </c>
-      <c r="E43" s="1">
-        <f t="shared" ref="E43:E45" si="6">D43</f>
+      <c r="E154" s="1">
+        <f t="shared" ref="E154:E156" si="20">D154</f>
         <v>744</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
         <v>1746</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B155" s="1">
         <v>122</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C155" s="1">
         <v>4679</v>
       </c>
-      <c r="D44" s="1">
-        <f t="shared" si="5"/>
+      <c r="D155" s="1">
+        <f>C155/$J$151</f>
         <v>3119.3333333333335</v>
       </c>
-      <c r="E44" s="1">
-        <f t="shared" si="6"/>
+      <c r="E155" s="1">
+        <f t="shared" si="20"/>
         <v>3119.3333333333335</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
         <v>1747</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B156" s="1">
         <v>99</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C156" s="1">
         <v>4441</v>
       </c>
-      <c r="D45" s="1">
-        <f t="shared" si="5"/>
+      <c r="D156" s="1">
+        <f>C156/$J$151</f>
         <v>2960.6666666666665</v>
       </c>
-      <c r="E45" s="1">
-        <f t="shared" si="6"/>
+      <c r="E156" s="1">
+        <f t="shared" si="20"/>
         <v>2960.6666666666665</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
         <v>1748</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="E46" s="1">
-        <f>10000-D47</f>
+      <c r="B157" s="3"/>
+      <c r="E157" s="1">
+        <f>10000-D158</f>
         <v>2562</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B47" s="1">
-        <f>SUM(B42:B46)</f>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B158" s="1">
+        <f>SUM(B153:B157)</f>
         <v>305</v>
       </c>
-      <c r="C47" s="1">
-        <f>SUM(C42:C45)</f>
+      <c r="C158" s="1">
+        <f>SUM(C153:C156)</f>
         <v>11157</v>
       </c>
-      <c r="D47" s="1">
-        <f>SUM(D42:D45)</f>
+      <c r="D158" s="1">
+        <f>SUM(D153:D156)</f>
         <v>7438</v>
       </c>
-      <c r="E47" s="1">
-        <f>SUM(E42:E46)</f>
+      <c r="E158" s="1">
+        <f>SUM(E153:E157)</f>
         <v>10000</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
         <v>1744</v>
       </c>
-      <c r="B52" s="1">
-        <f>B25*$E$38</f>
+      <c r="B163" s="1">
+        <f>B136*$E$149</f>
         <v>9830.3425360126203</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
         <v>1745</v>
       </c>
-      <c r="B53" s="1">
-        <f>B26*$E$38</f>
+      <c r="B164" s="1">
+        <f>B137*$E$149</f>
         <v>17653.01130132312</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
         <v>1746</v>
       </c>
-      <c r="B54" s="1">
-        <f>B27*$E$38</f>
+      <c r="B165" s="1">
+        <f>B138*$E$149</f>
         <v>17915.564676554666</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
         <v>1747</v>
       </c>
-      <c r="B55" s="1">
-        <f>B28*$E$38</f>
+      <c r="B166" s="1">
+        <f>B139*$E$149</f>
         <v>13070.40911811387</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
         <v>1748</v>
       </c>
-      <c r="B56" s="1">
-        <f>B29*$E$38</f>
+      <c r="B167" s="1">
+        <f>B140*$E$149</f>
         <v>6798.5851405813928</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B57" s="1">
-        <f>SUM(B52:B56)</f>
+      <c r="L167" s="3"/>
+      <c r="M167" s="3"/>
+      <c r="N167" s="3"/>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B168" s="1">
+        <f>SUM(B163:B167)</f>
         <v>65267.912772585674</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A179" s="3"/>
+      <c r="B179" s="3"/>
+      <c r="C179" s="3"/>
+      <c r="D179" s="3"/>
+      <c r="E179" s="3"/>
+      <c r="F179" s="3"/>
+      <c r="G179" s="3"/>
+      <c r="H179" s="3"/>
+      <c r="I179" s="3"/>
+      <c r="J179" s="3"/>
+      <c r="K179" s="3"/>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B71" s="1" t="s">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B182" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C182" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D182" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E182" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A183" s="1">
         <v>1756</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B183" s="1">
         <v>980</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C183" s="1">
         <v>755</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D183" s="1">
         <v>430</v>
       </c>
-      <c r="E72" s="1">
-        <f>SUM(B72:D72)</f>
+      <c r="E183" s="1">
+        <f>SUM(B183:D183)</f>
         <v>2165</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A184" s="1">
         <v>1757</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B184" s="1">
         <v>2050</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C184" s="1">
         <v>2517</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D184" s="1">
         <v>2240</v>
       </c>
-      <c r="E73" s="1">
-        <f t="shared" ref="E73:E79" si="7">SUM(B73:D73)</f>
+      <c r="E184" s="1">
+        <f t="shared" ref="E184:E190" si="21">SUM(B184:D184)</f>
         <v>6807</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
         <v>1758</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B185" s="1">
         <v>2204</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C185" s="1">
         <v>410</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D185" s="1">
         <v>1035</v>
       </c>
-      <c r="E74" s="1">
-        <f t="shared" si="7"/>
+      <c r="E185" s="1">
+        <f t="shared" si="21"/>
         <v>3649</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A186" s="1">
         <v>1759</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B186" s="1">
         <v>1056</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C186" s="1">
         <v>130</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D186" s="1">
         <v>645</v>
       </c>
-      <c r="E75" s="1">
-        <f t="shared" si="7"/>
+      <c r="E186" s="1">
+        <f t="shared" si="21"/>
         <v>1831</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
         <v>1760</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B187" s="1">
         <v>662</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C187" s="1">
         <v>985</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D187" s="1">
         <v>555</v>
       </c>
-      <c r="E76" s="1">
-        <f t="shared" si="7"/>
+      <c r="E187" s="1">
+        <f t="shared" si="21"/>
         <v>2202</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A188" s="1">
         <v>1761</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B188" s="1">
         <v>490</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C188" s="1">
         <v>592.5</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D188" s="1">
         <v>897.5</v>
       </c>
-      <c r="E77" s="1">
-        <f t="shared" si="7"/>
+      <c r="E188" s="1">
+        <f t="shared" si="21"/>
         <v>1980</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
         <v>1762</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B189" s="1">
         <v>836</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C189" s="1">
         <v>792.5</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D189" s="1">
         <v>600</v>
       </c>
-      <c r="E78" s="1">
-        <f t="shared" si="7"/>
+      <c r="E189" s="1">
+        <f t="shared" si="21"/>
         <v>2228.5</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B79" s="1">
-        <f>SUM(B72:B78)</f>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B190" s="1">
+        <f>SUM(B183:B189)</f>
         <v>8278</v>
       </c>
-      <c r="C79" s="1">
-        <f t="shared" ref="C79:D79" si="8">SUM(C72:C78)</f>
+      <c r="C190" s="1">
+        <f t="shared" ref="C190:D190" si="22">SUM(C183:C189)</f>
         <v>6182</v>
       </c>
-      <c r="D79" s="1">
-        <f t="shared" si="8"/>
+      <c r="D190" s="1">
+        <f t="shared" si="22"/>
         <v>6402.5</v>
       </c>
-      <c r="E79" s="1">
-        <f t="shared" si="7"/>
+      <c r="E190" s="1">
+        <f t="shared" si="21"/>
         <v>20862.5</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B82" s="1" t="s">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B193" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C193" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D193" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E193" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="F193" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="G193" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B83" s="1">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B194" s="1">
         <v>145</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C194" s="1">
         <v>69</v>
       </c>
-      <c r="D83" s="1">
+      <c r="D194" s="1">
         <v>128</v>
       </c>
-      <c r="E83" s="1">
+      <c r="E194" s="1">
         <f>54+32+21+35+50</f>
         <v>192</v>
       </c>
-      <c r="F83" s="1">
-        <f>SUM(B83:E83)</f>
+      <c r="F194" s="1">
+        <f>SUM(B194:E194)</f>
         <v>534</v>
       </c>
-      <c r="G83" s="2">
-        <f>SUM(B83:E83)/SUM(B83:D83)</f>
+      <c r="G194" s="2">
+        <f>SUM(B194:E194)/SUM(B194:D194)</f>
         <v>1.5614035087719298</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L195" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A196" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A86" s="1">
+      <c r="L196" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A197" s="1">
         <v>1756</v>
       </c>
-      <c r="B86" s="1">
-        <f>(B72+C72+D72)*$G$83</f>
+      <c r="B197" s="1">
+        <f>(B183+C183+D183)*$G$194</f>
         <v>3380.4385964912281</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A87" s="1">
+      <c r="L197" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A198" s="1">
         <v>1757</v>
       </c>
-      <c r="B87" s="1">
-        <f t="shared" ref="B87:B92" si="9">(B73+C73+D73)*$G$83</f>
+      <c r="B198" s="1">
+        <f>(B184+C184+D184)*$G$194</f>
         <v>10628.473684210527</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
+      <c r="L198" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A199" s="1">
         <v>1758</v>
       </c>
-      <c r="B88" s="1">
-        <f t="shared" si="9"/>
+      <c r="B199" s="1">
+        <f>(B185+C185+D185)*$G$194</f>
         <v>5697.5614035087719</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
+      <c r="L199" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A200" s="1">
         <v>1759</v>
       </c>
-      <c r="B89" s="1">
-        <f t="shared" si="9"/>
+      <c r="B200" s="1">
+        <f>(B186+C186+D186)*$G$194</f>
         <v>2858.9298245614036</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
+      <c r="L200" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A201" s="1">
         <v>1760</v>
       </c>
-      <c r="B90" s="1">
-        <f t="shared" si="9"/>
+      <c r="B201" s="1">
+        <f>(B187+C187+D187)*$G$194</f>
         <v>3438.2105263157896</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
+      <c r="L201" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A202" s="1">
         <v>1761</v>
       </c>
-      <c r="B91" s="1">
-        <f t="shared" si="9"/>
+      <c r="B202" s="1">
+        <f>(B188+C188+D188)*$G$194</f>
         <v>3091.5789473684208</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
+      <c r="L202" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A203" s="1">
         <v>1762</v>
       </c>
-      <c r="B92" s="1">
-        <f t="shared" si="9"/>
+      <c r="B203" s="1">
+        <f>(B189+C189+D189)*$G$194</f>
         <v>3479.5877192982457</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B93" s="1">
-        <f>SUM(B86:B92)</f>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B204" s="1">
+        <f>SUM(B197:B203)</f>
         <v>32574.780701754386</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A206" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B96" s="1" t="s">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B207" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C207" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D207" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E207" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="F207" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G96" s="1" t="s">
+      <c r="G207" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K96" s="1" t="s">
+      <c r="K207" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L96" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A97" s="1">
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A208" s="1">
         <v>1756</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B208" s="1">
         <v>1182.06</v>
       </c>
-      <c r="C97" s="1">
-        <f>(K97*F$104+L97*G$104)*$C$109</f>
+      <c r="C208" s="1">
+        <f>(K208*F$215+L196*G$215)*$C$220</f>
         <v>1530.65412679474</v>
       </c>
-      <c r="D97" s="1">
+      <c r="D208" s="1">
         <v>2217.3119999999999</v>
       </c>
-      <c r="E97" s="1">
-        <f>SUM(B97:D97)</f>
+      <c r="E208" s="1">
+        <f>SUM(B208:D208)</f>
         <v>4930.0261267947399</v>
       </c>
-      <c r="F97" s="1">
+      <c r="F208" s="1">
         <f>1841.163/44</f>
         <v>41.84461363636364</v>
       </c>
-      <c r="G97" s="1">
+      <c r="G208" s="1">
         <f>46.9/9</f>
         <v>5.2111111111111112</v>
       </c>
-      <c r="K97" s="1">
+      <c r="K208" s="1">
         <v>47</v>
       </c>
-      <c r="L97" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
+    </row>
+    <row r="209" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="1">
         <v>1757</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B209" s="1">
         <v>1568.0419999999999</v>
       </c>
-      <c r="C98" s="1">
-        <f t="shared" ref="C98:C103" si="10">(K98*F$104+L98*G$104)*$C$109</f>
+      <c r="C209" s="1">
+        <f>(K209*F$215+L197*G$215)*$C$220</f>
         <v>2490.7132768923552</v>
       </c>
-      <c r="D98" s="1">
+      <c r="D209" s="1">
         <v>2662.0610000000001</v>
       </c>
-      <c r="E98" s="1">
-        <f t="shared" ref="E98:E104" si="11">SUM(B98:D98)</f>
+      <c r="E209" s="1">
+        <f t="shared" ref="E209:E215" si="23">SUM(B209:D209)</f>
         <v>6720.8162768923557</v>
       </c>
-      <c r="F98" s="1">
+      <c r="F209" s="1">
         <f>1388.369/50</f>
         <v>27.767379999999999</v>
       </c>
-      <c r="G98" s="1">
+      <c r="G209" s="1">
         <f>179.673/31</f>
         <v>5.7959032258064518</v>
       </c>
-      <c r="K98" s="1">
+      <c r="H209" s="1"/>
+      <c r="I209" s="1"/>
+      <c r="J209" s="1"/>
+      <c r="K209" s="1">
         <v>76</v>
       </c>
-      <c r="L98" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A99" s="1">
+      <c r="L209" s="1"/>
+      <c r="M209" s="1"/>
+      <c r="N209" s="1"/>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A210" s="1">
         <v>1758</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B210" s="1">
         <v>2450.9899999999998</v>
       </c>
-      <c r="C99" s="1">
-        <f t="shared" si="10"/>
+      <c r="C210" s="1">
+        <f>(K210*F$215+L198*G$215)*$C$220</f>
         <v>428.5767469683355</v>
       </c>
-      <c r="D99" s="1">
+      <c r="D210" s="1">
         <v>865.28800000000001</v>
       </c>
-      <c r="E99" s="1">
-        <f t="shared" si="11"/>
+      <c r="E210" s="1">
+        <f t="shared" si="23"/>
         <v>3744.8547469683353</v>
       </c>
-      <c r="F99" s="1">
+      <c r="F210" s="1">
         <f>1906.108/74</f>
         <v>25.758216216216216</v>
       </c>
-      <c r="G99" s="1">
+      <c r="G210" s="1">
         <f>544.889/81</f>
         <v>6.7270246913580252</v>
       </c>
-      <c r="K99" s="1">
+      <c r="K210" s="1">
         <v>13</v>
       </c>
-      <c r="L99" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A100" s="1">
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A211" s="1">
         <v>1759</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B211" s="1">
         <v>2626.9</v>
       </c>
-      <c r="C100" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="D100" s="1">
+      <c r="C211" s="1">
+        <f>(K211*F$215+L199*G$215)*$C$220</f>
+        <v>0</v>
+      </c>
+      <c r="D211" s="1">
         <v>1733.711</v>
       </c>
-      <c r="E100" s="1">
-        <f t="shared" si="11"/>
+      <c r="E211" s="1">
+        <f t="shared" si="23"/>
         <v>4360.6109999999999</v>
       </c>
-      <c r="F100" s="1">
+      <c r="F211" s="1">
         <f>1807.506/47</f>
         <v>38.457574468085106</v>
       </c>
-      <c r="G100" s="1">
+      <c r="G211" s="1">
         <f>819.399/102</f>
         <v>8.0333235294117653</v>
       </c>
-      <c r="K100" s="1">
-        <v>0</v>
-      </c>
-      <c r="L100" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A101" s="1">
+      <c r="K211" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A212" s="1">
         <v>1760</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B212" s="1">
         <v>4335.57</v>
       </c>
-      <c r="C101" s="1">
-        <f t="shared" si="10"/>
+      <c r="C212" s="1">
+        <f>(K212*F$215+L200*G$215)*$C$220</f>
         <v>1852.3018108969927</v>
       </c>
-      <c r="D101" s="1">
+      <c r="D212" s="1">
         <v>2619.2510000000002</v>
       </c>
-      <c r="E101" s="1">
-        <f t="shared" si="11"/>
+      <c r="E212" s="1">
+        <f t="shared" si="23"/>
         <v>8807.1228108969917</v>
       </c>
-      <c r="F101" s="1">
+      <c r="F212" s="1">
         <f>3840.059/33</f>
         <v>116.36542424242425</v>
       </c>
-      <c r="G101" s="1">
+      <c r="G212" s="1">
         <f>495.514/50</f>
         <v>9.9102800000000002</v>
       </c>
-      <c r="K101" s="1">
+      <c r="K212" s="1">
         <v>54</v>
       </c>
-      <c r="L101" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A102" s="1">
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A213" s="1">
         <v>1761</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B213" s="1">
         <v>584.55600000000004</v>
       </c>
-      <c r="C102" s="1">
-        <f t="shared" si="10"/>
+      <c r="C213" s="1">
+        <f>(K213*F$215+L201*G$215)*$C$220</f>
         <v>641.95423263612508</v>
       </c>
-      <c r="D102" s="1">
+      <c r="D213" s="1">
         <v>3057.33</v>
       </c>
-      <c r="E102" s="1">
-        <f t="shared" si="11"/>
+      <c r="E213" s="1">
+        <f t="shared" si="23"/>
         <v>4283.8402326361247</v>
       </c>
-      <c r="F102" s="1">
+      <c r="F213" s="1">
         <f>542.314/21</f>
         <v>25.82447619047619</v>
       </c>
-      <c r="G102" s="1">
+      <c r="G213" s="1">
         <f>42.242/9</f>
         <v>4.6935555555555553</v>
       </c>
-      <c r="K102" s="1">
+      <c r="K213" s="1">
         <v>13</v>
       </c>
-      <c r="L102" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A103" s="1">
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A214" s="1">
         <v>1762</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B214" s="1">
         <v>352.976</v>
       </c>
-      <c r="C103" s="1">
-        <f t="shared" si="10"/>
+      <c r="C214" s="1">
+        <f>(K214*F$215+L202*G$215)*$C$220</f>
         <v>493.71096512981376</v>
       </c>
-      <c r="D103" s="1">
+      <c r="D214" s="1">
         <v>1925.9179999999999</v>
       </c>
-      <c r="E103" s="1">
-        <f t="shared" si="11"/>
+      <c r="E214" s="1">
+        <f t="shared" si="23"/>
         <v>2772.6049651298135</v>
       </c>
-      <c r="F103" s="1">
+      <c r="F214" s="1">
         <f>139.71/5</f>
         <v>27.942</v>
       </c>
-      <c r="G103" s="1">
+      <c r="G214" s="1">
         <f>213.266/26</f>
         <v>8.2025384615384613</v>
       </c>
-      <c r="K103" s="1">
+      <c r="K214" s="1">
         <v>15</v>
       </c>
-      <c r="L103" s="1">
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B215" s="1">
+        <f>SUM(B208:B214)</f>
+        <v>13101.094000000001</v>
+      </c>
+      <c r="C215" s="1">
+        <f t="shared" ref="C215:D215" si="24">SUM(C208:C214)</f>
+        <v>7437.9111593183625</v>
+      </c>
+      <c r="D215" s="1">
+        <f t="shared" si="24"/>
+        <v>15080.870999999999</v>
+      </c>
+      <c r="E215" s="1">
+        <f t="shared" si="23"/>
+        <v>35619.876159318359</v>
+      </c>
+      <c r="F215" s="1">
+        <f>AVERAGE(F208:F214)</f>
+        <v>43.422812107652199</v>
+      </c>
+      <c r="G215" s="1">
+        <f>AVERAGE(G208:G214)</f>
+        <v>6.9391052249687677</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B216" s="2">
+        <f>B215/B190</f>
+        <v>1.5826400096641702</v>
+      </c>
+      <c r="C216" s="2">
+        <f t="shared" ref="C216:D216" si="25">C215/C190</f>
+        <v>1.2031561241213786</v>
+      </c>
+      <c r="D216" s="2">
+        <f t="shared" si="25"/>
+        <v>2.3554659898477155</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C217" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C218" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C219" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C220" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A222" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A223" s="1">
+        <v>1756</v>
+      </c>
+      <c r="B223" s="1">
+        <f t="shared" ref="B223:B229" si="26">B197*E208/E183</f>
+        <v>7697.7600927145941</v>
+      </c>
+      <c r="C223" s="2">
+        <f t="shared" ref="C223:C230" si="27">B223/B197</f>
+        <v>2.2771483264640833</v>
+      </c>
+      <c r="D223" s="1">
+        <f>$A$233*B223/$B$230</f>
+        <v>1245.659444257926</v>
+      </c>
+      <c r="L223" s="3"/>
+      <c r="M223" s="3"/>
+      <c r="N223" s="3"/>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A224" s="1">
+        <v>1757</v>
+      </c>
+      <c r="B224" s="1">
+        <f t="shared" si="26"/>
+        <v>10493.906116551223</v>
+      </c>
+      <c r="C224" s="2">
+        <f>B224/B198</f>
+        <v>0.98733895649953818</v>
+      </c>
+      <c r="D224" s="1">
+        <f t="shared" ref="D224:D229" si="28">$A$233*B224/$B$230</f>
+        <v>1698.1346656424962</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A225" s="1">
+        <v>1758</v>
+      </c>
+      <c r="B225" s="1">
+        <f t="shared" si="26"/>
+        <v>5847.2293417575765</v>
+      </c>
+      <c r="C225" s="2">
+        <f t="shared" si="27"/>
+        <v>1.0262687714355536</v>
+      </c>
+      <c r="D225" s="1">
+        <f t="shared" si="28"/>
+        <v>946.20465753354233</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A226" s="1">
+        <v>1759</v>
+      </c>
+      <c r="B226" s="1">
+        <f t="shared" si="26"/>
+        <v>6808.6733157894741</v>
+      </c>
+      <c r="C226" s="2">
+        <f t="shared" si="27"/>
+        <v>2.3815461496450028</v>
+      </c>
+      <c r="D226" s="1">
+        <f t="shared" si="28"/>
+        <v>1101.7865088712038</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A227" s="1">
+        <v>1760</v>
+      </c>
+      <c r="B227" s="1">
+        <f t="shared" si="26"/>
+        <v>13751.472459119865</v>
+      </c>
+      <c r="C227" s="2">
+        <f t="shared" si="27"/>
+        <v>3.9996016398260634</v>
+      </c>
+      <c r="D227" s="1">
+        <f t="shared" si="28"/>
+        <v>2225.2773969102354</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A228" s="1">
+        <v>1761</v>
+      </c>
+      <c r="B228" s="1">
+        <f t="shared" si="26"/>
+        <v>6688.8031702564049</v>
+      </c>
+      <c r="C228" s="2">
+        <f t="shared" si="27"/>
+        <v>2.1635556730485477</v>
+      </c>
+      <c r="D228" s="1">
+        <f t="shared" si="28"/>
+        <v>1082.3889988073142</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A229" s="1">
+        <v>1762</v>
+      </c>
+      <c r="B229" s="1">
+        <f t="shared" si="26"/>
+        <v>4329.1551209921654</v>
+      </c>
+      <c r="C229" s="2">
+        <f t="shared" si="27"/>
+        <v>1.2441574894008587</v>
+      </c>
+      <c r="D229" s="1">
+        <f t="shared" si="28"/>
+        <v>700.54832797728193</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B230" s="1">
+        <f>SUM(B223:B229)</f>
+        <v>55616.999617181304</v>
+      </c>
+      <c r="C230" s="2">
+        <f t="shared" si="27"/>
+        <v>1.7073637464023181</v>
+      </c>
+      <c r="D230" s="1">
+        <f>SUM(D223:D229)</f>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C231" s="2"/>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A232" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C232" s="2"/>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A233" s="1">
+        <v>9000</v>
+      </c>
+      <c r="C233" s="2"/>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A235" s="3"/>
+      <c r="B235" s="3"/>
+      <c r="C235" s="3"/>
+      <c r="D235" s="3"/>
+      <c r="E235" s="3"/>
+      <c r="F235" s="3"/>
+      <c r="G235" s="3"/>
+      <c r="H235" s="3"/>
+      <c r="I235" s="3"/>
+      <c r="J235" s="3"/>
+      <c r="K235" s="3"/>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A236" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A237" s="1">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A238" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A239" s="1">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A241" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B242" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B104" s="1">
-        <f>SUM(B97:B103)</f>
-        <v>13101.094000000001</v>
-      </c>
-      <c r="C104" s="1">
-        <f t="shared" ref="C104:D104" si="12">SUM(C97:C103)</f>
-        <v>7437.9111593183625</v>
-      </c>
-      <c r="D104" s="1">
-        <f t="shared" si="12"/>
-        <v>15080.870999999999</v>
-      </c>
-      <c r="E104" s="1">
-        <f t="shared" si="11"/>
-        <v>35619.876159318359</v>
-      </c>
-      <c r="F104" s="1">
-        <f>AVERAGE(F97:F103)</f>
-        <v>43.422812107652199</v>
-      </c>
-      <c r="G104" s="1">
-        <f>AVERAGE(G97:G103)</f>
-        <v>6.9391052249687677</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B105" s="2">
-        <f>B104/B79</f>
-        <v>1.5826400096641702</v>
-      </c>
-      <c r="C105" s="2">
-        <f t="shared" ref="C105:D105" si="13">C104/C79</f>
-        <v>1.2031561241213786</v>
-      </c>
-      <c r="D105" s="2">
-        <f t="shared" si="13"/>
-        <v>2.3554659898477155</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C106" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C107" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C108" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C109" s="2">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A112" s="1">
-        <v>1756</v>
-      </c>
-      <c r="B112" s="1">
-        <f t="shared" ref="B112:B118" si="14">B86*E97/E72</f>
-        <v>7697.7600927145941</v>
-      </c>
-      <c r="C112" s="2">
-        <f t="shared" ref="C112:C119" si="15">B112/B86</f>
-        <v>2.2771483264640833</v>
-      </c>
-      <c r="D112" s="1">
-        <f>$A$122*B112/$B$119</f>
-        <v>1245.659444257926</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="1">
-        <v>1757</v>
-      </c>
-      <c r="B113" s="1">
-        <f t="shared" si="14"/>
-        <v>10493.906116551223</v>
-      </c>
-      <c r="C113" s="2">
-        <f>B113/B87</f>
-        <v>0.98733895649953818</v>
-      </c>
-      <c r="D113" s="1">
-        <f t="shared" ref="D113:D118" si="16">$A$122*B113/$B$119</f>
-        <v>1698.1346656424962</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="1">
-        <v>1758</v>
-      </c>
-      <c r="B114" s="1">
-        <f t="shared" si="14"/>
-        <v>5847.2293417575765</v>
-      </c>
-      <c r="C114" s="2">
-        <f t="shared" si="15"/>
-        <v>1.0262687714355536</v>
-      </c>
-      <c r="D114" s="1">
-        <f t="shared" si="16"/>
-        <v>946.20465753354233</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="1">
-        <v>1759</v>
-      </c>
-      <c r="B115" s="1">
-        <f t="shared" si="14"/>
-        <v>6808.6733157894741</v>
-      </c>
-      <c r="C115" s="2">
-        <f t="shared" si="15"/>
-        <v>2.3815461496450028</v>
-      </c>
-      <c r="D115" s="1">
-        <f t="shared" si="16"/>
-        <v>1101.7865088712038</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="1">
-        <v>1760</v>
-      </c>
-      <c r="B116" s="1">
-        <f t="shared" si="14"/>
-        <v>13751.472459119865</v>
-      </c>
-      <c r="C116" s="2">
-        <f t="shared" si="15"/>
-        <v>3.9996016398260634</v>
-      </c>
-      <c r="D116" s="1">
-        <f t="shared" si="16"/>
-        <v>2225.2773969102354</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="1">
-        <v>1761</v>
-      </c>
-      <c r="B117" s="1">
-        <f t="shared" si="14"/>
-        <v>6688.8031702564049</v>
-      </c>
-      <c r="C117" s="2">
-        <f t="shared" si="15"/>
-        <v>2.1635556730485477</v>
-      </c>
-      <c r="D117" s="1">
-        <f t="shared" si="16"/>
-        <v>1082.3889988073142</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="1">
-        <v>1762</v>
-      </c>
-      <c r="B118" s="1">
-        <f t="shared" si="14"/>
-        <v>4329.1551209921654</v>
-      </c>
-      <c r="C118" s="2">
-        <f t="shared" si="15"/>
-        <v>1.2441574894008587</v>
-      </c>
-      <c r="D118" s="1">
-        <f t="shared" si="16"/>
-        <v>700.54832797728193</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B119" s="1">
-        <f>SUM(B112:B118)</f>
-        <v>55616.999617181304</v>
-      </c>
-      <c r="C119" s="2">
-        <f t="shared" si="15"/>
-        <v>1.7073637464023181</v>
-      </c>
-      <c r="D119" s="1">
-        <f>SUM(D112:D118)</f>
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C120" s="2"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C121" s="2"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="1">
-        <v>9000</v>
-      </c>
-      <c r="C122" s="2"/>
-    </row>
-    <row r="124" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="1">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="1">
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B131" s="1" t="s">
+      <c r="C242" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B243" s="1">
+        <v>19000</v>
+      </c>
+      <c r="C243" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D243" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A244" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B245" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C245" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="D245" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B132" s="1">
-        <v>19000</v>
-      </c>
-      <c r="C132" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D132" s="1">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B134" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B135" s="1">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B246" s="1">
         <f>18000+7576</f>
         <v>25576</v>
       </c>
-      <c r="C135" s="1">
+      <c r="C246" s="1">
         <v>2032.0550000000001</v>
       </c>
-      <c r="D135" s="1">
+      <c r="D246" s="1">
         <v>5362.8789999999999</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" s="1" t="s">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A247" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B137" s="1">
-        <f>A126*(B132+C132+D132)/(B135+C135+D135)</f>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B248" s="1">
+        <f>A237*(B243+C243+D243)/(B246+C246+D246)</f>
         <v>27903.36482430252</v>
       </c>
-      <c r="C137" s="2">
-        <f>A126/B137</f>
+      <c r="C248" s="2">
+        <f>A237/B248</f>
         <v>1.4335188695652175</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="1" t="s">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A250" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="1">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A251" s="1">
         <v>1778</v>
       </c>
-      <c r="B140" s="1">
+      <c r="B251" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" s="1">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A252" s="1">
         <v>1779</v>
       </c>
-      <c r="B141" s="1">
+      <c r="B252" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" s="1">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A253" s="1">
         <v>1780</v>
       </c>
-      <c r="B142" s="1">
+      <c r="B253" s="1">
         <v>46</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="1">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A254" s="1">
         <v>1781</v>
       </c>
-      <c r="B143" s="1">
+      <c r="B254" s="1">
         <v>47</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" s="1">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A255" s="1">
         <v>1782</v>
       </c>
-      <c r="B144" s="1">
+      <c r="B255" s="1">
         <v>53</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" s="1">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A256" s="1">
         <v>1783</v>
       </c>
-      <c r="B145" s="1">
+      <c r="B256" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B146" s="1">
-        <f>SUM(B140:B145)</f>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B257" s="1">
+        <f>SUM(B251:B256)</f>
         <v>198</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" s="1" t="s">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A258" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" s="1">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A259" s="1">
         <v>1778</v>
       </c>
-      <c r="B148" s="1">
-        <f>B140/$B$146*$A$126</f>
+      <c r="B259" s="1">
+        <f>B251/$B$257*$A$237</f>
         <v>4040.4040404040402</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" s="1">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A260" s="1">
         <v>1779</v>
       </c>
-      <c r="B149" s="1">
-        <f t="shared" ref="B149:B153" si="17">B141/$B$146*$A$126</f>
+      <c r="B260" s="1">
+        <f t="shared" ref="B260:B264" si="29">B252/$B$257*$A$237</f>
         <v>5858.5858585858587</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" s="1">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A261" s="1">
         <v>1780</v>
       </c>
-      <c r="B150" s="1">
-        <f t="shared" si="17"/>
+      <c r="B261" s="1">
+        <f t="shared" si="29"/>
         <v>9292.9292929292933</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" s="1">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A262" s="1">
         <v>1781</v>
       </c>
-      <c r="B151" s="1">
-        <f t="shared" si="17"/>
+      <c r="B262" s="1">
+        <f t="shared" si="29"/>
         <v>9494.9494949494947</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" s="1">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A263" s="1">
         <v>1782</v>
       </c>
-      <c r="B152" s="1">
-        <f t="shared" si="17"/>
+      <c r="B263" s="1">
+        <f t="shared" si="29"/>
         <v>10707.070707070707</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" s="1">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A264" s="1">
         <v>1783</v>
       </c>
-      <c r="B153" s="1">
-        <f t="shared" si="17"/>
+      <c r="B264" s="1">
+        <f t="shared" si="29"/>
         <v>606.06060606060612</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B154" s="1">
-        <f>SUM(B148:B153)</f>
+    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B265" s="1">
+        <f>SUM(B259:B264)</f>
         <v>40000</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" s="1" t="s">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A266" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" s="1">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A267" s="1">
         <v>1778</v>
       </c>
-      <c r="B156" s="1">
-        <f>B140/$B$146*$B$137</f>
+      <c r="B267" s="1">
+        <f>B251/$B$257*$B$248</f>
         <v>2818.521699424497</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" s="1">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A268" s="1">
         <v>1779</v>
       </c>
-      <c r="B157" s="1">
-        <f t="shared" ref="B157:B161" si="18">B141/$B$146*$B$137</f>
+      <c r="B268" s="1">
+        <f t="shared" ref="B268:B272" si="30">B252/$B$257*$B$248</f>
         <v>4086.8564641655207</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" s="1">
+    <row r="269" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A269" s="1">
         <v>1780</v>
       </c>
-      <c r="B158" s="1">
-        <f t="shared" si="18"/>
+      <c r="B269" s="1">
+        <f t="shared" si="30"/>
         <v>6482.5999086763431</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" s="1">
+      <c r="C269" s="1"/>
+      <c r="D269" s="1"/>
+      <c r="E269" s="1"/>
+      <c r="F269" s="1"/>
+      <c r="G269" s="1"/>
+      <c r="H269" s="1"/>
+      <c r="I269" s="1"/>
+      <c r="J269" s="1"/>
+      <c r="K269" s="1"/>
+      <c r="L269" s="1"/>
+      <c r="M269" s="1"/>
+      <c r="N269" s="1"/>
+    </row>
+    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A270" s="1">
         <v>1781</v>
       </c>
-      <c r="B159" s="1">
-        <f t="shared" si="18"/>
+      <c r="B270" s="1">
+        <f t="shared" si="30"/>
         <v>6623.5259936475677</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" s="1">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A271" s="1">
         <v>1782</v>
       </c>
-      <c r="B160" s="1">
-        <f t="shared" si="18"/>
+      <c r="B271" s="1">
+        <f t="shared" si="30"/>
         <v>7469.0825034749168</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" s="1">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A272" s="1">
         <v>1783</v>
       </c>
-      <c r="B161" s="1">
-        <f t="shared" si="18"/>
+      <c r="B272" s="1">
+        <f t="shared" si="30"/>
         <v>422.77825491367457</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" s="1" t="s">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A274" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165" s="1">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A276" s="1">
         <v>1778</v>
       </c>
-      <c r="B165" s="1">
+      <c r="B276" s="1">
         <f>215</f>
         <v>215</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166" s="1">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A277" s="1">
         <v>1779</v>
       </c>
-      <c r="B166" s="1">
+      <c r="B277" s="1">
         <v>94</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167" s="1">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A278" s="1">
         <v>1780</v>
       </c>
-      <c r="B167" s="1">
+      <c r="B278" s="1">
         <v>114</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" s="1">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A279" s="1">
         <v>1781</v>
       </c>
-      <c r="B168" s="1">
+      <c r="B279" s="1">
         <v>195</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" s="1">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A280" s="1">
         <v>1782</v>
       </c>
-      <c r="B169" s="1">
+      <c r="B280" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170" s="1">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A281" s="1">
         <v>1783</v>
       </c>
-      <c r="B170" s="1">
+      <c r="B281" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B171" s="1">
-        <f>SUM(B165:B170)</f>
+    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B282" s="1">
+        <f>SUM(B276:B281)</f>
         <v>691</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173" s="1" t="s">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L283" s="3"/>
+      <c r="M283" s="3"/>
+      <c r="N283" s="3"/>
+    </row>
+    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A284" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A174" s="1">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A285" s="1">
         <v>1778</v>
       </c>
-      <c r="B174" s="1">
-        <f>$A$128/$B$171*B165</f>
+      <c r="B285" s="1">
+        <f>$A$239/$B$282*B276</f>
         <v>10890.014471780029</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A175" s="1">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A286" s="1">
         <v>1779</v>
       </c>
-      <c r="B175" s="1">
-        <f t="shared" ref="B175:B179" si="19">$A$128/$B$171*B166</f>
+      <c r="B286" s="1">
+        <f t="shared" ref="B286:B290" si="31">$A$239/$B$282*B277</f>
         <v>4761.2156295224313</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176" s="1">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A287" s="1">
         <v>1780</v>
       </c>
-      <c r="B176" s="1">
-        <f t="shared" si="19"/>
+      <c r="B287" s="1">
+        <f t="shared" si="31"/>
         <v>5774.2402315484806</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A177" s="1">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A288" s="1">
         <v>1781</v>
       </c>
-      <c r="B177" s="1">
-        <f t="shared" si="19"/>
+      <c r="B288" s="1">
+        <f t="shared" si="31"/>
         <v>9876.9898697539793</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A178" s="1">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A289" s="1">
         <v>1782</v>
       </c>
-      <c r="B178" s="1">
-        <f t="shared" si="19"/>
+      <c r="B289" s="1">
+        <f t="shared" si="31"/>
         <v>3494.9348769898697</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A179" s="1">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A290" s="1">
         <v>1783</v>
       </c>
-      <c r="B179" s="1">
-        <f t="shared" si="19"/>
+      <c r="B290" s="1">
+        <f t="shared" si="31"/>
         <v>202.60492040520984</v>
       </c>
-      <c r="D179" s="1" t="s">
+      <c r="D290" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B180" s="1">
-        <f>SUM(B174:B179)</f>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B291" s="1">
+        <f>SUM(B285:B290)</f>
         <v>35000</v>
       </c>
-      <c r="D180" s="2">
-        <f>B154/(B154+B180)</f>
+      <c r="D291" s="2">
+        <f>B265/(B265+B291)</f>
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="184" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A185" s="1" t="s">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A295" s="3"/>
+      <c r="B295" s="3"/>
+      <c r="C295" s="3"/>
+      <c r="D295" s="3"/>
+      <c r="E295" s="3"/>
+      <c r="F295" s="3"/>
+      <c r="G295" s="3"/>
+      <c r="H295" s="3"/>
+      <c r="I295" s="3"/>
+      <c r="J295" s="3"/>
+      <c r="K295" s="3"/>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A296" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A186" s="1" t="s">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A297" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187" s="1">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A298" s="1">
         <v>1793</v>
       </c>
-      <c r="B187" s="1">
+      <c r="B298" s="1">
         <v>352</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A188" s="1">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A299" s="1">
         <v>1794</v>
       </c>
-      <c r="B188" s="1">
+      <c r="B299" s="1">
         <v>644</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189" s="1">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A300" s="1">
         <v>1795</v>
       </c>
-      <c r="B189" s="1">
+      <c r="B300" s="1">
         <v>640</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" s="1">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A301" s="1">
         <v>1796</v>
       </c>
-      <c r="B190" s="1">
+      <c r="B301" s="1">
         <v>489</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A191" s="1">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A302" s="1">
         <v>1797</v>
       </c>
-      <c r="B191" s="1">
+      <c r="B302" s="1">
         <v>949</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A192" s="1">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A303" s="1">
         <v>1798</v>
       </c>
-      <c r="B192" s="1">
+      <c r="B303" s="1">
         <v>688</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A193" s="1">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A304" s="1">
         <v>1799</v>
       </c>
-      <c r="B193" s="1">
+      <c r="B304" s="1">
         <v>730</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A194" s="1">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305" s="1">
         <v>1800</v>
       </c>
-      <c r="B194" s="1">
+      <c r="B305" s="1">
         <v>666</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A195" s="1">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306" s="1">
         <v>1801</v>
       </c>
-      <c r="B195" s="1">
+      <c r="B306" s="1">
         <v>399</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A196" s="1">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307" s="1">
         <v>1802</v>
       </c>
-      <c r="B196" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A197" s="1">
+      <c r="B307" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" s="1">
         <v>1803</v>
       </c>
-      <c r="B197" s="1">
+      <c r="B308" s="1">
         <v>222</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A198" s="1">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" s="1">
         <v>1804</v>
       </c>
-      <c r="B198" s="1">
+      <c r="B309" s="1">
         <v>387</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A199" s="1">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310" s="1">
         <v>1805</v>
       </c>
-      <c r="B199" s="1">
+      <c r="B310" s="1">
         <v>507</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A200" s="1">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311" s="1">
         <v>1806</v>
       </c>
-      <c r="B200" s="1">
+      <c r="B311" s="1">
         <v>519</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A201" s="1">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312" s="1">
         <v>1807</v>
       </c>
-      <c r="B201" s="1">
+      <c r="B312" s="1">
         <v>559</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A202" s="1">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313" s="1">
         <v>1808</v>
       </c>
-      <c r="B202" s="1">
+      <c r="B313" s="1">
         <v>469</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A203" s="1">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314" s="1">
         <v>1809</v>
       </c>
-      <c r="B203" s="1">
+      <c r="B314" s="1">
         <v>571</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A204" s="1">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315" s="1">
         <v>1810</v>
       </c>
-      <c r="B204" s="1">
+      <c r="B315" s="1">
         <v>619</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A205" s="1">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A316" s="1">
         <v>1811</v>
       </c>
-      <c r="B205" s="1">
+      <c r="B316" s="1">
         <v>470</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A206" s="1">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A317" s="1">
         <v>1812</v>
       </c>
-      <c r="B206" s="1">
+      <c r="B317" s="1">
         <v>475</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A207" s="1">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A318" s="1">
         <v>1813</v>
       </c>
-      <c r="B207" s="1">
+      <c r="B318" s="1">
         <v>371</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A208" s="1">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319" s="1">
         <v>1814</v>
       </c>
-      <c r="B208" s="1">
+      <c r="B319" s="1">
         <v>145</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A211" s="1" t="s">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A322" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B212" s="1" t="s">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B323" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A213" s="1">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A324" s="1">
         <v>1793</v>
       </c>
-      <c r="B213" s="1">
+      <c r="B324" s="1">
         <v>132</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A214" s="1">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A325" s="1">
         <v>1794</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A215" s="1">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A326" s="1">
         <v>1795</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A216" s="1">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A327" s="1">
         <v>1796</v>
       </c>
-      <c r="B216" s="1">
+      <c r="B327" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A217" s="1">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A328" s="1">
         <v>1797</v>
       </c>
-      <c r="B217" s="1">
+      <c r="B328" s="1">
         <v>145</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A218" s="1">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A329" s="1">
         <v>1798</v>
       </c>
-      <c r="B218" s="1">
+      <c r="B329" s="1">
         <v>144</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A219" s="1">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A330" s="1">
         <v>1799</v>
       </c>
-      <c r="B219" s="1">
+      <c r="B330" s="1">
         <v>117</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A220" s="1">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A331" s="1">
         <v>1800</v>
       </c>
-      <c r="B220" s="1">
+      <c r="B331" s="1">
         <v>87</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A221" s="1">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A332" s="1">
         <v>1801</v>
       </c>
-      <c r="B221" s="1">
+      <c r="B332" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A223" s="1" t="s">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A334" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A224" s="1" t="s">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A335" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D224" s="1">
+      <c r="D335" s="1">
         <f>19000/198</f>
         <v>95.959595959595958</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B227" s="1" t="s">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B338" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C227" s="1" t="s">
+      <c r="C338" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D227" s="1" t="s">
+      <c r="D338" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E227" s="1" t="s">
+      <c r="E338" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H227" s="1" t="s">
+      <c r="H338" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I227" s="1">
-        <f>SUM(C228:C236)/(SUM(B187:B195)-B188-B189)</f>
+      <c r="I338" s="1">
+        <f>SUM(C339:C347)/(SUM(B298:B306)-B299-B300)</f>
         <v>24.225126676157274</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A228" s="1">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A339" s="1">
         <v>1793</v>
       </c>
-      <c r="B228" s="1">
-        <f>B213*$D$224</f>
+      <c r="B339" s="1">
+        <f>B324*$D$335</f>
         <v>12666.666666666666</v>
       </c>
-      <c r="C228" s="1">
-        <f>B228*$C$137</f>
+      <c r="C339" s="1">
+        <f>B339*$C$248</f>
         <v>18157.90568115942</v>
       </c>
-      <c r="D228" s="1">
-        <f>B187*$I$227</f>
+      <c r="D339" s="1">
+        <f>B298*$I$338</f>
         <v>8527.2445900073599</v>
       </c>
-      <c r="E228" s="1">
-        <f>D228/$C$137*$D$180</f>
+      <c r="E339" s="1">
+        <f>D339/$C$248*$D$291</f>
         <v>3172.5175565471377</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A229" s="1">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A340" s="1">
         <v>1794</v>
       </c>
-      <c r="D229" s="1">
-        <f t="shared" ref="D229:D249" si="20">B188*$I$227</f>
+      <c r="D340" s="1">
+        <f t="shared" ref="D340:D360" si="32">B299*$I$338</f>
         <v>15600.981579445284</v>
       </c>
-      <c r="E229" s="1">
-        <f t="shared" ref="E229:E249" si="21">D229/$C$137*$D$180</f>
+      <c r="E340" s="1">
+        <f t="shared" ref="E340:E360" si="33">D340/$C$248*$D$291</f>
         <v>5804.2650750464682</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A230" s="1">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A341" s="1">
         <v>1795</v>
       </c>
-      <c r="D230" s="1">
-        <f t="shared" si="20"/>
+      <c r="D341" s="1">
+        <f t="shared" si="32"/>
         <v>15504.081072740655</v>
       </c>
-      <c r="E230" s="1">
-        <f t="shared" si="21"/>
+      <c r="E341" s="1">
+        <f t="shared" si="33"/>
         <v>5768.2137391766146</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A231" s="1">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A342" s="1">
         <v>1796</v>
       </c>
-      <c r="B231" s="1">
-        <f t="shared" ref="B231:B236" si="22">B216*$D$224</f>
+      <c r="B342" s="1">
+        <f t="shared" ref="B342:B347" si="34">B327*$D$335</f>
         <v>4318.181818181818</v>
       </c>
-      <c r="C231" s="1">
-        <f>B231*1.5</f>
+      <c r="C342" s="1">
+        <f>B342*1.5</f>
         <v>6477.272727272727</v>
       </c>
-      <c r="D231" s="1">
-        <f t="shared" si="20"/>
+      <c r="D342" s="1">
+        <f t="shared" si="32"/>
         <v>11846.086944640907</v>
       </c>
-      <c r="E231" s="1">
-        <f t="shared" si="21"/>
+      <c r="E342" s="1">
+        <f t="shared" si="33"/>
         <v>4407.2758100896317</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A232" s="1">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A343" s="1">
         <v>1797</v>
       </c>
-      <c r="B232" s="1">
-        <f t="shared" si="22"/>
+      <c r="B343" s="1">
+        <f t="shared" si="34"/>
         <v>13914.141414141413</v>
       </c>
-      <c r="C232" s="1">
-        <f t="shared" ref="C232:C236" si="23">B232*1.5</f>
+      <c r="C343" s="1">
+        <f t="shared" ref="C343:C347" si="35">B343*1.5</f>
         <v>20871.21212121212</v>
       </c>
-      <c r="D232" s="1">
-        <f t="shared" si="20"/>
+      <c r="D343" s="1">
+        <f t="shared" si="32"/>
         <v>22989.645215673252</v>
       </c>
-      <c r="E232" s="1">
-        <f t="shared" si="21"/>
+      <c r="E343" s="1">
+        <f t="shared" si="33"/>
         <v>8553.1794351228236</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A233" s="1">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A344" s="1">
         <v>1798</v>
       </c>
-      <c r="B233" s="1">
-        <f t="shared" si="22"/>
+      <c r="B344" s="1">
+        <f t="shared" si="34"/>
         <v>13818.181818181818</v>
       </c>
-      <c r="C233" s="1">
-        <f t="shared" si="23"/>
+      <c r="C344" s="1">
+        <f t="shared" si="35"/>
         <v>20727.272727272728</v>
       </c>
-      <c r="D233" s="1">
-        <f t="shared" si="20"/>
+      <c r="D344" s="1">
+        <f t="shared" si="32"/>
         <v>16666.887153196203</v>
       </c>
-      <c r="E233" s="1">
-        <f t="shared" si="21"/>
+      <c r="E344" s="1">
+        <f t="shared" si="33"/>
         <v>6200.8297696148602</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A234" s="1">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A345" s="1">
         <v>1799</v>
       </c>
-      <c r="B234" s="1">
-        <f t="shared" si="22"/>
+      <c r="B345" s="1">
+        <f t="shared" si="34"/>
         <v>11227.272727272728</v>
       </c>
-      <c r="C234" s="1">
-        <f t="shared" si="23"/>
+      <c r="C345" s="1">
+        <f t="shared" si="35"/>
         <v>16840.909090909092</v>
       </c>
-      <c r="D234" s="1">
-        <f t="shared" si="20"/>
+      <c r="D345" s="1">
+        <f t="shared" si="32"/>
         <v>17684.34247359481</v>
       </c>
-      <c r="E234" s="1">
-        <f t="shared" si="21"/>
+      <c r="E345" s="1">
+        <f t="shared" si="33"/>
         <v>6579.3687962483255</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A235" s="1">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A346" s="1">
         <v>1800</v>
       </c>
-      <c r="B235" s="1">
-        <f t="shared" si="22"/>
+      <c r="B346" s="1">
+        <f t="shared" si="34"/>
         <v>8348.484848484848</v>
       </c>
-      <c r="C235" s="1">
-        <f t="shared" si="23"/>
+      <c r="C346" s="1">
+        <f t="shared" si="35"/>
         <v>12522.727272727272</v>
       </c>
-      <c r="D235" s="1">
-        <f t="shared" si="20"/>
+      <c r="D346" s="1">
+        <f t="shared" si="32"/>
         <v>16133.934366320744</v>
       </c>
-      <c r="E235" s="1">
-        <f t="shared" si="21"/>
+      <c r="E346" s="1">
+        <f t="shared" si="33"/>
         <v>6002.5474223306637</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A236" s="1">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A347" s="1">
         <v>1801</v>
       </c>
-      <c r="B236" s="1">
-        <f t="shared" si="22"/>
+      <c r="B347" s="1">
+        <f t="shared" si="34"/>
         <v>5277.7777777777774</v>
       </c>
-      <c r="C236" s="1">
-        <f t="shared" si="23"/>
+      <c r="C347" s="1">
+        <f t="shared" si="35"/>
         <v>7916.6666666666661</v>
       </c>
-      <c r="D236" s="1">
-        <f t="shared" si="20"/>
+      <c r="D347" s="1">
+        <f t="shared" si="32"/>
         <v>9665.825543786752</v>
       </c>
-      <c r="E236" s="1">
-        <f t="shared" si="21"/>
+      <c r="E347" s="1">
+        <f t="shared" si="33"/>
         <v>3596.1207530179199</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A237" s="1">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A348" s="1">
         <v>1802</v>
       </c>
-      <c r="D237" s="1">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="E237" s="1">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A238" s="1">
+      <c r="D348" s="1">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E348" s="1">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A349" s="1">
         <v>1803</v>
       </c>
-      <c r="D238" s="1">
-        <f t="shared" si="20"/>
+      <c r="D349" s="1">
+        <f t="shared" si="32"/>
         <v>5377.9781221069152</v>
       </c>
-      <c r="E238" s="1">
-        <f t="shared" si="21"/>
+      <c r="E349" s="1">
+        <f t="shared" si="33"/>
         <v>2000.8491407768881</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A239" s="1">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A350" s="1">
         <v>1804</v>
       </c>
-      <c r="D239" s="1">
-        <f t="shared" si="20"/>
+      <c r="D350" s="1">
+        <f t="shared" si="32"/>
         <v>9375.1240236728645</v>
       </c>
-      <c r="E239" s="1">
-        <f t="shared" si="21"/>
+      <c r="E350" s="1">
+        <f t="shared" si="33"/>
         <v>3487.9667454083587</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A240" s="1">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A351" s="1">
         <v>1805</v>
       </c>
-      <c r="D240" s="1">
-        <f t="shared" si="20"/>
+      <c r="D351" s="1">
+        <f t="shared" si="32"/>
         <v>12282.139224811737</v>
       </c>
-      <c r="E240" s="1">
-        <f t="shared" si="21"/>
+      <c r="E351" s="1">
+        <f t="shared" si="33"/>
         <v>4569.5068215039746</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A241" s="1">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A352" s="1">
         <v>1806</v>
       </c>
-      <c r="D241" s="1">
-        <f t="shared" si="20"/>
+      <c r="D352" s="1">
+        <f t="shared" si="32"/>
         <v>12572.840744925625</v>
       </c>
-      <c r="E241" s="1">
-        <f t="shared" si="21"/>
+      <c r="E352" s="1">
+        <f t="shared" si="33"/>
         <v>4677.6608291135353</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A242" s="1">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A353" s="1">
         <v>1807</v>
       </c>
-      <c r="D242" s="1">
-        <f t="shared" si="20"/>
+      <c r="D353" s="1">
+        <f t="shared" si="32"/>
         <v>13541.845811971916</v>
       </c>
-      <c r="E242" s="1">
-        <f t="shared" si="21"/>
+      <c r="E353" s="1">
+        <f t="shared" si="33"/>
         <v>5038.1741878120738</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A243" s="1">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A354" s="1">
         <v>1808</v>
       </c>
-      <c r="D243" s="1">
-        <f t="shared" si="20"/>
+      <c r="D354" s="1">
+        <f t="shared" si="32"/>
         <v>11361.584411117761</v>
       </c>
-      <c r="E243" s="1">
-        <f t="shared" si="21"/>
+      <c r="E354" s="1">
+        <f t="shared" si="33"/>
         <v>4227.0191307403629</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A244" s="1">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A355" s="1">
         <v>1809</v>
       </c>
-      <c r="D244" s="1">
-        <f t="shared" si="20"/>
+      <c r="D355" s="1">
+        <f t="shared" si="32"/>
         <v>13832.547332085804</v>
       </c>
-      <c r="E244" s="1">
-        <f t="shared" si="21"/>
+      <c r="E355" s="1">
+        <f t="shared" si="33"/>
         <v>5146.3281954216354</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A245" s="1">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A356" s="1">
         <v>1810</v>
       </c>
-      <c r="D245" s="1">
-        <f t="shared" si="20"/>
+      <c r="D356" s="1">
+        <f t="shared" si="32"/>
         <v>14995.353412541352</v>
       </c>
-      <c r="E245" s="1">
-        <f t="shared" si="21"/>
+      <c r="E356" s="1">
+        <f t="shared" si="33"/>
         <v>5578.944225859882</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A246" s="1">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A357" s="1">
         <v>1811</v>
       </c>
-      <c r="D246" s="1">
-        <f t="shared" si="20"/>
+      <c r="D357" s="1">
+        <f t="shared" si="32"/>
         <v>11385.809537793919</v>
       </c>
-      <c r="E246" s="1">
-        <f t="shared" si="21"/>
+      <c r="E357" s="1">
+        <f t="shared" si="33"/>
         <v>4236.0319647078259</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A247" s="1">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A358" s="1">
         <v>1812</v>
       </c>
-      <c r="D247" s="1">
-        <f t="shared" si="20"/>
+      <c r="D358" s="1">
+        <f t="shared" si="32"/>
         <v>11506.935171174706</v>
       </c>
-      <c r="E247" s="1">
-        <f t="shared" si="21"/>
+      <c r="E358" s="1">
+        <f t="shared" si="33"/>
         <v>4281.0961345451433</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A248" s="1">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A359" s="1">
         <v>1813</v>
       </c>
-      <c r="D248" s="1">
-        <f t="shared" si="20"/>
+      <c r="D359" s="1">
+        <f t="shared" si="32"/>
         <v>8987.5219968543479</v>
       </c>
-      <c r="E248" s="1">
-        <f t="shared" si="21"/>
+      <c r="E359" s="1">
+        <f t="shared" si="33"/>
         <v>3343.7614019289431</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A249" s="1">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A360" s="1">
         <v>1814</v>
       </c>
-      <c r="D249" s="1">
-        <f t="shared" si="20"/>
+      <c r="D360" s="1">
+        <f t="shared" si="32"/>
         <v>3512.6433680428045</v>
       </c>
-      <c r="E249" s="1">
-        <f t="shared" si="21"/>
+      <c r="E360" s="1">
+        <f t="shared" si="33"/>
         <v>1306.8609252822016</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F52ADF-FFA8-0A46-9CC0-C7AD4F73CE98}">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3005,675 +5179,1036 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1744</v>
+        <v>1688</v>
       </c>
       <c r="B2" s="1">
-        <f>Calcul!B52</f>
-        <v>9830.3425360126203</v>
+        <f>Calcul!B89</f>
+        <v>7611.3111135567196</v>
       </c>
       <c r="C2" s="1">
-        <f>Calcul!B25</f>
-        <v>5575.554826863925</v>
+        <f>Calcul!B70</f>
+        <v>3210.9924125976399</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1745</v>
+        <v>1689</v>
       </c>
       <c r="B3" s="1">
-        <f>Calcul!B53</f>
-        <v>17653.01130132312</v>
+        <f>Calcul!B90</f>
+        <v>16844.281123752065</v>
       </c>
       <c r="C3" s="1">
-        <f>Calcul!B26</f>
-        <v>10012.401094794281</v>
+        <f>Calcul!B71</f>
+        <v>7106.1158947627182</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1746</v>
+        <v>1690</v>
       </c>
       <c r="B4" s="1">
-        <f>Calcul!B54</f>
-        <v>17915.564676554666</v>
+        <f>Calcul!B91</f>
+        <v>20176.099534169123</v>
       </c>
       <c r="C4" s="1">
-        <f>Calcul!B27</f>
-        <v>10161.315614631088</v>
+        <f>Calcul!B72</f>
+        <v>8511.7138891669947</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1747</v>
+        <v>1691</v>
       </c>
       <c r="B5" s="1">
-        <f>Calcul!B55</f>
-        <v>13070.40911811387</v>
+        <f>Calcul!B92</f>
+        <v>18950.991761579138</v>
       </c>
       <c r="C5" s="1">
-        <f>Calcul!B28</f>
-        <v>7413.2495770737905</v>
+        <f>Calcul!B73</f>
+        <v>7994.8762900056336</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1748</v>
+        <v>1692</v>
       </c>
       <c r="B6" s="1">
-        <f>Calcul!B56</f>
-        <v>6798.5851405813928</v>
+        <f>Calcul!B93</f>
+        <v>29354.686073465731</v>
       </c>
       <c r="C6" s="1">
-        <f>Calcul!B29</f>
-        <v>3856.0084816524932</v>
+        <f>Calcul!B74</f>
+        <v>12383.894555065433</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1749</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+        <v>1693</v>
+      </c>
+      <c r="B7" s="1">
+        <f>Calcul!B94</f>
+        <v>30803.331584456068</v>
+      </c>
+      <c r="C7" s="1">
+        <f>Calcul!B75</f>
+        <v>12995.036272298423</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1750</v>
+        <v>1694</v>
+      </c>
+      <c r="B8" s="1">
+        <f>Calcul!B95</f>
+        <v>27639.965475250632</v>
+      </c>
+      <c r="C8" s="1">
+        <f>Calcul!B76</f>
+        <v>11660.503440387862</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1751</v>
+        <v>1695</v>
+      </c>
+      <c r="B9" s="1">
+        <f>Calcul!B96</f>
+        <v>26879.706254424676</v>
+      </c>
+      <c r="C9" s="1">
+        <f>Calcul!B77</f>
+        <v>11339.772024570229</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>1752</v>
+        <v>1696</v>
+      </c>
+      <c r="B10" s="1">
+        <f>Calcul!B97</f>
+        <v>24197.189723360516</v>
+      </c>
+      <c r="C10" s="1">
+        <f>Calcul!B78</f>
+        <v>10208.095747066222</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1753</v>
+        <v>1697</v>
+      </c>
+      <c r="B11" s="1">
+        <f>Calcul!B98</f>
+        <v>21856.150227996106</v>
+      </c>
+      <c r="C11" s="1">
+        <f>Calcul!B79</f>
+        <v>9220.4787721382509</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>1754</v>
-      </c>
+        <v>1698</v>
+      </c>
+      <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>1755</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>1756</v>
-      </c>
-      <c r="B14" s="1">
-        <f>Calcul!B112+Calcul!D112</f>
-        <v>8943.4195369725203</v>
-      </c>
-      <c r="C14" s="1">
-        <f>Calcul!B86</f>
-        <v>3380.4385964912281</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>1757</v>
-      </c>
-      <c r="B15" s="1">
-        <f>Calcul!B113+Calcul!D113</f>
-        <v>12192.040782193719</v>
-      </c>
-      <c r="C15" s="1">
-        <f>Calcul!B87</f>
-        <v>10628.473684210527</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>1758</v>
-      </c>
-      <c r="B16" s="1">
-        <f>Calcul!B114+Calcul!D114</f>
-        <v>6793.4339992911191</v>
-      </c>
-      <c r="C16" s="1">
-        <f>Calcul!B88</f>
-        <v>5697.5614035087719</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>1759</v>
-      </c>
-      <c r="B17" s="1">
-        <f>Calcul!B115+Calcul!D115</f>
-        <v>7910.4598246606784</v>
-      </c>
-      <c r="C17" s="1">
-        <f>Calcul!B89</f>
-        <v>2858.9298245614036</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>1760</v>
-      </c>
-      <c r="B18" s="1">
-        <f>Calcul!B116+Calcul!D116</f>
-        <v>15976.749856030099</v>
-      </c>
-      <c r="C18" s="1">
-        <f>Calcul!B90</f>
-        <v>3438.2105263157896</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>1761</v>
-      </c>
-      <c r="B19" s="1">
-        <f>Calcul!B117+Calcul!D117</f>
-        <v>7771.1921690637191</v>
-      </c>
-      <c r="C19" s="1">
-        <f>Calcul!B91</f>
-        <v>3091.5789473684208</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>1762</v>
-      </c>
-      <c r="B20" s="1">
-        <f>Calcul!B118+Calcul!D118</f>
-        <v>5029.703448969447</v>
-      </c>
-      <c r="C20" s="1">
-        <f>Calcul!B92</f>
-        <v>3479.5877192982457</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>1763</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>1764</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>1765</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>1766</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>1767</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>1768</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>1769</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>1770</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>1771</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>1772</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>1773</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>1775</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>1776</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>1777</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>1778</v>
-      </c>
-      <c r="B36" s="1">
-        <f>Calcul!B148+Calcul!B174</f>
-        <v>14930.418512184069</v>
-      </c>
-      <c r="C36" s="1">
-        <f>Calcul!B156</f>
-        <v>2818.521699424497</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>1779</v>
-      </c>
-      <c r="B37" s="1">
-        <f>Calcul!B149+Calcul!B175</f>
-        <v>10619.801488108289</v>
-      </c>
-      <c r="C37" s="1">
-        <f>Calcul!B157</f>
-        <v>4086.8564641655207</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>1780</v>
-      </c>
-      <c r="B38" s="1">
-        <f>Calcul!B150+Calcul!B176</f>
-        <v>15067.169524477773</v>
-      </c>
-      <c r="C38" s="1">
-        <f>Calcul!B158</f>
-        <v>6482.5999086763431</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>1781</v>
-      </c>
-      <c r="B39" s="1">
-        <f>Calcul!B151+Calcul!B177</f>
-        <v>19371.939364703474</v>
-      </c>
-      <c r="C39" s="1">
-        <f>Calcul!B159</f>
-        <v>6623.5259936475677</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>1782</v>
-      </c>
-      <c r="B40" s="1">
-        <f>Calcul!B152+Calcul!B178</f>
-        <v>14202.005584060576</v>
-      </c>
-      <c r="C40" s="1">
-        <f>Calcul!B160</f>
-        <v>7469.0825034749168</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>1783</v>
-      </c>
-      <c r="B41" s="1">
-        <f>Calcul!B153+Calcul!B179</f>
-        <v>808.6655264658159</v>
-      </c>
-      <c r="C41" s="1">
-        <f>Calcul!B161</f>
-        <v>422.77825491367457</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>1784</v>
-      </c>
-      <c r="B42" s="1"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>1786</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>1787</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>1788</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>1789</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>1790</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>1791</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>1792</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>1793</v>
-      </c>
-      <c r="B51" s="1">
-        <f>Calcul!D228</f>
-        <v>8527.2445900073599</v>
-      </c>
-      <c r="C51" s="1">
-        <f>Calcul!E228</f>
-        <v>3172.5175565471377</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>1794</v>
-      </c>
-      <c r="B52" s="1">
-        <f>Calcul!D229</f>
-        <v>15600.981579445284</v>
-      </c>
-      <c r="C52" s="1">
-        <f>Calcul!E229</f>
-        <v>5804.2650750464682</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>1795</v>
-      </c>
-      <c r="B53" s="1">
-        <f>Calcul!D230</f>
-        <v>15504.081072740655</v>
-      </c>
-      <c r="C53" s="1">
-        <f>Calcul!E230</f>
-        <v>5768.2137391766146</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>1796</v>
-      </c>
-      <c r="B54" s="1">
-        <f>Calcul!D231</f>
-        <v>11846.086944640907</v>
-      </c>
-      <c r="C54" s="1">
-        <f>Calcul!E231</f>
-        <v>4407.2758100896317</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>1797</v>
-      </c>
-      <c r="B55" s="1">
-        <f>Calcul!D232</f>
-        <v>22989.645215673252</v>
-      </c>
-      <c r="C55" s="1">
-        <f>Calcul!E232</f>
-        <v>8553.1794351228236</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>1798</v>
-      </c>
-      <c r="B56" s="1">
-        <f>Calcul!D233</f>
-        <v>16666.887153196203</v>
-      </c>
-      <c r="C56" s="1">
-        <f>Calcul!E233</f>
-        <v>6200.8297696148602</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>1799</v>
-      </c>
-      <c r="B57" s="1">
-        <f>Calcul!D234</f>
-        <v>17684.34247359481</v>
-      </c>
-      <c r="C57" s="1">
-        <f>Calcul!E234</f>
-        <v>6579.3687962483255</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>1800</v>
+        <v>1744</v>
       </c>
       <c r="B58" s="1">
-        <f>Calcul!D235</f>
-        <v>16133.934366320744</v>
+        <f>Calcul!B163</f>
+        <v>9830.3425360126203</v>
       </c>
       <c r="C58" s="1">
-        <f>Calcul!E235</f>
-        <v>6002.5474223306637</v>
+        <f>Calcul!B136</f>
+        <v>5575.554826863925</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>1801</v>
+        <v>1745</v>
       </c>
       <c r="B59" s="1">
-        <f>Calcul!D236</f>
-        <v>9665.825543786752</v>
+        <f>Calcul!B164</f>
+        <v>17653.01130132312</v>
       </c>
       <c r="C59" s="1">
-        <f>Calcul!E236</f>
-        <v>3596.1207530179199</v>
+        <f>Calcul!B137</f>
+        <v>10012.401094794281</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>1802</v>
-      </c>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
+        <v>1746</v>
+      </c>
+      <c r="B60" s="1">
+        <f>Calcul!B165</f>
+        <v>17915.564676554666</v>
+      </c>
+      <c r="C60" s="1">
+        <f>Calcul!B138</f>
+        <v>10161.315614631088</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>1803</v>
+        <v>1747</v>
       </c>
       <c r="B61" s="1">
-        <f>Calcul!D238</f>
-        <v>5377.9781221069152</v>
+        <f>Calcul!B166</f>
+        <v>13070.40911811387</v>
       </c>
       <c r="C61" s="1">
-        <f>Calcul!E238</f>
-        <v>2000.8491407768881</v>
+        <f>Calcul!B139</f>
+        <v>7413.2495770737905</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>1804</v>
+        <v>1748</v>
       </c>
       <c r="B62" s="1">
-        <f>Calcul!D239</f>
-        <v>9375.1240236728645</v>
+        <f>Calcul!B167</f>
+        <v>6798.5851405813928</v>
       </c>
       <c r="C62" s="1">
-        <f>Calcul!E239</f>
-        <v>3487.9667454083587</v>
+        <f>Calcul!B140</f>
+        <v>3856.0084816524932</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>1805</v>
-      </c>
-      <c r="B63" s="1">
-        <f>Calcul!D240</f>
-        <v>12282.139224811737</v>
-      </c>
-      <c r="C63" s="1">
-        <f>Calcul!E240</f>
-        <v>4569.5068215039746</v>
-      </c>
+        <v>1749</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>1806</v>
-      </c>
-      <c r="B64" s="1">
-        <f>Calcul!D241</f>
-        <v>12572.840744925625</v>
-      </c>
-      <c r="C64" s="1">
-        <f>Calcul!E241</f>
-        <v>4677.6608291135353</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>1807</v>
-      </c>
-      <c r="B65" s="1">
-        <f>Calcul!D242</f>
-        <v>13541.845811971916</v>
-      </c>
-      <c r="C65" s="1">
-        <f>Calcul!E242</f>
-        <v>5038.1741878120738</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>1808</v>
-      </c>
-      <c r="B66" s="1">
-        <f>Calcul!D243</f>
-        <v>11361.584411117761</v>
-      </c>
-      <c r="C66" s="1">
-        <f>Calcul!E243</f>
-        <v>4227.0191307403629</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>1809</v>
-      </c>
-      <c r="B67" s="1">
-        <f>Calcul!D244</f>
-        <v>13832.547332085804</v>
-      </c>
-      <c r="C67" s="1">
-        <f>Calcul!E244</f>
-        <v>5146.3281954216354</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>1810</v>
-      </c>
-      <c r="B68" s="1">
-        <f>Calcul!D245</f>
-        <v>14995.353412541352</v>
-      </c>
-      <c r="C68" s="1">
-        <f>Calcul!E245</f>
-        <v>5578.944225859882</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>1811</v>
-      </c>
-      <c r="B69" s="1">
-        <f>Calcul!D246</f>
-        <v>11385.809537793919</v>
-      </c>
-      <c r="C69" s="1">
-        <f>Calcul!E246</f>
-        <v>4236.0319647078259</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>1812</v>
+        <v>1756</v>
       </c>
       <c r="B70" s="1">
-        <f>Calcul!D247</f>
-        <v>11506.935171174706</v>
+        <f>Calcul!B223+Calcul!D223</f>
+        <v>8943.4195369725203</v>
       </c>
       <c r="C70" s="1">
-        <f>Calcul!E247</f>
-        <v>4281.0961345451433</v>
+        <f>Calcul!B197</f>
+        <v>3380.4385964912281</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>1813</v>
+        <v>1757</v>
       </c>
       <c r="B71" s="1">
-        <f>Calcul!D248</f>
-        <v>8987.5219968543479</v>
+        <f>Calcul!B224+Calcul!D224</f>
+        <v>12192.040782193719</v>
       </c>
       <c r="C71" s="1">
-        <f>Calcul!E248</f>
-        <v>3343.7614019289431</v>
+        <f>Calcul!B198</f>
+        <v>10628.473684210527</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
+        <v>1758</v>
+      </c>
+      <c r="B72" s="1">
+        <f>Calcul!B225+Calcul!D225</f>
+        <v>6793.4339992911191</v>
+      </c>
+      <c r="C72" s="1">
+        <f>Calcul!B199</f>
+        <v>5697.5614035087719</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>1759</v>
+      </c>
+      <c r="B73" s="1">
+        <f>Calcul!B226+Calcul!D226</f>
+        <v>7910.4598246606784</v>
+      </c>
+      <c r="C73" s="1">
+        <f>Calcul!B200</f>
+        <v>2858.9298245614036</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>1760</v>
+      </c>
+      <c r="B74" s="1">
+        <f>Calcul!B227+Calcul!D227</f>
+        <v>15976.749856030099</v>
+      </c>
+      <c r="C74" s="1">
+        <f>Calcul!B201</f>
+        <v>3438.2105263157896</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>1761</v>
+      </c>
+      <c r="B75" s="1">
+        <f>Calcul!B228+Calcul!D228</f>
+        <v>7771.1921690637191</v>
+      </c>
+      <c r="C75" s="1">
+        <f>Calcul!B202</f>
+        <v>3091.5789473684208</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>1762</v>
+      </c>
+      <c r="B76" s="1">
+        <f>Calcul!B229+Calcul!D229</f>
+        <v>5029.703448969447</v>
+      </c>
+      <c r="C76" s="1">
+        <f>Calcul!B203</f>
+        <v>3479.5877192982457</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>1763</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>1778</v>
+      </c>
+      <c r="B92" s="1">
+        <f>Calcul!B259+Calcul!B285</f>
+        <v>14930.418512184069</v>
+      </c>
+      <c r="C92" s="1">
+        <f>Calcul!B267</f>
+        <v>2818.521699424497</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>1779</v>
+      </c>
+      <c r="B93" s="1">
+        <f>Calcul!B260+Calcul!B286</f>
+        <v>10619.801488108289</v>
+      </c>
+      <c r="C93" s="1">
+        <f>Calcul!B268</f>
+        <v>4086.8564641655207</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>1780</v>
+      </c>
+      <c r="B94" s="1">
+        <f>Calcul!B261+Calcul!B287</f>
+        <v>15067.169524477773</v>
+      </c>
+      <c r="C94" s="1">
+        <f>Calcul!B269</f>
+        <v>6482.5999086763431</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>1781</v>
+      </c>
+      <c r="B95" s="1">
+        <f>Calcul!B262+Calcul!B288</f>
+        <v>19371.939364703474</v>
+      </c>
+      <c r="C95" s="1">
+        <f>Calcul!B270</f>
+        <v>6623.5259936475677</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>1782</v>
+      </c>
+      <c r="B96" s="1">
+        <f>Calcul!B263+Calcul!B289</f>
+        <v>14202.005584060576</v>
+      </c>
+      <c r="C96" s="1">
+        <f>Calcul!B271</f>
+        <v>7469.0825034749168</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>1783</v>
+      </c>
+      <c r="B97" s="1">
+        <f>Calcul!B264+Calcul!B290</f>
+        <v>808.6655264658159</v>
+      </c>
+      <c r="C97" s="1">
+        <f>Calcul!B272</f>
+        <v>422.77825491367457</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>1784</v>
+      </c>
+      <c r="B98" s="1"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>1793</v>
+      </c>
+      <c r="B107" s="1">
+        <f>Calcul!D339</f>
+        <v>8527.2445900073599</v>
+      </c>
+      <c r="C107" s="1">
+        <f>Calcul!E339</f>
+        <v>3172.5175565471377</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>1794</v>
+      </c>
+      <c r="B108" s="1">
+        <f>Calcul!D340</f>
+        <v>15600.981579445284</v>
+      </c>
+      <c r="C108" s="1">
+        <f>Calcul!E340</f>
+        <v>5804.2650750464682</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>1795</v>
+      </c>
+      <c r="B109" s="1">
+        <f>Calcul!D341</f>
+        <v>15504.081072740655</v>
+      </c>
+      <c r="C109" s="1">
+        <f>Calcul!E341</f>
+        <v>5768.2137391766146</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>1796</v>
+      </c>
+      <c r="B110" s="1">
+        <f>Calcul!D342</f>
+        <v>11846.086944640907</v>
+      </c>
+      <c r="C110" s="1">
+        <f>Calcul!E342</f>
+        <v>4407.2758100896317</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>1797</v>
+      </c>
+      <c r="B111" s="1">
+        <f>Calcul!D343</f>
+        <v>22989.645215673252</v>
+      </c>
+      <c r="C111" s="1">
+        <f>Calcul!E343</f>
+        <v>8553.1794351228236</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>1798</v>
+      </c>
+      <c r="B112" s="1">
+        <f>Calcul!D344</f>
+        <v>16666.887153196203</v>
+      </c>
+      <c r="C112" s="1">
+        <f>Calcul!E344</f>
+        <v>6200.8297696148602</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>1799</v>
+      </c>
+      <c r="B113" s="1">
+        <f>Calcul!D345</f>
+        <v>17684.34247359481</v>
+      </c>
+      <c r="C113" s="1">
+        <f>Calcul!E345</f>
+        <v>6579.3687962483255</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>1800</v>
+      </c>
+      <c r="B114" s="1">
+        <f>Calcul!D346</f>
+        <v>16133.934366320744</v>
+      </c>
+      <c r="C114" s="1">
+        <f>Calcul!E346</f>
+        <v>6002.5474223306637</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>1801</v>
+      </c>
+      <c r="B115" s="1">
+        <f>Calcul!D347</f>
+        <v>9665.825543786752</v>
+      </c>
+      <c r="C115" s="1">
+        <f>Calcul!E347</f>
+        <v>3596.1207530179199</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>1802</v>
+      </c>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>1803</v>
+      </c>
+      <c r="B117" s="1">
+        <f>Calcul!D349</f>
+        <v>5377.9781221069152</v>
+      </c>
+      <c r="C117" s="1">
+        <f>Calcul!E349</f>
+        <v>2000.8491407768881</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>1804</v>
+      </c>
+      <c r="B118" s="1">
+        <f>Calcul!D350</f>
+        <v>9375.1240236728645</v>
+      </c>
+      <c r="C118" s="1">
+        <f>Calcul!E350</f>
+        <v>3487.9667454083587</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>1805</v>
+      </c>
+      <c r="B119" s="1">
+        <f>Calcul!D351</f>
+        <v>12282.139224811737</v>
+      </c>
+      <c r="C119" s="1">
+        <f>Calcul!E351</f>
+        <v>4569.5068215039746</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>1806</v>
+      </c>
+      <c r="B120" s="1">
+        <f>Calcul!D352</f>
+        <v>12572.840744925625</v>
+      </c>
+      <c r="C120" s="1">
+        <f>Calcul!E352</f>
+        <v>4677.6608291135353</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>1807</v>
+      </c>
+      <c r="B121" s="1">
+        <f>Calcul!D353</f>
+        <v>13541.845811971916</v>
+      </c>
+      <c r="C121" s="1">
+        <f>Calcul!E353</f>
+        <v>5038.1741878120738</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>1808</v>
+      </c>
+      <c r="B122" s="1">
+        <f>Calcul!D354</f>
+        <v>11361.584411117761</v>
+      </c>
+      <c r="C122" s="1">
+        <f>Calcul!E354</f>
+        <v>4227.0191307403629</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>1809</v>
+      </c>
+      <c r="B123" s="1">
+        <f>Calcul!D355</f>
+        <v>13832.547332085804</v>
+      </c>
+      <c r="C123" s="1">
+        <f>Calcul!E355</f>
+        <v>5146.3281954216354</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>1810</v>
+      </c>
+      <c r="B124" s="1">
+        <f>Calcul!D356</f>
+        <v>14995.353412541352</v>
+      </c>
+      <c r="C124" s="1">
+        <f>Calcul!E356</f>
+        <v>5578.944225859882</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>1811</v>
+      </c>
+      <c r="B125" s="1">
+        <f>Calcul!D357</f>
+        <v>11385.809537793919</v>
+      </c>
+      <c r="C125" s="1">
+        <f>Calcul!E357</f>
+        <v>4236.0319647078259</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>1812</v>
+      </c>
+      <c r="B126" s="1">
+        <f>Calcul!D358</f>
+        <v>11506.935171174706</v>
+      </c>
+      <c r="C126" s="1">
+        <f>Calcul!E358</f>
+        <v>4281.0961345451433</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>1813</v>
+      </c>
+      <c r="B127" s="1">
+        <f>Calcul!D359</f>
+        <v>8987.5219968543479</v>
+      </c>
+      <c r="C127" s="1">
+        <f>Calcul!E359</f>
+        <v>3343.7614019289431</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128">
         <v>1814</v>
       </c>
-      <c r="B72" s="1">
-        <f>Calcul!D249</f>
+      <c r="B128" s="1">
+        <f>Calcul!D360</f>
         <v>3512.6433680428045</v>
       </c>
-      <c r="C72" s="1">
-        <f>Calcul!E249</f>
+      <c r="C128" s="1">
+        <f>Calcul!E360</f>
         <v>1306.8609252822016</v>
       </c>
     </row>

--- a/External Data/Résultats de la course française.xlsx
+++ b/External Data/Résultats de la course française.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumedaudin/Répertoires Git/2016-Hamburg-Impact-of-War/External Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E6AD50-A8E3-8248-811A-BB4EFD8EB93F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E3AAE1-5077-4046-B236-70C32B3E1A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16720" xr2:uid="{E3D52932-A783-EC49-8617-8937D12F747E}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="212">
   <si>
     <t>Estimation de l’armement corsaire à Dunkerque, Saint-Malo et Bayonne (en milliers de lt) Villier 2002, p. 327</t>
   </si>
@@ -340,9 +340,6 @@
   </si>
   <si>
     <t>En faisant confiance aux 16 M…</t>
-  </si>
-  <si>
-    <t>Armement à Dunkerque Villiers 2007, p. 34-35</t>
   </si>
   <si>
     <t>Il dit 10 M p. 36 ?</t>
@@ -1006,6 +1003,15 @@
   </si>
   <si>
     <t>Dont la moitié en 1710 (Dugay-Trouin) et 1712 (Cassard)</t>
+  </si>
+  <si>
+    <t>Armement à Dunkerque Villiers 2007, p. 34-35 (idem dans Villiers 2006, différent de Villiers 2002)</t>
+  </si>
+  <si>
+    <t>GUERRES DE LA RÉVOLUTION ET DE L’EMPIRE</t>
+  </si>
+  <si>
+    <t>REGARDER MARZAGALLI 2013</t>
   </si>
 </sst>
 </file>
@@ -1118,14 +1124,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1154,9 +1159,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1194,7 +1199,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1300,7 +1305,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1442,7 +1447,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1464,10 +1469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747C72A1-6A8D-9E42-88DE-481B3F912E70}">
-  <dimension ref="A1:N504"/>
+  <dimension ref="A1:N505"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="B168" sqref="B168"/>
+    <sheetView tabSelected="1" topLeftCell="A427" workbookViewId="0">
+      <selection activeCell="A440" sqref="A440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1482,71 +1487,71 @@
   <sheetData>
     <row r="1" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>127</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>190</v>
+        <v>119</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>122</v>
-      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B8" s="7"/>
+      <c r="B8" s="6"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B9" s="7"/>
+      <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B10" s="7"/>
-    </row>
-    <row r="11" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1560,9 +1565,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
-        <v>105</v>
+    <row r="16" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -1625,7 +1630,7 @@
         <f>B22*B$36+C22*C$36+D22*D$36+E22*E$36+F22*F$36+G22*G$36+H22*H$36</f>
         <v>704000</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="1">
         <f>I22*422/381</f>
         <v>779758.53018372704</v>
       </c>
@@ -1659,7 +1664,7 @@
         <f t="shared" ref="I23:I31" si="0">B23*B$36+C23*C$36+D23*D$36+E23*E$36+F23*F$36+G23*G$36+H23*H$36</f>
         <v>2230000</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="1">
         <f t="shared" ref="J23:J31" si="1">I23*422/381</f>
         <v>2469973.7532808399</v>
       </c>
@@ -1693,7 +1698,7 @@
         <f t="shared" si="0"/>
         <v>2230000</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="1">
         <f t="shared" si="1"/>
         <v>2469973.7532808399</v>
       </c>
@@ -1727,7 +1732,7 @@
         <f t="shared" si="0"/>
         <v>2460000</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="1">
         <f t="shared" si="1"/>
         <v>2724724.4094488188</v>
       </c>
@@ -1761,7 +1766,7 @@
         <f t="shared" si="0"/>
         <v>3424000</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="1">
         <f t="shared" si="1"/>
         <v>3792461.9422572181</v>
       </c>
@@ -1795,7 +1800,7 @@
         <f t="shared" si="0"/>
         <v>2610000</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="1">
         <f t="shared" si="1"/>
         <v>2890866.1417322834</v>
       </c>
@@ -1829,7 +1834,7 @@
         <f t="shared" si="0"/>
         <v>2898000</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28" s="1">
         <f t="shared" si="1"/>
         <v>3209858.2677165354</v>
       </c>
@@ -1863,7 +1868,7 @@
         <f t="shared" si="0"/>
         <v>3358000</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29" s="1">
         <f t="shared" si="1"/>
         <v>3719359.5800524936</v>
       </c>
@@ -1897,7 +1902,7 @@
         <f t="shared" si="0"/>
         <v>2988000</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30" s="1">
         <f t="shared" si="1"/>
         <v>3309543.307086614</v>
       </c>
@@ -1931,7 +1936,7 @@
         <f t="shared" si="0"/>
         <v>2614000</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J31" s="1">
         <f t="shared" si="1"/>
         <v>2895296.5879265093</v>
       </c>
@@ -2073,7 +2078,7 @@
       <c r="K41" s="1">
         <v>29</v>
       </c>
-      <c r="L41" s="6">
+      <c r="L41" s="1">
         <f>K41/I41*J41</f>
         <v>864476.19047619042</v>
       </c>
@@ -2118,7 +2123,7 @@
       <c r="K42" s="1">
         <v>31</v>
       </c>
-      <c r="L42" s="6">
+      <c r="L42" s="1">
         <f t="shared" ref="L42:L50" si="3">K42/I42*J42</f>
         <v>1168814.8148148148</v>
       </c>
@@ -2163,7 +2168,7 @@
       <c r="K43" s="1">
         <v>50</v>
       </c>
-      <c r="L43" s="6">
+      <c r="L43" s="1">
         <f t="shared" si="3"/>
         <v>1888571.4285714286</v>
       </c>
@@ -2208,7 +2213,7 @@
       <c r="K44" s="1">
         <v>31</v>
       </c>
-      <c r="L44" s="6">
+      <c r="L44" s="1">
         <f t="shared" si="3"/>
         <v>1369166.6666666667</v>
       </c>
@@ -2253,7 +2258,7 @@
       <c r="K45" s="1">
         <v>37</v>
       </c>
-      <c r="L45" s="6">
+      <c r="L45" s="1">
         <f t="shared" si="3"/>
         <v>2548888.8888888885</v>
       </c>
@@ -2298,7 +2303,7 @@
       <c r="K46" s="1">
         <v>89</v>
       </c>
-      <c r="L46" s="6">
+      <c r="L46" s="1">
         <f t="shared" si="3"/>
         <v>3763428.5714285714</v>
       </c>
@@ -2343,7 +2348,7 @@
       <c r="K47" s="1">
         <v>89</v>
       </c>
-      <c r="L47" s="6">
+      <c r="L47" s="1">
         <f t="shared" si="3"/>
         <v>2761069.7674418604</v>
       </c>
@@ -2388,7 +2393,7 @@
       <c r="K48" s="1">
         <v>62</v>
       </c>
-      <c r="L48" s="6">
+      <c r="L48" s="1">
         <f t="shared" si="3"/>
         <v>2087333.3333333335</v>
       </c>
@@ -2433,7 +2438,7 @@
       <c r="K49" s="1">
         <v>84</v>
       </c>
-      <c r="L49" s="6">
+      <c r="L49" s="1">
         <f t="shared" si="3"/>
         <v>1917658.5365853659</v>
       </c>
@@ -2478,7 +2483,7 @@
       <c r="K50" s="1">
         <v>27</v>
       </c>
-      <c r="L50" s="6">
+      <c r="L50" s="1">
         <f t="shared" si="3"/>
         <v>1826181.8181818181</v>
       </c>
@@ -2539,10 +2544,10 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K52" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L52" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="N52" s="1" t="s">
         <v>89</v>
@@ -2550,12 +2555,12 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K53" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>90</v>
+        <v>209</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
@@ -3092,7 +3097,7 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L67" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N67" s="1" t="s">
         <v>89</v>
@@ -3100,17 +3105,17 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L68" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
@@ -3131,7 +3136,7 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B73" s="1">
         <f>493-B71-B72</f>
@@ -3140,7 +3145,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B74" s="1">
         <v>181</v>
@@ -3148,7 +3153,7 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B75" s="1">
         <v>51</v>
@@ -3156,7 +3161,7 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B76" s="1">
         <v>21</v>
@@ -3168,10 +3173,10 @@
         <v>746</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G77" s="5">
         <f>(B71+B72)/B77</f>
@@ -3180,7 +3185,7 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
@@ -3287,7 +3292,7 @@
         <v>58500000</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>73</v>
@@ -3302,15 +3307,15 @@
         <v>25085518.814139109</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L95" s="1">
         <f>0.9*J32</f>
@@ -3319,7 +3324,7 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L96" s="1">
         <f>B93/22000000*L95</f>
@@ -3328,7 +3333,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E97" s="1">
         <f>C92+L96</f>
@@ -3337,7 +3342,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E98" s="1">
         <f>E97/G77</f>
@@ -3346,7 +3351,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -3439,32 +3444,32 @@
         <v>16650.077957329297</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="10" t="s">
-        <v>129</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="9" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
@@ -3472,7 +3477,7 @@
         <v>18</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C119" s="1">
         <v>1704</v>
@@ -3499,7 +3504,7 @@
         <v>1711</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L119" s="1" t="s">
         <v>67</v>
@@ -3546,7 +3551,7 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B121" s="1">
         <v>110</v>
@@ -3585,7 +3590,7 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B122" s="1">
         <v>14</v>
@@ -3624,7 +3629,7 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B123" s="1">
         <v>7</v>
@@ -3663,7 +3668,7 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B124" s="1">
         <v>10</v>
@@ -3741,7 +3746,7 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B126" s="1">
         <v>42</v>
@@ -3780,7 +3785,7 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B127" s="1">
         <v>14</v>
@@ -3819,7 +3824,7 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B128" s="1">
         <v>42</v>
@@ -3858,7 +3863,7 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B129" s="1">
         <v>21</v>
@@ -3897,7 +3902,7 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B130" s="1">
         <v>13</v>
@@ -3936,7 +3941,7 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B131" s="1">
         <v>0</v>
@@ -3975,7 +3980,7 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B132" s="1">
         <v>9</v>
@@ -4014,7 +4019,7 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B133" s="1">
         <v>1</v>
@@ -4092,7 +4097,7 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B135" s="1">
         <v>3</v>
@@ -4131,7 +4136,7 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B136" s="1">
         <v>3</v>
@@ -4170,7 +4175,7 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B137" s="1">
         <v>0</v>
@@ -4209,7 +4214,7 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B138" s="1">
         <v>18</v>
@@ -4248,7 +4253,7 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B139" s="1">
         <v>0</v>
@@ -4287,7 +4292,7 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B140" s="1">
         <v>1</v>
@@ -4326,7 +4331,7 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B141" s="1">
         <v>1</v>
@@ -4365,7 +4370,7 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B142" s="1">
         <v>9</v>
@@ -4404,7 +4409,7 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B143" s="1">
         <v>0</v>
@@ -4443,7 +4448,7 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B144" s="1">
         <v>0</v>
@@ -4482,7 +4487,7 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B145" s="1">
         <v>0</v>
@@ -4521,7 +4526,7 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B146" s="1">
         <v>0</v>
@@ -4560,7 +4565,7 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B147" s="1">
         <v>2</v>
@@ -4645,7 +4650,7 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.2">
@@ -4767,22 +4772,22 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B163" s="1">
         <f>B162/12</f>
         <v>548.16666666666663</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
@@ -4811,7 +4816,7 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B168" s="1">
         <f>SUM(B166:B167)</f>
@@ -4824,21 +4829,21 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E169" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="C170" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C170" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="D170" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
@@ -4862,7 +4867,7 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B172" s="1">
         <v>162.69399999999999</v>
@@ -4881,7 +4886,7 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B173" s="1">
         <v>79.828000000000003</v>
@@ -4900,7 +4905,7 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B174" s="1">
         <v>199.572</v>
@@ -4938,7 +4943,7 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B176" s="1">
         <v>73.033000000000001</v>
@@ -4957,7 +4962,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B177" s="1">
         <v>324.46600000000001</v>
@@ -4965,18 +4970,18 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B178" s="1">
         <v>51.752000000000002</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B179" s="1">
         <v>43.313000000000002</v>
@@ -4984,7 +4989,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B180" s="1">
         <v>38.92</v>
@@ -5000,7 +5005,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B182" s="1">
         <v>36.046999999999997</v>
@@ -5008,7 +5013,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B183" s="1">
         <v>32.177</v>
@@ -5016,7 +5021,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B184" s="1">
         <v>21.582999999999998</v>
@@ -5024,7 +5029,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B185" s="1">
         <v>16.312000000000001</v>
@@ -5032,7 +5037,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B186" s="1">
         <v>5</v>
@@ -5040,42 +5045,42 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B190" s="1">
         <v>2.0979999999999999</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B191" s="1">
         <f>SUM(B171:B186)+B190+3*3.5</f>
@@ -5088,7 +5093,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B192" s="1">
         <f>B191*12</f>
@@ -5099,12 +5104,12 @@
         <v>152541.1707317073</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
@@ -5224,42 +5229,42 @@
         <v>144918.51835256655</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.2">
@@ -5288,13 +5293,13 @@
         <v>88</v>
       </c>
       <c r="J220" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K220" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="K220" s="1" t="s">
+      <c r="L220" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="L220" s="1" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.2">
@@ -5369,7 +5374,7 @@
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.2">
@@ -5420,7 +5425,7 @@
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B228" s="1">
         <f>B226*B222</f>
@@ -5459,7 +5464,7 @@
         <v>26881883.468834687</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.2">
@@ -5513,7 +5518,7 @@
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E231" s="1">
         <f>(J228+L229)*L148/(L120+L125)</f>
@@ -5522,33 +5527,33 @@
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G233" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H233" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="H233" s="1" t="s">
+      <c r="I233" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="I233" s="1" t="s">
+      <c r="J233" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="J233" s="1" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C234" s="1">
         <v>30000000</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G234" s="5">
         <f>648/590</f>
@@ -5572,7 +5577,7 @@
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G235" s="5"/>
       <c r="H235" s="5"/>
@@ -5705,11 +5710,11 @@
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A252" s="9" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6285,9 +6290,9 @@
       <c r="J323" s="3"/>
       <c r="K323" s="3"/>
     </row>
-    <row r="324" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A324" s="10" t="s">
-        <v>180</v>
+    <row r="324" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A324" s="9" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.2">
@@ -7503,7 +7508,9 @@
       </c>
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A439" s="3"/>
+      <c r="A439" s="3" t="s">
+        <v>210</v>
+      </c>
       <c r="B439" s="3"/>
       <c r="C439" s="3"/>
       <c r="D439" s="3"/>
@@ -7516,640 +7523,655 @@
       <c r="K439" s="3"/>
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A440" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="A440" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B440" s="3"/>
+      <c r="C440" s="3"/>
+      <c r="D440" s="3"/>
+      <c r="E440" s="3"/>
+      <c r="F440" s="3"/>
+      <c r="G440" s="3"/>
+      <c r="H440" s="3"/>
+      <c r="I440" s="3"/>
+      <c r="J440" s="3"/>
+      <c r="K440" s="3"/>
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="442" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A442" s="1" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A442" s="1">
-        <v>1793</v>
-      </c>
-      <c r="B442" s="1">
-        <v>352</v>
       </c>
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="B443" s="1">
-        <v>644</v>
+        <v>352</v>
       </c>
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="B444" s="1">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="B445" s="1">
-        <v>489</v>
+        <v>640</v>
       </c>
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="B446" s="1">
-        <v>949</v>
+        <v>489</v>
       </c>
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="B447" s="1">
-        <v>688</v>
+        <v>949</v>
       </c>
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="B448" s="1">
-        <v>730</v>
+        <v>688</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="B449" s="1">
-        <v>666</v>
+        <v>730</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="B450" s="1">
-        <v>399</v>
+        <v>666</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="B451" s="1">
-        <v>0</v>
+        <v>399</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="B452" s="1">
-        <v>222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="B453" s="1">
-        <v>387</v>
+        <v>222</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="B454" s="1">
-        <v>507</v>
+        <v>387</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="B455" s="1">
-        <v>519</v>
+        <v>507</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="B456" s="1">
-        <v>559</v>
+        <v>519</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="B457" s="1">
-        <v>469</v>
+        <v>559</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="B458" s="1">
-        <v>571</v>
+        <v>469</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="B459" s="1">
-        <v>619</v>
+        <v>571</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="B460" s="1">
-        <v>470</v>
+        <v>619</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="B461" s="1">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="B462" s="1">
-        <v>371</v>
+        <v>475</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
+        <v>1813</v>
+      </c>
+      <c r="B463" s="1">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A464" s="1">
         <v>1814</v>
       </c>
-      <c r="B463" s="1">
+      <c r="B464" s="1">
         <v>145</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A466" s="1" t="s">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A467" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B467" s="1" t="s">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B468" s="1" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A468" s="1">
-        <v>1793</v>
-      </c>
-      <c r="B468" s="1">
-        <v>132</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
-        <v>1794</v>
+        <v>1793</v>
+      </c>
+      <c r="B469" s="1">
+        <v>132</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
-        <v>1795</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
-        <v>1796</v>
-      </c>
-      <c r="B471" s="1">
-        <v>45</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="B472" s="1">
-        <v>145</v>
+        <v>45</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="B473" s="1">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="B474" s="1">
-        <v>117</v>
+        <v>144</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="B475" s="1">
-        <v>87</v>
+        <v>117</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
+        <v>1800</v>
+      </c>
+      <c r="B476" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A477" s="1">
         <v>1801</v>
       </c>
-      <c r="B476" s="1">
+      <c r="B477" s="1">
         <v>55</v>
-      </c>
-    </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A478" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A480" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D479" s="1">
+      <c r="D480" s="1">
         <f>19000/198</f>
         <v>95.959595959595958</v>
       </c>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B482" s="1" t="s">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B483" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C482" s="1" t="s">
+      <c r="C483" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D482" s="1" t="s">
+      <c r="D483" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E482" s="1" t="s">
+      <c r="E483" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H482" s="1" t="s">
+      <c r="H483" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I482" s="1">
-        <f>SUM(C483:C491)/(SUM(B442:B450)-B443-B444)</f>
+      <c r="I483" s="1">
+        <f>SUM(C484:C492)/(SUM(B443:B451)-B444-B445)</f>
         <v>24.225126676157274</v>
-      </c>
-    </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A483" s="1">
-        <v>1793</v>
-      </c>
-      <c r="B483" s="1">
-        <f>B468*$D$479</f>
-        <v>12666.666666666666</v>
-      </c>
-      <c r="C483" s="1">
-        <f>B483*$C$392</f>
-        <v>18157.90568115942</v>
-      </c>
-      <c r="D483" s="1">
-        <f>B442*$I$482</f>
-        <v>8527.2445900073599</v>
-      </c>
-      <c r="E483" s="1">
-        <f>D483/$C$392*$D$435</f>
-        <v>3172.5175565471377</v>
       </c>
     </row>
     <row r="484" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
-        <v>1794</v>
+        <v>1793</v>
+      </c>
+      <c r="B484" s="1">
+        <f>B469*$D$480</f>
+        <v>12666.666666666666</v>
+      </c>
+      <c r="C484" s="1">
+        <f>B484*$C$392</f>
+        <v>18157.90568115942</v>
       </c>
       <c r="D484" s="1">
-        <f t="shared" ref="D484:D504" si="44">B443*$I$482</f>
-        <v>15600.981579445284</v>
+        <f>B443*$I$483</f>
+        <v>8527.2445900073599</v>
       </c>
       <c r="E484" s="1">
-        <f t="shared" ref="E484:E504" si="45">D484/$C$392*$D$435</f>
-        <v>5804.2650750464682</v>
+        <f>D484/$C$392*$D$435</f>
+        <v>3172.5175565471377</v>
       </c>
     </row>
     <row r="485" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
+        <v>1794</v>
+      </c>
+      <c r="D485" s="1">
+        <f t="shared" ref="D485:D505" si="44">B444*$I$483</f>
+        <v>15600.981579445284</v>
+      </c>
+      <c r="E485" s="1">
+        <f t="shared" ref="E485:E505" si="45">D485/$C$392*$D$435</f>
+        <v>5804.2650750464682</v>
+      </c>
+    </row>
+    <row r="486" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A486" s="1">
         <v>1795</v>
       </c>
-      <c r="D485" s="1">
+      <c r="D486" s="1">
         <f t="shared" si="44"/>
         <v>15504.081072740655</v>
       </c>
-      <c r="E485" s="1">
+      <c r="E486" s="1">
         <f t="shared" si="45"/>
         <v>5768.2137391766146</v>
       </c>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A486" s="1">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A487" s="1">
         <v>1796</v>
       </c>
-      <c r="B486" s="1">
-        <f t="shared" ref="B486:B491" si="46">B471*$D$479</f>
+      <c r="B487" s="1">
+        <f t="shared" ref="B487:B492" si="46">B472*$D$480</f>
         <v>4318.181818181818</v>
       </c>
-      <c r="C486" s="1">
-        <f>B486*1.5</f>
+      <c r="C487" s="1">
+        <f>B487*1.5</f>
         <v>6477.272727272727</v>
       </c>
-      <c r="D486" s="1">
+      <c r="D487" s="1">
         <f t="shared" si="44"/>
         <v>11846.086944640907</v>
       </c>
-      <c r="E486" s="1">
+      <c r="E487" s="1">
         <f t="shared" si="45"/>
         <v>4407.2758100896317</v>
       </c>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A487" s="1">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A488" s="1">
         <v>1797</v>
       </c>
-      <c r="B487" s="1">
+      <c r="B488" s="1">
         <f t="shared" si="46"/>
         <v>13914.141414141413</v>
       </c>
-      <c r="C487" s="1">
-        <f t="shared" ref="C487:C491" si="47">B487*1.5</f>
+      <c r="C488" s="1">
+        <f t="shared" ref="C488:C492" si="47">B488*1.5</f>
         <v>20871.21212121212</v>
       </c>
-      <c r="D487" s="1">
+      <c r="D488" s="1">
         <f t="shared" si="44"/>
         <v>22989.645215673252</v>
       </c>
-      <c r="E487" s="1">
+      <c r="E488" s="1">
         <f t="shared" si="45"/>
         <v>8553.1794351228236</v>
       </c>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A488" s="1">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A489" s="1">
         <v>1798</v>
       </c>
-      <c r="B488" s="1">
+      <c r="B489" s="1">
         <f t="shared" si="46"/>
         <v>13818.181818181818</v>
       </c>
-      <c r="C488" s="1">
+      <c r="C489" s="1">
         <f t="shared" si="47"/>
         <v>20727.272727272728</v>
       </c>
-      <c r="D488" s="1">
+      <c r="D489" s="1">
         <f t="shared" si="44"/>
         <v>16666.887153196203</v>
       </c>
-      <c r="E488" s="1">
+      <c r="E489" s="1">
         <f t="shared" si="45"/>
         <v>6200.8297696148602</v>
       </c>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A489" s="1">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A490" s="1">
         <v>1799</v>
       </c>
-      <c r="B489" s="1">
+      <c r="B490" s="1">
         <f t="shared" si="46"/>
         <v>11227.272727272728</v>
       </c>
-      <c r="C489" s="1">
+      <c r="C490" s="1">
         <f t="shared" si="47"/>
         <v>16840.909090909092</v>
       </c>
-      <c r="D489" s="1">
+      <c r="D490" s="1">
         <f t="shared" si="44"/>
         <v>17684.34247359481</v>
       </c>
-      <c r="E489" s="1">
+      <c r="E490" s="1">
         <f t="shared" si="45"/>
         <v>6579.3687962483255</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A490" s="1">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A491" s="1">
         <v>1800</v>
       </c>
-      <c r="B490" s="1">
+      <c r="B491" s="1">
         <f t="shared" si="46"/>
         <v>8348.484848484848</v>
       </c>
-      <c r="C490" s="1">
+      <c r="C491" s="1">
         <f t="shared" si="47"/>
         <v>12522.727272727272</v>
       </c>
-      <c r="D490" s="1">
+      <c r="D491" s="1">
         <f t="shared" si="44"/>
         <v>16133.934366320744</v>
       </c>
-      <c r="E490" s="1">
+      <c r="E491" s="1">
         <f t="shared" si="45"/>
         <v>6002.5474223306637</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A491" s="1">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A492" s="1">
         <v>1801</v>
       </c>
-      <c r="B491" s="1">
+      <c r="B492" s="1">
         <f t="shared" si="46"/>
         <v>5277.7777777777774</v>
       </c>
-      <c r="C491" s="1">
+      <c r="C492" s="1">
         <f t="shared" si="47"/>
         <v>7916.6666666666661</v>
       </c>
-      <c r="D491" s="1">
+      <c r="D492" s="1">
         <f t="shared" si="44"/>
         <v>9665.825543786752</v>
       </c>
-      <c r="E491" s="1">
+      <c r="E492" s="1">
         <f t="shared" si="45"/>
         <v>3596.1207530179199</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A492" s="1">
-        <v>1802</v>
-      </c>
-      <c r="D492" s="1">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="E492" s="1">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="493" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="D493" s="1">
         <f t="shared" si="44"/>
-        <v>5377.9781221069152</v>
+        <v>0</v>
       </c>
       <c r="E493" s="1">
         <f t="shared" si="45"/>
-        <v>2000.8491407768881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="D494" s="1">
         <f t="shared" si="44"/>
-        <v>9375.1240236728645</v>
+        <v>5377.9781221069152</v>
       </c>
       <c r="E494" s="1">
         <f t="shared" si="45"/>
-        <v>3487.9667454083587</v>
+        <v>2000.8491407768881</v>
       </c>
     </row>
     <row r="495" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D495" s="1">
         <f t="shared" si="44"/>
-        <v>12282.139224811737</v>
+        <v>9375.1240236728645</v>
       </c>
       <c r="E495" s="1">
         <f t="shared" si="45"/>
-        <v>4569.5068215039746</v>
+        <v>3487.9667454083587</v>
       </c>
     </row>
     <row r="496" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="D496" s="1">
         <f t="shared" si="44"/>
-        <v>12572.840744925625</v>
+        <v>12282.139224811737</v>
       </c>
       <c r="E496" s="1">
         <f t="shared" si="45"/>
-        <v>4677.6608291135353</v>
+        <v>4569.5068215039746</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="D497" s="1">
         <f t="shared" si="44"/>
-        <v>13541.845811971916</v>
+        <v>12572.840744925625</v>
       </c>
       <c r="E497" s="1">
         <f t="shared" si="45"/>
-        <v>5038.1741878120738</v>
+        <v>4677.6608291135353</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="D498" s="1">
         <f t="shared" si="44"/>
-        <v>11361.584411117761</v>
+        <v>13541.845811971916</v>
       </c>
       <c r="E498" s="1">
         <f t="shared" si="45"/>
-        <v>4227.0191307403629</v>
+        <v>5038.1741878120738</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="D499" s="1">
         <f t="shared" si="44"/>
-        <v>13832.547332085804</v>
+        <v>11361.584411117761</v>
       </c>
       <c r="E499" s="1">
         <f t="shared" si="45"/>
-        <v>5146.3281954216354</v>
+        <v>4227.0191307403629</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="D500" s="1">
         <f t="shared" si="44"/>
-        <v>14995.353412541352</v>
+        <v>13832.547332085804</v>
       </c>
       <c r="E500" s="1">
         <f t="shared" si="45"/>
-        <v>5578.944225859882</v>
+        <v>5146.3281954216354</v>
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="D501" s="1">
         <f t="shared" si="44"/>
-        <v>11385.809537793919</v>
+        <v>14995.353412541352</v>
       </c>
       <c r="E501" s="1">
         <f t="shared" si="45"/>
-        <v>4236.0319647078259</v>
+        <v>5578.944225859882</v>
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="D502" s="1">
         <f t="shared" si="44"/>
-        <v>11506.935171174706</v>
+        <v>11385.809537793919</v>
       </c>
       <c r="E502" s="1">
         <f t="shared" si="45"/>
-        <v>4281.0961345451433</v>
+        <v>4236.0319647078259</v>
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="D503" s="1">
         <f t="shared" si="44"/>
-        <v>8987.5219968543479</v>
+        <v>11506.935171174706</v>
       </c>
       <c r="E503" s="1">
         <f t="shared" si="45"/>
-        <v>3343.7614019289431</v>
+        <v>4281.0961345451433</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="D504" s="1">
         <f t="shared" si="44"/>
+        <v>8987.5219968543479</v>
+      </c>
+      <c r="E504" s="1">
+        <f t="shared" si="45"/>
+        <v>3343.7614019289431</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A505" s="1">
+        <v>1814</v>
+      </c>
+      <c r="D505" s="1">
+        <f t="shared" si="44"/>
         <v>3512.6433680428045</v>
       </c>
-      <c r="E504" s="1">
+      <c r="E505" s="1">
         <f t="shared" si="45"/>
         <v>1306.8609252822016</v>
       </c>
@@ -8942,11 +8964,11 @@
         <v>1793</v>
       </c>
       <c r="B107" s="1">
-        <f>Calcul!D483</f>
+        <f>Calcul!D484</f>
         <v>8527.2445900073599</v>
       </c>
       <c r="C107" s="1">
-        <f>Calcul!E483</f>
+        <f>Calcul!E484</f>
         <v>3172.5175565471377</v>
       </c>
     </row>
@@ -8955,11 +8977,11 @@
         <v>1794</v>
       </c>
       <c r="B108" s="1">
-        <f>Calcul!D484</f>
+        <f>Calcul!D485</f>
         <v>15600.981579445284</v>
       </c>
       <c r="C108" s="1">
-        <f>Calcul!E484</f>
+        <f>Calcul!E485</f>
         <v>5804.2650750464682</v>
       </c>
     </row>
@@ -8968,11 +8990,11 @@
         <v>1795</v>
       </c>
       <c r="B109" s="1">
-        <f>Calcul!D485</f>
+        <f>Calcul!D486</f>
         <v>15504.081072740655</v>
       </c>
       <c r="C109" s="1">
-        <f>Calcul!E485</f>
+        <f>Calcul!E486</f>
         <v>5768.2137391766146</v>
       </c>
     </row>
@@ -8981,11 +9003,11 @@
         <v>1796</v>
       </c>
       <c r="B110" s="1">
-        <f>Calcul!D486</f>
+        <f>Calcul!D487</f>
         <v>11846.086944640907</v>
       </c>
       <c r="C110" s="1">
-        <f>Calcul!E486</f>
+        <f>Calcul!E487</f>
         <v>4407.2758100896317</v>
       </c>
     </row>
@@ -8994,11 +9016,11 @@
         <v>1797</v>
       </c>
       <c r="B111" s="1">
-        <f>Calcul!D487</f>
+        <f>Calcul!D488</f>
         <v>22989.645215673252</v>
       </c>
       <c r="C111" s="1">
-        <f>Calcul!E487</f>
+        <f>Calcul!E488</f>
         <v>8553.1794351228236</v>
       </c>
     </row>
@@ -9007,11 +9029,11 @@
         <v>1798</v>
       </c>
       <c r="B112" s="1">
-        <f>Calcul!D488</f>
+        <f>Calcul!D489</f>
         <v>16666.887153196203</v>
       </c>
       <c r="C112" s="1">
-        <f>Calcul!E488</f>
+        <f>Calcul!E489</f>
         <v>6200.8297696148602</v>
       </c>
     </row>
@@ -9020,11 +9042,11 @@
         <v>1799</v>
       </c>
       <c r="B113" s="1">
-        <f>Calcul!D489</f>
+        <f>Calcul!D490</f>
         <v>17684.34247359481</v>
       </c>
       <c r="C113" s="1">
-        <f>Calcul!E489</f>
+        <f>Calcul!E490</f>
         <v>6579.3687962483255</v>
       </c>
     </row>
@@ -9033,11 +9055,11 @@
         <v>1800</v>
       </c>
       <c r="B114" s="1">
-        <f>Calcul!D490</f>
+        <f>Calcul!D491</f>
         <v>16133.934366320744</v>
       </c>
       <c r="C114" s="1">
-        <f>Calcul!E490</f>
+        <f>Calcul!E491</f>
         <v>6002.5474223306637</v>
       </c>
     </row>
@@ -9046,11 +9068,11 @@
         <v>1801</v>
       </c>
       <c r="B115" s="1">
-        <f>Calcul!D491</f>
+        <f>Calcul!D492</f>
         <v>9665.825543786752</v>
       </c>
       <c r="C115" s="1">
-        <f>Calcul!E491</f>
+        <f>Calcul!E492</f>
         <v>3596.1207530179199</v>
       </c>
     </row>
@@ -9066,11 +9088,11 @@
         <v>1803</v>
       </c>
       <c r="B117" s="1">
-        <f>Calcul!D493</f>
+        <f>Calcul!D494</f>
         <v>5377.9781221069152</v>
       </c>
       <c r="C117" s="1">
-        <f>Calcul!E493</f>
+        <f>Calcul!E494</f>
         <v>2000.8491407768881</v>
       </c>
     </row>
@@ -9079,11 +9101,11 @@
         <v>1804</v>
       </c>
       <c r="B118" s="1">
-        <f>Calcul!D494</f>
+        <f>Calcul!D495</f>
         <v>9375.1240236728645</v>
       </c>
       <c r="C118" s="1">
-        <f>Calcul!E494</f>
+        <f>Calcul!E495</f>
         <v>3487.9667454083587</v>
       </c>
     </row>
@@ -9092,11 +9114,11 @@
         <v>1805</v>
       </c>
       <c r="B119" s="1">
-        <f>Calcul!D495</f>
+        <f>Calcul!D496</f>
         <v>12282.139224811737</v>
       </c>
       <c r="C119" s="1">
-        <f>Calcul!E495</f>
+        <f>Calcul!E496</f>
         <v>4569.5068215039746</v>
       </c>
     </row>
@@ -9105,11 +9127,11 @@
         <v>1806</v>
       </c>
       <c r="B120" s="1">
-        <f>Calcul!D496</f>
+        <f>Calcul!D497</f>
         <v>12572.840744925625</v>
       </c>
       <c r="C120" s="1">
-        <f>Calcul!E496</f>
+        <f>Calcul!E497</f>
         <v>4677.6608291135353</v>
       </c>
     </row>
@@ -9118,11 +9140,11 @@
         <v>1807</v>
       </c>
       <c r="B121" s="1">
-        <f>Calcul!D497</f>
+        <f>Calcul!D498</f>
         <v>13541.845811971916</v>
       </c>
       <c r="C121" s="1">
-        <f>Calcul!E497</f>
+        <f>Calcul!E498</f>
         <v>5038.1741878120738</v>
       </c>
     </row>
@@ -9131,11 +9153,11 @@
         <v>1808</v>
       </c>
       <c r="B122" s="1">
-        <f>Calcul!D498</f>
+        <f>Calcul!D499</f>
         <v>11361.584411117761</v>
       </c>
       <c r="C122" s="1">
-        <f>Calcul!E498</f>
+        <f>Calcul!E499</f>
         <v>4227.0191307403629</v>
       </c>
     </row>
@@ -9144,11 +9166,11 @@
         <v>1809</v>
       </c>
       <c r="B123" s="1">
-        <f>Calcul!D499</f>
+        <f>Calcul!D500</f>
         <v>13832.547332085804</v>
       </c>
       <c r="C123" s="1">
-        <f>Calcul!E499</f>
+        <f>Calcul!E500</f>
         <v>5146.3281954216354</v>
       </c>
     </row>
@@ -9157,11 +9179,11 @@
         <v>1810</v>
       </c>
       <c r="B124" s="1">
-        <f>Calcul!D500</f>
+        <f>Calcul!D501</f>
         <v>14995.353412541352</v>
       </c>
       <c r="C124" s="1">
-        <f>Calcul!E500</f>
+        <f>Calcul!E501</f>
         <v>5578.944225859882</v>
       </c>
     </row>
@@ -9170,11 +9192,11 @@
         <v>1811</v>
       </c>
       <c r="B125" s="1">
-        <f>Calcul!D501</f>
+        <f>Calcul!D502</f>
         <v>11385.809537793919</v>
       </c>
       <c r="C125" s="1">
-        <f>Calcul!E501</f>
+        <f>Calcul!E502</f>
         <v>4236.0319647078259</v>
       </c>
     </row>
@@ -9183,11 +9205,11 @@
         <v>1812</v>
       </c>
       <c r="B126" s="1">
-        <f>Calcul!D502</f>
+        <f>Calcul!D503</f>
         <v>11506.935171174706</v>
       </c>
       <c r="C126" s="1">
-        <f>Calcul!E502</f>
+        <f>Calcul!E503</f>
         <v>4281.0961345451433</v>
       </c>
     </row>
@@ -9196,11 +9218,11 @@
         <v>1813</v>
       </c>
       <c r="B127" s="1">
-        <f>Calcul!D503</f>
+        <f>Calcul!D504</f>
         <v>8987.5219968543479</v>
       </c>
       <c r="C127" s="1">
-        <f>Calcul!E503</f>
+        <f>Calcul!E504</f>
         <v>3343.7614019289431</v>
       </c>
     </row>
@@ -9209,11 +9231,11 @@
         <v>1814</v>
       </c>
       <c r="B128" s="1">
-        <f>Calcul!D504</f>
+        <f>Calcul!D505</f>
         <v>3512.6433680428045</v>
       </c>
       <c r="C128" s="1">
-        <f>Calcul!E504</f>
+        <f>Calcul!E505</f>
         <v>1306.8609252822016</v>
       </c>
     </row>

--- a/External Data/Résultats de la course française.xlsx
+++ b/External Data/Résultats de la course française.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumedaudin/Répertoires Git/2016-Hamburg-Impact-of-War/External Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E3AAE1-5077-4046-B236-70C32B3E1A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643C6D21-712A-C347-8081-A42A01F43425}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16720" xr2:uid="{E3D52932-A783-EC49-8617-8937D12F747E}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16720" xr2:uid="{E3D52932-A783-EC49-8617-8937D12F747E}"/>
   </bookViews>
   <sheets>
     <sheet name="Calcul" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="213">
   <si>
     <t>Estimation de l’armement corsaire à Dunkerque, Saint-Malo et Bayonne (en milliers de lt) Villier 2002, p. 327</t>
   </si>
@@ -1013,16 +1013,41 @@
   <si>
     <t>REGARDER MARZAGALLI 2013</t>
   </si>
+  <si>
+    <r>
+      <t>Plouviez, D., &amp; Pichevin, H. (2018). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Les corsaires nantais pendant la Révolution française</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Presses universitaires de Rennes. Donne 64% de profit pour les investisseurs</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_ * #,##0.00_)\ &quot;€&quot;_ ;_ * \(#,##0.00\)\ &quot;€&quot;_ ;_ * &quot;-&quot;??_)\ &quot;€&quot;_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1091,6 +1116,26 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="13"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1121,10 +1166,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1135,8 +1181,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1159,9 +1208,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1199,7 +1248,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1305,7 +1354,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1447,7 +1496,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1469,10 +1518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747C72A1-6A8D-9E42-88DE-481B3F912E70}">
-  <dimension ref="A1:N505"/>
+  <dimension ref="A1:N506"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A427" workbookViewId="0">
-      <selection activeCell="A440" sqref="A440"/>
+    <sheetView tabSelected="1" topLeftCell="A421" workbookViewId="0">
+      <selection activeCell="A442" sqref="A442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1482,7 +1531,9 @@
     <col min="3" max="3" width="22.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="1"/>
     <col min="5" max="5" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="9" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="20" x14ac:dyDescent="0.2">
@@ -1946,7 +1997,7 @@
         <f>SUM(I22:I31)</f>
         <v>25516000</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="10">
         <f>SUM(J22:J31)</f>
         <v>28261816.272965882</v>
       </c>
@@ -7537,641 +7588,656 @@
       <c r="J440" s="3"/>
       <c r="K440" s="3"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A441" s="1" t="s">
-        <v>44</v>
-      </c>
+    <row r="441" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A441" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B441" s="3"/>
+      <c r="C441" s="3"/>
+      <c r="D441" s="3"/>
+      <c r="E441" s="3"/>
+      <c r="F441" s="3"/>
+      <c r="G441" s="3"/>
+      <c r="H441" s="3"/>
+      <c r="I441" s="3"/>
+      <c r="J441" s="3"/>
+      <c r="K441" s="3"/>
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="443" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A443" s="1" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A443" s="1">
-        <v>1793</v>
-      </c>
-      <c r="B443" s="1">
-        <v>352</v>
       </c>
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="B444" s="1">
-        <v>644</v>
+        <v>352</v>
       </c>
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="B445" s="1">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="B446" s="1">
-        <v>489</v>
+        <v>640</v>
       </c>
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="B447" s="1">
-        <v>949</v>
+        <v>489</v>
       </c>
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="B448" s="1">
-        <v>688</v>
+        <v>949</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="B449" s="1">
-        <v>730</v>
+        <v>688</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="B450" s="1">
-        <v>666</v>
+        <v>730</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="B451" s="1">
-        <v>399</v>
+        <v>666</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="B452" s="1">
-        <v>0</v>
+        <v>399</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="B453" s="1">
-        <v>222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="B454" s="1">
-        <v>387</v>
+        <v>222</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="B455" s="1">
-        <v>507</v>
+        <v>387</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="B456" s="1">
-        <v>519</v>
+        <v>507</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="B457" s="1">
-        <v>559</v>
+        <v>519</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="B458" s="1">
-        <v>469</v>
+        <v>559</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="B459" s="1">
-        <v>571</v>
+        <v>469</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="B460" s="1">
-        <v>619</v>
+        <v>571</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="B461" s="1">
-        <v>470</v>
+        <v>619</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="B462" s="1">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="B463" s="1">
-        <v>371</v>
+        <v>475</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
+        <v>1813</v>
+      </c>
+      <c r="B464" s="1">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A465" s="1">
         <v>1814</v>
       </c>
-      <c r="B464" s="1">
+      <c r="B465" s="1">
         <v>145</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A467" s="1" t="s">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A468" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B468" s="1" t="s">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B469" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A469" s="1">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A470" s="1">
         <v>1793</v>
       </c>
-      <c r="B469" s="1">
+      <c r="B470" s="1">
         <v>132</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A470" s="1">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A471" s="1">
         <v>1794</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A471" s="1">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A472" s="1">
         <v>1795</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A472" s="1">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A473" s="1">
         <v>1796</v>
       </c>
-      <c r="B472" s="1">
+      <c r="B473" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A473" s="1">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A474" s="1">
         <v>1797</v>
       </c>
-      <c r="B473" s="1">
+      <c r="B474" s="1">
         <v>145</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A474" s="1">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A475" s="1">
         <v>1798</v>
       </c>
-      <c r="B474" s="1">
+      <c r="B475" s="1">
         <v>144</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A475" s="1">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A476" s="1">
         <v>1799</v>
       </c>
-      <c r="B475" s="1">
+      <c r="B476" s="1">
         <v>117</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A476" s="1">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A477" s="1">
         <v>1800</v>
       </c>
-      <c r="B476" s="1">
+      <c r="B477" s="1">
         <v>87</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A477" s="1">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A478" s="1">
         <v>1801</v>
       </c>
-      <c r="B477" s="1">
+      <c r="B478" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A479" s="1" t="s">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A480" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A480" s="1" t="s">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A481" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D480" s="1">
+      <c r="D481" s="1">
         <f>19000/198</f>
         <v>95.959595959595958</v>
       </c>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B483" s="1" t="s">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B484" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C483" s="1" t="s">
+      <c r="C484" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D483" s="1" t="s">
+      <c r="D484" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E483" s="1" t="s">
+      <c r="E484" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H483" s="1" t="s">
+      <c r="H484" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I483" s="1">
-        <f>SUM(C484:C492)/(SUM(B443:B451)-B444-B445)</f>
+      <c r="I484" s="1">
+        <f>SUM(C485:C493)/(SUM(B444:B452)-B445-B446)</f>
         <v>24.225126676157274</v>
-      </c>
-    </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A484" s="1">
-        <v>1793</v>
-      </c>
-      <c r="B484" s="1">
-        <f>B469*$D$480</f>
-        <v>12666.666666666666</v>
-      </c>
-      <c r="C484" s="1">
-        <f>B484*$C$392</f>
-        <v>18157.90568115942</v>
-      </c>
-      <c r="D484" s="1">
-        <f>B443*$I$483</f>
-        <v>8527.2445900073599</v>
-      </c>
-      <c r="E484" s="1">
-        <f>D484/$C$392*$D$435</f>
-        <v>3172.5175565471377</v>
       </c>
     </row>
     <row r="485" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
-        <v>1794</v>
+        <v>1793</v>
+      </c>
+      <c r="B485" s="1">
+        <f>B470*$D$481</f>
+        <v>12666.666666666666</v>
+      </c>
+      <c r="C485" s="1">
+        <f>B485*$C$392</f>
+        <v>18157.90568115942</v>
       </c>
       <c r="D485" s="1">
-        <f t="shared" ref="D485:D505" si="44">B444*$I$483</f>
-        <v>15600.981579445284</v>
+        <f>B444*$I$484</f>
+        <v>8527.2445900073599</v>
       </c>
       <c r="E485" s="1">
-        <f t="shared" ref="E485:E505" si="45">D485/$C$392*$D$435</f>
-        <v>5804.2650750464682</v>
+        <f>D485/$C$392*$D$435</f>
+        <v>3172.5175565471377</v>
       </c>
     </row>
     <row r="486" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
+        <v>1794</v>
+      </c>
+      <c r="D486" s="1">
+        <f t="shared" ref="D486:D506" si="44">B445*$I$484</f>
+        <v>15600.981579445284</v>
+      </c>
+      <c r="E486" s="1">
+        <f t="shared" ref="E486:E506" si="45">D486/$C$392*$D$435</f>
+        <v>5804.2650750464682</v>
+      </c>
+    </row>
+    <row r="487" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A487" s="1">
         <v>1795</v>
       </c>
-      <c r="D486" s="1">
+      <c r="D487" s="1">
         <f t="shared" si="44"/>
         <v>15504.081072740655</v>
       </c>
-      <c r="E486" s="1">
+      <c r="E487" s="1">
         <f t="shared" si="45"/>
         <v>5768.2137391766146</v>
       </c>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A487" s="1">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A488" s="1">
         <v>1796</v>
       </c>
-      <c r="B487" s="1">
-        <f t="shared" ref="B487:B492" si="46">B472*$D$480</f>
+      <c r="B488" s="1">
+        <f t="shared" ref="B488:B493" si="46">B473*$D$481</f>
         <v>4318.181818181818</v>
       </c>
-      <c r="C487" s="1">
-        <f>B487*1.5</f>
+      <c r="C488" s="1">
+        <f>B488*1.5</f>
         <v>6477.272727272727</v>
       </c>
-      <c r="D487" s="1">
+      <c r="D488" s="1">
         <f t="shared" si="44"/>
         <v>11846.086944640907</v>
       </c>
-      <c r="E487" s="1">
+      <c r="E488" s="1">
         <f t="shared" si="45"/>
         <v>4407.2758100896317</v>
       </c>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A488" s="1">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A489" s="1">
         <v>1797</v>
       </c>
-      <c r="B488" s="1">
+      <c r="B489" s="1">
         <f t="shared" si="46"/>
         <v>13914.141414141413</v>
       </c>
-      <c r="C488" s="1">
-        <f t="shared" ref="C488:C492" si="47">B488*1.5</f>
+      <c r="C489" s="1">
+        <f t="shared" ref="C489:C493" si="47">B489*1.5</f>
         <v>20871.21212121212</v>
       </c>
-      <c r="D488" s="1">
+      <c r="D489" s="1">
         <f t="shared" si="44"/>
         <v>22989.645215673252</v>
       </c>
-      <c r="E488" s="1">
+      <c r="E489" s="1">
         <f t="shared" si="45"/>
         <v>8553.1794351228236</v>
       </c>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A489" s="1">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A490" s="1">
         <v>1798</v>
       </c>
-      <c r="B489" s="1">
+      <c r="B490" s="1">
         <f t="shared" si="46"/>
         <v>13818.181818181818</v>
       </c>
-      <c r="C489" s="1">
+      <c r="C490" s="1">
         <f t="shared" si="47"/>
         <v>20727.272727272728</v>
       </c>
-      <c r="D489" s="1">
+      <c r="D490" s="1">
         <f t="shared" si="44"/>
         <v>16666.887153196203</v>
       </c>
-      <c r="E489" s="1">
+      <c r="E490" s="1">
         <f t="shared" si="45"/>
         <v>6200.8297696148602</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A490" s="1">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A491" s="1">
         <v>1799</v>
       </c>
-      <c r="B490" s="1">
+      <c r="B491" s="1">
         <f t="shared" si="46"/>
         <v>11227.272727272728</v>
       </c>
-      <c r="C490" s="1">
+      <c r="C491" s="1">
         <f t="shared" si="47"/>
         <v>16840.909090909092</v>
       </c>
-      <c r="D490" s="1">
+      <c r="D491" s="1">
         <f t="shared" si="44"/>
         <v>17684.34247359481</v>
       </c>
-      <c r="E490" s="1">
+      <c r="E491" s="1">
         <f t="shared" si="45"/>
         <v>6579.3687962483255</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A491" s="1">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A492" s="1">
         <v>1800</v>
       </c>
-      <c r="B491" s="1">
+      <c r="B492" s="1">
         <f t="shared" si="46"/>
         <v>8348.484848484848</v>
       </c>
-      <c r="C491" s="1">
+      <c r="C492" s="1">
         <f t="shared" si="47"/>
         <v>12522.727272727272</v>
       </c>
-      <c r="D491" s="1">
+      <c r="D492" s="1">
         <f t="shared" si="44"/>
         <v>16133.934366320744</v>
       </c>
-      <c r="E491" s="1">
+      <c r="E492" s="1">
         <f t="shared" si="45"/>
         <v>6002.5474223306637</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A492" s="1">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A493" s="1">
         <v>1801</v>
       </c>
-      <c r="B492" s="1">
+      <c r="B493" s="1">
         <f t="shared" si="46"/>
         <v>5277.7777777777774</v>
       </c>
-      <c r="C492" s="1">
+      <c r="C493" s="1">
         <f t="shared" si="47"/>
         <v>7916.6666666666661</v>
       </c>
-      <c r="D492" s="1">
+      <c r="D493" s="1">
         <f t="shared" si="44"/>
         <v>9665.825543786752</v>
       </c>
-      <c r="E492" s="1">
+      <c r="E493" s="1">
         <f t="shared" si="45"/>
         <v>3596.1207530179199</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A493" s="1">
-        <v>1802</v>
-      </c>
-      <c r="D493" s="1">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="E493" s="1">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="494" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="D494" s="1">
         <f t="shared" si="44"/>
-        <v>5377.9781221069152</v>
+        <v>0</v>
       </c>
       <c r="E494" s="1">
         <f t="shared" si="45"/>
-        <v>2000.8491407768881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="D495" s="1">
         <f t="shared" si="44"/>
-        <v>9375.1240236728645</v>
+        <v>5377.9781221069152</v>
       </c>
       <c r="E495" s="1">
         <f t="shared" si="45"/>
-        <v>3487.9667454083587</v>
+        <v>2000.8491407768881</v>
       </c>
     </row>
     <row r="496" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D496" s="1">
         <f t="shared" si="44"/>
-        <v>12282.139224811737</v>
+        <v>9375.1240236728645</v>
       </c>
       <c r="E496" s="1">
         <f t="shared" si="45"/>
-        <v>4569.5068215039746</v>
+        <v>3487.9667454083587</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="D497" s="1">
         <f t="shared" si="44"/>
-        <v>12572.840744925625</v>
+        <v>12282.139224811737</v>
       </c>
       <c r="E497" s="1">
         <f t="shared" si="45"/>
-        <v>4677.6608291135353</v>
+        <v>4569.5068215039746</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="D498" s="1">
         <f t="shared" si="44"/>
-        <v>13541.845811971916</v>
+        <v>12572.840744925625</v>
       </c>
       <c r="E498" s="1">
         <f t="shared" si="45"/>
-        <v>5038.1741878120738</v>
+        <v>4677.6608291135353</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="D499" s="1">
         <f t="shared" si="44"/>
-        <v>11361.584411117761</v>
+        <v>13541.845811971916</v>
       </c>
       <c r="E499" s="1">
         <f t="shared" si="45"/>
-        <v>4227.0191307403629</v>
+        <v>5038.1741878120738</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="D500" s="1">
         <f t="shared" si="44"/>
-        <v>13832.547332085804</v>
+        <v>11361.584411117761</v>
       </c>
       <c r="E500" s="1">
         <f t="shared" si="45"/>
-        <v>5146.3281954216354</v>
+        <v>4227.0191307403629</v>
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="D501" s="1">
         <f t="shared" si="44"/>
-        <v>14995.353412541352</v>
+        <v>13832.547332085804</v>
       </c>
       <c r="E501" s="1">
         <f t="shared" si="45"/>
-        <v>5578.944225859882</v>
+        <v>5146.3281954216354</v>
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="D502" s="1">
         <f t="shared" si="44"/>
-        <v>11385.809537793919</v>
+        <v>14995.353412541352</v>
       </c>
       <c r="E502" s="1">
         <f t="shared" si="45"/>
-        <v>4236.0319647078259</v>
+        <v>5578.944225859882</v>
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="D503" s="1">
         <f t="shared" si="44"/>
-        <v>11506.935171174706</v>
+        <v>11385.809537793919</v>
       </c>
       <c r="E503" s="1">
         <f t="shared" si="45"/>
-        <v>4281.0961345451433</v>
+        <v>4236.0319647078259</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="D504" s="1">
         <f t="shared" si="44"/>
-        <v>8987.5219968543479</v>
+        <v>11506.935171174706</v>
       </c>
       <c r="E504" s="1">
         <f t="shared" si="45"/>
-        <v>3343.7614019289431</v>
+        <v>4281.0961345451433</v>
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="D505" s="1">
         <f t="shared" si="44"/>
+        <v>8987.5219968543479</v>
+      </c>
+      <c r="E505" s="1">
+        <f t="shared" si="45"/>
+        <v>3343.7614019289431</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A506" s="1">
+        <v>1814</v>
+      </c>
+      <c r="D506" s="1">
+        <f t="shared" si="44"/>
         <v>3512.6433680428045</v>
       </c>
-      <c r="E505" s="1">
+      <c r="E506" s="1">
         <f t="shared" si="45"/>
         <v>1306.8609252822016</v>
       </c>
@@ -8185,15 +8251,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F52ADF-FFA8-0A46-9CC0-C7AD4F73CE98}">
-  <dimension ref="A1:C128"/>
+  <dimension ref="A1:D128"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -8204,7 +8270,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1688</v>
       </c>
@@ -8216,8 +8282,12 @@
         <f>Calcul!B80</f>
         <v>3210.9924125976399</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <f>(B2-C2)/C2</f>
+        <v>0.80577151889783094</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1689</v>
       </c>
@@ -8229,8 +8299,12 @@
         <f>Calcul!B81</f>
         <v>7106.1158947627182</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <f t="shared" ref="D3:D11" si="0">(B3-C3)/C3</f>
+        <v>0.8057715188978305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1690</v>
       </c>
@@ -8242,8 +8316,12 @@
         <f>Calcul!B82</f>
         <v>8511.7138891669947</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.80577151889783083</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1691</v>
       </c>
@@ -8255,8 +8333,12 @@
         <f>Calcul!B83</f>
         <v>7994.8762900056336</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.80577151889783083</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1692</v>
       </c>
@@ -8268,8 +8350,12 @@
         <f>Calcul!B84</f>
         <v>12383.894555065433</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.80577151889783083</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1693</v>
       </c>
@@ -8281,8 +8367,12 @@
         <f>Calcul!B85</f>
         <v>12995.036272298423</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.80577151889783083</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1694</v>
       </c>
@@ -8294,8 +8384,12 @@
         <f>Calcul!B86</f>
         <v>11660.503440387862</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.80577151889783083</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1695</v>
       </c>
@@ -8307,8 +8401,12 @@
         <f>Calcul!B87</f>
         <v>11339.772024570229</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.80577151889783083</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1696</v>
       </c>
@@ -8320,8 +8418,12 @@
         <f>Calcul!B88</f>
         <v>10208.095747066222</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.80577151889783061</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1697</v>
       </c>
@@ -8333,29 +8435,33 @@
         <f>Calcul!B89</f>
         <v>9220.4787721382509</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.80577151889783094</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1698</v>
       </c>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1699</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1700</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1701</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1702</v>
       </c>
@@ -8520,52 +8626,52 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1735</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1736</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1737</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1738</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1739</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1740</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1741</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1742</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1743</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1744</v>
       </c>
@@ -8577,8 +8683,12 @@
         <f>Calcul!B280</f>
         <v>5575.554826863925</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D58">
+        <f>(B58-C58)/C58</f>
+        <v>0.76311467491063667</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1745</v>
       </c>
@@ -8590,8 +8700,12 @@
         <f>Calcul!B281</f>
         <v>10012.401094794281</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D59">
+        <f t="shared" ref="D59:D67" si="1">(B59-C59)/C59</f>
+        <v>0.76311467491063667</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1746</v>
       </c>
@@ -8603,8 +8717,12 @@
         <f>Calcul!B282</f>
         <v>10161.315614631088</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D60">
+        <f t="shared" si="1"/>
+        <v>0.76311467491063656</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1747</v>
       </c>
@@ -8616,8 +8734,12 @@
         <f>Calcul!B283</f>
         <v>7413.2495770737905</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D61">
+        <f t="shared" si="1"/>
+        <v>0.76311467491063656</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1748</v>
       </c>
@@ -8629,45 +8751,49 @@
         <f>Calcul!B284</f>
         <v>3856.0084816524932</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D62">
+        <f t="shared" si="1"/>
+        <v>0.76311467491063656</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1749</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1750</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1751</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1752</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1753</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1754</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1755</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1756</v>
       </c>
@@ -8679,8 +8805,12 @@
         <f>Calcul!B341</f>
         <v>3380.4385964912281</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D70">
+        <f t="shared" ref="D70:D76" si="2">(B70-C70)/C70</f>
+        <v>1.6456388074185</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1757</v>
       </c>
@@ -8692,8 +8822,12 @@
         <f>Calcul!B342</f>
         <v>10628.473684210527</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D71">
+        <f t="shared" si="2"/>
+        <v>0.14711116049579159</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1758</v>
       </c>
@@ -8705,8 +8839,12 @@
         <f>Calcul!B343</f>
         <v>5697.5614035087719</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D72">
+        <f t="shared" si="2"/>
+        <v>0.19234063806797549</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1759</v>
       </c>
@@ -8718,8 +8856,12 @@
         <f>Calcul!B344</f>
         <v>2858.9298245614036</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D73">
+        <f t="shared" si="2"/>
+        <v>1.7669303935692944</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1760</v>
       </c>
@@ -8731,8 +8873,12 @@
         <f>Calcul!B345</f>
         <v>3438.2105263157896</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D74">
+        <f t="shared" si="2"/>
+        <v>3.6468212850101316</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1761</v>
       </c>
@@ -8744,8 +8890,12 @@
         <f>Calcul!B346</f>
         <v>3091.5789473684208</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D75">
+        <f t="shared" si="2"/>
+        <v>1.51366447416089</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1762</v>
       </c>
@@ -8757,85 +8907,89 @@
         <f>Calcul!B347</f>
         <v>3479.5877192982457</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D76">
+        <f t="shared" si="2"/>
+        <v>0.44548833215902506</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1763</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1764</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1765</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1766</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1767</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1768</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1769</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1770</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1771</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1772</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1773</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1774</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1775</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1776</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1777</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1778</v>
       </c>
@@ -8847,8 +9001,12 @@
         <f>Calcul!B411</f>
         <v>2818.521699424497</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D92">
+        <f t="shared" ref="D92:D97" si="3">(B92-C92)/C92</f>
+        <v>4.2972515752611216</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>1779</v>
       </c>
@@ -8860,8 +9018,12 @@
         <f>Calcul!B412</f>
         <v>4086.8564641655207</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D93">
+        <f t="shared" si="3"/>
+        <v>1.5985256837926909</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>1780</v>
       </c>
@@ -8873,8 +9035,12 @@
         <f>Calcul!B413</f>
         <v>6482.5999086763431</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D94">
+        <f t="shared" si="3"/>
+        <v>1.3242479463080545</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>1781</v>
       </c>
@@ -8886,8 +9052,12 @@
         <f>Calcul!B414</f>
         <v>6623.5259936475677</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D95">
+        <f t="shared" si="3"/>
+        <v>1.9247170439555219</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1782</v>
       </c>
@@ -8899,8 +9069,12 @@
         <f>Calcul!B415</f>
         <v>7469.0825034749168</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D96">
+        <f t="shared" si="3"/>
+        <v>0.90143910948275552</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1783</v>
       </c>
@@ -8912,331 +9086,419 @@
         <f>Calcul!B416</f>
         <v>422.77825491367457</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D97">
+        <f t="shared" si="3"/>
+        <v>0.91274153073680231</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1784</v>
       </c>
       <c r="B98" s="1"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>1785</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1786</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1787</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>1788</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>1789</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>1790</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>1791</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>1792</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>1793</v>
       </c>
       <c r="B107" s="1">
-        <f>Calcul!D484</f>
+        <f>Calcul!D485</f>
         <v>8527.2445900073599</v>
       </c>
       <c r="C107" s="1">
-        <f>Calcul!E484</f>
+        <f>Calcul!E485</f>
         <v>3172.5175565471377</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D107">
+        <f t="shared" ref="D107:D128" si="4">(B107-C107)/C107</f>
+        <v>1.6878478804347825</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>1794</v>
       </c>
       <c r="B108" s="1">
-        <f>Calcul!D485</f>
+        <f>Calcul!D486</f>
         <v>15600.981579445284</v>
       </c>
       <c r="C108" s="1">
-        <f>Calcul!E485</f>
+        <f>Calcul!E486</f>
         <v>5804.2650750464682</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D108">
+        <f t="shared" si="4"/>
+        <v>1.687847880434783</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>1795</v>
       </c>
       <c r="B109" s="1">
-        <f>Calcul!D486</f>
+        <f>Calcul!D487</f>
         <v>15504.081072740655</v>
       </c>
       <c r="C109" s="1">
-        <f>Calcul!E486</f>
+        <f>Calcul!E487</f>
         <v>5768.2137391766146</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D109">
+        <f t="shared" si="4"/>
+        <v>1.6878478804347827</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>1796</v>
       </c>
       <c r="B110" s="1">
-        <f>Calcul!D487</f>
+        <f>Calcul!D488</f>
         <v>11846.086944640907</v>
       </c>
       <c r="C110" s="1">
-        <f>Calcul!E487</f>
+        <f>Calcul!E488</f>
         <v>4407.2758100896317</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D110">
+        <f t="shared" si="4"/>
+        <v>1.6878478804347827</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>1797</v>
       </c>
       <c r="B111" s="1">
-        <f>Calcul!D488</f>
+        <f>Calcul!D489</f>
         <v>22989.645215673252</v>
       </c>
       <c r="C111" s="1">
-        <f>Calcul!E488</f>
+        <f>Calcul!E489</f>
         <v>8553.1794351228236</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D111">
+        <f t="shared" si="4"/>
+        <v>1.6878478804347825</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>1798</v>
       </c>
       <c r="B112" s="1">
-        <f>Calcul!D489</f>
+        <f>Calcul!D490</f>
         <v>16666.887153196203</v>
       </c>
       <c r="C112" s="1">
-        <f>Calcul!E489</f>
+        <f>Calcul!E490</f>
         <v>6200.8297696148602</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D112">
+        <f t="shared" si="4"/>
+        <v>1.6878478804347825</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>1799</v>
       </c>
       <c r="B113" s="1">
-        <f>Calcul!D490</f>
+        <f>Calcul!D491</f>
         <v>17684.34247359481</v>
       </c>
       <c r="C113" s="1">
-        <f>Calcul!E490</f>
+        <f>Calcul!E491</f>
         <v>6579.3687962483255</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D113">
+        <f t="shared" si="4"/>
+        <v>1.6878478804347827</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>1800</v>
       </c>
       <c r="B114" s="1">
-        <f>Calcul!D491</f>
+        <f>Calcul!D492</f>
         <v>16133.934366320744</v>
       </c>
       <c r="C114" s="1">
-        <f>Calcul!E491</f>
+        <f>Calcul!E492</f>
         <v>6002.5474223306637</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D114">
+        <f t="shared" si="4"/>
+        <v>1.687847880434783</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>1801</v>
       </c>
       <c r="B115" s="1">
-        <f>Calcul!D492</f>
+        <f>Calcul!D493</f>
         <v>9665.825543786752</v>
       </c>
       <c r="C115" s="1">
-        <f>Calcul!E492</f>
+        <f>Calcul!E493</f>
         <v>3596.1207530179199</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D115">
+        <f t="shared" si="4"/>
+        <v>1.687847880434783</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>1802</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>1803</v>
       </c>
       <c r="B117" s="1">
-        <f>Calcul!D494</f>
+        <f>Calcul!D495</f>
         <v>5377.9781221069152</v>
       </c>
       <c r="C117" s="1">
-        <f>Calcul!E494</f>
+        <f>Calcul!E495</f>
         <v>2000.8491407768881</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D117">
+        <f t="shared" si="4"/>
+        <v>1.687847880434783</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>1804</v>
       </c>
       <c r="B118" s="1">
-        <f>Calcul!D495</f>
+        <f>Calcul!D496</f>
         <v>9375.1240236728645</v>
       </c>
       <c r="C118" s="1">
-        <f>Calcul!E495</f>
+        <f>Calcul!E496</f>
         <v>3487.9667454083587</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D118">
+        <f t="shared" si="4"/>
+        <v>1.6878478804347825</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>1805</v>
       </c>
       <c r="B119" s="1">
-        <f>Calcul!D496</f>
+        <f>Calcul!D497</f>
         <v>12282.139224811737</v>
       </c>
       <c r="C119" s="1">
-        <f>Calcul!E496</f>
+        <f>Calcul!E497</f>
         <v>4569.5068215039746</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D119">
+        <f t="shared" si="4"/>
+        <v>1.6878478804347823</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>1806</v>
       </c>
       <c r="B120" s="1">
-        <f>Calcul!D497</f>
+        <f>Calcul!D498</f>
         <v>12572.840744925625</v>
       </c>
       <c r="C120" s="1">
-        <f>Calcul!E497</f>
+        <f>Calcul!E498</f>
         <v>4677.6608291135353</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D120">
+        <f t="shared" si="4"/>
+        <v>1.6878478804347827</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>1807</v>
       </c>
       <c r="B121" s="1">
-        <f>Calcul!D498</f>
+        <f>Calcul!D499</f>
         <v>13541.845811971916</v>
       </c>
       <c r="C121" s="1">
-        <f>Calcul!E498</f>
+        <f>Calcul!E499</f>
         <v>5038.1741878120738</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D121">
+        <f t="shared" si="4"/>
+        <v>1.687847880434783</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>1808</v>
       </c>
       <c r="B122" s="1">
-        <f>Calcul!D499</f>
+        <f>Calcul!D500</f>
         <v>11361.584411117761</v>
       </c>
       <c r="C122" s="1">
-        <f>Calcul!E499</f>
+        <f>Calcul!E500</f>
         <v>4227.0191307403629</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D122">
+        <f t="shared" si="4"/>
+        <v>1.6878478804347825</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>1809</v>
       </c>
       <c r="B123" s="1">
-        <f>Calcul!D500</f>
+        <f>Calcul!D501</f>
         <v>13832.547332085804</v>
       </c>
       <c r="C123" s="1">
-        <f>Calcul!E500</f>
+        <f>Calcul!E501</f>
         <v>5146.3281954216354</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D123">
+        <f t="shared" si="4"/>
+        <v>1.6878478804347827</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>1810</v>
       </c>
       <c r="B124" s="1">
-        <f>Calcul!D501</f>
+        <f>Calcul!D502</f>
         <v>14995.353412541352</v>
       </c>
       <c r="C124" s="1">
-        <f>Calcul!E501</f>
+        <f>Calcul!E502</f>
         <v>5578.944225859882</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D124">
+        <f t="shared" si="4"/>
+        <v>1.6878478804347825</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>1811</v>
       </c>
       <c r="B125" s="1">
-        <f>Calcul!D502</f>
+        <f>Calcul!D503</f>
         <v>11385.809537793919</v>
       </c>
       <c r="C125" s="1">
-        <f>Calcul!E502</f>
+        <f>Calcul!E503</f>
         <v>4236.0319647078259</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D125">
+        <f t="shared" si="4"/>
+        <v>1.687847880434783</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>1812</v>
       </c>
       <c r="B126" s="1">
-        <f>Calcul!D503</f>
+        <f>Calcul!D504</f>
         <v>11506.935171174706</v>
       </c>
       <c r="C126" s="1">
-        <f>Calcul!E503</f>
+        <f>Calcul!E504</f>
         <v>4281.0961345451433</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D126">
+        <f t="shared" si="4"/>
+        <v>1.687847880434783</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>1813</v>
       </c>
       <c r="B127" s="1">
-        <f>Calcul!D504</f>
+        <f>Calcul!D505</f>
         <v>8987.5219968543479</v>
       </c>
       <c r="C127" s="1">
-        <f>Calcul!E504</f>
+        <f>Calcul!E505</f>
         <v>3343.7614019289431</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D127">
+        <f t="shared" si="4"/>
+        <v>1.687847880434783</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>1814</v>
       </c>
       <c r="B128" s="1">
-        <f>Calcul!D505</f>
+        <f>Calcul!D506</f>
         <v>3512.6433680428045</v>
       </c>
       <c r="C128" s="1">
-        <f>Calcul!E505</f>
+        <f>Calcul!E506</f>
         <v>1306.8609252822016</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="4"/>
+        <v>1.6878478804347827</v>
       </c>
     </row>
   </sheetData>

--- a/External Data/Résultats de la course française.xlsx
+++ b/External Data/Résultats de la course française.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumedaudin/Répertoires Git/2016-Hamburg-Impact-of-War/External Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643C6D21-712A-C347-8081-A42A01F43425}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD799FD-E94B-5549-A84C-1D150A5FE797}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16720" xr2:uid="{E3D52932-A783-EC49-8617-8937D12F747E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16720" activeTab="1" xr2:uid="{E3D52932-A783-EC49-8617-8937D12F747E}"/>
   </bookViews>
   <sheets>
     <sheet name="Calcul" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="214">
   <si>
     <t>Estimation de l’armement corsaire à Dunkerque, Saint-Malo et Bayonne (en milliers de lt) Villier 2002, p. 327</t>
   </si>
@@ -1036,6 +1036,9 @@
       </rPr>
       <t>. Presses universitaires de Rennes. Donne 64% de profit pour les investisseurs</t>
     </r>
+  </si>
+  <si>
+    <t>C’est trop… Je vais supposer qu’il y 80% de profits bruts (ie la moyenne entre la guerre d’avant et la guerre d’après…)</t>
   </si>
 </sst>
 </file>
@@ -1518,10 +1521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747C72A1-6A8D-9E42-88DE-481B3F912E70}">
-  <dimension ref="A1:N506"/>
+  <dimension ref="A1:N524"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A421" workbookViewId="0">
-      <selection activeCell="A442" sqref="A442"/>
+    <sheetView topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="B234" sqref="B234:B245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5578,419 +5581,313 @@
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A234" s="1">
+        <v>1702</v>
+      </c>
+      <c r="B234" s="1">
+        <f>B196/1.8</f>
+        <v>3665.6782073742174</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A235" s="1">
+        <v>1703</v>
+      </c>
+      <c r="B235" s="1">
+        <f t="shared" ref="B235:B245" si="27">B197/1.8</f>
+        <v>3665.6782073742174</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A236" s="1">
+        <v>1704</v>
+      </c>
+      <c r="B236" s="1">
+        <f t="shared" si="27"/>
+        <v>5507.6968057375552</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A237" s="1">
+        <v>1705</v>
+      </c>
+      <c r="B237" s="1">
+        <f t="shared" si="27"/>
+        <v>8334.9811660161668</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A238" s="1">
+        <v>1706</v>
+      </c>
+      <c r="B238" s="1">
+        <f t="shared" si="27"/>
+        <v>7062.0912375790431</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A239" s="1">
+        <v>1707</v>
+      </c>
+      <c r="B239" s="1">
+        <f t="shared" si="27"/>
+        <v>8175.8699249615256</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A240" s="1">
+        <v>1708</v>
+      </c>
+      <c r="B240" s="1">
+        <f t="shared" si="27"/>
+        <v>8065.7159888467759</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A241" s="1">
+        <v>1709</v>
+      </c>
+      <c r="B241" s="1">
+        <f t="shared" si="27"/>
+        <v>9363.0845697538443</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A242" s="1">
+        <v>1710</v>
+      </c>
+      <c r="B242" s="1">
+        <f t="shared" si="27"/>
+        <v>7894.3654215571623</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A243" s="1">
+        <v>1711</v>
+      </c>
+      <c r="B243" s="1">
+        <f t="shared" si="27"/>
+        <v>9791.4609879778764</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A244" s="1">
+        <v>1712</v>
+      </c>
+      <c r="B244" s="1">
+        <f t="shared" si="27"/>
+        <v>4491.83272823485</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A245" s="1">
+        <v>1713</v>
+      </c>
+      <c r="B245" s="1">
+        <f t="shared" si="27"/>
+        <v>4491.83272823485</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A251" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="G233" s="1" t="s">
+      <c r="G251" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H233" s="1" t="s">
+      <c r="H251" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="I233" s="1" t="s">
+      <c r="I251" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="J233" s="1" t="s">
+      <c r="J251" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A234" s="1" t="s">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A252" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B234" s="1" t="s">
+      <c r="B252" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C234" s="1">
+      <c r="C252" s="1">
         <v>30000000</v>
       </c>
-      <c r="E234" s="1" t="s">
+      <c r="E252" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="G234" s="5">
+      <c r="G252" s="5">
         <f>648/590</f>
         <v>1.0983050847457627</v>
       </c>
-      <c r="H234" s="5">
+      <c r="H252" s="5">
         <f>320/143</f>
         <v>2.2377622377622379</v>
       </c>
-      <c r="I234" s="5">
+      <c r="I252" s="5">
         <f>4000/(1.92*700)</f>
         <v>2.9761904761904763</v>
       </c>
-      <c r="J234" s="2">
+      <c r="J252" s="2">
         <v>1.5</v>
       </c>
-      <c r="K234" s="1">
-        <f>J234*C234</f>
+      <c r="K252" s="1">
+        <f>J252*C252</f>
         <v>45000000</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A235" s="1" t="s">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A253" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="G235" s="5"/>
-      <c r="H235" s="5"/>
-      <c r="I235" s="5"/>
-      <c r="J235" s="2"/>
-    </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A236" s="1">
+      <c r="G253" s="5"/>
+      <c r="H253" s="5"/>
+      <c r="I253" s="5"/>
+      <c r="J253" s="2"/>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A254" s="1">
         <v>1702</v>
       </c>
-      <c r="B236" s="1">
-        <f>K$234/12/2</f>
+      <c r="B254" s="1">
+        <f>K$252/12/2</f>
         <v>1875000</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A237" s="1">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A255" s="1">
         <v>1703</v>
       </c>
-      <c r="B237" s="1">
-        <f t="shared" ref="B237:B243" si="27">K$234/12/2</f>
+      <c r="B255" s="1">
+        <f t="shared" ref="B255:B261" si="28">K$252/12/2</f>
         <v>1875000</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A238" s="1">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A256" s="1">
         <v>1704</v>
       </c>
-      <c r="B238" s="1">
-        <f t="shared" si="27"/>
+      <c r="B256" s="1">
+        <f t="shared" si="28"/>
         <v>1875000</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A239" s="1">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A257" s="1">
         <v>1705</v>
       </c>
-      <c r="B239" s="1">
-        <f t="shared" si="27"/>
+      <c r="B257" s="1">
+        <f t="shared" si="28"/>
         <v>1875000</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A240" s="1">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A258" s="1">
         <v>1706</v>
       </c>
-      <c r="B240" s="1">
-        <f t="shared" si="27"/>
+      <c r="B258" s="1">
+        <f t="shared" si="28"/>
         <v>1875000</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A241" s="1">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A259" s="1">
         <v>1707</v>
       </c>
-      <c r="B241" s="1">
-        <f t="shared" si="27"/>
+      <c r="B259" s="1">
+        <f t="shared" si="28"/>
         <v>1875000</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A242" s="1">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A260" s="1">
         <v>1708</v>
       </c>
-      <c r="B242" s="1">
-        <f t="shared" si="27"/>
+      <c r="B260" s="1">
+        <f t="shared" si="28"/>
         <v>1875000</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A243" s="1">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A261" s="1">
         <v>1709</v>
       </c>
-      <c r="B243" s="1">
-        <f t="shared" si="27"/>
+      <c r="B261" s="1">
+        <f t="shared" si="28"/>
         <v>1875000</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A244" s="1">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A262" s="1">
         <v>1710</v>
       </c>
-      <c r="B244" s="1">
-        <f>K$234/4+K$234/2/12</f>
+      <c r="B262" s="1">
+        <f>K$252/4+K$252/2/12</f>
         <v>13125000</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A245" s="1">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A263" s="1">
         <v>1711</v>
       </c>
-      <c r="B245" s="1">
-        <f>K$234/12/2</f>
+      <c r="B263" s="1">
+        <f>K$252/12/2</f>
         <v>1875000</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A246" s="1">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A264" s="1">
         <v>1712</v>
       </c>
-      <c r="B246" s="1">
-        <f>K$234/4+K$234/2/12</f>
+      <c r="B264" s="1">
+        <f>K$252/4+K$252/2/12</f>
         <v>13125000</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A247" s="1">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A265" s="1">
         <v>1713</v>
       </c>
-      <c r="B247" s="1">
-        <f>K$234/12/2</f>
+      <c r="B265" s="1">
+        <f>K$252/12/2</f>
         <v>1875000</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B248" s="1">
-        <f>SUM(B236:B247)</f>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B266" s="1">
+        <f>SUM(B254:B265)</f>
         <v>45000000</v>
       </c>
-      <c r="G248" s="5"/>
-      <c r="H248" s="5"/>
-      <c r="I248" s="5"/>
-      <c r="J248" s="2"/>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G249" s="5"/>
-      <c r="H249" s="5"/>
-      <c r="I249" s="5"/>
-      <c r="J249" s="2"/>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A250" s="1" t="s">
+      <c r="G266" s="5"/>
+      <c r="H266" s="5"/>
+      <c r="I266" s="5"/>
+      <c r="J266" s="2"/>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G267" s="5"/>
+      <c r="H267" s="5"/>
+      <c r="I267" s="5"/>
+      <c r="J267" s="2"/>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A268" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="252" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="9" t="s">
+    <row r="270" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A270" s="9" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A256" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B257" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D257" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A258" s="1">
-        <v>1744</v>
-      </c>
-      <c r="B258" s="1">
-        <f>865</f>
-        <v>865</v>
-      </c>
-      <c r="C258" s="1">
-        <v>915</v>
-      </c>
-      <c r="D258" s="1">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A259" s="1">
-        <v>1745</v>
-      </c>
-      <c r="B259" s="1">
-        <v>630</v>
-      </c>
-      <c r="C259" s="1">
-        <v>2872</v>
-      </c>
-      <c r="D259" s="1">
-        <v>1690</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A260" s="1">
-        <v>1746</v>
-      </c>
-      <c r="B260" s="1">
-        <v>747</v>
-      </c>
-      <c r="C260" s="1">
-        <v>2820</v>
-      </c>
-      <c r="D260" s="1">
-        <v>1657</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A261" s="1">
-        <v>1747</v>
-      </c>
-      <c r="B261" s="1">
-        <v>492</v>
-      </c>
-      <c r="C261" s="1">
-        <v>1655</v>
-      </c>
-      <c r="D261" s="1">
-        <v>1657</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A262" s="1">
-        <v>1748</v>
-      </c>
-      <c r="B262" s="1">
-        <v>558</v>
-      </c>
-      <c r="C262" s="1">
-        <v>340</v>
-      </c>
-      <c r="D262" s="1">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A264" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E264" s="2">
-        <f>4800/3292</f>
-        <v>1.4580801944106927</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A265" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E265" s="2">
-        <f>7300/6821</f>
-        <v>1.0702243072863216</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B266" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C266" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D266" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A267" s="1">
-        <v>1744</v>
-      </c>
-      <c r="B267" s="1">
-        <f>B258*$E$264</f>
-        <v>1261.2393681652493</v>
-      </c>
-      <c r="C267" s="1">
-        <f>C258</f>
-        <v>915</v>
-      </c>
-      <c r="D267" s="1">
-        <f>D258*$E$265</f>
-        <v>941.79739041196297</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A268" s="1">
-        <v>1745</v>
-      </c>
-      <c r="B268" s="1">
-        <f>B259*$E$264</f>
-        <v>918.59052247873637</v>
-      </c>
-      <c r="C268" s="1">
-        <f t="shared" ref="C268:C271" si="28">C259</f>
-        <v>2872</v>
-      </c>
-      <c r="D268" s="1">
-        <f>D259*$E$265</f>
-        <v>1808.6790793138834</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A269" s="1">
-        <v>1746</v>
-      </c>
-      <c r="B269" s="1">
-        <f>B260*$E$264</f>
-        <v>1089.1859052247873</v>
-      </c>
-      <c r="C269" s="1">
-        <f t="shared" si="28"/>
-        <v>2820</v>
-      </c>
-      <c r="D269" s="1">
-        <f>D260*$E$265</f>
-        <v>1773.3616771734348</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A270" s="1">
-        <v>1747</v>
-      </c>
-      <c r="B270" s="1">
-        <f>B261*$E$264</f>
-        <v>717.37545565006076</v>
-      </c>
-      <c r="C270" s="1">
-        <f t="shared" si="28"/>
-        <v>1655</v>
-      </c>
-      <c r="D270" s="1">
-        <f>D261*$E$265</f>
-        <v>1773.3616771734348</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A271" s="1">
-        <v>1748</v>
-      </c>
-      <c r="B271" s="1">
-        <f>B262*$E$264</f>
-        <v>813.60874848116657</v>
-      </c>
-      <c r="C271" s="1">
-        <f t="shared" si="28"/>
-        <v>340</v>
-      </c>
-      <c r="D271" s="1">
-        <f>D262*$E$265</f>
-        <v>1002.8001759272832</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B272" s="1">
-        <f>SUM(B267:B271)</f>
-        <v>4800.0000000000009</v>
-      </c>
-      <c r="C272" s="1">
-        <f t="shared" ref="C272:D272" si="29">SUM(C267:C271)</f>
-        <v>8602</v>
-      </c>
-      <c r="D272" s="1">
-        <f t="shared" si="29"/>
-        <v>7299.9999999999991</v>
-      </c>
-      <c r="E272" s="1">
-        <f>SUM(B272:D272)</f>
-        <v>20702</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
@@ -6003,1492 +5900,1575 @@
       <c r="D275" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E275" s="1" t="s">
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A276" s="1">
+        <v>1744</v>
+      </c>
+      <c r="B276" s="1">
+        <f>865</f>
+        <v>865</v>
+      </c>
+      <c r="C276" s="1">
+        <v>915</v>
+      </c>
+      <c r="D276" s="1">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A277" s="1">
+        <v>1745</v>
+      </c>
+      <c r="B277" s="1">
+        <v>630</v>
+      </c>
+      <c r="C277" s="1">
+        <v>2872</v>
+      </c>
+      <c r="D277" s="1">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A278" s="1">
+        <v>1746</v>
+      </c>
+      <c r="B278" s="1">
+        <v>747</v>
+      </c>
+      <c r="C278" s="1">
+        <v>2820</v>
+      </c>
+      <c r="D278" s="1">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A279" s="1">
+        <v>1747</v>
+      </c>
+      <c r="B279" s="1">
+        <v>492</v>
+      </c>
+      <c r="C279" s="1">
+        <v>1655</v>
+      </c>
+      <c r="D279" s="1">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A280" s="1">
+        <v>1748</v>
+      </c>
+      <c r="B280" s="1">
+        <v>558</v>
+      </c>
+      <c r="C280" s="1">
+        <v>340</v>
+      </c>
+      <c r="D280" s="1">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A282" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E282" s="2">
+        <f>4800/3292</f>
+        <v>1.4580801944106927</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A283" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E283" s="2">
+        <f>7300/6821</f>
+        <v>1.0702243072863216</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B284" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A285" s="1">
+        <v>1744</v>
+      </c>
+      <c r="B285" s="1">
+        <f>B276*$E$282</f>
+        <v>1261.2393681652493</v>
+      </c>
+      <c r="C285" s="1">
+        <f>C276</f>
+        <v>915</v>
+      </c>
+      <c r="D285" s="1">
+        <f>D276*$E$283</f>
+        <v>941.79739041196297</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A286" s="1">
+        <v>1745</v>
+      </c>
+      <c r="B286" s="1">
+        <f>B277*$E$282</f>
+        <v>918.59052247873637</v>
+      </c>
+      <c r="C286" s="1">
+        <f t="shared" ref="C286:C289" si="29">C277</f>
+        <v>2872</v>
+      </c>
+      <c r="D286" s="1">
+        <f>D277*$E$283</f>
+        <v>1808.6790793138834</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A287" s="1">
+        <v>1746</v>
+      </c>
+      <c r="B287" s="1">
+        <f>B278*$E$282</f>
+        <v>1089.1859052247873</v>
+      </c>
+      <c r="C287" s="1">
+        <f t="shared" si="29"/>
+        <v>2820</v>
+      </c>
+      <c r="D287" s="1">
+        <f>D278*$E$283</f>
+        <v>1773.3616771734348</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A288" s="1">
+        <v>1747</v>
+      </c>
+      <c r="B288" s="1">
+        <f>B279*$E$282</f>
+        <v>717.37545565006076</v>
+      </c>
+      <c r="C288" s="1">
+        <f t="shared" si="29"/>
+        <v>1655</v>
+      </c>
+      <c r="D288" s="1">
+        <f>D279*$E$283</f>
+        <v>1773.3616771734348</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A289" s="1">
+        <v>1748</v>
+      </c>
+      <c r="B289" s="1">
+        <f>B280*$E$282</f>
+        <v>813.60874848116657</v>
+      </c>
+      <c r="C289" s="1">
+        <f t="shared" si="29"/>
+        <v>340</v>
+      </c>
+      <c r="D289" s="1">
+        <f>D280*$E$283</f>
+        <v>1002.8001759272832</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B290" s="1">
+        <f>SUM(B285:B289)</f>
+        <v>4800.0000000000009</v>
+      </c>
+      <c r="C290" s="1">
+        <f t="shared" ref="C290:D290" si="30">SUM(C285:C289)</f>
+        <v>8602</v>
+      </c>
+      <c r="D290" s="1">
+        <f t="shared" si="30"/>
+        <v>7299.9999999999991</v>
+      </c>
+      <c r="E290" s="1">
+        <f>SUM(B290:D290)</f>
+        <v>20702</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A292" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B293" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E293" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B276" s="1">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B294" s="1">
         <v>130</v>
       </c>
-      <c r="C276" s="1">
+      <c r="C294" s="1">
         <v>88</v>
       </c>
-      <c r="D276" s="1">
+      <c r="D294" s="1">
         <v>103</v>
       </c>
-      <c r="E276" s="1">
+      <c r="E294" s="1">
         <f>3+53+60+13+18+1+8+13+2+2+12+6+1+11+6+1+7+16+20</f>
         <v>253</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A277" s="1" t="s">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A295" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E277" s="1">
-        <f>E276/(B276+C276+D276)*E272</f>
+      <c r="E295" s="1">
+        <f>E294/(B294+C294+D294)*E290</f>
         <v>16316.529595015576</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A279" s="1" t="s">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A297" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A280" s="1">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A298" s="1">
         <v>1744</v>
       </c>
-      <c r="B280" s="1">
-        <f>(B267+C267+D267)*($E$272+$E$277)/$E$272</f>
+      <c r="B298" s="1">
+        <f>(B285+C285+D285)*($E$290+$E$295)/$E$290</f>
         <v>5575.554826863925</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A281" s="1">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A299" s="1">
         <v>1745</v>
       </c>
-      <c r="B281" s="1">
-        <f>(B268+C268+D268)*($E$272+$E$277)/$E$272</f>
+      <c r="B299" s="1">
+        <f>(B286+C286+D286)*($E$290+$E$295)/$E$290</f>
         <v>10012.401094794281</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A282" s="1">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A300" s="1">
         <v>1746</v>
       </c>
-      <c r="B282" s="1">
-        <f>(B269+C269+D269)*($E$272+$E$277)/$E$272</f>
+      <c r="B300" s="1">
+        <f>(B287+C287+D287)*($E$290+$E$295)/$E$290</f>
         <v>10161.315614631088</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A283" s="1">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A301" s="1">
         <v>1747</v>
       </c>
-      <c r="B283" s="1">
-        <f>(B270+C270+D270)*($E$272+$E$277)/$E$272</f>
+      <c r="B301" s="1">
+        <f>(B288+C288+D288)*($E$290+$E$295)/$E$290</f>
         <v>7413.2495770737905</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A284" s="1">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A302" s="1">
         <v>1748</v>
       </c>
-      <c r="B284" s="1">
-        <f>(B271+C271+D271)*($E$272+$E$277)/$E$272</f>
+      <c r="B302" s="1">
+        <f>(B289+C289+D289)*($E$290+$E$295)/$E$290</f>
         <v>3856.0084816524932</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B285" s="1">
-        <f>SUM(B280:B284)</f>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B303" s="1">
+        <f>SUM(B298:B302)</f>
         <v>37018.529595015571</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A289" s="1" t="s">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A307" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B290" s="1" t="s">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B308" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C290" s="1" t="s">
+      <c r="C308" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D290" s="1" t="s">
+      <c r="D308" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B291" s="1">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B309" s="1">
         <v>12000</v>
       </c>
-      <c r="C291" s="1">
+      <c r="C309" s="1">
         <v>11000</v>
       </c>
-      <c r="D291" s="1">
+      <c r="D309" s="1">
         <v>13500</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A293" s="1" t="s">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A311" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E293" s="2">
-        <f>(B291+C291+D291)/(B272+C272+D272)</f>
+      <c r="E311" s="2">
+        <f>(B309+C309+D309)/(B290+C290+D290)</f>
         <v>1.7631146749106366</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A295" s="1" t="s">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A313" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B295" s="1" t="s">
+      <c r="B313" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F295" s="1" t="s">
+      <c r="F313" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J295" s="4">
+      <c r="J313" s="4">
         <v>1.5</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B296" s="1" t="s">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B314" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C296" s="1" t="s">
+      <c r="C314" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D296" s="1" t="s">
+      <c r="D314" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F296" s="1" t="s">
+      <c r="F314" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="297" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A297" s="1">
+    <row r="315" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A315" s="1">
         <v>1744</v>
       </c>
-      <c r="B297" s="1">
+      <c r="B315" s="1">
         <v>31</v>
       </c>
-      <c r="C297" s="1">
+      <c r="C315" s="1">
         <v>921</v>
       </c>
-      <c r="D297" s="1">
-        <f>C297/$J$295</f>
+      <c r="D315" s="1">
+        <f>C315/$J$313</f>
         <v>614</v>
       </c>
-      <c r="E297" s="1">
-        <f>D297</f>
+      <c r="E315" s="1">
+        <f>D315</f>
         <v>614</v>
       </c>
-      <c r="F297" s="1"/>
-      <c r="G297" s="1"/>
-      <c r="H297" s="1"/>
-      <c r="I297" s="1"/>
-      <c r="J297" s="1"/>
-      <c r="K297" s="1"/>
-      <c r="L297" s="1"/>
-      <c r="M297" s="1"/>
-      <c r="N297" s="1"/>
-    </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A298" s="1">
+      <c r="F315" s="1"/>
+      <c r="G315" s="1"/>
+      <c r="H315" s="1"/>
+      <c r="I315" s="1"/>
+      <c r="J315" s="1"/>
+      <c r="K315" s="1"/>
+      <c r="L315" s="1"/>
+      <c r="M315" s="1"/>
+      <c r="N315" s="1"/>
+    </row>
+    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A316" s="1">
         <v>1745</v>
       </c>
-      <c r="B298" s="1">
+      <c r="B316" s="1">
         <v>53</v>
       </c>
-      <c r="C298" s="1">
+      <c r="C316" s="1">
         <v>1116</v>
       </c>
-      <c r="D298" s="1">
-        <f>C298/$J$295</f>
+      <c r="D316" s="1">
+        <f>C316/$J$313</f>
         <v>744</v>
       </c>
-      <c r="E298" s="1">
-        <f t="shared" ref="E298:E300" si="30">D298</f>
+      <c r="E316" s="1">
+        <f t="shared" ref="E316:E318" si="31">D316</f>
         <v>744</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A299" s="1">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A317" s="1">
         <v>1746</v>
       </c>
-      <c r="B299" s="1">
+      <c r="B317" s="1">
         <v>122</v>
       </c>
-      <c r="C299" s="1">
+      <c r="C317" s="1">
         <v>4679</v>
       </c>
-      <c r="D299" s="1">
-        <f>C299/$J$295</f>
+      <c r="D317" s="1">
+        <f>C317/$J$313</f>
         <v>3119.3333333333335</v>
       </c>
-      <c r="E299" s="1">
-        <f t="shared" si="30"/>
+      <c r="E317" s="1">
+        <f t="shared" si="31"/>
         <v>3119.3333333333335</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A300" s="1">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A318" s="1">
         <v>1747</v>
       </c>
-      <c r="B300" s="1">
+      <c r="B318" s="1">
         <v>99</v>
       </c>
-      <c r="C300" s="1">
+      <c r="C318" s="1">
         <v>4441</v>
       </c>
-      <c r="D300" s="1">
-        <f>C300/$J$295</f>
+      <c r="D318" s="1">
+        <f>C318/$J$313</f>
         <v>2960.6666666666665</v>
       </c>
-      <c r="E300" s="1">
-        <f t="shared" si="30"/>
+      <c r="E318" s="1">
+        <f t="shared" si="31"/>
         <v>2960.6666666666665</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A301" s="1">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A319" s="1">
         <v>1748</v>
       </c>
-      <c r="B301" s="3"/>
-      <c r="E301" s="1">
-        <f>10000-D302</f>
+      <c r="B319" s="3"/>
+      <c r="E319" s="1">
+        <f>10000-D320</f>
         <v>2562</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B302" s="1">
-        <f>SUM(B297:B301)</f>
+    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B320" s="1">
+        <f>SUM(B315:B319)</f>
         <v>305</v>
       </c>
-      <c r="C302" s="1">
-        <f>SUM(C297:C300)</f>
+      <c r="C320" s="1">
+        <f>SUM(C315:C318)</f>
         <v>11157</v>
       </c>
-      <c r="D302" s="1">
-        <f>SUM(D297:D300)</f>
+      <c r="D320" s="1">
+        <f>SUM(D315:D318)</f>
         <v>7438</v>
       </c>
-      <c r="E302" s="1">
-        <f>SUM(E297:E301)</f>
+      <c r="E320" s="1">
+        <f>SUM(E315:E319)</f>
         <v>10000</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A306" s="1" t="s">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A324" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A307" s="1">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A325" s="1">
         <v>1744</v>
       </c>
-      <c r="B307" s="1">
-        <f>B280*$E$293</f>
+      <c r="B325" s="1">
+        <f>B298*$E$311</f>
         <v>9830.3425360126203</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A308" s="1">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A326" s="1">
         <v>1745</v>
       </c>
-      <c r="B308" s="1">
-        <f>B281*$E$293</f>
+      <c r="B326" s="1">
+        <f>B299*$E$311</f>
         <v>17653.01130132312</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A309" s="1">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A327" s="1">
         <v>1746</v>
       </c>
-      <c r="B309" s="1">
-        <f>B282*$E$293</f>
+      <c r="B327" s="1">
+        <f>B300*$E$311</f>
         <v>17915.564676554666</v>
       </c>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A310" s="1">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A328" s="1">
         <v>1747</v>
       </c>
-      <c r="B310" s="1">
-        <f>B283*$E$293</f>
+      <c r="B328" s="1">
+        <f>B301*$E$311</f>
         <v>13070.40911811387</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A311" s="1">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A329" s="1">
         <v>1748</v>
       </c>
-      <c r="B311" s="1">
-        <f>B284*$E$293</f>
+      <c r="B329" s="1">
+        <f>B302*$E$311</f>
         <v>6798.5851405813928</v>
       </c>
-      <c r="L311" s="3"/>
-      <c r="M311" s="3"/>
-      <c r="N311" s="3"/>
-    </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B312" s="1">
-        <f>SUM(B307:B311)</f>
+      <c r="L329" s="3"/>
+      <c r="M329" s="3"/>
+      <c r="N329" s="3"/>
+    </row>
+    <row r="330" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B330" s="1">
+        <f>SUM(B325:B329)</f>
         <v>65267.912772585674</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A322" s="1" t="s">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A340" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A323" s="3"/>
-      <c r="B323" s="3"/>
-      <c r="C323" s="3"/>
-      <c r="D323" s="3"/>
-      <c r="E323" s="3"/>
-      <c r="F323" s="3"/>
-      <c r="G323" s="3"/>
-      <c r="H323" s="3"/>
-      <c r="I323" s="3"/>
-      <c r="J323" s="3"/>
-      <c r="K323" s="3"/>
-    </row>
-    <row r="324" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A324" s="9" t="s">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A341" s="3"/>
+      <c r="B341" s="3"/>
+      <c r="C341" s="3"/>
+      <c r="D341" s="3"/>
+      <c r="E341" s="3"/>
+      <c r="F341" s="3"/>
+      <c r="G341" s="3"/>
+      <c r="H341" s="3"/>
+      <c r="I341" s="3"/>
+      <c r="J341" s="3"/>
+      <c r="K341" s="3"/>
+    </row>
+    <row r="342" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A342" s="9" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A325" s="1" t="s">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A343" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B326" s="1" t="s">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B344" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C326" s="1" t="s">
+      <c r="C344" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D326" s="1" t="s">
+      <c r="D344" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E326" s="1" t="s">
+      <c r="E344" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A327" s="1">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A345" s="1">
         <v>1756</v>
       </c>
-      <c r="B327" s="1">
+      <c r="B345" s="1">
         <v>980</v>
       </c>
-      <c r="C327" s="1">
+      <c r="C345" s="1">
         <v>755</v>
       </c>
-      <c r="D327" s="1">
+      <c r="D345" s="1">
         <v>430</v>
       </c>
-      <c r="E327" s="1">
-        <f>SUM(B327:D327)</f>
+      <c r="E345" s="1">
+        <f>SUM(B345:D345)</f>
         <v>2165</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A328" s="1">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A346" s="1">
         <v>1757</v>
       </c>
-      <c r="B328" s="1">
+      <c r="B346" s="1">
         <v>2050</v>
       </c>
-      <c r="C328" s="1">
+      <c r="C346" s="1">
         <v>2517</v>
       </c>
-      <c r="D328" s="1">
+      <c r="D346" s="1">
         <v>2240</v>
       </c>
-      <c r="E328" s="1">
-        <f t="shared" ref="E328:E334" si="31">SUM(B328:D328)</f>
+      <c r="E346" s="1">
+        <f t="shared" ref="E346:E352" si="32">SUM(B346:D346)</f>
         <v>6807</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A329" s="1">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A347" s="1">
         <v>1758</v>
       </c>
-      <c r="B329" s="1">
+      <c r="B347" s="1">
         <v>2204</v>
       </c>
-      <c r="C329" s="1">
+      <c r="C347" s="1">
         <v>410</v>
       </c>
-      <c r="D329" s="1">
+      <c r="D347" s="1">
         <v>1035</v>
       </c>
-      <c r="E329" s="1">
-        <f t="shared" si="31"/>
+      <c r="E347" s="1">
+        <f t="shared" si="32"/>
         <v>3649</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A330" s="1">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A348" s="1">
         <v>1759</v>
       </c>
-      <c r="B330" s="1">
+      <c r="B348" s="1">
         <v>1056</v>
       </c>
-      <c r="C330" s="1">
+      <c r="C348" s="1">
         <v>130</v>
       </c>
-      <c r="D330" s="1">
+      <c r="D348" s="1">
         <v>645</v>
       </c>
-      <c r="E330" s="1">
-        <f t="shared" si="31"/>
+      <c r="E348" s="1">
+        <f t="shared" si="32"/>
         <v>1831</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A331" s="1">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A349" s="1">
         <v>1760</v>
       </c>
-      <c r="B331" s="1">
+      <c r="B349" s="1">
         <v>662</v>
       </c>
-      <c r="C331" s="1">
+      <c r="C349" s="1">
         <v>985</v>
       </c>
-      <c r="D331" s="1">
+      <c r="D349" s="1">
         <v>555</v>
       </c>
-      <c r="E331" s="1">
-        <f t="shared" si="31"/>
+      <c r="E349" s="1">
+        <f t="shared" si="32"/>
         <v>2202</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A332" s="1">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A350" s="1">
         <v>1761</v>
       </c>
-      <c r="B332" s="1">
+      <c r="B350" s="1">
         <v>490</v>
       </c>
-      <c r="C332" s="1">
+      <c r="C350" s="1">
         <v>592.5</v>
       </c>
-      <c r="D332" s="1">
+      <c r="D350" s="1">
         <v>897.5</v>
       </c>
-      <c r="E332" s="1">
-        <f t="shared" si="31"/>
+      <c r="E350" s="1">
+        <f t="shared" si="32"/>
         <v>1980</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A333" s="1">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A351" s="1">
         <v>1762</v>
       </c>
-      <c r="B333" s="1">
+      <c r="B351" s="1">
         <v>836</v>
       </c>
-      <c r="C333" s="1">
+      <c r="C351" s="1">
         <v>792.5</v>
       </c>
-      <c r="D333" s="1">
+      <c r="D351" s="1">
         <v>600</v>
       </c>
-      <c r="E333" s="1">
-        <f t="shared" si="31"/>
+      <c r="E351" s="1">
+        <f t="shared" si="32"/>
         <v>2228.5</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B334" s="1">
-        <f>SUM(B327:B333)</f>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B352" s="1">
+        <f>SUM(B345:B351)</f>
         <v>8278</v>
       </c>
-      <c r="C334" s="1">
-        <f t="shared" ref="C334:D334" si="32">SUM(C327:C333)</f>
+      <c r="C352" s="1">
+        <f t="shared" ref="C352:D352" si="33">SUM(C345:C351)</f>
         <v>6182</v>
       </c>
-      <c r="D334" s="1">
+      <c r="D352" s="1">
+        <f t="shared" si="33"/>
+        <v>6402.5</v>
+      </c>
+      <c r="E352" s="1">
         <f t="shared" si="32"/>
-        <v>6402.5</v>
-      </c>
-      <c r="E334" s="1">
-        <f t="shared" si="31"/>
         <v>20862.5</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A336" s="1" t="s">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A354" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B337" s="1" t="s">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B355" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C337" s="1" t="s">
+      <c r="C355" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D337" s="1" t="s">
+      <c r="D355" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E337" s="1" t="s">
+      <c r="E355" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F337" s="1" t="s">
+      <c r="F355" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G337" s="1" t="s">
+      <c r="G355" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B338" s="1">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B356" s="1">
         <v>145</v>
       </c>
-      <c r="C338" s="1">
+      <c r="C356" s="1">
         <v>69</v>
       </c>
-      <c r="D338" s="1">
+      <c r="D356" s="1">
         <v>128</v>
       </c>
-      <c r="E338" s="1">
+      <c r="E356" s="1">
         <f>54+32+21+35+50</f>
         <v>192</v>
       </c>
-      <c r="F338" s="1">
-        <f>SUM(B338:E338)</f>
+      <c r="F356" s="1">
+        <f>SUM(B356:E356)</f>
         <v>534</v>
       </c>
-      <c r="G338" s="2">
-        <f>SUM(B338:E338)/SUM(B338:D338)</f>
+      <c r="G356" s="2">
+        <f>SUM(B356:E356)/SUM(B356:D356)</f>
         <v>1.5614035087719298</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L339" s="1" t="s">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L357" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A340" s="1" t="s">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A358" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L340" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A341" s="1">
+      <c r="L358" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A359" s="1">
         <v>1756</v>
       </c>
-      <c r="B341" s="1">
-        <f t="shared" ref="B341:B347" si="33">(B327+C327+D327)*$G$338</f>
+      <c r="B359" s="1">
+        <f t="shared" ref="B359:B365" si="34">(B345+C345+D345)*$G$356</f>
         <v>3380.4385964912281</v>
       </c>
-      <c r="L341" s="1">
+      <c r="L359" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A342" s="1">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A360" s="1">
         <v>1757</v>
       </c>
-      <c r="B342" s="1">
-        <f t="shared" si="33"/>
+      <c r="B360" s="1">
+        <f t="shared" si="34"/>
         <v>10628.473684210527</v>
       </c>
-      <c r="L342" s="1">
+      <c r="L360" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A343" s="1">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A361" s="1">
         <v>1758</v>
       </c>
-      <c r="B343" s="1">
-        <f t="shared" si="33"/>
+      <c r="B361" s="1">
+        <f t="shared" si="34"/>
         <v>5697.5614035087719</v>
       </c>
-      <c r="L343" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A344" s="1">
+      <c r="L361" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A362" s="1">
         <v>1759</v>
       </c>
-      <c r="B344" s="1">
-        <f t="shared" si="33"/>
+      <c r="B362" s="1">
+        <f t="shared" si="34"/>
         <v>2858.9298245614036</v>
       </c>
-      <c r="L344" s="1">
+      <c r="L362" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A345" s="1">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A363" s="1">
         <v>1760</v>
       </c>
-      <c r="B345" s="1">
-        <f t="shared" si="33"/>
+      <c r="B363" s="1">
+        <f t="shared" si="34"/>
         <v>3438.2105263157896</v>
       </c>
-      <c r="L345" s="1">
+      <c r="L363" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A346" s="1">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A364" s="1">
         <v>1761</v>
       </c>
-      <c r="B346" s="1">
-        <f t="shared" si="33"/>
+      <c r="B364" s="1">
+        <f t="shared" si="34"/>
         <v>3091.5789473684208</v>
       </c>
-      <c r="L346" s="1">
+      <c r="L364" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A347" s="1">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A365" s="1">
         <v>1762</v>
       </c>
-      <c r="B347" s="1">
-        <f t="shared" si="33"/>
+      <c r="B365" s="1">
+        <f t="shared" si="34"/>
         <v>3479.5877192982457</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B348" s="1">
-        <f>SUM(B341:B347)</f>
+    <row r="366" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B366" s="1">
+        <f>SUM(B359:B365)</f>
         <v>32574.780701754386</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A350" s="1" t="s">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A368" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B351" s="1" t="s">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B369" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C351" s="1" t="s">
+      <c r="C369" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D351" s="1" t="s">
+      <c r="D369" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E351" s="1" t="s">
+      <c r="E369" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F351" s="1" t="s">
+      <c r="F369" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G351" s="1" t="s">
+      <c r="G369" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K351" s="1" t="s">
+      <c r="K369" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A352" s="1">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A370" s="1">
         <v>1756</v>
       </c>
-      <c r="B352" s="1">
+      <c r="B370" s="1">
         <v>1182.06</v>
       </c>
-      <c r="C352" s="1">
-        <f t="shared" ref="C352:C358" si="34">(K352*F$359+L340*G$359)*$C$364</f>
+      <c r="C370" s="1">
+        <f t="shared" ref="C370:C376" si="35">(K370*F$377+L358*G$377)*$C$382</f>
         <v>1530.65412679474</v>
       </c>
-      <c r="D352" s="1">
+      <c r="D370" s="1">
         <v>2217.3119999999999</v>
       </c>
-      <c r="E352" s="1">
-        <f>SUM(B352:D352)</f>
+      <c r="E370" s="1">
+        <f>SUM(B370:D370)</f>
         <v>4930.0261267947399</v>
       </c>
-      <c r="F352" s="1">
+      <c r="F370" s="1">
         <f>1841.163/44</f>
         <v>41.84461363636364</v>
       </c>
-      <c r="G352" s="1">
+      <c r="G370" s="1">
         <f>46.9/9</f>
         <v>5.2111111111111112</v>
       </c>
-      <c r="K352" s="1">
+      <c r="K370" s="1">
         <v>47</v>
       </c>
     </row>
-    <row r="353" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A353" s="1">
+    <row r="371" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A371" s="1">
         <v>1757</v>
       </c>
-      <c r="B353" s="1">
+      <c r="B371" s="1">
         <v>1568.0419999999999</v>
       </c>
-      <c r="C353" s="1">
-        <f t="shared" si="34"/>
+      <c r="C371" s="1">
+        <f t="shared" si="35"/>
         <v>2490.7132768923552</v>
       </c>
-      <c r="D353" s="1">
+      <c r="D371" s="1">
         <v>2662.0610000000001</v>
       </c>
-      <c r="E353" s="1">
-        <f t="shared" ref="E353:E359" si="35">SUM(B353:D353)</f>
+      <c r="E371" s="1">
+        <f t="shared" ref="E371:E377" si="36">SUM(B371:D371)</f>
         <v>6720.8162768923557</v>
       </c>
-      <c r="F353" s="1">
+      <c r="F371" s="1">
         <f>1388.369/50</f>
         <v>27.767379999999999</v>
       </c>
-      <c r="G353" s="1">
+      <c r="G371" s="1">
         <f>179.673/31</f>
         <v>5.7959032258064518</v>
       </c>
-      <c r="H353" s="1"/>
-      <c r="I353" s="1"/>
-      <c r="J353" s="1"/>
-      <c r="K353" s="1">
+      <c r="H371" s="1"/>
+      <c r="I371" s="1"/>
+      <c r="J371" s="1"/>
+      <c r="K371" s="1">
         <v>76</v>
       </c>
-      <c r="L353" s="1"/>
-      <c r="M353" s="1"/>
-      <c r="N353" s="1"/>
-    </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A354" s="1">
+      <c r="L371" s="1"/>
+      <c r="M371" s="1"/>
+      <c r="N371" s="1"/>
+    </row>
+    <row r="372" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A372" s="1">
         <v>1758</v>
       </c>
-      <c r="B354" s="1">
+      <c r="B372" s="1">
         <v>2450.9899999999998</v>
       </c>
-      <c r="C354" s="1">
-        <f t="shared" si="34"/>
+      <c r="C372" s="1">
+        <f t="shared" si="35"/>
         <v>428.5767469683355</v>
       </c>
-      <c r="D354" s="1">
+      <c r="D372" s="1">
         <v>865.28800000000001</v>
       </c>
-      <c r="E354" s="1">
-        <f t="shared" si="35"/>
+      <c r="E372" s="1">
+        <f t="shared" si="36"/>
         <v>3744.8547469683353</v>
       </c>
-      <c r="F354" s="1">
+      <c r="F372" s="1">
         <f>1906.108/74</f>
         <v>25.758216216216216</v>
       </c>
-      <c r="G354" s="1">
+      <c r="G372" s="1">
         <f>544.889/81</f>
         <v>6.7270246913580252</v>
       </c>
-      <c r="K354" s="1">
+      <c r="K372" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A355" s="1">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A373" s="1">
         <v>1759</v>
       </c>
-      <c r="B355" s="1">
+      <c r="B373" s="1">
         <v>2626.9</v>
       </c>
-      <c r="C355" s="1">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="D355" s="1">
+      <c r="C373" s="1">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="D373" s="1">
         <v>1733.711</v>
       </c>
-      <c r="E355" s="1">
-        <f t="shared" si="35"/>
+      <c r="E373" s="1">
+        <f t="shared" si="36"/>
         <v>4360.6109999999999</v>
       </c>
-      <c r="F355" s="1">
+      <c r="F373" s="1">
         <f>1807.506/47</f>
         <v>38.457574468085106</v>
       </c>
-      <c r="G355" s="1">
+      <c r="G373" s="1">
         <f>819.399/102</f>
         <v>8.0333235294117653</v>
       </c>
-      <c r="K355" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A356" s="1">
+      <c r="K373" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A374" s="1">
         <v>1760</v>
       </c>
-      <c r="B356" s="1">
+      <c r="B374" s="1">
         <v>4335.57</v>
       </c>
-      <c r="C356" s="1">
-        <f t="shared" si="34"/>
+      <c r="C374" s="1">
+        <f t="shared" si="35"/>
         <v>1852.3018108969927</v>
       </c>
-      <c r="D356" s="1">
+      <c r="D374" s="1">
         <v>2619.2510000000002</v>
       </c>
-      <c r="E356" s="1">
-        <f t="shared" si="35"/>
+      <c r="E374" s="1">
+        <f t="shared" si="36"/>
         <v>8807.1228108969917</v>
       </c>
-      <c r="F356" s="1">
+      <c r="F374" s="1">
         <f>3840.059/33</f>
         <v>116.36542424242425</v>
       </c>
-      <c r="G356" s="1">
+      <c r="G374" s="1">
         <f>495.514/50</f>
         <v>9.9102800000000002</v>
       </c>
-      <c r="K356" s="1">
+      <c r="K374" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A357" s="1">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A375" s="1">
         <v>1761</v>
       </c>
-      <c r="B357" s="1">
+      <c r="B375" s="1">
         <v>584.55600000000004</v>
       </c>
-      <c r="C357" s="1">
-        <f t="shared" si="34"/>
+      <c r="C375" s="1">
+        <f t="shared" si="35"/>
         <v>641.95423263612508</v>
       </c>
-      <c r="D357" s="1">
+      <c r="D375" s="1">
         <v>3057.33</v>
       </c>
-      <c r="E357" s="1">
-        <f t="shared" si="35"/>
+      <c r="E375" s="1">
+        <f t="shared" si="36"/>
         <v>4283.8402326361247</v>
       </c>
-      <c r="F357" s="1">
+      <c r="F375" s="1">
         <f>542.314/21</f>
         <v>25.82447619047619</v>
       </c>
-      <c r="G357" s="1">
+      <c r="G375" s="1">
         <f>42.242/9</f>
         <v>4.6935555555555553</v>
       </c>
-      <c r="K357" s="1">
+      <c r="K375" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A358" s="1">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A376" s="1">
         <v>1762</v>
       </c>
-      <c r="B358" s="1">
+      <c r="B376" s="1">
         <v>352.976</v>
       </c>
-      <c r="C358" s="1">
-        <f t="shared" si="34"/>
+      <c r="C376" s="1">
+        <f t="shared" si="35"/>
         <v>493.71096512981376</v>
       </c>
-      <c r="D358" s="1">
+      <c r="D376" s="1">
         <v>1925.9179999999999</v>
       </c>
-      <c r="E358" s="1">
-        <f t="shared" si="35"/>
+      <c r="E376" s="1">
+        <f t="shared" si="36"/>
         <v>2772.6049651298135</v>
       </c>
-      <c r="F358" s="1">
+      <c r="F376" s="1">
         <f>139.71/5</f>
         <v>27.942</v>
       </c>
-      <c r="G358" s="1">
+      <c r="G376" s="1">
         <f>213.266/26</f>
         <v>8.2025384615384613</v>
       </c>
-      <c r="K358" s="1">
+      <c r="K376" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B359" s="1">
-        <f>SUM(B352:B358)</f>
+    <row r="377" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B377" s="1">
+        <f>SUM(B370:B376)</f>
         <v>13101.094000000001</v>
       </c>
-      <c r="C359" s="1">
-        <f t="shared" ref="C359:D359" si="36">SUM(C352:C358)</f>
+      <c r="C377" s="1">
+        <f t="shared" ref="C377:D377" si="37">SUM(C370:C376)</f>
         <v>7437.9111593183625</v>
       </c>
-      <c r="D359" s="1">
+      <c r="D377" s="1">
+        <f t="shared" si="37"/>
+        <v>15080.870999999999</v>
+      </c>
+      <c r="E377" s="1">
         <f t="shared" si="36"/>
-        <v>15080.870999999999</v>
-      </c>
-      <c r="E359" s="1">
-        <f t="shared" si="35"/>
         <v>35619.876159318359</v>
       </c>
-      <c r="F359" s="1">
-        <f>AVERAGE(F352:F358)</f>
+      <c r="F377" s="1">
+        <f>AVERAGE(F370:F376)</f>
         <v>43.422812107652199</v>
       </c>
-      <c r="G359" s="1">
-        <f>AVERAGE(G352:G358)</f>
+      <c r="G377" s="1">
+        <f>AVERAGE(G370:G376)</f>
         <v>6.9391052249687677</v>
       </c>
     </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B360" s="2">
-        <f>B359/B334</f>
+    <row r="378" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B378" s="2">
+        <f>B377/B352</f>
         <v>1.5826400096641702</v>
       </c>
-      <c r="C360" s="2">
-        <f t="shared" ref="C360:D360" si="37">C359/C334</f>
+      <c r="C378" s="2">
+        <f t="shared" ref="C378:D378" si="38">C377/C352</f>
         <v>1.2031561241213786</v>
       </c>
-      <c r="D360" s="2">
-        <f t="shared" si="37"/>
+      <c r="D378" s="2">
+        <f t="shared" si="38"/>
         <v>2.3554659898477155</v>
       </c>
     </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C361" s="1" t="s">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C379" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C362" s="1" t="s">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C380" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C363" s="1" t="s">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C381" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C364" s="2">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C382" s="2">
         <v>0.75</v>
       </c>
     </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A366" s="1" t="s">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A384" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C366" s="1" t="s">
+      <c r="C384" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D366" s="1" t="s">
+      <c r="D384" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A367" s="1">
+    <row r="385" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A385" s="1">
         <v>1756</v>
       </c>
-      <c r="B367" s="1">
-        <f t="shared" ref="B367:B373" si="38">B341*E352/E327</f>
+      <c r="B385" s="1">
+        <f t="shared" ref="B385:B391" si="39">B359*E370/E345</f>
         <v>7697.7600927145941</v>
       </c>
-      <c r="C367" s="2">
-        <f t="shared" ref="C367:C374" si="39">B367/B341</f>
+      <c r="C385" s="2">
+        <f t="shared" ref="C385:C392" si="40">B385/B359</f>
         <v>2.2771483264640833</v>
       </c>
-      <c r="D367" s="1">
-        <f>$A$377*B367/$B$374</f>
+      <c r="D385" s="1">
+        <f>$A$395*B385/$B$392</f>
         <v>1245.659444257926</v>
       </c>
-      <c r="L367" s="3"/>
-      <c r="M367" s="3"/>
-      <c r="N367" s="3"/>
-    </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A368" s="1">
+      <c r="L385" s="3"/>
+      <c r="M385" s="3"/>
+      <c r="N385" s="3"/>
+    </row>
+    <row r="386" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A386" s="1">
         <v>1757</v>
       </c>
-      <c r="B368" s="1">
-        <f t="shared" si="38"/>
+      <c r="B386" s="1">
+        <f t="shared" si="39"/>
         <v>10493.906116551223</v>
       </c>
-      <c r="C368" s="2">
-        <f>B368/B342</f>
+      <c r="C386" s="2">
+        <f>B386/B360</f>
         <v>0.98733895649953818</v>
       </c>
-      <c r="D368" s="1">
-        <f t="shared" ref="D368:D373" si="40">$A$377*B368/$B$374</f>
+      <c r="D386" s="1">
+        <f t="shared" ref="D386:D391" si="41">$A$395*B386/$B$392</f>
         <v>1698.1346656424962</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A369" s="1">
+    <row r="387" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A387" s="1">
         <v>1758</v>
       </c>
-      <c r="B369" s="1">
-        <f t="shared" si="38"/>
+      <c r="B387" s="1">
+        <f t="shared" si="39"/>
         <v>5847.2293417575765</v>
       </c>
-      <c r="C369" s="2">
+      <c r="C387" s="2">
+        <f t="shared" si="40"/>
+        <v>1.0262687714355536</v>
+      </c>
+      <c r="D387" s="1">
+        <f t="shared" si="41"/>
+        <v>946.20465753354233</v>
+      </c>
+    </row>
+    <row r="388" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A388" s="1">
+        <v>1759</v>
+      </c>
+      <c r="B388" s="1">
         <f t="shared" si="39"/>
-        <v>1.0262687714355536</v>
-      </c>
-      <c r="D369" s="1">
+        <v>6808.6733157894741</v>
+      </c>
+      <c r="C388" s="2">
         <f t="shared" si="40"/>
-        <v>946.20465753354233</v>
-      </c>
-    </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A370" s="1">
-        <v>1759</v>
-      </c>
-      <c r="B370" s="1">
-        <f t="shared" si="38"/>
-        <v>6808.6733157894741</v>
-      </c>
-      <c r="C370" s="2">
+        <v>2.3815461496450028</v>
+      </c>
+      <c r="D388" s="1">
+        <f t="shared" si="41"/>
+        <v>1101.7865088712038</v>
+      </c>
+    </row>
+    <row r="389" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A389" s="1">
+        <v>1760</v>
+      </c>
+      <c r="B389" s="1">
         <f t="shared" si="39"/>
-        <v>2.3815461496450028</v>
-      </c>
-      <c r="D370" s="1">
+        <v>13751.472459119865</v>
+      </c>
+      <c r="C389" s="2">
         <f t="shared" si="40"/>
-        <v>1101.7865088712038</v>
-      </c>
-    </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A371" s="1">
-        <v>1760</v>
-      </c>
-      <c r="B371" s="1">
-        <f t="shared" si="38"/>
-        <v>13751.472459119865</v>
-      </c>
-      <c r="C371" s="2">
+        <v>3.9996016398260634</v>
+      </c>
+      <c r="D389" s="1">
+        <f t="shared" si="41"/>
+        <v>2225.2773969102354</v>
+      </c>
+    </row>
+    <row r="390" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A390" s="1">
+        <v>1761</v>
+      </c>
+      <c r="B390" s="1">
         <f t="shared" si="39"/>
-        <v>3.9996016398260634</v>
-      </c>
-      <c r="D371" s="1">
+        <v>6688.8031702564049</v>
+      </c>
+      <c r="C390" s="2">
         <f t="shared" si="40"/>
-        <v>2225.2773969102354</v>
-      </c>
-    </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A372" s="1">
-        <v>1761</v>
-      </c>
-      <c r="B372" s="1">
-        <f t="shared" si="38"/>
-        <v>6688.8031702564049</v>
-      </c>
-      <c r="C372" s="2">
+        <v>2.1635556730485477</v>
+      </c>
+      <c r="D390" s="1">
+        <f t="shared" si="41"/>
+        <v>1082.3889988073142</v>
+      </c>
+    </row>
+    <row r="391" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A391" s="1">
+        <v>1762</v>
+      </c>
+      <c r="B391" s="1">
         <f t="shared" si="39"/>
-        <v>2.1635556730485477</v>
-      </c>
-      <c r="D372" s="1">
+        <v>4329.1551209921654</v>
+      </c>
+      <c r="C391" s="2">
         <f t="shared" si="40"/>
-        <v>1082.3889988073142</v>
-      </c>
-    </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A373" s="1">
-        <v>1762</v>
-      </c>
-      <c r="B373" s="1">
-        <f t="shared" si="38"/>
-        <v>4329.1551209921654</v>
-      </c>
-      <c r="C373" s="2">
-        <f t="shared" si="39"/>
         <v>1.2441574894008587</v>
       </c>
-      <c r="D373" s="1">
+      <c r="D391" s="1">
+        <f t="shared" si="41"/>
+        <v>700.54832797728193</v>
+      </c>
+    </row>
+    <row r="392" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B392" s="1">
+        <f>SUM(B385:B391)</f>
+        <v>55616.999617181304</v>
+      </c>
+      <c r="C392" s="2">
         <f t="shared" si="40"/>
-        <v>700.54832797728193</v>
-      </c>
-    </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B374" s="1">
-        <f>SUM(B367:B373)</f>
-        <v>55616.999617181304</v>
-      </c>
-      <c r="C374" s="2">
-        <f t="shared" si="39"/>
         <v>1.7073637464023181</v>
       </c>
-      <c r="D374" s="1">
-        <f>SUM(D367:D373)</f>
+      <c r="D392" s="1">
+        <f>SUM(D385:D391)</f>
         <v>9000</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C375" s="2"/>
-    </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A376" s="1" t="s">
+    <row r="393" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C393" s="2"/>
+    </row>
+    <row r="394" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A394" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C376" s="2"/>
-    </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A377" s="1">
+      <c r="C394" s="2"/>
+    </row>
+    <row r="395" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A395" s="1">
         <v>9000</v>
       </c>
-      <c r="C377" s="2"/>
-    </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A379" s="3"/>
-      <c r="B379" s="3"/>
-      <c r="C379" s="3"/>
-      <c r="D379" s="3"/>
-      <c r="E379" s="3"/>
-      <c r="F379" s="3"/>
-      <c r="G379" s="3"/>
-      <c r="H379" s="3"/>
-      <c r="I379" s="3"/>
-      <c r="J379" s="3"/>
-      <c r="K379" s="3"/>
-    </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A380" s="1" t="s">
+      <c r="C395" s="2"/>
+    </row>
+    <row r="397" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A397" s="3"/>
+      <c r="B397" s="3"/>
+      <c r="C397" s="3"/>
+      <c r="D397" s="3"/>
+      <c r="E397" s="3"/>
+      <c r="F397" s="3"/>
+      <c r="G397" s="3"/>
+      <c r="H397" s="3"/>
+      <c r="I397" s="3"/>
+      <c r="J397" s="3"/>
+      <c r="K397" s="3"/>
+    </row>
+    <row r="398" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A398" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A381" s="1">
+    <row r="399" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A399" s="1">
         <v>40000</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A382" s="1" t="s">
+    <row r="400" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A400" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A383" s="1">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A401" s="1">
         <v>35000</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A385" s="1" t="s">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A403" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B386" s="1" t="s">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B404" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C386" s="1" t="s">
+      <c r="C404" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D386" s="1" t="s">
+      <c r="D404" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B387" s="1">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B405" s="1">
         <v>19000</v>
       </c>
-      <c r="C387" s="1">
+      <c r="C405" s="1">
         <v>1000</v>
       </c>
-      <c r="D387" s="1">
+      <c r="D405" s="1">
         <v>3000</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A388" s="1" t="s">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A406" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B389" s="1" t="s">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B407" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C389" s="1" t="s">
+      <c r="C407" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D389" s="1" t="s">
+      <c r="D407" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B390" s="1">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B408" s="1">
         <f>18000+7576</f>
         <v>25576</v>
       </c>
-      <c r="C390" s="1">
+      <c r="C408" s="1">
         <v>2032.0550000000001</v>
       </c>
-      <c r="D390" s="1">
+      <c r="D408" s="1">
         <v>5362.8789999999999</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A391" s="1" t="s">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A409" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B392" s="1">
-        <f>A381*(B387+C387+D387)/(B390+C390+D390)</f>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B410" s="1">
+        <f>A399*(B405+C405+D405)/(B408+C408+D408)</f>
         <v>27903.36482430252</v>
       </c>
-      <c r="C392" s="2">
-        <f>A381/B392</f>
+      <c r="C410" s="2">
+        <f>A399/B410</f>
         <v>1.4335188695652175</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A394" s="1" t="s">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A412" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A395" s="1">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A413" s="1">
         <v>1778</v>
       </c>
-      <c r="B395" s="1">
+      <c r="B413" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A396" s="1">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A414" s="1">
         <v>1779</v>
       </c>
-      <c r="B396" s="1">
+      <c r="B414" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A397" s="1">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A415" s="1">
         <v>1780</v>
       </c>
-      <c r="B397" s="1">
+      <c r="B415" s="1">
         <v>46</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A398" s="1">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A416" s="1">
         <v>1781</v>
       </c>
-      <c r="B398" s="1">
+      <c r="B416" s="1">
         <v>47</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A399" s="1">
+    <row r="417" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A417" s="1">
         <v>1782</v>
       </c>
-      <c r="B399" s="1">
+      <c r="B417" s="1">
         <v>53</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A400" s="1">
+    <row r="418" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A418" s="1">
         <v>1783</v>
       </c>
-      <c r="B400" s="1">
+      <c r="B418" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B401" s="1">
-        <f>SUM(B395:B400)</f>
+    <row r="419" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B419" s="1">
+        <f>SUM(B413:B418)</f>
         <v>198</v>
       </c>
     </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A402" s="1" t="s">
+    <row r="420" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A420" s="1" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="403" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A403" s="1">
-        <v>1778</v>
-      </c>
-      <c r="B403" s="1">
-        <f>B395/$B$401*$A$381</f>
-        <v>4040.4040404040402</v>
-      </c>
-    </row>
-    <row r="404" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A404" s="1">
-        <v>1779</v>
-      </c>
-      <c r="B404" s="1">
-        <f t="shared" ref="B404:B408" si="41">B396/$B$401*$A$381</f>
-        <v>5858.5858585858587</v>
-      </c>
-    </row>
-    <row r="405" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A405" s="1">
-        <v>1780</v>
-      </c>
-      <c r="B405" s="1">
-        <f t="shared" si="41"/>
-        <v>9292.9292929292933</v>
-      </c>
-    </row>
-    <row r="406" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A406" s="1">
-        <v>1781</v>
-      </c>
-      <c r="B406" s="1">
-        <f t="shared" si="41"/>
-        <v>9494.9494949494947</v>
-      </c>
-    </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A407" s="1">
-        <v>1782</v>
-      </c>
-      <c r="B407" s="1">
-        <f t="shared" si="41"/>
-        <v>10707.070707070707</v>
-      </c>
-    </row>
-    <row r="408" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A408" s="1">
-        <v>1783</v>
-      </c>
-      <c r="B408" s="1">
-        <f t="shared" si="41"/>
-        <v>606.06060606060612</v>
-      </c>
-    </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B409" s="1">
-        <f>SUM(B403:B408)</f>
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="410" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A410" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="411" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A411" s="1">
-        <v>1778</v>
-      </c>
-      <c r="B411" s="1">
-        <f>B395/$B$401*$B$392</f>
-        <v>2818.521699424497</v>
-      </c>
-    </row>
-    <row r="412" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A412" s="1">
-        <v>1779</v>
-      </c>
-      <c r="B412" s="1">
-        <f t="shared" ref="B412:B416" si="42">B396/$B$401*$B$392</f>
-        <v>4086.8564641655207</v>
-      </c>
-    </row>
-    <row r="413" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A413" s="1">
-        <v>1780</v>
-      </c>
-      <c r="B413" s="1">
-        <f t="shared" si="42"/>
-        <v>6482.5999086763431</v>
-      </c>
-      <c r="C413" s="1"/>
-      <c r="D413" s="1"/>
-      <c r="E413" s="1"/>
-      <c r="F413" s="1"/>
-      <c r="G413" s="1"/>
-      <c r="H413" s="1"/>
-      <c r="I413" s="1"/>
-      <c r="J413" s="1"/>
-      <c r="K413" s="1"/>
-      <c r="L413" s="1"/>
-      <c r="M413" s="1"/>
-      <c r="N413" s="1"/>
-    </row>
-    <row r="414" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A414" s="1">
-        <v>1781</v>
-      </c>
-      <c r="B414" s="1">
-        <f t="shared" si="42"/>
-        <v>6623.5259936475677</v>
-      </c>
-    </row>
-    <row r="415" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A415" s="1">
-        <v>1782</v>
-      </c>
-      <c r="B415" s="1">
-        <f t="shared" si="42"/>
-        <v>7469.0825034749168</v>
-      </c>
-    </row>
-    <row r="416" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A416" s="1">
-        <v>1783</v>
-      </c>
-      <c r="B416" s="1">
-        <f t="shared" si="42"/>
-        <v>422.77825491367457</v>
-      </c>
-    </row>
-    <row r="418" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A418" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="420" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A420" s="1">
-        <v>1778</v>
-      </c>
-      <c r="B420" s="1">
-        <f>215</f>
-        <v>215</v>
       </c>
     </row>
     <row r="421" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="B421" s="1">
-        <v>94</v>
+        <f>B413/$B$419*$A$399</f>
+        <v>4040.4040404040402</v>
       </c>
     </row>
     <row r="422" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="B422" s="1">
-        <v>114</v>
+        <f t="shared" ref="B422:B426" si="42">B414/$B$419*$A$399</f>
+        <v>5858.5858585858587</v>
       </c>
     </row>
     <row r="423" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="B423" s="1">
-        <v>195</v>
+        <f t="shared" si="42"/>
+        <v>9292.9292929292933</v>
       </c>
     </row>
     <row r="424" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="B424" s="1">
-        <v>69</v>
+        <f t="shared" si="42"/>
+        <v>9494.9494949494947</v>
       </c>
     </row>
     <row r="425" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
+        <v>1782</v>
+      </c>
+      <c r="B425" s="1">
+        <f t="shared" si="42"/>
+        <v>10707.070707070707</v>
+      </c>
+    </row>
+    <row r="426" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A426" s="1">
         <v>1783</v>
       </c>
-      <c r="B425" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="426" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B426" s="1">
-        <f>SUM(B420:B425)</f>
-        <v>691</v>
+        <f t="shared" si="42"/>
+        <v>606.06060606060612</v>
       </c>
     </row>
     <row r="427" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L427" s="3"/>
-      <c r="M427" s="3"/>
-      <c r="N427" s="3"/>
+      <c r="B427" s="1">
+        <f>SUM(B421:B426)</f>
+        <v>40000</v>
+      </c>
     </row>
     <row r="428" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="429" spans="1:14" x14ac:dyDescent="0.2">
@@ -7496,8 +7476,8 @@
         <v>1778</v>
       </c>
       <c r="B429" s="1">
-        <f>$A$383/$B$426*B420</f>
-        <v>10890.014471780029</v>
+        <f>B413/$B$419*$B$410</f>
+        <v>2818.521699424497</v>
       </c>
     </row>
     <row r="430" spans="1:14" x14ac:dyDescent="0.2">
@@ -7505,18 +7485,30 @@
         <v>1779</v>
       </c>
       <c r="B430" s="1">
-        <f t="shared" ref="B430:B434" si="43">$A$383/$B$426*B421</f>
-        <v>4761.2156295224313</v>
-      </c>
-    </row>
-    <row r="431" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" ref="B430:B434" si="43">B414/$B$419*$B$410</f>
+        <v>4086.8564641655207</v>
+      </c>
+    </row>
+    <row r="431" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>1780</v>
       </c>
       <c r="B431" s="1">
         <f t="shared" si="43"/>
-        <v>5774.2402315484806</v>
-      </c>
+        <v>6482.5999086763431</v>
+      </c>
+      <c r="C431" s="1"/>
+      <c r="D431" s="1"/>
+      <c r="E431" s="1"/>
+      <c r="F431" s="1"/>
+      <c r="G431" s="1"/>
+      <c r="H431" s="1"/>
+      <c r="I431" s="1"/>
+      <c r="J431" s="1"/>
+      <c r="K431" s="1"/>
+      <c r="L431" s="1"/>
+      <c r="M431" s="1"/>
+      <c r="N431" s="1"/>
     </row>
     <row r="432" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
@@ -7524,721 +7516,845 @@
       </c>
       <c r="B432" s="1">
         <f t="shared" si="43"/>
-        <v>9876.9898697539793</v>
-      </c>
-    </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.2">
+        <v>6623.5259936475677</v>
+      </c>
+    </row>
+    <row r="433" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>1782</v>
       </c>
       <c r="B433" s="1">
         <f t="shared" si="43"/>
-        <v>3494.9348769898697</v>
-      </c>
-    </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.2">
+        <v>7469.0825034749168</v>
+      </c>
+    </row>
+    <row r="434" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>1783</v>
       </c>
       <c r="B434" s="1">
         <f t="shared" si="43"/>
+        <v>422.77825491367457</v>
+      </c>
+    </row>
+    <row r="436" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A436" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="438" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A438" s="1">
+        <v>1778</v>
+      </c>
+      <c r="B438" s="1">
+        <f>215</f>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="439" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A439" s="1">
+        <v>1779</v>
+      </c>
+      <c r="B439" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="440" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A440" s="1">
+        <v>1780</v>
+      </c>
+      <c r="B440" s="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="441" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A441" s="1">
+        <v>1781</v>
+      </c>
+      <c r="B441" s="1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="442" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A442" s="1">
+        <v>1782</v>
+      </c>
+      <c r="B442" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="443" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A443" s="1">
+        <v>1783</v>
+      </c>
+      <c r="B443" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="444" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B444" s="1">
+        <f>SUM(B438:B443)</f>
+        <v>691</v>
+      </c>
+    </row>
+    <row r="445" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L445" s="3"/>
+      <c r="M445" s="3"/>
+      <c r="N445" s="3"/>
+    </row>
+    <row r="446" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A446" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="447" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A447" s="1">
+        <v>1778</v>
+      </c>
+      <c r="B447" s="1">
+        <f>$A$401/$B$444*B438</f>
+        <v>10890.014471780029</v>
+      </c>
+    </row>
+    <row r="448" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A448" s="1">
+        <v>1779</v>
+      </c>
+      <c r="B448" s="1">
+        <f t="shared" ref="B448:B452" si="44">$A$401/$B$444*B439</f>
+        <v>4761.2156295224313</v>
+      </c>
+    </row>
+    <row r="449" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A449" s="1">
+        <v>1780</v>
+      </c>
+      <c r="B449" s="1">
+        <f t="shared" si="44"/>
+        <v>5774.2402315484806</v>
+      </c>
+    </row>
+    <row r="450" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A450" s="1">
+        <v>1781</v>
+      </c>
+      <c r="B450" s="1">
+        <f t="shared" si="44"/>
+        <v>9876.9898697539793</v>
+      </c>
+    </row>
+    <row r="451" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A451" s="1">
+        <v>1782</v>
+      </c>
+      <c r="B451" s="1">
+        <f t="shared" si="44"/>
+        <v>3494.9348769898697</v>
+      </c>
+    </row>
+    <row r="452" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A452" s="1">
+        <v>1783</v>
+      </c>
+      <c r="B452" s="1">
+        <f t="shared" si="44"/>
         <v>202.60492040520984</v>
       </c>
-      <c r="D434" s="1" t="s">
+      <c r="D452" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B435" s="1">
-        <f>SUM(B429:B434)</f>
+    <row r="453" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B453" s="1">
+        <f>SUM(B447:B452)</f>
         <v>35000</v>
       </c>
-      <c r="D435" s="2">
-        <f>B409/(B409+B435)</f>
+      <c r="D453" s="2">
+        <f>B427/(B427+B453)</f>
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A439" s="3" t="s">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A457" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B439" s="3"/>
-      <c r="C439" s="3"/>
-      <c r="D439" s="3"/>
-      <c r="E439" s="3"/>
-      <c r="F439" s="3"/>
-      <c r="G439" s="3"/>
-      <c r="H439" s="3"/>
-      <c r="I439" s="3"/>
-      <c r="J439" s="3"/>
-      <c r="K439" s="3"/>
-    </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A440" s="3" t="s">
+      <c r="B457" s="3"/>
+      <c r="C457" s="3"/>
+      <c r="D457" s="3"/>
+      <c r="E457" s="3"/>
+      <c r="F457" s="3"/>
+      <c r="G457" s="3"/>
+      <c r="H457" s="3"/>
+      <c r="I457" s="3"/>
+      <c r="J457" s="3"/>
+      <c r="K457" s="3"/>
+    </row>
+    <row r="458" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A458" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B440" s="3"/>
-      <c r="C440" s="3"/>
-      <c r="D440" s="3"/>
-      <c r="E440" s="3"/>
-      <c r="F440" s="3"/>
-      <c r="G440" s="3"/>
-      <c r="H440" s="3"/>
-      <c r="I440" s="3"/>
-      <c r="J440" s="3"/>
-      <c r="K440" s="3"/>
-    </row>
-    <row r="441" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A441" s="11" t="s">
+      <c r="B458" s="3"/>
+      <c r="C458" s="3"/>
+      <c r="D458" s="3"/>
+      <c r="E458" s="3"/>
+      <c r="F458" s="3"/>
+      <c r="G458" s="3"/>
+      <c r="H458" s="3"/>
+      <c r="I458" s="3"/>
+      <c r="J458" s="3"/>
+      <c r="K458" s="3"/>
+    </row>
+    <row r="459" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A459" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="B441" s="3"/>
-      <c r="C441" s="3"/>
-      <c r="D441" s="3"/>
-      <c r="E441" s="3"/>
-      <c r="F441" s="3"/>
-      <c r="G441" s="3"/>
-      <c r="H441" s="3"/>
-      <c r="I441" s="3"/>
-      <c r="J441" s="3"/>
-      <c r="K441" s="3"/>
-    </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A442" s="1" t="s">
+      <c r="B459" s="3"/>
+      <c r="C459" s="3"/>
+      <c r="D459" s="3"/>
+      <c r="E459" s="3"/>
+      <c r="F459" s="3"/>
+      <c r="G459" s="3"/>
+      <c r="H459" s="3"/>
+      <c r="I459" s="3"/>
+      <c r="J459" s="3"/>
+      <c r="K459" s="3"/>
+    </row>
+    <row r="460" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A460" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A443" s="1" t="s">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A461" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A444" s="1">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A462" s="1">
         <v>1793</v>
       </c>
-      <c r="B444" s="1">
+      <c r="B462" s="1">
         <v>352</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A445" s="1">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A463" s="1">
         <v>1794</v>
       </c>
-      <c r="B445" s="1">
+      <c r="B463" s="1">
         <v>644</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A446" s="1">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A464" s="1">
         <v>1795</v>
       </c>
-      <c r="B446" s="1">
+      <c r="B464" s="1">
         <v>640</v>
-      </c>
-    </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A447" s="1">
-        <v>1796</v>
-      </c>
-      <c r="B447" s="1">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A448" s="1">
-        <v>1797</v>
-      </c>
-      <c r="B448" s="1">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A449" s="1">
-        <v>1798</v>
-      </c>
-      <c r="B449" s="1">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A450" s="1">
-        <v>1799</v>
-      </c>
-      <c r="B450" s="1">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A451" s="1">
-        <v>1800</v>
-      </c>
-      <c r="B451" s="1">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A452" s="1">
-        <v>1801</v>
-      </c>
-      <c r="B452" s="1">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A453" s="1">
-        <v>1802</v>
-      </c>
-      <c r="B453" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A454" s="1">
-        <v>1803</v>
-      </c>
-      <c r="B454" s="1">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A455" s="1">
-        <v>1804</v>
-      </c>
-      <c r="B455" s="1">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A456" s="1">
-        <v>1805</v>
-      </c>
-      <c r="B456" s="1">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A457" s="1">
-        <v>1806</v>
-      </c>
-      <c r="B457" s="1">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A458" s="1">
-        <v>1807</v>
-      </c>
-      <c r="B458" s="1">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A459" s="1">
-        <v>1808</v>
-      </c>
-      <c r="B459" s="1">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A460" s="1">
-        <v>1809</v>
-      </c>
-      <c r="B460" s="1">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A461" s="1">
-        <v>1810</v>
-      </c>
-      <c r="B461" s="1">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A462" s="1">
-        <v>1811</v>
-      </c>
-      <c r="B462" s="1">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A463" s="1">
-        <v>1812</v>
-      </c>
-      <c r="B463" s="1">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A464" s="1">
-        <v>1813</v>
-      </c>
-      <c r="B464" s="1">
-        <v>371</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
-        <v>1814</v>
+        <v>1796</v>
       </c>
       <c r="B465" s="1">
-        <v>145</v>
+        <v>489</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A466" s="1">
+        <v>1797</v>
+      </c>
+      <c r="B466" s="1">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A467" s="1">
+        <v>1798</v>
+      </c>
+      <c r="B467" s="1">
+        <v>688</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A468" s="1" t="s">
-        <v>46</v>
+      <c r="A468" s="1">
+        <v>1799</v>
+      </c>
+      <c r="B468" s="1">
+        <v>730</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B469" s="1" t="s">
-        <v>47</v>
+      <c r="A469" s="1">
+        <v>1800</v>
+      </c>
+      <c r="B469" s="1">
+        <v>666</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
-        <v>1793</v>
+        <v>1801</v>
       </c>
       <c r="B470" s="1">
-        <v>132</v>
+        <v>399</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
-        <v>1794</v>
+        <v>1802</v>
+      </c>
+      <c r="B471" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
-        <v>1795</v>
+        <v>1803</v>
+      </c>
+      <c r="B472" s="1">
+        <v>222</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
-        <v>1796</v>
+        <v>1804</v>
       </c>
       <c r="B473" s="1">
-        <v>45</v>
+        <v>387</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
-        <v>1797</v>
+        <v>1805</v>
       </c>
       <c r="B474" s="1">
-        <v>145</v>
+        <v>507</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
-        <v>1798</v>
+        <v>1806</v>
       </c>
       <c r="B475" s="1">
-        <v>144</v>
+        <v>519</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
-        <v>1799</v>
+        <v>1807</v>
       </c>
       <c r="B476" s="1">
-        <v>117</v>
+        <v>559</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
-        <v>1800</v>
+        <v>1808</v>
       </c>
       <c r="B477" s="1">
-        <v>87</v>
+        <v>469</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
+        <v>1809</v>
+      </c>
+      <c r="B478" s="1">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A479" s="1">
+        <v>1810</v>
+      </c>
+      <c r="B479" s="1">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A480" s="1">
+        <v>1811</v>
+      </c>
+      <c r="B480" s="1">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A481" s="1">
+        <v>1812</v>
+      </c>
+      <c r="B481" s="1">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A482" s="1">
+        <v>1813</v>
+      </c>
+      <c r="B482" s="1">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A483" s="1">
+        <v>1814</v>
+      </c>
+      <c r="B483" s="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A486" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B487" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A488" s="1">
+        <v>1793</v>
+      </c>
+      <c r="B488" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A489" s="1">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A490" s="1">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A491" s="1">
+        <v>1796</v>
+      </c>
+      <c r="B491" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A492" s="1">
+        <v>1797</v>
+      </c>
+      <c r="B492" s="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A493" s="1">
+        <v>1798</v>
+      </c>
+      <c r="B493" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A494" s="1">
+        <v>1799</v>
+      </c>
+      <c r="B494" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A495" s="1">
+        <v>1800</v>
+      </c>
+      <c r="B495" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A496" s="1">
         <v>1801</v>
       </c>
-      <c r="B478" s="1">
+      <c r="B496" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A480" s="1" t="s">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A498" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A481" s="1" t="s">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A499" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D481" s="1">
+      <c r="D499" s="1">
         <f>19000/198</f>
         <v>95.959595959595958</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B484" s="1" t="s">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B502" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C484" s="1" t="s">
+      <c r="C502" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D484" s="1" t="s">
+      <c r="D502" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E484" s="1" t="s">
+      <c r="E502" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H484" s="1" t="s">
+      <c r="H502" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I484" s="1">
-        <f>SUM(C485:C493)/(SUM(B444:B452)-B445-B446)</f>
+      <c r="I502" s="1">
+        <f>SUM(C503:C511)/(SUM(B462:B470)-B463-B464)</f>
         <v>24.225126676157274</v>
       </c>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A485" s="1">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A503" s="1">
         <v>1793</v>
       </c>
-      <c r="B485" s="1">
-        <f>B470*$D$481</f>
+      <c r="B503" s="1">
+        <f>B488*$D$499</f>
         <v>12666.666666666666</v>
       </c>
-      <c r="C485" s="1">
-        <f>B485*$C$392</f>
+      <c r="C503" s="1">
+        <f>B503*$C$410</f>
         <v>18157.90568115942</v>
       </c>
-      <c r="D485" s="1">
-        <f>B444*$I$484</f>
+      <c r="D503" s="1">
+        <f>B462*$I$502</f>
         <v>8527.2445900073599</v>
       </c>
-      <c r="E485" s="1">
-        <f>D485/$C$392*$D$435</f>
+      <c r="E503" s="1">
+        <f>D503/$C$410*$D$453</f>
         <v>3172.5175565471377</v>
       </c>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A486" s="1">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A504" s="1">
         <v>1794</v>
       </c>
-      <c r="D486" s="1">
-        <f t="shared" ref="D486:D506" si="44">B445*$I$484</f>
+      <c r="D504" s="1">
+        <f t="shared" ref="D504:D524" si="45">B463*$I$502</f>
         <v>15600.981579445284</v>
       </c>
-      <c r="E486" s="1">
-        <f t="shared" ref="E486:E506" si="45">D486/$C$392*$D$435</f>
+      <c r="E504" s="1">
+        <f t="shared" ref="E504:E524" si="46">D504/$C$410*$D$453</f>
         <v>5804.2650750464682</v>
       </c>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A487" s="1">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A505" s="1">
         <v>1795</v>
       </c>
-      <c r="D487" s="1">
-        <f t="shared" si="44"/>
+      <c r="D505" s="1">
+        <f t="shared" si="45"/>
         <v>15504.081072740655</v>
       </c>
-      <c r="E487" s="1">
+      <c r="E505" s="1">
+        <f t="shared" si="46"/>
+        <v>5768.2137391766146</v>
+      </c>
+    </row>
+    <row r="506" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A506" s="1">
+        <v>1796</v>
+      </c>
+      <c r="B506" s="1">
+        <f t="shared" ref="B506:B511" si="47">B491*$D$499</f>
+        <v>4318.181818181818</v>
+      </c>
+      <c r="C506" s="1">
+        <f>B506*1.5</f>
+        <v>6477.272727272727</v>
+      </c>
+      <c r="D506" s="1">
         <f t="shared" si="45"/>
-        <v>5768.2137391766146</v>
-      </c>
-    </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A488" s="1">
-        <v>1796</v>
-      </c>
-      <c r="B488" s="1">
-        <f t="shared" ref="B488:B493" si="46">B473*$D$481</f>
-        <v>4318.181818181818</v>
-      </c>
-      <c r="C488" s="1">
-        <f>B488*1.5</f>
-        <v>6477.272727272727</v>
-      </c>
-      <c r="D488" s="1">
-        <f t="shared" si="44"/>
         <v>11846.086944640907</v>
       </c>
-      <c r="E488" s="1">
+      <c r="E506" s="1">
+        <f t="shared" si="46"/>
+        <v>4407.2758100896317</v>
+      </c>
+    </row>
+    <row r="507" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A507" s="1">
+        <v>1797</v>
+      </c>
+      <c r="B507" s="1">
+        <f t="shared" si="47"/>
+        <v>13914.141414141413</v>
+      </c>
+      <c r="C507" s="1">
+        <f t="shared" ref="C507:C511" si="48">B507*1.5</f>
+        <v>20871.21212121212</v>
+      </c>
+      <c r="D507" s="1">
         <f t="shared" si="45"/>
-        <v>4407.2758100896317</v>
-      </c>
-    </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A489" s="1">
-        <v>1797</v>
-      </c>
-      <c r="B489" s="1">
+        <v>22989.645215673252</v>
+      </c>
+      <c r="E507" s="1">
         <f t="shared" si="46"/>
-        <v>13914.141414141413</v>
-      </c>
-      <c r="C489" s="1">
-        <f t="shared" ref="C489:C493" si="47">B489*1.5</f>
-        <v>20871.21212121212</v>
-      </c>
-      <c r="D489" s="1">
-        <f t="shared" si="44"/>
-        <v>22989.645215673252</v>
-      </c>
-      <c r="E489" s="1">
+        <v>8553.1794351228236</v>
+      </c>
+    </row>
+    <row r="508" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A508" s="1">
+        <v>1798</v>
+      </c>
+      <c r="B508" s="1">
+        <f t="shared" si="47"/>
+        <v>13818.181818181818</v>
+      </c>
+      <c r="C508" s="1">
+        <f t="shared" si="48"/>
+        <v>20727.272727272728</v>
+      </c>
+      <c r="D508" s="1">
         <f t="shared" si="45"/>
-        <v>8553.1794351228236</v>
-      </c>
-    </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A490" s="1">
-        <v>1798</v>
-      </c>
-      <c r="B490" s="1">
+        <v>16666.887153196203</v>
+      </c>
+      <c r="E508" s="1">
         <f t="shared" si="46"/>
-        <v>13818.181818181818</v>
-      </c>
-      <c r="C490" s="1">
+        <v>6200.8297696148602</v>
+      </c>
+    </row>
+    <row r="509" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A509" s="1">
+        <v>1799</v>
+      </c>
+      <c r="B509" s="1">
         <f t="shared" si="47"/>
-        <v>20727.272727272728</v>
-      </c>
-      <c r="D490" s="1">
-        <f t="shared" si="44"/>
-        <v>16666.887153196203</v>
-      </c>
-      <c r="E490" s="1">
+        <v>11227.272727272728</v>
+      </c>
+      <c r="C509" s="1">
+        <f t="shared" si="48"/>
+        <v>16840.909090909092</v>
+      </c>
+      <c r="D509" s="1">
         <f t="shared" si="45"/>
-        <v>6200.8297696148602</v>
-      </c>
-    </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A491" s="1">
-        <v>1799</v>
-      </c>
-      <c r="B491" s="1">
+        <v>17684.34247359481</v>
+      </c>
+      <c r="E509" s="1">
         <f t="shared" si="46"/>
-        <v>11227.272727272728</v>
-      </c>
-      <c r="C491" s="1">
+        <v>6579.3687962483255</v>
+      </c>
+    </row>
+    <row r="510" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A510" s="1">
+        <v>1800</v>
+      </c>
+      <c r="B510" s="1">
         <f t="shared" si="47"/>
-        <v>16840.909090909092</v>
-      </c>
-      <c r="D491" s="1">
-        <f t="shared" si="44"/>
-        <v>17684.34247359481</v>
-      </c>
-      <c r="E491" s="1">
+        <v>8348.484848484848</v>
+      </c>
+      <c r="C510" s="1">
+        <f t="shared" si="48"/>
+        <v>12522.727272727272</v>
+      </c>
+      <c r="D510" s="1">
         <f t="shared" si="45"/>
-        <v>6579.3687962483255</v>
-      </c>
-    </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A492" s="1">
-        <v>1800</v>
-      </c>
-      <c r="B492" s="1">
+        <v>16133.934366320744</v>
+      </c>
+      <c r="E510" s="1">
         <f t="shared" si="46"/>
-        <v>8348.484848484848</v>
-      </c>
-      <c r="C492" s="1">
+        <v>6002.5474223306637</v>
+      </c>
+    </row>
+    <row r="511" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A511" s="1">
+        <v>1801</v>
+      </c>
+      <c r="B511" s="1">
         <f t="shared" si="47"/>
-        <v>12522.727272727272</v>
-      </c>
-      <c r="D492" s="1">
-        <f t="shared" si="44"/>
-        <v>16133.934366320744</v>
-      </c>
-      <c r="E492" s="1">
+        <v>5277.7777777777774</v>
+      </c>
+      <c r="C511" s="1">
+        <f t="shared" si="48"/>
+        <v>7916.6666666666661</v>
+      </c>
+      <c r="D511" s="1">
         <f t="shared" si="45"/>
-        <v>6002.5474223306637</v>
-      </c>
-    </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A493" s="1">
-        <v>1801</v>
-      </c>
-      <c r="B493" s="1">
+        <v>9665.825543786752</v>
+      </c>
+      <c r="E511" s="1">
         <f t="shared" si="46"/>
-        <v>5277.7777777777774</v>
-      </c>
-      <c r="C493" s="1">
-        <f t="shared" si="47"/>
-        <v>7916.6666666666661</v>
-      </c>
-      <c r="D493" s="1">
-        <f t="shared" si="44"/>
-        <v>9665.825543786752</v>
-      </c>
-      <c r="E493" s="1">
+        <v>3596.1207530179199</v>
+      </c>
+    </row>
+    <row r="512" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A512" s="1">
+        <v>1802</v>
+      </c>
+      <c r="D512" s="1">
         <f t="shared" si="45"/>
-        <v>3596.1207530179199</v>
-      </c>
-    </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A494" s="1">
-        <v>1802</v>
-      </c>
-      <c r="D494" s="1">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="E494" s="1">
+        <v>0</v>
+      </c>
+      <c r="E512" s="1">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A513" s="1">
+        <v>1803</v>
+      </c>
+      <c r="D513" s="1">
         <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A495" s="1">
-        <v>1803</v>
-      </c>
-      <c r="D495" s="1">
-        <f t="shared" si="44"/>
         <v>5377.9781221069152</v>
       </c>
-      <c r="E495" s="1">
+      <c r="E513" s="1">
+        <f t="shared" si="46"/>
+        <v>2000.8491407768881</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A514" s="1">
+        <v>1804</v>
+      </c>
+      <c r="D514" s="1">
         <f t="shared" si="45"/>
-        <v>2000.8491407768881</v>
-      </c>
-    </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A496" s="1">
-        <v>1804</v>
-      </c>
-      <c r="D496" s="1">
-        <f t="shared" si="44"/>
         <v>9375.1240236728645</v>
       </c>
-      <c r="E496" s="1">
+      <c r="E514" s="1">
+        <f t="shared" si="46"/>
+        <v>3487.9667454083587</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A515" s="1">
+        <v>1805</v>
+      </c>
+      <c r="D515" s="1">
         <f t="shared" si="45"/>
-        <v>3487.9667454083587</v>
-      </c>
-    </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A497" s="1">
-        <v>1805</v>
-      </c>
-      <c r="D497" s="1">
-        <f t="shared" si="44"/>
         <v>12282.139224811737</v>
       </c>
-      <c r="E497" s="1">
+      <c r="E515" s="1">
+        <f t="shared" si="46"/>
+        <v>4569.5068215039746</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A516" s="1">
+        <v>1806</v>
+      </c>
+      <c r="D516" s="1">
         <f t="shared" si="45"/>
-        <v>4569.5068215039746</v>
-      </c>
-    </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A498" s="1">
-        <v>1806</v>
-      </c>
-      <c r="D498" s="1">
-        <f t="shared" si="44"/>
         <v>12572.840744925625</v>
       </c>
-      <c r="E498" s="1">
+      <c r="E516" s="1">
+        <f t="shared" si="46"/>
+        <v>4677.6608291135353</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A517" s="1">
+        <v>1807</v>
+      </c>
+      <c r="D517" s="1">
         <f t="shared" si="45"/>
-        <v>4677.6608291135353</v>
-      </c>
-    </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A499" s="1">
-        <v>1807</v>
-      </c>
-      <c r="D499" s="1">
-        <f t="shared" si="44"/>
         <v>13541.845811971916</v>
       </c>
-      <c r="E499" s="1">
+      <c r="E517" s="1">
+        <f t="shared" si="46"/>
+        <v>5038.1741878120738</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A518" s="1">
+        <v>1808</v>
+      </c>
+      <c r="D518" s="1">
         <f t="shared" si="45"/>
-        <v>5038.1741878120738</v>
-      </c>
-    </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A500" s="1">
-        <v>1808</v>
-      </c>
-      <c r="D500" s="1">
-        <f t="shared" si="44"/>
         <v>11361.584411117761</v>
       </c>
-      <c r="E500" s="1">
+      <c r="E518" s="1">
+        <f t="shared" si="46"/>
+        <v>4227.0191307403629</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A519" s="1">
+        <v>1809</v>
+      </c>
+      <c r="D519" s="1">
         <f t="shared" si="45"/>
-        <v>4227.0191307403629</v>
-      </c>
-    </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A501" s="1">
-        <v>1809</v>
-      </c>
-      <c r="D501" s="1">
-        <f t="shared" si="44"/>
         <v>13832.547332085804</v>
       </c>
-      <c r="E501" s="1">
+      <c r="E519" s="1">
+        <f t="shared" si="46"/>
+        <v>5146.3281954216354</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A520" s="1">
+        <v>1810</v>
+      </c>
+      <c r="D520" s="1">
         <f t="shared" si="45"/>
-        <v>5146.3281954216354</v>
-      </c>
-    </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A502" s="1">
-        <v>1810</v>
-      </c>
-      <c r="D502" s="1">
-        <f t="shared" si="44"/>
         <v>14995.353412541352</v>
       </c>
-      <c r="E502" s="1">
+      <c r="E520" s="1">
+        <f t="shared" si="46"/>
+        <v>5578.944225859882</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A521" s="1">
+        <v>1811</v>
+      </c>
+      <c r="D521" s="1">
         <f t="shared" si="45"/>
-        <v>5578.944225859882</v>
-      </c>
-    </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A503" s="1">
-        <v>1811</v>
-      </c>
-      <c r="D503" s="1">
-        <f t="shared" si="44"/>
         <v>11385.809537793919</v>
       </c>
-      <c r="E503" s="1">
+      <c r="E521" s="1">
+        <f t="shared" si="46"/>
+        <v>4236.0319647078259</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A522" s="1">
+        <v>1812</v>
+      </c>
+      <c r="D522" s="1">
         <f t="shared" si="45"/>
-        <v>4236.0319647078259</v>
-      </c>
-    </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A504" s="1">
-        <v>1812</v>
-      </c>
-      <c r="D504" s="1">
-        <f t="shared" si="44"/>
         <v>11506.935171174706</v>
       </c>
-      <c r="E504" s="1">
+      <c r="E522" s="1">
+        <f t="shared" si="46"/>
+        <v>4281.0961345451433</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A523" s="1">
+        <v>1813</v>
+      </c>
+      <c r="D523" s="1">
         <f t="shared" si="45"/>
-        <v>4281.0961345451433</v>
-      </c>
-    </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A505" s="1">
-        <v>1813</v>
-      </c>
-      <c r="D505" s="1">
-        <f t="shared" si="44"/>
         <v>8987.5219968543479</v>
       </c>
-      <c r="E505" s="1">
+      <c r="E523" s="1">
+        <f t="shared" si="46"/>
+        <v>3343.7614019289431</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A524" s="1">
+        <v>1814</v>
+      </c>
+      <c r="D524" s="1">
         <f t="shared" si="45"/>
-        <v>3343.7614019289431</v>
-      </c>
-    </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A506" s="1">
-        <v>1814</v>
-      </c>
-      <c r="D506" s="1">
-        <f t="shared" si="44"/>
         <v>3512.6433680428045</v>
       </c>
-      <c r="E506" s="1">
-        <f t="shared" si="45"/>
+      <c r="E524" s="1">
+        <f t="shared" si="46"/>
         <v>1306.8609252822016</v>
       </c>
     </row>
@@ -8251,10 +8367,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F52ADF-FFA8-0A46-9CC0-C7AD4F73CE98}">
-  <dimension ref="A1:D128"/>
+  <dimension ref="A1:E128"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="F118" sqref="F118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8465,83 +8581,227 @@
       <c r="A16">
         <v>1702</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16" s="1">
+        <f>Calcul!B196</f>
+        <v>6598.2207732735915</v>
+      </c>
+      <c r="C16" s="1">
+        <f>Calcul!B234</f>
+        <v>3665.6782073742174</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16:D27" si="1">(B16-C16)/C16</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1703</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17" s="1">
+        <f>Calcul!B197</f>
+        <v>6598.2207732735915</v>
+      </c>
+      <c r="C17" s="1">
+        <f>Calcul!B235</f>
+        <v>3665.6782073742174</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1704</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18" s="1">
+        <f>Calcul!B198</f>
+        <v>9913.8542503276003</v>
+      </c>
+      <c r="C18" s="1">
+        <f>Calcul!B236</f>
+        <v>5507.6968057375552</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>0.80000000000000016</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1705</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19" s="1">
+        <f>Calcul!B199</f>
+        <v>15002.9660988291</v>
+      </c>
+      <c r="C19" s="1">
+        <f>Calcul!B237</f>
+        <v>8334.9811660161668</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>0.79999999999999993</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1706</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20" s="1">
+        <f>Calcul!B200</f>
+        <v>12711.764227642278</v>
+      </c>
+      <c r="C20" s="1">
+        <f>Calcul!B238</f>
+        <v>7062.0912375790431</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1707</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B21" s="1">
+        <f>Calcul!B201</f>
+        <v>14716.565864930746</v>
+      </c>
+      <c r="C21" s="1">
+        <f>Calcul!B239</f>
+        <v>8175.8699249615256</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1708</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B22" s="1">
+        <f>Calcul!B202</f>
+        <v>14518.288779924196</v>
+      </c>
+      <c r="C22" s="1">
+        <f>Calcul!B240</f>
+        <v>8065.7159888467759</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>0.79999999999999993</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1709</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B23" s="1">
+        <f>Calcul!B203</f>
+        <v>16853.552225556919</v>
+      </c>
+      <c r="C23" s="1">
+        <f>Calcul!B241</f>
+        <v>9363.0845697538443</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>0.79999999999999993</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1710</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B24" s="1">
+        <f>Calcul!B204</f>
+        <v>14209.857758802893</v>
+      </c>
+      <c r="C24" s="1">
+        <f>Calcul!B242</f>
+        <v>7894.3654215571623</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1711</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B25" s="1">
+        <f>Calcul!B205</f>
+        <v>17624.629778360177</v>
+      </c>
+      <c r="C25" s="1">
+        <f>Calcul!B243</f>
+        <v>9791.4609879778764</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>0.79999999999999993</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1712</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B26" s="1">
+        <f>Calcul!B206</f>
+        <v>8085.2989108227302</v>
+      </c>
+      <c r="C26" s="1">
+        <f>Calcul!B244</f>
+        <v>4491.83272823485</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1713</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B27" s="1">
+        <f>Calcul!B207</f>
+        <v>8085.2989108227302</v>
+      </c>
+      <c r="C27" s="1">
+        <f>Calcul!B245</f>
+        <v>4491.83272823485</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1714</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1715</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1716</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1717</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1718</v>
       </c>
@@ -8676,11 +8936,11 @@
         <v>1744</v>
       </c>
       <c r="B58" s="1">
-        <f>Calcul!B307</f>
+        <f>Calcul!B325</f>
         <v>9830.3425360126203</v>
       </c>
       <c r="C58" s="1">
-        <f>Calcul!B280</f>
+        <f>Calcul!B298</f>
         <v>5575.554826863925</v>
       </c>
       <c r="D58">
@@ -8693,15 +8953,15 @@
         <v>1745</v>
       </c>
       <c r="B59" s="1">
-        <f>Calcul!B308</f>
+        <f>Calcul!B326</f>
         <v>17653.01130132312</v>
       </c>
       <c r="C59" s="1">
-        <f>Calcul!B281</f>
+        <f>Calcul!B299</f>
         <v>10012.401094794281</v>
       </c>
       <c r="D59">
-        <f t="shared" ref="D59:D67" si="1">(B59-C59)/C59</f>
+        <f t="shared" ref="D59:D62" si="2">(B59-C59)/C59</f>
         <v>0.76311467491063667</v>
       </c>
     </row>
@@ -8710,15 +8970,15 @@
         <v>1746</v>
       </c>
       <c r="B60" s="1">
-        <f>Calcul!B309</f>
+        <f>Calcul!B327</f>
         <v>17915.564676554666</v>
       </c>
       <c r="C60" s="1">
-        <f>Calcul!B282</f>
+        <f>Calcul!B300</f>
         <v>10161.315614631088</v>
       </c>
       <c r="D60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.76311467491063656</v>
       </c>
     </row>
@@ -8727,15 +8987,15 @@
         <v>1747</v>
       </c>
       <c r="B61" s="1">
-        <f>Calcul!B310</f>
+        <f>Calcul!B328</f>
         <v>13070.40911811387</v>
       </c>
       <c r="C61" s="1">
-        <f>Calcul!B283</f>
+        <f>Calcul!B301</f>
         <v>7413.2495770737905</v>
       </c>
       <c r="D61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.76311467491063656</v>
       </c>
     </row>
@@ -8744,15 +9004,15 @@
         <v>1748</v>
       </c>
       <c r="B62" s="1">
-        <f>Calcul!B311</f>
+        <f>Calcul!B329</f>
         <v>6798.5851405813928</v>
       </c>
       <c r="C62" s="1">
-        <f>Calcul!B284</f>
+        <f>Calcul!B302</f>
         <v>3856.0084816524932</v>
       </c>
       <c r="D62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.76311467491063656</v>
       </c>
     </row>
@@ -8768,168 +9028,172 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1751</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1752</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1753</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1754</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1755</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1756</v>
       </c>
       <c r="B70" s="1">
-        <f>Calcul!B367+Calcul!D367</f>
+        <f>Calcul!B385+Calcul!D385</f>
         <v>8943.4195369725203</v>
       </c>
       <c r="C70" s="1">
-        <f>Calcul!B341</f>
+        <f>Calcul!B359</f>
         <v>3380.4385964912281</v>
       </c>
       <c r="D70">
-        <f t="shared" ref="D70:D76" si="2">(B70-C70)/C70</f>
+        <f t="shared" ref="D70:D76" si="3">(B70-C70)/C70</f>
         <v>1.6456388074185</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1757</v>
       </c>
       <c r="B71" s="1">
-        <f>Calcul!B368+Calcul!D368</f>
+        <f>Calcul!B386+Calcul!D386</f>
         <v>12192.040782193719</v>
       </c>
       <c r="C71" s="1">
-        <f>Calcul!B342</f>
+        <f>Calcul!B360</f>
         <v>10628.473684210527</v>
       </c>
       <c r="D71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.14711116049579159</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1758</v>
       </c>
       <c r="B72" s="1">
-        <f>Calcul!B369+Calcul!D369</f>
+        <f>Calcul!B387+Calcul!D387</f>
         <v>6793.4339992911191</v>
       </c>
       <c r="C72" s="1">
-        <f>Calcul!B343</f>
+        <f>Calcul!B361</f>
         <v>5697.5614035087719</v>
       </c>
       <c r="D72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.19234063806797549</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1759</v>
       </c>
       <c r="B73" s="1">
-        <f>Calcul!B370+Calcul!D370</f>
+        <f>Calcul!B388+Calcul!D388</f>
         <v>7910.4598246606784</v>
       </c>
       <c r="C73" s="1">
-        <f>Calcul!B344</f>
+        <f>Calcul!B362</f>
         <v>2858.9298245614036</v>
       </c>
       <c r="D73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.7669303935692944</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1760</v>
       </c>
       <c r="B74" s="1">
-        <f>Calcul!B371+Calcul!D371</f>
+        <f>Calcul!B389+Calcul!D389</f>
         <v>15976.749856030099</v>
       </c>
       <c r="C74" s="1">
-        <f>Calcul!B345</f>
+        <f>Calcul!B363</f>
         <v>3438.2105263157896</v>
       </c>
       <c r="D74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.6468212850101316</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1761</v>
       </c>
       <c r="B75" s="1">
-        <f>Calcul!B372+Calcul!D372</f>
+        <f>Calcul!B390+Calcul!D390</f>
         <v>7771.1921690637191</v>
       </c>
       <c r="C75" s="1">
-        <f>Calcul!B346</f>
+        <f>Calcul!B364</f>
         <v>3091.5789473684208</v>
       </c>
       <c r="D75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.51366447416089</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1762</v>
       </c>
       <c r="B76" s="1">
-        <f>Calcul!B373+Calcul!D373</f>
+        <f>Calcul!B391+Calcul!D391</f>
         <v>5029.703448969447</v>
       </c>
       <c r="C76" s="1">
-        <f>Calcul!B347</f>
+        <f>Calcul!B365</f>
         <v>3479.5877192982457</v>
       </c>
       <c r="D76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.44548833215902506</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E76">
+        <f>(SUM(B70:B76)-SUM(C70:C76))/SUM(C70:C76)</f>
+        <v>0.98365110140868006</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1763</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1764</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1765</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1766</v>
       </c>
@@ -8994,15 +9258,15 @@
         <v>1778</v>
       </c>
       <c r="B92" s="1">
-        <f>Calcul!B403+Calcul!B429</f>
+        <f>Calcul!B421+Calcul!B447</f>
         <v>14930.418512184069</v>
       </c>
       <c r="C92" s="1">
-        <f>Calcul!B411</f>
+        <f>Calcul!B429</f>
         <v>2818.521699424497</v>
       </c>
       <c r="D92">
-        <f t="shared" ref="D92:D97" si="3">(B92-C92)/C92</f>
+        <f t="shared" ref="D92:D97" si="4">(B92-C92)/C92</f>
         <v>4.2972515752611216</v>
       </c>
     </row>
@@ -9011,15 +9275,15 @@
         <v>1779</v>
       </c>
       <c r="B93" s="1">
-        <f>Calcul!B404+Calcul!B430</f>
+        <f>Calcul!B422+Calcul!B448</f>
         <v>10619.801488108289</v>
       </c>
       <c r="C93" s="1">
-        <f>Calcul!B412</f>
+        <f>Calcul!B430</f>
         <v>4086.8564641655207</v>
       </c>
       <c r="D93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5985256837926909</v>
       </c>
     </row>
@@ -9028,15 +9292,15 @@
         <v>1780</v>
       </c>
       <c r="B94" s="1">
-        <f>Calcul!B405+Calcul!B431</f>
+        <f>Calcul!B423+Calcul!B449</f>
         <v>15067.169524477773</v>
       </c>
       <c r="C94" s="1">
-        <f>Calcul!B413</f>
+        <f>Calcul!B431</f>
         <v>6482.5999086763431</v>
       </c>
       <c r="D94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3242479463080545</v>
       </c>
     </row>
@@ -9045,15 +9309,15 @@
         <v>1781</v>
       </c>
       <c r="B95" s="1">
-        <f>Calcul!B406+Calcul!B432</f>
+        <f>Calcul!B424+Calcul!B450</f>
         <v>19371.939364703474</v>
       </c>
       <c r="C95" s="1">
-        <f>Calcul!B414</f>
+        <f>Calcul!B432</f>
         <v>6623.5259936475677</v>
       </c>
       <c r="D95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9247170439555219</v>
       </c>
     </row>
@@ -9062,180 +9326,184 @@
         <v>1782</v>
       </c>
       <c r="B96" s="1">
-        <f>Calcul!B407+Calcul!B433</f>
+        <f>Calcul!B425+Calcul!B451</f>
         <v>14202.005584060576</v>
       </c>
       <c r="C96" s="1">
-        <f>Calcul!B415</f>
+        <f>Calcul!B433</f>
         <v>7469.0825034749168</v>
       </c>
       <c r="D96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.90143910948275552</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1783</v>
       </c>
       <c r="B97" s="1">
-        <f>Calcul!B408+Calcul!B434</f>
+        <f>Calcul!B426+Calcul!B452</f>
         <v>808.6655264658159</v>
       </c>
       <c r="C97" s="1">
-        <f>Calcul!B416</f>
+        <f>Calcul!B434</f>
         <v>422.77825491367457</v>
       </c>
       <c r="D97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.91274153073680231</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E97">
+        <f>(SUM(B92:B97)-SUM(C92:C97))/SUM(C92:C97)</f>
+        <v>1.6878478804347825</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1784</v>
       </c>
       <c r="B98" s="1"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>1785</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1786</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1787</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>1788</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>1789</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>1790</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>1791</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>1792</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>1793</v>
       </c>
       <c r="B107" s="1">
-        <f>Calcul!D485</f>
+        <f>Calcul!D503</f>
         <v>8527.2445900073599</v>
       </c>
       <c r="C107" s="1">
-        <f>Calcul!E485</f>
+        <f>Calcul!E503</f>
         <v>3172.5175565471377</v>
       </c>
       <c r="D107">
-        <f t="shared" ref="D107:D128" si="4">(B107-C107)/C107</f>
+        <f t="shared" ref="D107:D128" si="5">(B107-C107)/C107</f>
         <v>1.6878478804347825</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>1794</v>
       </c>
       <c r="B108" s="1">
-        <f>Calcul!D486</f>
+        <f>Calcul!D504</f>
         <v>15600.981579445284</v>
       </c>
       <c r="C108" s="1">
-        <f>Calcul!E486</f>
+        <f>Calcul!E504</f>
         <v>5804.2650750464682</v>
       </c>
       <c r="D108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.687847880434783</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>1795</v>
       </c>
       <c r="B109" s="1">
-        <f>Calcul!D487</f>
+        <f>Calcul!D505</f>
         <v>15504.081072740655</v>
       </c>
       <c r="C109" s="1">
-        <f>Calcul!E487</f>
+        <f>Calcul!E505</f>
         <v>5768.2137391766146</v>
       </c>
       <c r="D109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6878478804347827</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>1796</v>
       </c>
       <c r="B110" s="1">
-        <f>Calcul!D488</f>
+        <f>Calcul!D506</f>
         <v>11846.086944640907</v>
       </c>
       <c r="C110" s="1">
-        <f>Calcul!E488</f>
+        <f>Calcul!E506</f>
         <v>4407.2758100896317</v>
       </c>
       <c r="D110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6878478804347827</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>1797</v>
       </c>
       <c r="B111" s="1">
-        <f>Calcul!D489</f>
+        <f>Calcul!D507</f>
         <v>22989.645215673252</v>
       </c>
       <c r="C111" s="1">
-        <f>Calcul!E489</f>
+        <f>Calcul!E507</f>
         <v>8553.1794351228236</v>
       </c>
       <c r="D111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6878478804347825</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>1798</v>
       </c>
       <c r="B112" s="1">
-        <f>Calcul!D490</f>
+        <f>Calcul!D508</f>
         <v>16666.887153196203</v>
       </c>
       <c r="C112" s="1">
-        <f>Calcul!E490</f>
+        <f>Calcul!E508</f>
         <v>6200.8297696148602</v>
       </c>
       <c r="D112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6878478804347825</v>
       </c>
     </row>
@@ -9244,15 +9512,15 @@
         <v>1799</v>
       </c>
       <c r="B113" s="1">
-        <f>Calcul!D491</f>
+        <f>Calcul!D509</f>
         <v>17684.34247359481</v>
       </c>
       <c r="C113" s="1">
-        <f>Calcul!E491</f>
+        <f>Calcul!E509</f>
         <v>6579.3687962483255</v>
       </c>
       <c r="D113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6878478804347827</v>
       </c>
     </row>
@@ -9261,15 +9529,15 @@
         <v>1800</v>
       </c>
       <c r="B114" s="1">
-        <f>Calcul!D492</f>
+        <f>Calcul!D510</f>
         <v>16133.934366320744</v>
       </c>
       <c r="C114" s="1">
-        <f>Calcul!E492</f>
+        <f>Calcul!E510</f>
         <v>6002.5474223306637</v>
       </c>
       <c r="D114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.687847880434783</v>
       </c>
     </row>
@@ -9278,15 +9546,15 @@
         <v>1801</v>
       </c>
       <c r="B115" s="1">
-        <f>Calcul!D493</f>
+        <f>Calcul!D511</f>
         <v>9665.825543786752</v>
       </c>
       <c r="C115" s="1">
-        <f>Calcul!E493</f>
+        <f>Calcul!E511</f>
         <v>3596.1207530179199</v>
       </c>
       <c r="D115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.687847880434783</v>
       </c>
     </row>
@@ -9302,15 +9570,15 @@
         <v>1803</v>
       </c>
       <c r="B117" s="1">
-        <f>Calcul!D495</f>
+        <f>Calcul!D513</f>
         <v>5377.9781221069152</v>
       </c>
       <c r="C117" s="1">
-        <f>Calcul!E495</f>
+        <f>Calcul!E513</f>
         <v>2000.8491407768881</v>
       </c>
       <c r="D117">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.687847880434783</v>
       </c>
     </row>
@@ -9319,15 +9587,15 @@
         <v>1804</v>
       </c>
       <c r="B118" s="1">
-        <f>Calcul!D496</f>
+        <f>Calcul!D514</f>
         <v>9375.1240236728645</v>
       </c>
       <c r="C118" s="1">
-        <f>Calcul!E496</f>
+        <f>Calcul!E514</f>
         <v>3487.9667454083587</v>
       </c>
       <c r="D118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6878478804347825</v>
       </c>
     </row>
@@ -9336,15 +9604,15 @@
         <v>1805</v>
       </c>
       <c r="B119" s="1">
-        <f>Calcul!D497</f>
+        <f>Calcul!D515</f>
         <v>12282.139224811737</v>
       </c>
       <c r="C119" s="1">
-        <f>Calcul!E497</f>
+        <f>Calcul!E515</f>
         <v>4569.5068215039746</v>
       </c>
       <c r="D119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6878478804347823</v>
       </c>
     </row>
@@ -9353,15 +9621,15 @@
         <v>1806</v>
       </c>
       <c r="B120" s="1">
-        <f>Calcul!D498</f>
+        <f>Calcul!D516</f>
         <v>12572.840744925625</v>
       </c>
       <c r="C120" s="1">
-        <f>Calcul!E498</f>
+        <f>Calcul!E516</f>
         <v>4677.6608291135353</v>
       </c>
       <c r="D120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6878478804347827</v>
       </c>
     </row>
@@ -9370,15 +9638,15 @@
         <v>1807</v>
       </c>
       <c r="B121" s="1">
-        <f>Calcul!D499</f>
+        <f>Calcul!D517</f>
         <v>13541.845811971916</v>
       </c>
       <c r="C121" s="1">
-        <f>Calcul!E499</f>
+        <f>Calcul!E517</f>
         <v>5038.1741878120738</v>
       </c>
       <c r="D121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.687847880434783</v>
       </c>
     </row>
@@ -9387,15 +9655,15 @@
         <v>1808</v>
       </c>
       <c r="B122" s="1">
-        <f>Calcul!D500</f>
+        <f>Calcul!D518</f>
         <v>11361.584411117761</v>
       </c>
       <c r="C122" s="1">
-        <f>Calcul!E500</f>
+        <f>Calcul!E518</f>
         <v>4227.0191307403629</v>
       </c>
       <c r="D122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6878478804347825</v>
       </c>
     </row>
@@ -9404,15 +9672,15 @@
         <v>1809</v>
       </c>
       <c r="B123" s="1">
-        <f>Calcul!D501</f>
+        <f>Calcul!D519</f>
         <v>13832.547332085804</v>
       </c>
       <c r="C123" s="1">
-        <f>Calcul!E501</f>
+        <f>Calcul!E519</f>
         <v>5146.3281954216354</v>
       </c>
       <c r="D123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6878478804347827</v>
       </c>
     </row>
@@ -9421,15 +9689,15 @@
         <v>1810</v>
       </c>
       <c r="B124" s="1">
-        <f>Calcul!D502</f>
+        <f>Calcul!D520</f>
         <v>14995.353412541352</v>
       </c>
       <c r="C124" s="1">
-        <f>Calcul!E502</f>
+        <f>Calcul!E520</f>
         <v>5578.944225859882</v>
       </c>
       <c r="D124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6878478804347825</v>
       </c>
     </row>
@@ -9438,15 +9706,15 @@
         <v>1811</v>
       </c>
       <c r="B125" s="1">
-        <f>Calcul!D503</f>
+        <f>Calcul!D521</f>
         <v>11385.809537793919</v>
       </c>
       <c r="C125" s="1">
-        <f>Calcul!E503</f>
+        <f>Calcul!E521</f>
         <v>4236.0319647078259</v>
       </c>
       <c r="D125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.687847880434783</v>
       </c>
     </row>
@@ -9455,15 +9723,15 @@
         <v>1812</v>
       </c>
       <c r="B126" s="1">
-        <f>Calcul!D504</f>
+        <f>Calcul!D522</f>
         <v>11506.935171174706</v>
       </c>
       <c r="C126" s="1">
-        <f>Calcul!E504</f>
+        <f>Calcul!E522</f>
         <v>4281.0961345451433</v>
       </c>
       <c r="D126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.687847880434783</v>
       </c>
     </row>
@@ -9472,15 +9740,15 @@
         <v>1813</v>
       </c>
       <c r="B127" s="1">
-        <f>Calcul!D505</f>
+        <f>Calcul!D523</f>
         <v>8987.5219968543479</v>
       </c>
       <c r="C127" s="1">
-        <f>Calcul!E505</f>
+        <f>Calcul!E523</f>
         <v>3343.7614019289431</v>
       </c>
       <c r="D127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.687847880434783</v>
       </c>
     </row>
@@ -9489,15 +9757,15 @@
         <v>1814</v>
       </c>
       <c r="B128" s="1">
-        <f>Calcul!D506</f>
+        <f>Calcul!D524</f>
         <v>3512.6433680428045</v>
       </c>
       <c r="C128" s="1">
-        <f>Calcul!E506</f>
+        <f>Calcul!E524</f>
         <v>1306.8609252822016</v>
       </c>
       <c r="D128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6878478804347827</v>
       </c>
     </row>

--- a/External Data/Résultats de la course française.xlsx
+++ b/External Data/Résultats de la course française.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumedaudin/Répertoires Git/2016-Hamburg-Impact-of-War/External Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD799FD-E94B-5549-A84C-1D150A5FE797}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CB1F67-5FA0-014A-9570-AB79F1D65A4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16720" activeTab="1" xr2:uid="{E3D52932-A783-EC49-8617-8937D12F747E}"/>
+    <workbookView xWindow="1160" yWindow="-14620" windowWidth="26880" windowHeight="14620" xr2:uid="{E3D52932-A783-EC49-8617-8937D12F747E}"/>
   </bookViews>
   <sheets>
     <sheet name="Calcul" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <author>tc={1D1A5EAE-3926-B14F-B6E8-93E56F2FBADE}</author>
   </authors>
   <commentList>
-    <comment ref="K51" authorId="0" shapeId="0" xr:uid="{702D1D19-A33E-BE4D-B99F-139199713421}">
+    <comment ref="L51" authorId="0" shapeId="0" xr:uid="{702D1D19-A33E-BE4D-B99F-139199713421}">
       <text>
         <t xml:space="preserve">[Commentaire à thread]
 Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
@@ -49,7 +49,7 @@
     Il donne 446... </t>
       </text>
     </comment>
-    <comment ref="K221" authorId="1" shapeId="0" xr:uid="{8396B6CD-CA26-2546-8AB1-C635E8DEF476}">
+    <comment ref="L221" authorId="1" shapeId="0" xr:uid="{8396B6CD-CA26-2546-8AB1-C635E8DEF476}">
       <text>
         <t>[Commentaire à thread]
 Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
@@ -57,7 +57,7 @@
     Note du tableau dans Villiers 2002</t>
       </text>
     </comment>
-    <comment ref="L221" authorId="2" shapeId="0" xr:uid="{1D1A5EAE-3926-B14F-B6E8-93E56F2FBADE}">
+    <comment ref="M221" authorId="2" shapeId="0" xr:uid="{1D1A5EAE-3926-B14F-B6E8-93E56F2FBADE}">
       <text>
         <t>[Commentaire à thread]
 Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="224">
   <si>
     <t>Estimation de l’armement corsaire à Dunkerque, Saint-Malo et Bayonne (en milliers de lt) Villier 2002, p. 327</t>
   </si>
@@ -225,15 +225,6 @@
     <t>Investissement Villiers / Crowhurst</t>
   </si>
   <si>
-    <t>Prises en utilisant le ratio de la guerre d’Amérpque</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valeur par prise : </t>
-  </si>
-  <si>
-    <t>Prises en utilisant Normann</t>
-  </si>
-  <si>
     <t>year</t>
   </si>
   <si>
@@ -243,12 +234,6 @@
     <t>Part de captures privées</t>
   </si>
   <si>
-    <t>Ivestissement en utilisant Normann (que pour course privée)</t>
-  </si>
-  <si>
-    <t>French income</t>
-  </si>
-  <si>
     <t>Saint-Malo (p. 333 // 2007 : 10-12)</t>
   </si>
   <si>
@@ -384,9 +369,6 @@
     <t>Estimation de l’investissement total</t>
   </si>
   <si>
-    <t>GUERRE DE LA LIGUE D’AUGSBOURG 1688-1698 -- aussi des captures hollandaises en Manche, espagnole en Méditerranée et Atlantique…</t>
-  </si>
-  <si>
     <t>donc % Dunkerque et Saint-Malo</t>
   </si>
   <si>
@@ -397,9 +379,6 @@
   </si>
   <si>
     <t>Donc pour ces deux ports</t>
-  </si>
-  <si>
-    <t>En supposant qu’ils soientt représentatifs (bof)</t>
   </si>
   <si>
     <t>Répartition annuelle</t>
@@ -1039,6 +1018,57 @@
   </si>
   <si>
     <t>C’est trop… Je vais supposer qu’il y 80% de profits bruts (ie la moyenne entre la guerre d’avant et la guerre d’après…)</t>
+  </si>
+  <si>
+    <t>En supposant qu’ils soient représentatifs (bof)</t>
+  </si>
+  <si>
+    <t>GUERRE DE LA LIGUE D’AUGSBOURG 1688-1697 -- aussi des captures hollandaises en Manche, espagnole en Méditerranée et Atlantique…</t>
+  </si>
+  <si>
+    <t>Hypothèse Investissement annuel</t>
+  </si>
+  <si>
+    <t>Profitabilité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caduc: </t>
+  </si>
+  <si>
+    <t>French income privateers</t>
+  </si>
+  <si>
+    <t>French income navy</t>
+  </si>
+  <si>
+    <t>Valeur de la livre tournois en argent</t>
+  </si>
+  <si>
+    <t>inflation depuis 1780</t>
+  </si>
+  <si>
+    <t>Prises corsaires en utilisant le ratio de la guerre d’Amérpque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prises Marine </t>
+  </si>
+  <si>
+    <t>Prises totales</t>
+  </si>
+  <si>
+    <t>Valeur estimé à partir de  1793</t>
+  </si>
+  <si>
+    <t>valeur moyenne des prises, prix de 1797</t>
+  </si>
+  <si>
+    <t>Valeur des prises - -implicite de normann ou estimées</t>
+  </si>
+  <si>
+    <t>Nous supposons que la Marine Militaire fait 15 % des prises des corsaires, comme durant la guerre de Sept ans, ou 14% du total.</t>
+  </si>
+  <si>
+    <t>Valeur des prises --1797 prizes</t>
   </si>
 </sst>
 </file>
@@ -1173,7 +1203,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1186,6 +1216,9 @@
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
@@ -1507,13 +1540,13 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="K51" dT="2024-04-15T14:56:48.99" personId="{2F9B96DD-8612-EA43-B1B7-D218C1C35987}" id="{702D1D19-A33E-BE4D-B99F-139199713421}">
+  <threadedComment ref="L51" dT="2024-04-15T14:56:48.99" personId="{2F9B96DD-8612-EA43-B1B7-D218C1C35987}" id="{702D1D19-A33E-BE4D-B99F-139199713421}">
     <text xml:space="preserve">Il donne 446... </text>
   </threadedComment>
-  <threadedComment ref="K221" dT="2024-04-16T15:46:24.25" personId="{2F9B96DD-8612-EA43-B1B7-D218C1C35987}" id="{8396B6CD-CA26-2546-8AB1-C635E8DEF476}">
+  <threadedComment ref="L221" dT="2024-04-16T15:46:24.25" personId="{2F9B96DD-8612-EA43-B1B7-D218C1C35987}" id="{8396B6CD-CA26-2546-8AB1-C635E8DEF476}">
     <text>Note du tableau dans Villiers 2002</text>
   </threadedComment>
-  <threadedComment ref="L221" dT="2024-04-16T15:46:07.80" personId="{2F9B96DD-8612-EA43-B1B7-D218C1C35987}" id="{1D1A5EAE-3926-B14F-B6E8-93E56F2FBADE}">
+  <threadedComment ref="M221" dT="2024-04-16T15:46:07.80" personId="{2F9B96DD-8612-EA43-B1B7-D218C1C35987}" id="{1D1A5EAE-3926-B14F-B6E8-93E56F2FBADE}">
     <text>Dans villiers 2000</text>
   </threadedComment>
 </ThreadedComments>
@@ -1521,10 +1554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747C72A1-6A8D-9E42-88DE-481B3F912E70}">
-  <dimension ref="A1:N524"/>
+  <dimension ref="A1:O524"/>
   <sheetViews>
-    <sheetView topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="B234" sqref="B234:B245"/>
+    <sheetView tabSelected="1" topLeftCell="A499" workbookViewId="0">
+      <selection activeCell="E502" sqref="E502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1534,128 +1567,132 @@
     <col min="3" max="3" width="22.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="1"/>
     <col min="5" max="5" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="10.83203125" style="1"/>
-    <col min="10" max="10" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="11.1640625" style="1" customWidth="1"/>
+    <col min="7" max="10" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B5" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" s="6"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" s="6"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" s="13"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="L16" s="13"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
+      <c r="E21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>1688</v>
       </c>
@@ -1671,25 +1708,25 @@
       <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="F22" s="1">
+      <c r="G22" s="1">
         <v>7</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0</v>
       </c>
       <c r="H22" s="1">
         <v>0</v>
       </c>
       <c r="I22" s="1">
-        <f>B22*B$36+C22*C$36+D22*D$36+E22*E$36+F22*F$36+G22*G$36+H22*H$36</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <f>B22*B$36+C22*C$36+D22*D$36+E22*E$36+G22*G$36+H22*H$36+I22*I$36</f>
         <v>704000</v>
       </c>
-      <c r="J22" s="1">
-        <f>I22*422/381</f>
+      <c r="K22" s="1">
+        <f>J22*422/381</f>
         <v>779758.53018372704</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>1689</v>
       </c>
@@ -1705,25 +1742,25 @@
       <c r="E23" s="1">
         <v>4</v>
       </c>
-      <c r="F23" s="1">
+      <c r="G23" s="1">
         <v>19</v>
       </c>
-      <c r="G23" s="1">
+      <c r="H23" s="1">
         <v>1</v>
       </c>
-      <c r="H23" s="1">
+      <c r="I23" s="1">
         <v>0</v>
       </c>
-      <c r="I23" s="1">
-        <f t="shared" ref="I23:I31" si="0">B23*B$36+C23*C$36+D23*D$36+E23*E$36+F23*F$36+G23*G$36+H23*H$36</f>
+      <c r="J23" s="1">
+        <f t="shared" ref="J23:J31" si="0">B23*B$36+C23*C$36+D23*D$36+E23*E$36+G23*G$36+H23*H$36+I23*I$36</f>
         <v>2230000</v>
       </c>
-      <c r="J23" s="1">
-        <f t="shared" ref="J23:J31" si="1">I23*422/381</f>
+      <c r="K23" s="1">
+        <f t="shared" ref="K23:K31" si="1">J23*422/381</f>
         <v>2469973.7532808399</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>1690</v>
       </c>
@@ -1739,25 +1776,25 @@
       <c r="E24" s="1">
         <v>12</v>
       </c>
-      <c r="F24" s="1">
+      <c r="G24" s="1">
         <v>15</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0</v>
       </c>
       <c r="H24" s="1">
         <v>0</v>
       </c>
       <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
         <f t="shared" si="0"/>
         <v>2230000</v>
       </c>
-      <c r="J24" s="1">
+      <c r="K24" s="1">
         <f t="shared" si="1"/>
         <v>2469973.7532808399</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>1691</v>
       </c>
@@ -1773,25 +1810,25 @@
       <c r="E25" s="1">
         <v>15</v>
       </c>
-      <c r="F25" s="1">
+      <c r="G25" s="1">
         <v>15</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0</v>
       </c>
       <c r="H25" s="1">
         <v>0</v>
       </c>
       <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
         <f t="shared" si="0"/>
         <v>2460000</v>
       </c>
-      <c r="J25" s="1">
+      <c r="K25" s="1">
         <f t="shared" si="1"/>
         <v>2724724.4094488188</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>1692</v>
       </c>
@@ -1807,25 +1844,25 @@
       <c r="E26" s="1">
         <v>22</v>
       </c>
-      <c r="F26" s="1">
+      <c r="G26" s="1">
         <v>15</v>
-      </c>
-      <c r="G26" s="1">
-        <v>1</v>
       </c>
       <c r="H26" s="1">
         <v>1</v>
       </c>
       <c r="I26" s="1">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1">
         <f t="shared" si="0"/>
         <v>3424000</v>
       </c>
-      <c r="J26" s="1">
+      <c r="K26" s="1">
         <f t="shared" si="1"/>
         <v>3792461.9422572181</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>1693</v>
       </c>
@@ -1841,25 +1878,25 @@
       <c r="E27" s="1">
         <v>11</v>
       </c>
-      <c r="F27" s="1">
+      <c r="G27" s="1">
         <v>11</v>
       </c>
-      <c r="G27" s="1">
+      <c r="H27" s="1">
         <v>3</v>
       </c>
-      <c r="H27" s="1">
+      <c r="I27" s="1">
         <v>0</v>
       </c>
-      <c r="I27" s="1">
+      <c r="J27" s="1">
         <f t="shared" si="0"/>
         <v>2610000</v>
       </c>
-      <c r="J27" s="1">
+      <c r="K27" s="1">
         <f t="shared" si="1"/>
         <v>2890866.1417322834</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>1694</v>
       </c>
@@ -1875,25 +1912,25 @@
       <c r="E28" s="1">
         <v>9</v>
       </c>
-      <c r="F28" s="1">
+      <c r="G28" s="1">
         <v>11</v>
       </c>
-      <c r="G28" s="1">
+      <c r="H28" s="1">
         <v>4</v>
       </c>
-      <c r="H28" s="1">
+      <c r="I28" s="1">
         <v>2</v>
       </c>
-      <c r="I28" s="1">
+      <c r="J28" s="1">
         <f t="shared" si="0"/>
         <v>2898000</v>
       </c>
-      <c r="J28" s="1">
+      <c r="K28" s="1">
         <f t="shared" si="1"/>
         <v>3209858.2677165354</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>1695</v>
       </c>
@@ -1909,25 +1946,25 @@
       <c r="E29" s="1">
         <v>20</v>
       </c>
-      <c r="F29" s="1">
+      <c r="G29" s="1">
         <v>10</v>
       </c>
-      <c r="G29" s="1">
+      <c r="H29" s="1">
         <v>1</v>
       </c>
-      <c r="H29" s="1">
+      <c r="I29" s="1">
         <v>2</v>
       </c>
-      <c r="I29" s="1">
+      <c r="J29" s="1">
         <f t="shared" si="0"/>
         <v>3358000</v>
       </c>
-      <c r="J29" s="1">
+      <c r="K29" s="1">
         <f t="shared" si="1"/>
         <v>3719359.5800524936</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>1696</v>
       </c>
@@ -1943,25 +1980,25 @@
       <c r="E30" s="1">
         <v>16</v>
       </c>
-      <c r="F30" s="1">
+      <c r="G30" s="1">
         <v>6</v>
       </c>
-      <c r="G30" s="1">
+      <c r="H30" s="1">
         <v>5</v>
       </c>
-      <c r="H30" s="1">
+      <c r="I30" s="1">
         <v>1</v>
       </c>
-      <c r="I30" s="1">
+      <c r="J30" s="1">
         <f t="shared" si="0"/>
         <v>2988000</v>
       </c>
-      <c r="J30" s="1">
+      <c r="K30" s="1">
         <f t="shared" si="1"/>
         <v>3309543.307086614</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>1697</v>
       </c>
@@ -1977,66 +2014,66 @@
       <c r="E31" s="1">
         <v>12</v>
       </c>
-      <c r="F31" s="1">
+      <c r="G31" s="1">
         <v>12</v>
       </c>
-      <c r="G31" s="1">
+      <c r="H31" s="1">
         <v>2</v>
       </c>
-      <c r="H31" s="1">
+      <c r="I31" s="1">
         <v>0</v>
       </c>
-      <c r="I31" s="1">
+      <c r="J31" s="1">
         <f t="shared" si="0"/>
         <v>2614000</v>
       </c>
-      <c r="J31" s="1">
+      <c r="K31" s="1">
         <f t="shared" si="1"/>
         <v>2895296.5879265093</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I32" s="1">
-        <f>SUM(I22:I31)</f>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J32" s="1">
+        <f>SUM(J22:J31)</f>
         <v>25516000</v>
       </c>
-      <c r="J32" s="10">
-        <f>SUM(J22:J31)</f>
+      <c r="K32" s="10">
+        <f>SUM(K22:K31)</f>
         <v>28261816.272965882</v>
       </c>
-      <c r="K32" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L32" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="I35" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B36" s="1">
         <v>4000</v>
       </c>
@@ -2049,54 +2086,54 @@
       <c r="E36" s="1">
         <v>70000</v>
       </c>
-      <c r="F36" s="1">
+      <c r="G36" s="1">
         <v>90000</v>
       </c>
-      <c r="G36" s="1">
+      <c r="H36" s="1">
         <v>110000</v>
       </c>
-      <c r="H36" s="1">
+      <c r="I36" s="1">
         <v>140000</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="I40" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H40" s="1" t="s">
+      <c r="J40" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L40" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="I40" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M40" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>1688</v>
       </c>
@@ -2112,36 +2149,36 @@
       <c r="E41" s="1">
         <v>4</v>
       </c>
-      <c r="F41" s="1">
+      <c r="G41" s="1">
         <v>1</v>
-      </c>
-      <c r="G41" s="1">
-        <v>0</v>
       </c>
       <c r="H41" s="1">
         <v>0</v>
       </c>
       <c r="I41" s="1">
-        <f>SUM(B41:H41)</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="1">
+        <f>SUM(B41:I41)</f>
         <v>21</v>
       </c>
-      <c r="J41" s="1">
-        <f>B41*B$36+C41*C$36+D41*D$36+E41*E$36+F41*F$36+G41*G$36+H41*H$36</f>
+      <c r="K41" s="1">
+        <f>B41*B$36+C41*C$36+D41*D$36+E41*E$36+G41*G$36+H41*H$36+I41*I$36</f>
         <v>626000</v>
       </c>
-      <c r="K41" s="1">
+      <c r="L41" s="12">
         <v>29</v>
       </c>
-      <c r="L41" s="1">
-        <f>K41/I41*J41</f>
+      <c r="M41" s="1">
+        <f>L41/J41*K41</f>
         <v>864476.19047619042</v>
       </c>
-      <c r="N41" s="1">
-        <f>L41*16000000/L$51</f>
+      <c r="O41" s="1">
+        <f>M41*16000000/M$51</f>
         <v>738147.77144962759</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>1689</v>
       </c>
@@ -2157,36 +2194,36 @@
       <c r="E42" s="1">
         <v>3</v>
       </c>
-      <c r="F42" s="1">
+      <c r="G42" s="1">
         <v>5</v>
-      </c>
-      <c r="G42" s="1">
-        <v>0</v>
       </c>
       <c r="H42" s="1">
         <v>0</v>
       </c>
       <c r="I42" s="1">
-        <f t="shared" ref="I42:I50" si="2">SUM(B42:H42)</f>
+        <v>0</v>
+      </c>
+      <c r="J42" s="1">
+        <f t="shared" ref="J42:J50" si="2">SUM(B42:I42)</f>
         <v>27</v>
       </c>
-      <c r="J42" s="1">
-        <f>B42*B$36+C42*C$36+D42*D$36+E42*E$36+F42*F$36+G42*G$36+H42*H$36</f>
+      <c r="K42" s="1">
+        <f>B42*B$36+C42*C$36+D42*D$36+E42*E$36+G42*G$36+H42*H$36+I42*I$36</f>
         <v>1018000</v>
       </c>
-      <c r="K42" s="1">
+      <c r="L42" s="12">
         <v>31</v>
       </c>
-      <c r="L42" s="1">
-        <f t="shared" ref="L42:L50" si="3">K42/I42*J42</f>
+      <c r="M42" s="1">
+        <f t="shared" ref="M42:M50" si="3">L42/J42*K42</f>
         <v>1168814.8148148148</v>
       </c>
-      <c r="N42" s="1">
-        <f t="shared" ref="N42:N50" si="4">L42*16000000/L$51</f>
+      <c r="O42" s="1">
+        <f t="shared" ref="O42:O50" si="4">M42*16000000/M$51</f>
         <v>998012.50780269701</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>1690</v>
       </c>
@@ -2202,36 +2239,36 @@
       <c r="E43" s="1">
         <v>6</v>
       </c>
-      <c r="F43" s="1">
+      <c r="G43" s="1">
         <v>3</v>
-      </c>
-      <c r="G43" s="1">
-        <v>0</v>
       </c>
       <c r="H43" s="1">
         <v>0</v>
       </c>
       <c r="I43" s="1">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="J43" s="1">
-        <f>B43*B$36+C43*C$36+D43*D$36+E43*E$36+F43*F$36+G43*G$36+H43*H$36</f>
+      <c r="K43" s="1">
+        <f>B43*B$36+C43*C$36+D43*D$36+E43*E$36+G43*G$36+H43*H$36+I43*I$36</f>
         <v>1322000</v>
       </c>
-      <c r="K43" s="1">
+      <c r="L43" s="12">
         <v>50</v>
       </c>
-      <c r="L43" s="1">
+      <c r="M43" s="1">
         <f t="shared" si="3"/>
         <v>1888571.4285714286</v>
       </c>
-      <c r="N43" s="1">
+      <c r="O43" s="1">
         <f t="shared" si="4"/>
         <v>1612588.9950254618</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>1691</v>
       </c>
@@ -2247,36 +2284,36 @@
       <c r="E44" s="1">
         <v>2</v>
       </c>
-      <c r="F44" s="1">
+      <c r="G44" s="1">
         <v>1</v>
-      </c>
-      <c r="G44" s="1">
-        <v>0</v>
       </c>
       <c r="H44" s="1">
         <v>0</v>
       </c>
       <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="J44" s="1">
-        <f>B44*B$36+C44*C$36+D44*D$36+E44*E$36+F44*F$36+G44*G$36+H44*H$36</f>
+      <c r="K44" s="1">
+        <f>B44*B$36+C44*C$36+D44*D$36+E44*E$36+G44*G$36+H44*H$36+I44*I$36</f>
         <v>530000</v>
       </c>
-      <c r="K44" s="1">
+      <c r="L44" s="12">
         <v>31</v>
       </c>
-      <c r="L44" s="1">
+      <c r="M44" s="1">
         <f t="shared" si="3"/>
         <v>1369166.6666666667</v>
       </c>
-      <c r="N44" s="1">
+      <c r="O44" s="1">
         <f t="shared" si="4"/>
         <v>1169086.3610557134</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>1692</v>
       </c>
@@ -2292,36 +2329,36 @@
       <c r="E45" s="1">
         <v>2</v>
       </c>
-      <c r="F45" s="1">
+      <c r="G45" s="1">
         <v>2</v>
-      </c>
-      <c r="G45" s="1">
-        <v>0</v>
       </c>
       <c r="H45" s="1">
         <v>0</v>
       </c>
       <c r="I45" s="1">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="J45" s="1">
-        <f t="shared" ref="J45:J50" si="5">B45*B$36+C45*C$36+D44*D$36+E45*E$36+F45*F$36+G45*G$36+H45*H$36</f>
+      <c r="K45" s="1">
+        <f t="shared" ref="K45:K50" si="5">B45*B$36+C45*C$36+D44*D$36+E45*E$36+G45*G$36+H45*H$36+I45*I$36</f>
         <v>620000</v>
       </c>
-      <c r="K45" s="1">
+      <c r="L45" s="12">
         <v>37</v>
       </c>
-      <c r="L45" s="1">
+      <c r="M45" s="1">
         <f t="shared" si="3"/>
         <v>2548888.8888888885</v>
       </c>
-      <c r="N45" s="1">
+      <c r="O45" s="1">
         <f t="shared" si="4"/>
         <v>2176412.3451100071</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>1693</v>
       </c>
@@ -2337,36 +2374,36 @@
       <c r="E46" s="1">
         <v>7</v>
       </c>
-      <c r="F46" s="1">
+      <c r="G46" s="1">
         <v>2</v>
-      </c>
-      <c r="G46" s="1">
-        <v>0</v>
       </c>
       <c r="H46" s="1">
         <v>0</v>
       </c>
       <c r="I46" s="1">
+        <v>0</v>
+      </c>
+      <c r="J46" s="1">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="J46" s="1">
+      <c r="K46" s="1">
         <f t="shared" si="5"/>
         <v>888000</v>
       </c>
-      <c r="K46" s="1">
+      <c r="L46" s="12">
         <v>89</v>
       </c>
-      <c r="L46" s="1">
+      <c r="M46" s="1">
         <f t="shared" si="3"/>
         <v>3763428.5714285714</v>
       </c>
-      <c r="N46" s="1">
+      <c r="O46" s="1">
         <f t="shared" si="4"/>
         <v>3213467.8127799365</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>1694</v>
       </c>
@@ -2382,36 +2419,36 @@
       <c r="E47" s="1">
         <v>10</v>
       </c>
-      <c r="F47" s="1">
+      <c r="G47" s="1">
         <v>5</v>
-      </c>
-      <c r="G47" s="1">
-        <v>0</v>
       </c>
       <c r="H47" s="1">
         <v>0</v>
       </c>
       <c r="I47" s="1">
+        <v>0</v>
+      </c>
+      <c r="J47" s="1">
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="J47" s="1">
+      <c r="K47" s="1">
         <f t="shared" si="5"/>
         <v>1334000</v>
       </c>
-      <c r="K47" s="1">
+      <c r="L47" s="12">
         <v>89</v>
       </c>
-      <c r="L47" s="1">
+      <c r="M47" s="1">
         <f t="shared" si="3"/>
         <v>2761069.7674418604</v>
       </c>
-      <c r="N47" s="1">
+      <c r="O47" s="1">
         <f t="shared" si="4"/>
         <v>2357586.6150014964</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>1695</v>
       </c>
@@ -2427,36 +2464,36 @@
       <c r="E48" s="1">
         <v>7</v>
       </c>
-      <c r="F48" s="1">
+      <c r="G48" s="1">
         <v>2</v>
-      </c>
-      <c r="G48" s="1">
-        <v>0</v>
       </c>
       <c r="H48" s="1">
         <v>0</v>
       </c>
       <c r="I48" s="1">
+        <v>0</v>
+      </c>
+      <c r="J48" s="1">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="J48" s="1">
+      <c r="K48" s="1">
         <f t="shared" si="5"/>
         <v>1212000</v>
       </c>
-      <c r="K48" s="1">
+      <c r="L48" s="12">
         <v>62</v>
       </c>
-      <c r="L48" s="1">
+      <c r="M48" s="1">
         <f t="shared" si="3"/>
         <v>2087333.3333333335</v>
       </c>
-      <c r="N48" s="1">
+      <c r="O48" s="1">
         <f t="shared" si="4"/>
         <v>1782305.2447792762</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>1696</v>
       </c>
@@ -2472,36 +2509,36 @@
       <c r="E49" s="1">
         <v>8</v>
       </c>
-      <c r="F49" s="1">
+      <c r="G49" s="1">
         <v>6</v>
       </c>
-      <c r="G49" s="1">
+      <c r="H49" s="1">
         <v>1</v>
       </c>
-      <c r="H49" s="1">
+      <c r="I49" s="1">
         <v>0</v>
       </c>
-      <c r="I49" s="1">
+      <c r="J49" s="1">
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="J49" s="1">
+      <c r="K49" s="1">
         <f t="shared" si="5"/>
         <v>1872000</v>
       </c>
-      <c r="K49" s="1">
+      <c r="L49" s="12">
         <v>84</v>
       </c>
-      <c r="L49" s="1">
+      <c r="M49" s="1">
         <f t="shared" si="3"/>
         <v>1917658.5365853659</v>
       </c>
-      <c r="N49" s="1">
+      <c r="O49" s="1">
         <f t="shared" si="4"/>
         <v>1637425.5193796786</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>1697</v>
       </c>
@@ -2517,42 +2554,42 @@
       <c r="E50" s="1">
         <v>3</v>
       </c>
-      <c r="F50" s="1">
-        <v>1</v>
-      </c>
       <c r="G50" s="1">
         <v>1</v>
       </c>
       <c r="H50" s="1">
+        <v>1</v>
+      </c>
+      <c r="I50" s="1">
         <v>0</v>
       </c>
-      <c r="I50" s="1">
+      <c r="J50" s="1">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="J50" s="1">
+      <c r="K50" s="1">
         <f t="shared" si="5"/>
         <v>1488000</v>
       </c>
-      <c r="K50" s="1">
+      <c r="L50" s="12">
         <v>27</v>
       </c>
-      <c r="L50" s="1">
+      <c r="M50" s="1">
         <f t="shared" si="3"/>
         <v>1826181.8181818181</v>
       </c>
-      <c r="N50" s="1">
+      <c r="O50" s="1">
         <f t="shared" si="4"/>
         <v>1559316.5597888895</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B51" s="1">
         <f>SUM(B41:B50)</f>
         <v>40</v>
       </c>
       <c r="C51" s="1">
-        <f t="shared" ref="C51:I51" si="6">SUM(C41:C50)</f>
+        <f t="shared" ref="C51:J51" si="6">SUM(C41:C50)</f>
         <v>101</v>
       </c>
       <c r="D51" s="1">
@@ -2563,93 +2600,93 @@
         <f t="shared" si="6"/>
         <v>52</v>
       </c>
-      <c r="F51" s="1">
+      <c r="G51" s="1">
         <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="G51" s="1">
+      <c r="H51" s="1">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="H51" s="1">
+      <c r="I51" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I51" s="1">
+      <c r="J51" s="1">
         <f t="shared" si="6"/>
         <v>308</v>
       </c>
-      <c r="J51" s="1">
-        <f>SUM(J41:J50)</f>
-        <v>10910000</v>
-      </c>
       <c r="K51" s="1">
         <f>SUM(K41:K50)</f>
+        <v>10910000</v>
+      </c>
+      <c r="L51" s="12">
+        <f>SUM(L41:L50)</f>
         <v>529</v>
       </c>
-      <c r="L51" s="1">
-        <f>K51/I51*J51</f>
+      <c r="M51" s="1">
+        <f>L51/J51*K51</f>
         <v>18738279.220779222</v>
       </c>
-      <c r="N51" s="1">
-        <f>SUM(N41:N50)</f>
+      <c r="O51" s="1">
+        <f>SUM(O41:O50)</f>
         <v>17244349.732172783</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K52" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K53" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L52" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L53" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="I55" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H55" s="1" t="s">
+      <c r="J55" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L55" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="I55" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M55" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>1688</v>
       </c>
@@ -2665,36 +2702,36 @@
       <c r="E56" s="1">
         <v>4</v>
       </c>
-      <c r="F56" s="1">
+      <c r="G56" s="1">
         <v>3</v>
-      </c>
-      <c r="G56" s="1">
-        <v>0</v>
       </c>
       <c r="H56" s="1">
         <v>0</v>
       </c>
       <c r="I56" s="1">
-        <f>SUM(B56:H56)</f>
+        <v>0</v>
+      </c>
+      <c r="J56" s="1">
+        <f>SUM(B56:I56)</f>
         <v>29</v>
       </c>
-      <c r="J56" s="1">
-        <f>B56*B$36+C56*C$36+D56*D$36+E56*E$36+F56*F$36+G56*G$36+H56*H$36</f>
+      <c r="K56" s="1">
+        <f>B56*B$36+C56*C$36+D56*D$36+E56*E$36+G56*G$36+H56*H$36+I56*I$36</f>
         <v>896000</v>
       </c>
-      <c r="K56" s="1">
+      <c r="L56" s="12">
         <v>30</v>
       </c>
-      <c r="L56" s="1">
-        <f>K56/I56*J56</f>
+      <c r="M56" s="1">
+        <f>L56/J56*K56</f>
         <v>926896.55172413797</v>
       </c>
-      <c r="N56" s="1">
-        <f>L56*16000000/L$51</f>
+      <c r="O56" s="1">
+        <f>M56*16000000/M$51</f>
         <v>791446.46383220539</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>1689</v>
       </c>
@@ -2710,36 +2747,36 @@
       <c r="E57" s="1">
         <v>4</v>
       </c>
-      <c r="F57" s="1">
+      <c r="G57" s="1">
         <v>1</v>
-      </c>
-      <c r="G57" s="1">
-        <v>0</v>
       </c>
       <c r="H57" s="1">
         <v>0</v>
       </c>
       <c r="I57" s="1">
-        <f t="shared" ref="I57:I64" si="7">SUM(B57:H57)</f>
+        <v>0</v>
+      </c>
+      <c r="J57" s="1">
+        <f t="shared" ref="J57:J64" si="7">SUM(B57:I57)</f>
         <v>35</v>
       </c>
-      <c r="J57" s="1">
-        <f>B57*B$36+C57*C$36+D57*D$36+E57*E$36+F57*F$36+G57*G$36+H57*H$36</f>
+      <c r="K57" s="1">
+        <f>B57*B$36+C57*C$36+D57*D$36+E57*E$36+G57*G$36+H57*H$36+I57*I$36</f>
         <v>790000</v>
       </c>
-      <c r="K57" s="1">
+      <c r="L57" s="12">
         <v>51</v>
       </c>
-      <c r="L57" s="1">
-        <f t="shared" ref="L57:L65" si="8">K57/I57*J57</f>
+      <c r="M57" s="1">
+        <f t="shared" ref="M57:M65" si="8">L57/J57*K57</f>
         <v>1151142.857142857</v>
       </c>
-      <c r="N57" s="1">
-        <f t="shared" ref="N57:N65" si="9">L57*16000000/L$51</f>
+      <c r="O57" s="1">
+        <f t="shared" ref="O57:O65" si="9">M57*16000000/M$51</f>
         <v>982923.00468344695</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>1690</v>
       </c>
@@ -2755,36 +2792,36 @@
       <c r="E58" s="1">
         <v>6</v>
       </c>
-      <c r="F58" s="1">
+      <c r="G58" s="1">
         <v>3</v>
-      </c>
-      <c r="G58" s="1">
-        <v>0</v>
       </c>
       <c r="H58" s="1">
         <v>0</v>
       </c>
       <c r="I58" s="1">
+        <v>0</v>
+      </c>
+      <c r="J58" s="1">
         <f t="shared" si="7"/>
         <v>36</v>
       </c>
-      <c r="J58" s="1">
-        <f>B58*B$36+C58*C$36+D58*D$36+E58*E$36+F58*F$36+G58*G$36+H58*H$36</f>
+      <c r="K58" s="1">
+        <f>B58*B$36+C58*C$36+D58*D$36+E58*E$36+G58*G$36+H58*H$36+I58*I$36</f>
         <v>1338000</v>
       </c>
-      <c r="K58" s="1">
+      <c r="L58" s="12">
         <v>57</v>
       </c>
-      <c r="L58" s="1">
+      <c r="M58" s="1">
         <f t="shared" si="8"/>
         <v>2118500</v>
       </c>
-      <c r="N58" s="1">
+      <c r="O58" s="1">
         <f t="shared" si="9"/>
         <v>1808917.4358343484</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>1691</v>
       </c>
@@ -2800,36 +2837,36 @@
       <c r="E59" s="1">
         <v>2</v>
       </c>
-      <c r="F59" s="1">
+      <c r="G59" s="1">
         <v>1</v>
-      </c>
-      <c r="G59" s="1">
-        <v>0</v>
       </c>
       <c r="H59" s="1">
         <v>0</v>
       </c>
       <c r="I59" s="1">
+        <v>0</v>
+      </c>
+      <c r="J59" s="1">
         <f t="shared" si="7"/>
         <v>17</v>
       </c>
-      <c r="J59" s="1">
-        <f>B59*B$36+C59*C$36+D59*D$36+E59*E$36+F59*F$36+G59*G$36+H59*H$36</f>
+      <c r="K59" s="1">
+        <f>B59*B$36+C59*C$36+D59*D$36+E59*E$36+G59*G$36+H59*H$36+I59*I$36</f>
         <v>580000</v>
       </c>
-      <c r="K59" s="1">
+      <c r="L59" s="12">
         <v>34</v>
       </c>
-      <c r="L59" s="1">
+      <c r="M59" s="1">
         <f t="shared" si="8"/>
         <v>1160000</v>
       </c>
-      <c r="N59" s="1">
+      <c r="O59" s="1">
         <f t="shared" si="9"/>
         <v>990485.82750429271</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>1692</v>
       </c>
@@ -2845,36 +2882,36 @@
       <c r="E60" s="1">
         <v>4</v>
       </c>
-      <c r="F60" s="1">
+      <c r="G60" s="1">
         <v>3</v>
-      </c>
-      <c r="G60" s="1">
-        <v>0</v>
       </c>
       <c r="H60" s="1">
         <v>0</v>
       </c>
       <c r="I60" s="1">
+        <v>0</v>
+      </c>
+      <c r="J60" s="1">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="J60" s="1">
-        <f t="shared" ref="J60:J65" si="10">B60*B$36+C60*C$36+D59*D$36+E60*E$36+F60*F$36+G60*G$36+H60*H$36</f>
+      <c r="K60" s="1">
+        <f t="shared" ref="K60:K65" si="10">B60*B$36+C60*C$36+D59*D$36+E60*E$36+G60*G$36+H60*H$36+I60*I$36</f>
         <v>850000</v>
       </c>
-      <c r="K60" s="1">
+      <c r="L60" s="12">
         <v>37</v>
       </c>
-      <c r="L60" s="1">
+      <c r="M60" s="1">
         <f t="shared" si="8"/>
         <v>2246428.5714285714</v>
       </c>
-      <c r="N60" s="1">
+      <c r="O60" s="1">
         <f t="shared" si="9"/>
         <v>1918151.433190271</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>1693</v>
       </c>
@@ -2890,36 +2927,36 @@
       <c r="E61" s="1">
         <v>9</v>
       </c>
-      <c r="F61" s="1">
+      <c r="G61" s="1">
         <v>4</v>
-      </c>
-      <c r="G61" s="1">
-        <v>0</v>
       </c>
       <c r="H61" s="1">
         <v>0</v>
       </c>
       <c r="I61" s="1">
+        <v>0</v>
+      </c>
+      <c r="J61" s="1">
         <f t="shared" si="7"/>
         <v>32</v>
       </c>
-      <c r="J61" s="1">
+      <c r="K61" s="1">
         <f t="shared" si="10"/>
         <v>1288000</v>
       </c>
-      <c r="K61" s="1">
+      <c r="L61" s="12">
         <v>75</v>
       </c>
-      <c r="L61" s="1">
+      <c r="M61" s="1">
         <f t="shared" si="8"/>
         <v>3018750</v>
       </c>
-      <c r="N61" s="1">
+      <c r="O61" s="1">
         <f t="shared" si="9"/>
         <v>2577611.2860160205</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>1694</v>
       </c>
@@ -2935,36 +2972,36 @@
       <c r="E62" s="1">
         <v>14</v>
       </c>
-      <c r="F62" s="1">
+      <c r="G62" s="1">
         <v>6</v>
-      </c>
-      <c r="G62" s="1">
-        <v>0</v>
       </c>
       <c r="H62" s="1">
         <v>0</v>
       </c>
       <c r="I62" s="1">
+        <v>0</v>
+      </c>
+      <c r="J62" s="1">
         <f t="shared" si="7"/>
         <v>51</v>
       </c>
-      <c r="J62" s="1">
+      <c r="K62" s="1">
         <f t="shared" si="10"/>
         <v>1956000</v>
       </c>
-      <c r="K62" s="1">
+      <c r="L62" s="12">
         <v>93</v>
       </c>
-      <c r="L62" s="1">
+      <c r="M62" s="1">
         <f t="shared" si="8"/>
         <v>3566823.5294117648</v>
       </c>
-      <c r="N62" s="1">
+      <c r="O62" s="1">
         <f t="shared" si="9"/>
         <v>3045593.2371475808</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>1695</v>
       </c>
@@ -2980,36 +3017,36 @@
       <c r="E63" s="1">
         <v>9</v>
       </c>
-      <c r="F63" s="1">
+      <c r="G63" s="1">
         <v>2</v>
-      </c>
-      <c r="G63" s="1">
-        <v>0</v>
       </c>
       <c r="H63" s="1">
         <v>0</v>
       </c>
       <c r="I63" s="1">
+        <v>0</v>
+      </c>
+      <c r="J63" s="1">
         <f t="shared" si="7"/>
         <v>46</v>
       </c>
-      <c r="J63" s="1">
+      <c r="K63" s="1">
         <f t="shared" si="10"/>
         <v>1678000</v>
       </c>
-      <c r="K63" s="1">
+      <c r="L63" s="12">
         <v>61</v>
       </c>
-      <c r="L63" s="1">
+      <c r="M63" s="1">
         <f t="shared" si="8"/>
         <v>2225173.913043478</v>
       </c>
-      <c r="N63" s="1">
+      <c r="O63" s="1">
         <f t="shared" si="9"/>
         <v>1900002.7798291675</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>1696</v>
       </c>
@@ -3025,36 +3062,36 @@
       <c r="E64" s="1">
         <v>8</v>
       </c>
-      <c r="F64" s="1">
+      <c r="G64" s="1">
         <v>8</v>
       </c>
-      <c r="G64" s="1">
+      <c r="H64" s="1">
         <v>1</v>
       </c>
-      <c r="H64" s="1">
+      <c r="I64" s="1">
         <v>0</v>
       </c>
-      <c r="I64" s="1">
+      <c r="J64" s="1">
         <f t="shared" si="7"/>
         <v>86</v>
       </c>
-      <c r="J64" s="1">
+      <c r="K64" s="1">
         <f t="shared" si="10"/>
         <v>2222000</v>
       </c>
-      <c r="K64" s="1">
+      <c r="L64" s="12">
         <v>89</v>
       </c>
-      <c r="L64" s="1">
+      <c r="M64" s="1">
         <f t="shared" si="8"/>
         <v>2299511.6279069767</v>
       </c>
-      <c r="N64" s="1">
+      <c r="O64" s="1">
         <f t="shared" si="9"/>
         <v>1963477.308295849</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>1697</v>
       </c>
@@ -3070,36 +3107,36 @@
       <c r="E65" s="1">
         <v>4</v>
       </c>
-      <c r="F65" s="1">
-        <v>1</v>
-      </c>
       <c r="G65" s="1">
         <v>1</v>
       </c>
       <c r="H65" s="1">
+        <v>1</v>
+      </c>
+      <c r="I65" s="1">
         <v>0</v>
       </c>
-      <c r="I65" s="1">
-        <f>SUM(B65:H65)</f>
+      <c r="J65" s="1">
+        <f>SUM(B65:I65)</f>
         <v>28</v>
       </c>
-      <c r="J65" s="1">
+      <c r="K65" s="1">
         <f t="shared" si="10"/>
         <v>1608000</v>
       </c>
-      <c r="K65" s="1">
+      <c r="L65" s="12">
         <v>34</v>
       </c>
-      <c r="L65" s="1">
+      <c r="M65" s="1">
         <f t="shared" si="8"/>
         <v>1952571.4285714284</v>
       </c>
-      <c r="N65" s="1">
+      <c r="O65" s="1">
         <f t="shared" si="9"/>
         <v>1667236.4889567329</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B66" s="1">
         <f>SUM(B56:B65)</f>
         <v>44</v>
@@ -3116,63 +3153,63 @@
         <f t="shared" ref="E66" si="13">SUM(E56:E65)</f>
         <v>64</v>
       </c>
-      <c r="F66" s="1">
-        <f t="shared" ref="F66" si="14">SUM(F56:F65)</f>
+      <c r="G66" s="1">
+        <f t="shared" ref="G66" si="14">SUM(G56:G65)</f>
         <v>32</v>
       </c>
-      <c r="G66" s="1">
-        <f t="shared" ref="G66" si="15">SUM(G56:G65)</f>
+      <c r="H66" s="1">
+        <f t="shared" ref="H66" si="15">SUM(H56:H65)</f>
         <v>2</v>
       </c>
-      <c r="H66" s="1">
-        <f t="shared" ref="H66" si="16">SUM(H56:H65)</f>
+      <c r="I66" s="1">
+        <f t="shared" ref="I66" si="16">SUM(I56:I65)</f>
         <v>0</v>
       </c>
-      <c r="I66" s="1">
-        <f t="shared" ref="I66" si="17">SUM(I56:I65)</f>
+      <c r="J66" s="1">
+        <f t="shared" ref="J66" si="17">SUM(J56:J65)</f>
         <v>374</v>
-      </c>
-      <c r="J66" s="1">
-        <f>SUM(J56:J65)</f>
-        <v>13206000</v>
       </c>
       <c r="K66" s="1">
         <f>SUM(K56:K65)</f>
+        <v>13206000</v>
+      </c>
+      <c r="L66" s="12">
+        <f>SUM(L56:L65)</f>
         <v>561</v>
       </c>
-      <c r="L66" s="1">
-        <f>SUM(L56:L65)</f>
+      <c r="M66" s="1">
+        <f>SUM(M56:M65)</f>
         <v>20665798.479229216</v>
       </c>
-      <c r="N66" s="1">
-        <f>SUM(N56:N65)</f>
+      <c r="O66" s="1">
+        <f>SUM(O56:O65)</f>
         <v>17645845.265289918</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L67" s="1" t="s">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M67" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M68" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="N67" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L68" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>1</v>
       </c>
@@ -3180,7 +3217,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>2</v>
       </c>
@@ -3188,79 +3225,79 @@
         <v>83</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B73" s="1">
         <f>493-B71-B72</f>
         <v>111</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B74" s="1">
         <v>181</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B75" s="1">
         <v>51</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B76" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B77" s="1">
         <f>SUM(B71:B76)</f>
         <v>746</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G77" s="5">
+        <v>99</v>
+      </c>
+      <c r="H77" s="5">
         <f>(B71+B72)/B77</f>
         <v>0.51206434316353888</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>1688</v>
       </c>
       <c r="B80" s="3">
-        <f>(J22+L41)/G$77/1000</f>
+        <f>(K22+M41)/H$77/1000</f>
         <v>3210.9924125976399</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>1689</v>
       </c>
       <c r="B81" s="3">
-        <f t="shared" ref="B81:B89" si="18">(J23+L42)/G$77/1000</f>
+        <f t="shared" ref="B81:B89" si="18">(K23+M42)/H$77/1000</f>
         <v>7106.1158947627182</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>1690</v>
       </c>
@@ -3269,7 +3306,7 @@
         <v>8511.7138891669947</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>1691</v>
       </c>
@@ -3278,7 +3315,7 @@
         <v>7994.8762900056336</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>1692</v>
       </c>
@@ -3287,7 +3324,7 @@
         <v>12383.894555065433</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>1693</v>
       </c>
@@ -3296,7 +3333,7 @@
         <v>12995.036272298423</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>1694</v>
       </c>
@@ -3305,7 +3342,7 @@
         <v>11660.503440387862</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>1695</v>
       </c>
@@ -3314,7 +3351,7 @@
         <v>11339.772024570229</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>1696</v>
       </c>
@@ -3323,7 +3360,7 @@
         <v>10208.095747066222</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>1697</v>
       </c>
@@ -3332,27 +3369,27 @@
         <v>9220.4787721382509</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B90" s="1">
         <f>SUM(B80:B89)</f>
         <v>94631.479298059392</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C92" s="1">
         <v>58500000</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>22000000</v>
       </c>
@@ -3361,51 +3398,51 @@
         <v>25085518.814139109</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="L95" s="1">
-        <f>0.9*J32</f>
+        <v>175</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M95" s="1">
+        <f>0.9*K32</f>
         <v>25435634.645669293</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="L96" s="1">
-        <f>B93/22000000*L95</f>
+        <v>101</v>
+      </c>
+      <c r="M96" s="1">
+        <f>B93/22000000*M95</f>
         <v>29003004.156977531</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E97" s="1">
-        <f>C92+L96</f>
+        <f>C92+M96</f>
         <v>87503004.156977534</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>109</v>
+        <v>207</v>
       </c>
       <c r="E98" s="1">
-        <f>E97/G77</f>
+        <f>E97/H77</f>
         <v>170882830.10760534</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -3498,40 +3535,41 @@
         <v>16650.077957329297</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="L117" s="13"/>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C119" s="1">
         <v>1704</v>
@@ -3542,29 +3580,29 @@
       <c r="E119" s="1">
         <v>1706</v>
       </c>
-      <c r="F119" s="1">
+      <c r="G119" s="1">
         <v>1707</v>
       </c>
-      <c r="G119" s="1">
+      <c r="H119" s="1">
         <v>1708</v>
       </c>
-      <c r="H119" s="1">
+      <c r="I119" s="1">
         <v>1709</v>
       </c>
-      <c r="I119" s="1">
+      <c r="J119" s="1">
         <v>1710</v>
       </c>
-      <c r="J119" s="1">
+      <c r="K119" s="1">
         <v>1711</v>
       </c>
-      <c r="K119" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="L119" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L119" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="M119" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>1</v>
       </c>
@@ -3580,32 +3618,32 @@
       <c r="E120" s="1">
         <v>155</v>
       </c>
-      <c r="F120" s="1">
+      <c r="G120" s="1">
         <v>245</v>
       </c>
-      <c r="G120" s="1">
+      <c r="H120" s="1">
         <v>176</v>
       </c>
-      <c r="H120" s="1">
+      <c r="I120" s="1">
         <v>200</v>
       </c>
-      <c r="I120" s="1">
+      <c r="J120" s="1">
         <v>148</v>
       </c>
-      <c r="J120" s="1">
+      <c r="K120" s="1">
         <v>158</v>
       </c>
-      <c r="K120" s="1">
+      <c r="L120" s="12">
         <v>95</v>
       </c>
-      <c r="L120" s="1">
-        <f>SUM(B120:K120)</f>
+      <c r="M120" s="1">
+        <f>SUM(B120:L120)</f>
         <v>1626</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B121" s="1">
         <v>110</v>
@@ -3619,32 +3657,32 @@
       <c r="E121" s="1">
         <v>53</v>
       </c>
-      <c r="F121" s="1">
+      <c r="G121" s="1">
         <v>127</v>
       </c>
-      <c r="G121" s="1">
+      <c r="H121" s="1">
         <v>145</v>
       </c>
-      <c r="H121" s="1">
+      <c r="I121" s="1">
         <v>190</v>
       </c>
-      <c r="I121" s="1">
+      <c r="J121" s="1">
         <v>163</v>
-      </c>
-      <c r="J121" s="1">
-        <v>174</v>
       </c>
       <c r="K121" s="1">
         <v>174</v>
       </c>
-      <c r="L121" s="1">
-        <f>SUM(B121:K121)</f>
+      <c r="L121" s="12">
+        <v>174</v>
+      </c>
+      <c r="M121" s="1">
+        <f>SUM(B121:L121)</f>
         <v>1298</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B122" s="1">
         <v>14</v>
@@ -3658,32 +3696,32 @@
       <c r="E122" s="1">
         <v>2</v>
       </c>
-      <c r="F122" s="1">
+      <c r="G122" s="1">
         <v>11</v>
       </c>
-      <c r="G122" s="1">
+      <c r="H122" s="1">
         <v>5</v>
       </c>
-      <c r="H122" s="1">
+      <c r="I122" s="1">
         <v>13</v>
       </c>
-      <c r="I122" s="1">
+      <c r="J122" s="1">
         <v>2</v>
       </c>
-      <c r="J122" s="1">
+      <c r="K122" s="1">
         <v>8</v>
       </c>
-      <c r="K122" s="1">
+      <c r="L122" s="12">
         <v>4</v>
       </c>
-      <c r="L122" s="1">
-        <f>SUM(B122:K122)</f>
+      <c r="M122" s="1">
+        <f>SUM(B122:L122)</f>
         <v>75</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B123" s="1">
         <v>7</v>
@@ -3697,32 +3735,32 @@
       <c r="E123" s="1">
         <v>14</v>
       </c>
-      <c r="F123" s="1">
+      <c r="G123" s="1">
         <v>9</v>
       </c>
-      <c r="G123" s="1">
+      <c r="H123" s="1">
         <v>13</v>
       </c>
-      <c r="H123" s="1">
+      <c r="I123" s="1">
         <v>20</v>
       </c>
-      <c r="I123" s="1">
+      <c r="J123" s="1">
         <v>12</v>
       </c>
-      <c r="J123" s="1">
+      <c r="K123" s="1">
         <v>15</v>
       </c>
-      <c r="K123" s="1">
+      <c r="L123" s="12">
         <v>7</v>
       </c>
-      <c r="L123" s="1">
-        <f>SUM(B123:K123)</f>
+      <c r="M123" s="1">
+        <f>SUM(B123:L123)</f>
         <v>124</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B124" s="1">
         <v>10</v>
@@ -3736,30 +3774,30 @@
       <c r="E124" s="1">
         <v>9</v>
       </c>
-      <c r="F124" s="1">
+      <c r="G124" s="1">
         <v>4</v>
       </c>
-      <c r="G124" s="1">
+      <c r="H124" s="1">
         <v>8</v>
       </c>
-      <c r="H124" s="1">
+      <c r="I124" s="1">
         <v>19</v>
       </c>
-      <c r="I124" s="1">
+      <c r="J124" s="1">
         <v>5</v>
       </c>
-      <c r="J124" s="1">
+      <c r="K124" s="1">
         <v>6</v>
       </c>
-      <c r="K124" s="1">
+      <c r="L124" s="12">
         <v>8</v>
       </c>
-      <c r="L124" s="1">
-        <f>SUM(B124:K124)</f>
+      <c r="M124" s="1">
+        <f>SUM(B124:L124)</f>
         <v>80</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>2</v>
       </c>
@@ -3775,32 +3813,32 @@
       <c r="E125" s="1">
         <v>70</v>
       </c>
-      <c r="F125" s="1">
+      <c r="G125" s="1">
         <v>52</v>
       </c>
-      <c r="G125" s="1">
+      <c r="H125" s="1">
         <v>57</v>
       </c>
-      <c r="H125" s="1">
+      <c r="I125" s="1">
         <v>39</v>
       </c>
-      <c r="I125" s="1">
+      <c r="J125" s="1">
         <v>40</v>
       </c>
-      <c r="J125" s="1">
+      <c r="K125" s="1">
         <v>44</v>
       </c>
-      <c r="K125" s="1">
+      <c r="L125" s="12">
         <v>24</v>
       </c>
-      <c r="L125" s="1">
-        <f t="shared" ref="L125:L147" si="20">SUM(B125:K125)</f>
+      <c r="M125" s="1">
+        <f t="shared" ref="M125:M147" si="20">SUM(B125:L125)</f>
         <v>528</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B126" s="1">
         <v>42</v>
@@ -3814,32 +3852,32 @@
       <c r="E126" s="1">
         <v>16</v>
       </c>
-      <c r="F126" s="1">
+      <c r="G126" s="1">
         <v>25</v>
       </c>
-      <c r="G126" s="1">
+      <c r="H126" s="1">
         <v>13</v>
       </c>
-      <c r="H126" s="1">
+      <c r="I126" s="1">
         <v>26</v>
       </c>
-      <c r="I126" s="1">
+      <c r="J126" s="1">
         <v>15</v>
       </c>
-      <c r="J126" s="1">
+      <c r="K126" s="1">
         <v>25</v>
       </c>
-      <c r="K126" s="1">
+      <c r="L126" s="12">
         <v>17</v>
       </c>
-      <c r="L126" s="1">
+      <c r="M126" s="1">
         <f t="shared" si="20"/>
         <v>319</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B127" s="1">
         <v>14</v>
@@ -3853,32 +3891,32 @@
       <c r="E127" s="1">
         <v>15</v>
       </c>
-      <c r="F127" s="1">
+      <c r="G127" s="1">
         <v>8</v>
       </c>
-      <c r="G127" s="1">
+      <c r="H127" s="1">
         <v>3</v>
       </c>
-      <c r="H127" s="1">
+      <c r="I127" s="1">
         <v>6</v>
       </c>
-      <c r="I127" s="1">
+      <c r="J127" s="1">
         <v>13</v>
       </c>
-      <c r="J127" s="1">
+      <c r="K127" s="1">
         <v>12</v>
       </c>
-      <c r="K127" s="1">
+      <c r="L127" s="12">
         <v>13</v>
       </c>
-      <c r="L127" s="1">
+      <c r="M127" s="1">
         <f t="shared" si="20"/>
         <v>114</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B128" s="1">
         <v>42</v>
@@ -3892,32 +3930,32 @@
       <c r="E128" s="1">
         <v>80</v>
       </c>
-      <c r="F128" s="1">
+      <c r="G128" s="1">
         <v>84</v>
       </c>
-      <c r="G128" s="1">
+      <c r="H128" s="1">
         <v>62</v>
       </c>
-      <c r="H128" s="1">
+      <c r="I128" s="1">
         <v>70</v>
       </c>
-      <c r="I128" s="1">
+      <c r="J128" s="1">
         <v>42</v>
       </c>
-      <c r="J128" s="1">
+      <c r="K128" s="1">
         <v>48</v>
       </c>
-      <c r="K128" s="1">
+      <c r="L128" s="12">
         <v>73</v>
       </c>
-      <c r="L128" s="1">
+      <c r="M128" s="1">
         <f t="shared" si="20"/>
         <v>590</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B129" s="1">
         <v>21</v>
@@ -3931,32 +3969,32 @@
       <c r="E129" s="1">
         <v>26</v>
       </c>
-      <c r="F129" s="1">
+      <c r="G129" s="1">
         <v>12</v>
       </c>
-      <c r="G129" s="1">
+      <c r="H129" s="1">
         <v>6</v>
       </c>
-      <c r="H129" s="1">
+      <c r="I129" s="1">
         <v>7</v>
       </c>
-      <c r="I129" s="1">
+      <c r="J129" s="1">
         <v>20</v>
       </c>
-      <c r="J129" s="1">
+      <c r="K129" s="1">
         <v>4</v>
       </c>
-      <c r="K129" s="1">
+      <c r="L129" s="12">
         <v>15</v>
       </c>
-      <c r="L129" s="1">
+      <c r="M129" s="1">
         <f t="shared" si="20"/>
         <v>133</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B130" s="1">
         <v>13</v>
@@ -3970,32 +4008,32 @@
       <c r="E130" s="1">
         <v>7</v>
       </c>
-      <c r="F130" s="1">
+      <c r="G130" s="1">
         <v>4</v>
       </c>
-      <c r="G130" s="1">
+      <c r="H130" s="1">
         <v>6</v>
       </c>
-      <c r="H130" s="1">
+      <c r="I130" s="1">
         <v>2</v>
       </c>
-      <c r="I130" s="1">
+      <c r="J130" s="1">
         <v>11</v>
       </c>
-      <c r="J130" s="1">
+      <c r="K130" s="1">
         <v>17</v>
       </c>
-      <c r="K130" s="1">
+      <c r="L130" s="12">
         <v>12</v>
       </c>
-      <c r="L130" s="1">
+      <c r="M130" s="1">
         <f t="shared" si="20"/>
         <v>102</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B131" s="1">
         <v>0</v>
@@ -4009,32 +4047,32 @@
       <c r="E131" s="1">
         <v>0</v>
       </c>
-      <c r="F131" s="1">
+      <c r="G131" s="1">
         <v>9</v>
       </c>
-      <c r="G131" s="1">
+      <c r="H131" s="1">
         <v>1</v>
       </c>
-      <c r="H131" s="1">
+      <c r="I131" s="1">
         <v>6</v>
       </c>
-      <c r="I131" s="1">
+      <c r="J131" s="1">
         <v>4</v>
-      </c>
-      <c r="J131" s="1">
-        <v>6</v>
       </c>
       <c r="K131" s="1">
         <v>6</v>
       </c>
-      <c r="L131" s="1">
+      <c r="L131" s="12">
+        <v>6</v>
+      </c>
+      <c r="M131" s="1">
         <f t="shared" si="20"/>
         <v>49</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B132" s="1">
         <v>9</v>
@@ -4048,32 +4086,32 @@
       <c r="E132" s="1">
         <v>11</v>
       </c>
-      <c r="F132" s="1">
+      <c r="G132" s="1">
         <v>5</v>
       </c>
-      <c r="G132" s="1">
+      <c r="H132" s="1">
         <v>2</v>
       </c>
-      <c r="H132" s="1">
+      <c r="I132" s="1">
         <v>10</v>
       </c>
-      <c r="I132" s="1">
+      <c r="J132" s="1">
         <v>11</v>
       </c>
-      <c r="J132" s="1">
+      <c r="K132" s="1">
         <v>5</v>
       </c>
-      <c r="K132" s="1">
+      <c r="L132" s="12">
         <v>39</v>
       </c>
-      <c r="L132" s="1">
+      <c r="M132" s="1">
         <f t="shared" si="20"/>
         <v>99</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B133" s="1">
         <v>1</v>
@@ -4087,30 +4125,30 @@
       <c r="E133" s="1">
         <v>2</v>
       </c>
-      <c r="F133" s="1">
+      <c r="G133" s="1">
         <v>2</v>
-      </c>
-      <c r="G133" s="1">
-        <v>1</v>
       </c>
       <c r="H133" s="1">
         <v>1</v>
       </c>
       <c r="I133" s="1">
+        <v>1</v>
+      </c>
+      <c r="J133" s="1">
         <v>4</v>
       </c>
-      <c r="J133" s="1">
+      <c r="K133" s="1">
         <v>2</v>
       </c>
-      <c r="K133" s="1">
+      <c r="L133" s="12">
         <v>3</v>
       </c>
-      <c r="L133" s="1">
+      <c r="M133" s="1">
         <f t="shared" si="20"/>
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>3</v>
       </c>
@@ -4126,32 +4164,32 @@
       <c r="E134" s="1">
         <v>7</v>
       </c>
-      <c r="F134" s="1">
+      <c r="G134" s="1">
         <v>4</v>
       </c>
-      <c r="G134" s="1">
+      <c r="H134" s="1">
         <v>6</v>
       </c>
-      <c r="H134" s="1">
+      <c r="I134" s="1">
         <v>2</v>
       </c>
-      <c r="I134" s="1">
+      <c r="J134" s="1">
         <v>11</v>
       </c>
-      <c r="J134" s="1">
+      <c r="K134" s="1">
         <v>17</v>
       </c>
-      <c r="K134" s="1">
+      <c r="L134" s="12">
         <v>12</v>
       </c>
-      <c r="L134" s="1">
+      <c r="M134" s="1">
         <f t="shared" si="20"/>
         <v>96</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B135" s="1">
         <v>3</v>
@@ -4165,32 +4203,32 @@
       <c r="E135" s="1">
         <v>0</v>
       </c>
-      <c r="F135" s="1">
+      <c r="G135" s="1">
         <v>3</v>
       </c>
-      <c r="G135" s="1">
+      <c r="H135" s="1">
         <v>2</v>
-      </c>
-      <c r="H135" s="1">
-        <v>11</v>
       </c>
       <c r="I135" s="1">
         <v>11</v>
       </c>
       <c r="J135" s="1">
+        <v>11</v>
+      </c>
+      <c r="K135" s="1">
         <v>3</v>
       </c>
-      <c r="K135" s="1">
+      <c r="L135" s="12">
         <v>10</v>
       </c>
-      <c r="L135" s="1">
+      <c r="M135" s="1">
         <f t="shared" si="20"/>
         <v>51</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B136" s="1">
         <v>3</v>
@@ -4204,32 +4242,32 @@
       <c r="E136" s="1">
         <v>12</v>
       </c>
-      <c r="F136" s="1">
+      <c r="G136" s="1">
         <v>5</v>
       </c>
-      <c r="G136" s="1">
+      <c r="H136" s="1">
         <v>10</v>
       </c>
-      <c r="H136" s="1">
+      <c r="I136" s="1">
         <v>17</v>
       </c>
-      <c r="I136" s="1">
+      <c r="J136" s="1">
         <v>21</v>
       </c>
-      <c r="J136" s="1">
+      <c r="K136" s="1">
         <v>38</v>
       </c>
-      <c r="K136" s="1">
+      <c r="L136" s="12">
         <v>36</v>
       </c>
-      <c r="L136" s="1">
+      <c r="M136" s="1">
         <f t="shared" si="20"/>
         <v>144</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B137" s="1">
         <v>0</v>
@@ -4243,32 +4281,32 @@
       <c r="E137" s="1">
         <v>0</v>
       </c>
-      <c r="F137" s="1">
+      <c r="G137" s="1">
         <v>1</v>
       </c>
-      <c r="G137" s="1">
+      <c r="H137" s="1">
         <v>3</v>
       </c>
-      <c r="H137" s="1">
+      <c r="I137" s="1">
         <v>10</v>
       </c>
-      <c r="I137" s="1">
+      <c r="J137" s="1">
         <v>7</v>
       </c>
-      <c r="J137" s="1">
+      <c r="K137" s="1">
         <v>21</v>
       </c>
-      <c r="K137" s="1">
+      <c r="L137" s="12">
         <v>10</v>
       </c>
-      <c r="L137" s="1">
+      <c r="M137" s="1">
         <f t="shared" si="20"/>
         <v>55</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B138" s="1">
         <v>18</v>
@@ -4282,32 +4320,32 @@
       <c r="E138" s="1">
         <v>28</v>
       </c>
-      <c r="F138" s="1">
+      <c r="G138" s="1">
         <v>24</v>
       </c>
-      <c r="G138" s="1">
+      <c r="H138" s="1">
         <v>13</v>
       </c>
-      <c r="H138" s="1">
+      <c r="I138" s="1">
         <v>21</v>
       </c>
-      <c r="I138" s="1">
+      <c r="J138" s="1">
         <v>26</v>
       </c>
-      <c r="J138" s="1">
+      <c r="K138" s="1">
         <v>30</v>
       </c>
-      <c r="K138" s="1">
+      <c r="L138" s="12">
         <v>57</v>
       </c>
-      <c r="L138" s="1">
+      <c r="M138" s="1">
         <f t="shared" si="20"/>
         <v>254</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B139" s="1">
         <v>0</v>
@@ -4321,32 +4359,32 @@
       <c r="E139" s="1">
         <v>0</v>
       </c>
-      <c r="F139" s="1">
-        <v>0</v>
-      </c>
       <c r="G139" s="1">
         <v>0</v>
       </c>
       <c r="H139" s="1">
+        <v>0</v>
+      </c>
+      <c r="I139" s="1">
         <v>9</v>
       </c>
-      <c r="I139" s="1">
+      <c r="J139" s="1">
         <v>2</v>
       </c>
-      <c r="J139" s="1">
+      <c r="K139" s="1">
         <v>6</v>
       </c>
-      <c r="K139" s="1">
+      <c r="L139" s="12">
         <v>1</v>
       </c>
-      <c r="L139" s="1">
+      <c r="M139" s="1">
         <f t="shared" si="20"/>
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B140" s="1">
         <v>1</v>
@@ -4360,32 +4398,32 @@
       <c r="E140" s="1">
         <v>5</v>
       </c>
-      <c r="F140" s="1">
+      <c r="G140" s="1">
         <v>4</v>
       </c>
-      <c r="G140" s="1">
+      <c r="H140" s="1">
         <v>34</v>
       </c>
-      <c r="H140" s="1">
+      <c r="I140" s="1">
         <v>6</v>
       </c>
-      <c r="I140" s="1">
+      <c r="J140" s="1">
         <v>46</v>
       </c>
-      <c r="J140" s="1">
+      <c r="K140" s="1">
         <v>44</v>
       </c>
-      <c r="K140" s="1">
+      <c r="L140" s="12">
         <v>85</v>
       </c>
-      <c r="L140" s="1">
+      <c r="M140" s="1">
         <f t="shared" si="20"/>
         <v>251</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B141" s="1">
         <v>1</v>
@@ -4399,9 +4437,6 @@
       <c r="E141" s="1">
         <v>1</v>
       </c>
-      <c r="F141" s="1">
-        <v>0</v>
-      </c>
       <c r="G141" s="1">
         <v>0</v>
       </c>
@@ -4415,16 +4450,19 @@
         <v>0</v>
       </c>
       <c r="K141" s="1">
+        <v>0</v>
+      </c>
+      <c r="L141" s="12">
         <v>1</v>
       </c>
-      <c r="L141" s="1">
+      <c r="M141" s="1">
         <f t="shared" si="20"/>
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B142" s="1">
         <v>9</v>
@@ -4438,32 +4476,32 @@
       <c r="E142" s="1">
         <v>37</v>
       </c>
-      <c r="F142" s="1">
+      <c r="G142" s="1">
         <v>7</v>
       </c>
-      <c r="G142" s="1">
+      <c r="H142" s="1">
         <v>27</v>
       </c>
-      <c r="H142" s="1">
+      <c r="I142" s="1">
         <v>25</v>
       </c>
-      <c r="I142" s="1">
+      <c r="J142" s="1">
         <v>4</v>
       </c>
-      <c r="J142" s="1">
+      <c r="K142" s="1">
         <v>62</v>
       </c>
-      <c r="K142" s="1">
+      <c r="L142" s="12">
         <v>6</v>
       </c>
-      <c r="L142" s="1">
+      <c r="M142" s="1">
         <f t="shared" si="20"/>
         <v>201</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B143" s="1">
         <v>0</v>
@@ -4477,32 +4515,32 @@
       <c r="E143" s="1">
         <v>2</v>
       </c>
-      <c r="F143" s="1">
+      <c r="G143" s="1">
         <v>6</v>
       </c>
-      <c r="G143" s="1">
+      <c r="H143" s="1">
         <v>10</v>
       </c>
-      <c r="H143" s="1">
+      <c r="I143" s="1">
         <v>7</v>
       </c>
-      <c r="I143" s="1">
+      <c r="J143" s="1">
         <v>2</v>
       </c>
-      <c r="J143" s="1">
+      <c r="K143" s="1">
         <v>9</v>
       </c>
-      <c r="K143" s="1">
+      <c r="L143" s="12">
         <v>2</v>
       </c>
-      <c r="L143" s="1">
+      <c r="M143" s="1">
         <f t="shared" si="20"/>
         <v>40</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B144" s="1">
         <v>0</v>
@@ -4516,32 +4554,32 @@
       <c r="E144" s="1">
         <v>3</v>
       </c>
-      <c r="F144" s="1">
+      <c r="G144" s="1">
         <v>5</v>
       </c>
-      <c r="G144" s="1">
+      <c r="H144" s="1">
         <v>15</v>
       </c>
-      <c r="H144" s="1">
+      <c r="I144" s="1">
         <v>8</v>
       </c>
-      <c r="I144" s="1">
+      <c r="J144" s="1">
         <v>7</v>
       </c>
-      <c r="J144" s="1">
+      <c r="K144" s="1">
         <v>10</v>
       </c>
-      <c r="K144" s="1">
+      <c r="L144" s="12">
         <v>11</v>
       </c>
-      <c r="L144" s="1">
+      <c r="M144" s="1">
         <f t="shared" si="20"/>
         <v>72</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B145" s="1">
         <v>0</v>
@@ -4555,32 +4593,32 @@
       <c r="E145" s="1">
         <v>14</v>
       </c>
-      <c r="F145" s="1">
+      <c r="G145" s="1">
         <v>9</v>
       </c>
-      <c r="G145" s="1">
+      <c r="H145" s="1">
         <v>40</v>
       </c>
-      <c r="H145" s="1">
+      <c r="I145" s="1">
         <v>39</v>
       </c>
-      <c r="I145" s="1">
+      <c r="J145" s="1">
         <v>18</v>
       </c>
-      <c r="J145" s="1">
+      <c r="K145" s="1">
         <v>35</v>
       </c>
-      <c r="K145" s="1">
+      <c r="L145" s="12">
         <v>12</v>
       </c>
-      <c r="L145" s="1">
+      <c r="M145" s="1">
         <f t="shared" si="20"/>
         <v>182</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B146" s="1">
         <v>0</v>
@@ -4594,9 +4632,6 @@
       <c r="E146" s="1">
         <v>7</v>
       </c>
-      <c r="F146" s="1">
-        <v>0</v>
-      </c>
       <c r="G146" s="1">
         <v>0</v>
       </c>
@@ -4612,14 +4647,17 @@
       <c r="K146" s="1">
         <v>0</v>
       </c>
-      <c r="L146" s="1">
+      <c r="L146" s="12">
+        <v>0</v>
+      </c>
+      <c r="M146" s="1">
         <f t="shared" si="20"/>
         <v>37</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B147" s="1">
         <v>2</v>
@@ -4633,36 +4671,36 @@
       <c r="E147" s="1">
         <v>1</v>
       </c>
-      <c r="F147" s="1">
+      <c r="G147" s="1">
         <v>3</v>
-      </c>
-      <c r="G147" s="1">
-        <v>1</v>
       </c>
       <c r="H147" s="1">
         <v>1</v>
       </c>
       <c r="I147" s="1">
+        <v>1</v>
+      </c>
+      <c r="J147" s="1">
         <v>0</v>
-      </c>
-      <c r="J147" s="1">
-        <v>1</v>
       </c>
       <c r="K147" s="1">
         <v>1</v>
       </c>
-      <c r="L147" s="1">
+      <c r="L147" s="12">
+        <v>1</v>
+      </c>
+      <c r="M147" s="1">
         <f t="shared" si="20"/>
         <v>20</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B148" s="1">
         <f>SUM(B120:B147)</f>
         <v>599</v>
       </c>
       <c r="C148" s="1">
-        <f t="shared" ref="C148:L148" si="21">SUM(C120:C147)</f>
+        <f t="shared" ref="C148:M148" si="21">SUM(C120:C147)</f>
         <v>450</v>
       </c>
       <c r="D148" s="1">
@@ -4673,41 +4711,41 @@
         <f t="shared" si="21"/>
         <v>577</v>
       </c>
-      <c r="F148" s="1">
+      <c r="G148" s="1">
         <f t="shared" si="21"/>
         <v>668</v>
       </c>
-      <c r="G148" s="1">
+      <c r="H148" s="1">
         <f t="shared" si="21"/>
         <v>659</v>
       </c>
-      <c r="H148" s="1">
+      <c r="I148" s="1">
         <f t="shared" si="21"/>
         <v>765</v>
       </c>
-      <c r="I148" s="1">
+      <c r="J148" s="1">
         <f t="shared" si="21"/>
         <v>645</v>
       </c>
-      <c r="J148" s="1">
+      <c r="K148" s="1">
         <f t="shared" si="21"/>
         <v>800</v>
       </c>
-      <c r="K148" s="1">
+      <c r="L148" s="12">
         <f t="shared" si="21"/>
         <v>734</v>
       </c>
-      <c r="L148" s="1">
+      <c r="M148" s="1">
         <f t="shared" si="21"/>
         <v>6578</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>1702</v>
       </c>
@@ -4716,7 +4754,7 @@
         <v>299.5</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>1703</v>
       </c>
@@ -4725,7 +4763,7 @@
         <v>299.5</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>1704</v>
       </c>
@@ -4734,7 +4772,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>1705</v>
       </c>
@@ -4743,7 +4781,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>1706</v>
       </c>
@@ -4752,57 +4790,57 @@
         <v>577</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>1707</v>
       </c>
       <c r="B155" s="1">
-        <f>F148</f>
+        <f>G148</f>
         <v>668</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>1708</v>
       </c>
       <c r="B156" s="1">
-        <f>G148</f>
+        <f>H148</f>
         <v>659</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>1709</v>
       </c>
       <c r="B157" s="1">
-        <f>H148</f>
+        <f>I148</f>
         <v>765</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>1710</v>
       </c>
       <c r="B158" s="1">
-        <f>I148</f>
+        <f>J148</f>
         <v>645</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>1711</v>
       </c>
       <c r="B159" s="1">
-        <f>J148</f>
+        <f>K148</f>
         <v>800</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>1712</v>
       </c>
       <c r="B160" s="1">
-        <f>K148/2</f>
+        <f>L148/2</f>
         <v>367</v>
       </c>
     </row>
@@ -4811,13 +4849,13 @@
         <v>1713</v>
       </c>
       <c r="B161" s="1">
-        <f>K148/2</f>
+        <f>L148/2</f>
         <v>367</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B162" s="1">
         <f>SUM(B150:B161)</f>
@@ -4826,22 +4864,22 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B163" s="1">
         <f>B162/12</f>
         <v>548.16666666666663</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
@@ -4852,7 +4890,7 @@
         <v>30500</v>
       </c>
       <c r="C166" s="1">
-        <f>B166/L120</f>
+        <f>B166/M120</f>
         <v>18.757687576875767</v>
       </c>
     </row>
@@ -4864,40 +4902,40 @@
         <v>15000</v>
       </c>
       <c r="C167" s="1">
-        <f>B167/L121</f>
+        <f>B167/M121</f>
         <v>11.556240369799692</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B168" s="1">
         <f>SUM(B166:B167)</f>
         <v>45500</v>
       </c>
       <c r="C168" s="1">
-        <f>B168/(L120+L121)</f>
+        <f>B168/(M120+M121)</f>
         <v>15.560875512995896</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E169" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
@@ -4921,7 +4959,7 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B172" s="1">
         <v>162.69399999999999</v>
@@ -4940,7 +4978,7 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B173" s="1">
         <v>79.828000000000003</v>
@@ -4959,7 +4997,7 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B174" s="1">
         <v>199.572</v>
@@ -4997,7 +5035,7 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B176" s="1">
         <v>73.033000000000001</v>
@@ -5016,7 +5054,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B177" s="1">
         <v>324.46600000000001</v>
@@ -5024,18 +5062,18 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B178" s="1">
         <v>51.752000000000002</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B179" s="1">
         <v>43.313000000000002</v>
@@ -5043,7 +5081,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B180" s="1">
         <v>38.92</v>
@@ -5059,7 +5097,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B182" s="1">
         <v>36.046999999999997</v>
@@ -5067,7 +5105,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B183" s="1">
         <v>32.177</v>
@@ -5075,7 +5113,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B184" s="1">
         <v>21.582999999999998</v>
@@ -5083,7 +5121,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B185" s="1">
         <v>16.312000000000001</v>
@@ -5091,7 +5129,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B186" s="1">
         <v>5</v>
@@ -5099,42 +5137,42 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B190" s="1">
         <v>2.0979999999999999</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B191" s="1">
         <f>SUM(B171:B186)+B190+3*3.5</f>
@@ -5147,7 +5185,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B192" s="1">
         <f>B191*12</f>
@@ -5158,12 +5196,12 @@
         <v>152541.1707317073</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
@@ -5276,87 +5314,87 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B208" s="1">
         <f>SUM(B196:B207)</f>
         <v>144918.51835256655</v>
       </c>
       <c r="C208" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A209" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A213" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A214" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A209" s="1" t="s">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A215" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A216" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A217" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A219" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A213" s="1" t="s">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B220" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G220" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H220" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I220" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J220" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K220" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A214" s="1" t="s">
+      <c r="L220" s="12" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A215" s="1" t="s">
+      <c r="M220" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A216" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A217" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A219" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B220" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D220" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E220" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F220" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G220" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H220" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I220" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J220" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="K220" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="L220" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>1</v>
       </c>
@@ -5372,29 +5410,29 @@
       <c r="E221" s="1">
         <v>104</v>
       </c>
-      <c r="F221" s="1">
+      <c r="G221" s="1">
         <v>76</v>
       </c>
-      <c r="G221" s="1">
+      <c r="H221" s="1">
         <v>6</v>
       </c>
-      <c r="H221" s="1">
+      <c r="I221" s="1">
         <v>0</v>
       </c>
-      <c r="I221" s="1">
+      <c r="J221" s="1">
         <v>464</v>
       </c>
-      <c r="J221" s="1">
+      <c r="K221" s="1">
         <v>588</v>
       </c>
-      <c r="K221" s="1">
+      <c r="L221" s="12">
         <v>640</v>
       </c>
-      <c r="L221" s="1">
+      <c r="M221" s="1">
         <v>792</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>2</v>
       </c>
@@ -5410,51 +5448,51 @@
       <c r="E222" s="1">
         <v>98</v>
       </c>
-      <c r="F222" s="1">
+      <c r="G222" s="1">
         <v>109</v>
       </c>
-      <c r="G222" s="1">
+      <c r="H222" s="1">
         <v>3</v>
       </c>
-      <c r="H222" s="1">
+      <c r="I222" s="1">
         <v>2</v>
       </c>
-      <c r="I222" s="1">
+      <c r="J222" s="1">
         <v>369</v>
       </c>
-      <c r="J222" s="1">
+      <c r="K222" s="1">
         <v>425</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B225" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G225" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H225" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C225" s="1" t="s">
+      <c r="I225" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D225" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E225" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F225" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G225" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H225" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B226" s="1">
         <v>4400</v>
       </c>
@@ -5467,26 +5505,26 @@
       <c r="E226" s="1">
         <v>77000</v>
       </c>
-      <c r="F226" s="1">
+      <c r="G226" s="1">
         <v>99000</v>
       </c>
-      <c r="G226" s="1">
+      <c r="H226" s="1">
         <v>121000</v>
       </c>
-      <c r="H226" s="1">
+      <c r="I226" s="1">
         <v>154000</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B228" s="1">
         <f>B226*B222</f>
         <v>184800</v>
       </c>
       <c r="C228" s="1">
-        <f t="shared" ref="C228:H228" si="25">C226*C222</f>
+        <f t="shared" ref="C228:I228" si="25">C226*C222</f>
         <v>363000</v>
       </c>
       <c r="D228" s="1">
@@ -5497,31 +5535,31 @@
         <f t="shared" si="25"/>
         <v>7546000</v>
       </c>
-      <c r="F228" s="1">
+      <c r="G228" s="1">
         <f t="shared" si="25"/>
         <v>10791000</v>
       </c>
-      <c r="G228" s="1">
+      <c r="H228" s="1">
         <f t="shared" si="25"/>
         <v>363000</v>
       </c>
-      <c r="H228" s="1">
+      <c r="I228" s="1">
         <f t="shared" si="25"/>
         <v>308000</v>
       </c>
-      <c r="I228" s="1">
-        <f>SUM(B228:H228)</f>
+      <c r="J228" s="1">
+        <f>SUM(B228:I228)</f>
         <v>23339800</v>
       </c>
-      <c r="J228" s="3">
-        <f>I228*J222/I222</f>
+      <c r="K228" s="3">
+        <f>J228*K222/J222</f>
         <v>26881883.468834687</v>
       </c>
-      <c r="L228" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M228" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>1</v>
       </c>
@@ -5530,7 +5568,7 @@
         <v>360800</v>
       </c>
       <c r="C229" s="1">
-        <f t="shared" ref="C229:H229" si="26">C221*C226</f>
+        <f t="shared" ref="C229:I229" si="26">C221*C226</f>
         <v>1056000</v>
       </c>
       <c r="D229" s="1">
@@ -5541,50 +5579,50 @@
         <f t="shared" si="26"/>
         <v>8008000</v>
       </c>
-      <c r="F229" s="1">
+      <c r="G229" s="1">
         <f t="shared" si="26"/>
         <v>7524000</v>
       </c>
-      <c r="G229" s="1">
+      <c r="H229" s="1">
         <f t="shared" si="26"/>
         <v>726000</v>
       </c>
-      <c r="H229" s="1">
+      <c r="I229" s="1">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="I229" s="1">
-        <f>SUM(B229:H229)</f>
+      <c r="J229" s="1">
+        <f>SUM(B229:I229)</f>
         <v>21986800</v>
-      </c>
-      <c r="J229" s="1">
-        <f>I229*J221/I221</f>
-        <v>27862582.758620691</v>
       </c>
       <c r="K229" s="1">
         <f>J229*K221/J221</f>
+        <v>27862582.758620691</v>
+      </c>
+      <c r="L229" s="12">
+        <f>K229*L221/K221</f>
         <v>30326620.689655174</v>
       </c>
-      <c r="L229" s="3">
-        <f>K229*L221/K221</f>
+      <c r="M229" s="3">
+        <f>L229*M221/L221</f>
         <v>37529193.103448279</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E231" s="1">
-        <f>(J228+L229)*L148/(L120+L125)</f>
+        <f>(K228+M229)*M148/(M120+M125)</f>
         <v>196701978.50161436</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>1702</v>
       </c>
@@ -5593,7 +5631,7 @@
         <v>3665.6782073742174</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>1703</v>
       </c>
@@ -5602,7 +5640,7 @@
         <v>3665.6782073742174</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>1704</v>
       </c>
@@ -5611,7 +5649,7 @@
         <v>5507.6968057375552</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>1705</v>
       </c>
@@ -5620,7 +5658,7 @@
         <v>8334.9811660161668</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>1706</v>
       </c>
@@ -5629,7 +5667,7 @@
         <v>7062.0912375790431</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>1707</v>
       </c>
@@ -5638,7 +5676,7 @@
         <v>8175.8699249615256</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>1708</v>
       </c>
@@ -5647,7 +5685,7 @@
         <v>8065.7159888467759</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>1709</v>
       </c>
@@ -5656,7 +5694,7 @@
         <v>9363.0845697538443</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>1710</v>
       </c>
@@ -5665,7 +5703,7 @@
         <v>7894.3654215571623</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>1711</v>
       </c>
@@ -5674,7 +5712,7 @@
         <v>9791.4609879778764</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>1712</v>
       </c>
@@ -5683,7 +5721,7 @@
         <v>4491.83272823485</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>1713</v>
       </c>
@@ -5692,84 +5730,84 @@
         <v>4491.83272823485</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H251" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I251" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="J251" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="G251" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H251" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="I251" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="J251" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K251" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C252" s="1">
         <v>30000000</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G252" s="5">
+        <v>196</v>
+      </c>
+      <c r="H252" s="5">
         <f>648/590</f>
         <v>1.0983050847457627</v>
       </c>
-      <c r="H252" s="5">
+      <c r="I252" s="5">
         <f>320/143</f>
         <v>2.2377622377622379</v>
       </c>
-      <c r="I252" s="5">
+      <c r="J252" s="5">
         <f>4000/(1.92*700)</f>
         <v>2.9761904761904763</v>
       </c>
-      <c r="J252" s="2">
+      <c r="K252" s="2">
         <v>1.5</v>
       </c>
-      <c r="K252" s="1">
-        <f>J252*C252</f>
+      <c r="L252" s="12">
+        <f>K252*C252</f>
         <v>45000000</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G253" s="5"/>
+        <v>201</v>
+      </c>
       <c r="H253" s="5"/>
       <c r="I253" s="5"/>
-      <c r="J253" s="2"/>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J253" s="5"/>
+      <c r="K253" s="2"/>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>1702</v>
       </c>
       <c r="B254" s="1">
-        <f>K$252/12/2</f>
+        <f>L$252/12/2</f>
         <v>1875000</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>1703</v>
       </c>
       <c r="B255" s="1">
-        <f t="shared" ref="B255:B261" si="28">K$252/12/2</f>
+        <f t="shared" ref="B255:B261" si="28">L$252/12/2</f>
         <v>1875000</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>1704</v>
       </c>
@@ -5778,7 +5816,7 @@
         <v>1875000</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>1705</v>
       </c>
@@ -5787,7 +5825,7 @@
         <v>1875000</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>1706</v>
       </c>
@@ -5796,7 +5834,7 @@
         <v>1875000</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>1707</v>
       </c>
@@ -5805,7 +5843,7 @@
         <v>1875000</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>1708</v>
       </c>
@@ -5814,7 +5852,7 @@
         <v>1875000</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>1709</v>
       </c>
@@ -5823,74 +5861,75 @@
         <v>1875000</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>1710</v>
       </c>
       <c r="B262" s="1">
-        <f>K$252/4+K$252/2/12</f>
+        <f>L$252/4+L$252/2/12</f>
         <v>13125000</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>1711</v>
       </c>
       <c r="B263" s="1">
-        <f>K$252/12/2</f>
+        <f>L$252/12/2</f>
         <v>1875000</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>1712</v>
       </c>
       <c r="B264" s="1">
-        <f>K$252/4+K$252/2/12</f>
+        <f>L$252/4+L$252/2/12</f>
         <v>13125000</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>1713</v>
       </c>
       <c r="B265" s="1">
-        <f>K$252/12/2</f>
+        <f>L$252/12/2</f>
         <v>1875000</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B266" s="1">
         <f>SUM(B254:B265)</f>
         <v>45000000</v>
       </c>
-      <c r="G266" s="5"/>
       <c r="H266" s="5"/>
       <c r="I266" s="5"/>
-      <c r="J266" s="2"/>
-    </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G267" s="5"/>
+      <c r="J266" s="5"/>
+      <c r="K266" s="2"/>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H267" s="5"/>
       <c r="I267" s="5"/>
-      <c r="J267" s="2"/>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J267" s="5"/>
+      <c r="K267" s="2"/>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="270" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A270" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="L270" s="13"/>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B275" s="1" t="s">
         <v>1</v>
       </c>
@@ -5901,7 +5940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>1744</v>
       </c>
@@ -5916,7 +5955,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>1745</v>
       </c>
@@ -5930,7 +5969,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>1746</v>
       </c>
@@ -5944,7 +5983,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>1747</v>
       </c>
@@ -5958,7 +5997,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>1748</v>
       </c>
@@ -5972,7 +6011,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>4</v>
       </c>
@@ -5980,8 +6019,9 @@
         <f>4800/3292</f>
         <v>1.4580801944106927</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F282" s="2"/>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>5</v>
       </c>
@@ -5989,8 +6029,9 @@
         <f>7300/6821</f>
         <v>1.0702243072863216</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F283" s="2"/>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B284" s="1" t="s">
         <v>1</v>
       </c>
@@ -6001,7 +6042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>1744</v>
       </c>
@@ -6018,7 +6059,7 @@
         <v>941.79739041196297</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>1745</v>
       </c>
@@ -6035,7 +6076,7 @@
         <v>1808.6790793138834</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>1746</v>
       </c>
@@ -6052,7 +6093,7 @@
         <v>1773.3616771734348</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>1747</v>
       </c>
@@ -6203,23 +6244,23 @@
         <v>37018.529595015571</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B308" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D308" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B309" s="1">
         <v>12000</v>
       </c>
@@ -6230,7 +6271,7 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>12</v>
       </c>
@@ -6238,36 +6279,37 @@
         <f>(B309+C309+D309)/(B290+C290+D290)</f>
         <v>1.7631146749106366</v>
       </c>
-    </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F311" s="2"/>
+    </row>
+    <row r="313" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G313" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K313" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="314" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B314" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D314" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B313" s="1" t="s">
+      <c r="G314" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F313" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J313" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B314" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C314" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D314" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F314" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="315" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="315" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>1744</v>
       </c>
@@ -6278,7 +6320,7 @@
         <v>921</v>
       </c>
       <c r="D315" s="1">
-        <f>C315/$J$313</f>
+        <f>C315/$K$313</f>
         <v>614</v>
       </c>
       <c r="E315" s="1">
@@ -6291,11 +6333,12 @@
       <c r="I315" s="1"/>
       <c r="J315" s="1"/>
       <c r="K315" s="1"/>
-      <c r="L315" s="1"/>
+      <c r="L315" s="12"/>
       <c r="M315" s="1"/>
       <c r="N315" s="1"/>
-    </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O315" s="1"/>
+    </row>
+    <row r="316" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>1745</v>
       </c>
@@ -6306,7 +6349,7 @@
         <v>1116</v>
       </c>
       <c r="D316" s="1">
-        <f>C316/$J$313</f>
+        <f>C316/$K$313</f>
         <v>744</v>
       </c>
       <c r="E316" s="1">
@@ -6314,7 +6357,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>1746</v>
       </c>
@@ -6325,7 +6368,7 @@
         <v>4679</v>
       </c>
       <c r="D317" s="1">
-        <f>C317/$J$313</f>
+        <f>C317/$K$313</f>
         <v>3119.3333333333335</v>
       </c>
       <c r="E317" s="1">
@@ -6333,7 +6376,7 @@
         <v>3119.3333333333335</v>
       </c>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>1747</v>
       </c>
@@ -6344,7 +6387,7 @@
         <v>4441</v>
       </c>
       <c r="D318" s="1">
-        <f>C318/$J$313</f>
+        <f>C318/$K$313</f>
         <v>2960.6666666666665</v>
       </c>
       <c r="E318" s="1">
@@ -6352,7 +6395,7 @@
         <v>2960.6666666666665</v>
       </c>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>1748</v>
       </c>
@@ -6362,7 +6405,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B320" s="1">
         <f>SUM(B315:B319)</f>
         <v>305</v>
@@ -6380,12 +6423,12 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>1744</v>
       </c>
@@ -6394,7 +6437,7 @@
         <v>9830.3425360126203</v>
       </c>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>1745</v>
       </c>
@@ -6403,7 +6446,7 @@
         <v>17653.01130132312</v>
       </c>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>1746</v>
       </c>
@@ -6412,7 +6455,7 @@
         <v>17915.564676554666</v>
       </c>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>1747</v>
       </c>
@@ -6421,7 +6464,7 @@
         <v>13070.40911811387</v>
       </c>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>1748</v>
       </c>
@@ -6429,22 +6472,22 @@
         <f>B302*$E$311</f>
         <v>6798.5851405813928</v>
       </c>
-      <c r="L329" s="3"/>
       <c r="M329" s="3"/>
       <c r="N329" s="3"/>
-    </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O329" s="3"/>
+    </row>
+    <row r="330" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B330" s="1">
         <f>SUM(B325:B329)</f>
         <v>65267.912772585674</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
@@ -6456,18 +6499,20 @@
       <c r="I341" s="3"/>
       <c r="J341" s="3"/>
       <c r="K341" s="3"/>
-    </row>
-    <row r="342" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L341" s="14"/>
+    </row>
+    <row r="342" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A342" s="9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+      <c r="L342" s="13"/>
+    </row>
+    <row r="343" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B344" s="1" t="s">
         <v>1</v>
       </c>
@@ -6481,7 +6526,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>1756</v>
       </c>
@@ -6499,7 +6544,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>1757</v>
       </c>
@@ -6517,7 +6562,7 @@
         <v>6807</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>1758</v>
       </c>
@@ -6535,7 +6580,7 @@
         <v>3649</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>1759</v>
       </c>
@@ -6553,7 +6598,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>1760</v>
       </c>
@@ -6571,7 +6616,7 @@
         <v>2202</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>1761</v>
       </c>
@@ -6589,7 +6634,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>1762</v>
       </c>
@@ -6607,7 +6652,7 @@
         <v>2228.5</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B352" s="1">
         <f>SUM(B345:B351)</f>
         <v>8278</v>
@@ -6625,12 +6670,12 @@
         <v>20862.5</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B355" s="1" t="s">
         <v>1</v>
       </c>
@@ -6643,14 +6688,14 @@
       <c r="E355" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F355" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="G355" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H355" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B356" s="1">
         <v>145</v>
       </c>
@@ -6664,53 +6709,53 @@
         <f>54+32+21+35+50</f>
         <v>192</v>
       </c>
-      <c r="F356" s="1">
+      <c r="G356" s="1">
         <f>SUM(B356:E356)</f>
         <v>534</v>
       </c>
-      <c r="G356" s="2">
+      <c r="H356" s="2">
         <f>SUM(B356:E356)/SUM(B356:D356)</f>
         <v>1.5614035087719298</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L357" s="1" t="s">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M357" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L358" s="1">
+        <v>209</v>
+      </c>
+      <c r="M358" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>1756</v>
       </c>
       <c r="B359" s="1">
-        <f t="shared" ref="B359:B365" si="34">(B345+C345+D345)*$G$356</f>
+        <f>(B345+C345+D345)*$H$356</f>
         <v>3380.4385964912281</v>
       </c>
-      <c r="L359" s="1">
+      <c r="M359" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>1757</v>
       </c>
       <c r="B360" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="B359:B365" si="34">(B346+C346+D346)*$H$356</f>
         <v>10628.473684210527</v>
       </c>
-      <c r="L360" s="1">
+      <c r="M360" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>1758</v>
       </c>
@@ -6718,11 +6763,11 @@
         <f t="shared" si="34"/>
         <v>5697.5614035087719</v>
       </c>
-      <c r="L361" s="1">
+      <c r="M361" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>1759</v>
       </c>
@@ -6730,11 +6775,11 @@
         <f t="shared" si="34"/>
         <v>2858.9298245614036</v>
       </c>
-      <c r="L362" s="1">
+      <c r="M362" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>1760</v>
       </c>
@@ -6742,11 +6787,11 @@
         <f t="shared" si="34"/>
         <v>3438.2105263157896</v>
       </c>
-      <c r="L363" s="1">
+      <c r="M363" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>1761</v>
       </c>
@@ -6754,11 +6799,11 @@
         <f t="shared" si="34"/>
         <v>3091.5789473684208</v>
       </c>
-      <c r="L364" s="1">
+      <c r="M364" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>1762</v>
       </c>
@@ -6767,18 +6812,18 @@
         <v>3479.5877192982457</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B366" s="1">
         <f>SUM(B359:B365)</f>
         <v>32574.780701754386</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B369" s="1" t="s">
         <v>19</v>
       </c>
@@ -6791,17 +6836,20 @@
       <c r="E369" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F369" s="1" t="s">
+      <c r="G369" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I369" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G369" s="1" t="s">
+      <c r="J369" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K369" s="1" t="s">
+      <c r="N369" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>1756</v>
       </c>
@@ -6809,7 +6857,7 @@
         <v>1182.06</v>
       </c>
       <c r="C370" s="1">
-        <f t="shared" ref="C370:C376" si="35">(K370*F$377+L358*G$377)*$C$382</f>
+        <f>(N370*I$377+M358*J$377)*$M$382</f>
         <v>1530.65412679474</v>
       </c>
       <c r="D370" s="1">
@@ -6819,19 +6867,23 @@
         <f>SUM(B370:D370)</f>
         <v>4930.0261267947399</v>
       </c>
-      <c r="F370" s="1">
+      <c r="G370" s="2">
+        <f>E370/E345</f>
+        <v>2.2771483264640833</v>
+      </c>
+      <c r="I370" s="1">
         <f>1841.163/44</f>
         <v>41.84461363636364</v>
       </c>
-      <c r="G370" s="1">
+      <c r="J370" s="1">
         <f>46.9/9</f>
         <v>5.2111111111111112</v>
       </c>
-      <c r="K370" s="1">
+      <c r="N370" s="1">
         <v>47</v>
       </c>
     </row>
-    <row r="371" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>1757</v>
       </c>
@@ -6839,35 +6891,38 @@
         <v>1568.0419999999999</v>
       </c>
       <c r="C371" s="1">
-        <f t="shared" si="35"/>
+        <f>(N371*I$377+M359*J$377)*$M$382</f>
         <v>2490.7132768923552</v>
       </c>
       <c r="D371" s="1">
         <v>2662.0610000000001</v>
       </c>
       <c r="E371" s="1">
-        <f t="shared" ref="E371:E377" si="36">SUM(B371:D371)</f>
+        <f t="shared" ref="E371:E377" si="35">SUM(B371:D371)</f>
         <v>6720.8162768923557</v>
       </c>
-      <c r="F371" s="1">
+      <c r="F371" s="1"/>
+      <c r="G371" s="2">
+        <f t="shared" ref="G371:G377" si="36">E371/E346</f>
+        <v>0.98733895649953807</v>
+      </c>
+      <c r="I371" s="1">
         <f>1388.369/50</f>
         <v>27.767379999999999</v>
       </c>
-      <c r="G371" s="1">
+      <c r="J371" s="1">
         <f>179.673/31</f>
         <v>5.7959032258064518</v>
       </c>
-      <c r="H371" s="1"/>
-      <c r="I371" s="1"/>
-      <c r="J371" s="1"/>
-      <c r="K371" s="1">
+      <c r="K371" s="1"/>
+      <c r="L371" s="12"/>
+      <c r="M371" s="1"/>
+      <c r="N371" s="1">
         <v>76</v>
       </c>
-      <c r="L371" s="1"/>
-      <c r="M371" s="1"/>
-      <c r="N371" s="1"/>
-    </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O371" s="1"/>
+    </row>
+    <row r="372" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>1758</v>
       </c>
@@ -6875,29 +6930,33 @@
         <v>2450.9899999999998</v>
       </c>
       <c r="C372" s="1">
-        <f t="shared" si="35"/>
+        <f>(N372*I$377+M360*J$377)*$M$382</f>
         <v>428.5767469683355</v>
       </c>
       <c r="D372" s="1">
         <v>865.28800000000001</v>
       </c>
       <c r="E372" s="1">
+        <f t="shared" si="35"/>
+        <v>3744.8547469683353</v>
+      </c>
+      <c r="G372" s="2">
         <f t="shared" si="36"/>
-        <v>3744.8547469683353</v>
-      </c>
-      <c r="F372" s="1">
+        <v>1.0262687714355536</v>
+      </c>
+      <c r="I372" s="1">
         <f>1906.108/74</f>
         <v>25.758216216216216</v>
       </c>
-      <c r="G372" s="1">
+      <c r="J372" s="1">
         <f>544.889/81</f>
         <v>6.7270246913580252</v>
       </c>
-      <c r="K372" s="1">
+      <c r="N372" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>1759</v>
       </c>
@@ -6905,29 +6964,33 @@
         <v>2626.9</v>
       </c>
       <c r="C373" s="1">
-        <f t="shared" si="35"/>
+        <f>(N373*I$377+M361*J$377)*$M$382</f>
         <v>0</v>
       </c>
       <c r="D373" s="1">
         <v>1733.711</v>
       </c>
       <c r="E373" s="1">
+        <f t="shared" si="35"/>
+        <v>4360.6109999999999</v>
+      </c>
+      <c r="G373" s="2">
         <f t="shared" si="36"/>
-        <v>4360.6109999999999</v>
-      </c>
-      <c r="F373" s="1">
+        <v>2.3815461496450028</v>
+      </c>
+      <c r="I373" s="1">
         <f>1807.506/47</f>
         <v>38.457574468085106</v>
       </c>
-      <c r="G373" s="1">
+      <c r="J373" s="1">
         <f>819.399/102</f>
         <v>8.0333235294117653</v>
       </c>
-      <c r="K373" s="1">
+      <c r="N373" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>1760</v>
       </c>
@@ -6935,29 +6998,33 @@
         <v>4335.57</v>
       </c>
       <c r="C374" s="1">
-        <f t="shared" si="35"/>
+        <f>(N374*I$377+M362*J$377)*$M$382</f>
         <v>1852.3018108969927</v>
       </c>
       <c r="D374" s="1">
         <v>2619.2510000000002</v>
       </c>
       <c r="E374" s="1">
+        <f t="shared" si="35"/>
+        <v>8807.1228108969917</v>
+      </c>
+      <c r="G374" s="2">
         <f t="shared" si="36"/>
-        <v>8807.1228108969917</v>
-      </c>
-      <c r="F374" s="1">
+        <v>3.9996016398260634</v>
+      </c>
+      <c r="I374" s="1">
         <f>3840.059/33</f>
         <v>116.36542424242425</v>
       </c>
-      <c r="G374" s="1">
+      <c r="J374" s="1">
         <f>495.514/50</f>
         <v>9.9102800000000002</v>
       </c>
-      <c r="K374" s="1">
+      <c r="N374" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>1761</v>
       </c>
@@ -6965,29 +7032,33 @@
         <v>584.55600000000004</v>
       </c>
       <c r="C375" s="1">
-        <f t="shared" si="35"/>
+        <f>(N375*I$377+M363*J$377)*$M$382</f>
         <v>641.95423263612508</v>
       </c>
       <c r="D375" s="1">
         <v>3057.33</v>
       </c>
       <c r="E375" s="1">
+        <f t="shared" si="35"/>
+        <v>4283.8402326361247</v>
+      </c>
+      <c r="G375" s="2">
         <f t="shared" si="36"/>
-        <v>4283.8402326361247</v>
-      </c>
-      <c r="F375" s="1">
+        <v>2.1635556730485477</v>
+      </c>
+      <c r="I375" s="1">
         <f>542.314/21</f>
         <v>25.82447619047619</v>
       </c>
-      <c r="G375" s="1">
+      <c r="J375" s="1">
         <f>42.242/9</f>
         <v>4.6935555555555553</v>
       </c>
-      <c r="K375" s="1">
+      <c r="N375" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>1762</v>
       </c>
@@ -6995,29 +7066,33 @@
         <v>352.976</v>
       </c>
       <c r="C376" s="1">
-        <f t="shared" si="35"/>
+        <f>(N376*I$377+M364*J$377)*$M$382</f>
         <v>493.71096512981376</v>
       </c>
       <c r="D376" s="1">
         <v>1925.9179999999999</v>
       </c>
       <c r="E376" s="1">
+        <f t="shared" si="35"/>
+        <v>2772.6049651298135</v>
+      </c>
+      <c r="G376" s="2">
         <f t="shared" si="36"/>
-        <v>2772.6049651298135</v>
-      </c>
-      <c r="F376" s="1">
+        <v>1.2441574894008587</v>
+      </c>
+      <c r="I376" s="1">
         <f>139.71/5</f>
         <v>27.942</v>
       </c>
-      <c r="G376" s="1">
+      <c r="J376" s="1">
         <f>213.266/26</f>
         <v>8.2025384615384613</v>
       </c>
-      <c r="K376" s="1">
+      <c r="N376" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B377" s="1">
         <f>SUM(B370:B376)</f>
         <v>13101.094000000001</v>
@@ -7031,53 +7106,65 @@
         <v>15080.870999999999</v>
       </c>
       <c r="E377" s="1">
+        <f t="shared" si="35"/>
+        <v>35619.876159318359</v>
+      </c>
+      <c r="G377" s="2">
         <f t="shared" si="36"/>
-        <v>35619.876159318359</v>
-      </c>
-      <c r="F377" s="1">
-        <f>AVERAGE(F370:F376)</f>
+        <v>1.7073637464023179</v>
+      </c>
+      <c r="I377" s="1">
+        <f>AVERAGE(I370:I376)</f>
         <v>43.422812107652199</v>
       </c>
-      <c r="G377" s="1">
-        <f>AVERAGE(G370:G376)</f>
+      <c r="J377" s="1">
+        <f>AVERAGE(J370:J376)</f>
         <v>6.9391052249687677</v>
       </c>
     </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B378" s="2">
         <f>B377/B352</f>
         <v>1.5826400096641702</v>
       </c>
       <c r="C378" s="2">
-        <f t="shared" ref="C378:D378" si="38">C377/C352</f>
+        <f>C377/C352</f>
         <v>1.2031561241213786</v>
       </c>
       <c r="D378" s="2">
-        <f t="shared" si="38"/>
+        <f>D377/D352</f>
         <v>2.3554659898477155</v>
       </c>
-    </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C379" s="1" t="s">
+      <c r="E378" s="2">
+        <f>E377/E352</f>
+        <v>1.7073637464023179</v>
+      </c>
+      <c r="F378" s="2"/>
+    </row>
+    <row r="379" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L379" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="M379" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C380" s="1" t="s">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M380" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C381" s="1" t="s">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M381" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C382" s="2">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M382" s="2">
         <v>0.75</v>
       </c>
     </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
         <v>8</v>
       </c>
@@ -7088,32 +7175,32 @@
         <v>42</v>
       </c>
     </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>1756</v>
       </c>
       <c r="B385" s="1">
-        <f t="shared" ref="B385:B391" si="39">B359*E370/E345</f>
+        <f>B359*E370/E345</f>
         <v>7697.7600927145941</v>
       </c>
       <c r="C385" s="2">
-        <f t="shared" ref="C385:C392" si="40">B385/B359</f>
+        <f>B385/B359</f>
         <v>2.2771483264640833</v>
       </c>
       <c r="D385" s="1">
         <f>$A$395*B385/$B$392</f>
         <v>1245.659444257926</v>
       </c>
-      <c r="L385" s="3"/>
       <c r="M385" s="3"/>
       <c r="N385" s="3"/>
-    </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O385" s="3"/>
+    </row>
+    <row r="386" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>1757</v>
       </c>
       <c r="B386" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="B385:B391" si="38">B360*E371/E346</f>
         <v>10493.906116551223</v>
       </c>
       <c r="C386" s="2">
@@ -7121,33 +7208,33 @@
         <v>0.98733895649953818</v>
       </c>
       <c r="D386" s="1">
-        <f t="shared" ref="D386:D391" si="41">$A$395*B386/$B$392</f>
+        <f t="shared" ref="D386:D391" si="39">$A$395*B386/$B$392</f>
         <v>1698.1346656424962</v>
       </c>
     </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>1758</v>
       </c>
       <c r="B387" s="1">
+        <f t="shared" si="38"/>
+        <v>5847.2293417575765</v>
+      </c>
+      <c r="C387" s="2">
+        <f t="shared" ref="C385:C392" si="40">B387/B361</f>
+        <v>1.0262687714355536</v>
+      </c>
+      <c r="D387" s="1">
         <f t="shared" si="39"/>
-        <v>5847.2293417575765</v>
-      </c>
-      <c r="C387" s="2">
-        <f t="shared" si="40"/>
-        <v>1.0262687714355536</v>
-      </c>
-      <c r="D387" s="1">
-        <f t="shared" si="41"/>
         <v>946.20465753354233</v>
       </c>
     </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>1759</v>
       </c>
       <c r="B388" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>6808.6733157894741</v>
       </c>
       <c r="C388" s="2">
@@ -7155,16 +7242,16 @@
         <v>2.3815461496450028</v>
       </c>
       <c r="D388" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>1101.7865088712038</v>
       </c>
     </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>1760</v>
       </c>
       <c r="B389" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>13751.472459119865</v>
       </c>
       <c r="C389" s="2">
@@ -7172,16 +7259,16 @@
         <v>3.9996016398260634</v>
       </c>
       <c r="D389" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>2225.2773969102354</v>
       </c>
     </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>1761</v>
       </c>
       <c r="B390" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>6688.8031702564049</v>
       </c>
       <c r="C390" s="2">
@@ -7189,16 +7276,16 @@
         <v>2.1635556730485477</v>
       </c>
       <c r="D390" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>1082.3889988073142</v>
       </c>
     </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>1762</v>
       </c>
       <c r="B391" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>4329.1551209921654</v>
       </c>
       <c r="C391" s="2">
@@ -7206,11 +7293,11 @@
         <v>1.2441574894008587</v>
       </c>
       <c r="D391" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>700.54832797728193</v>
       </c>
     </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B392" s="1">
         <f>SUM(B385:B391)</f>
         <v>55616.999617181304</v>
@@ -7224,22 +7311,26 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C393" s="2"/>
     </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C394" s="2"/>
     </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>9000</v>
       </c>
+      <c r="B395" s="2">
+        <f>A395/B392</f>
+        <v>0.16182102705913864</v>
+      </c>
       <c r="C395" s="2"/>
     </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A397" s="3"/>
       <c r="B397" s="3"/>
       <c r="C397" s="3"/>
@@ -7251,18 +7342,19 @@
       <c r="I397" s="3"/>
       <c r="J397" s="3"/>
       <c r="K397" s="3"/>
-    </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L397" s="14"/>
+    </row>
+    <row r="398" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>40000</v>
       </c>
     </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
         <v>31</v>
       </c>
@@ -7379,7 +7471,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="417" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>1782</v>
       </c>
@@ -7387,7 +7479,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="418" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>1783</v>
       </c>
@@ -7395,18 +7487,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="419" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B419" s="1">
         <f>SUM(B413:B418)</f>
         <v>198</v>
       </c>
     </row>
-    <row r="420" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="421" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>1778</v>
       </c>
@@ -7415,63 +7507,63 @@
         <v>4040.4040404040402</v>
       </c>
     </row>
-    <row r="422" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>1779</v>
       </c>
       <c r="B422" s="1">
-        <f t="shared" ref="B422:B426" si="42">B414/$B$419*$A$399</f>
+        <f t="shared" ref="B422:B426" si="41">B414/$B$419*$A$399</f>
         <v>5858.5858585858587</v>
       </c>
     </row>
-    <row r="423" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>1780</v>
       </c>
       <c r="B423" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>9292.9292929292933</v>
       </c>
     </row>
-    <row r="424" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>1781</v>
       </c>
       <c r="B424" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>9494.9494949494947</v>
       </c>
     </row>
-    <row r="425" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>1782</v>
       </c>
       <c r="B425" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>10707.070707070707</v>
       </c>
     </row>
-    <row r="426" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>1783</v>
       </c>
       <c r="B426" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>606.06060606060612</v>
       </c>
     </row>
-    <row r="427" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B427" s="1">
         <f>SUM(B421:B426)</f>
         <v>40000</v>
       </c>
     </row>
-    <row r="428" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="429" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>1778</v>
       </c>
@@ -7480,21 +7572,21 @@
         <v>2818.521699424497</v>
       </c>
     </row>
-    <row r="430" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>1779</v>
       </c>
       <c r="B430" s="1">
-        <f t="shared" ref="B430:B434" si="43">B414/$B$419*$B$410</f>
+        <f t="shared" ref="B430:B434" si="42">B414/$B$419*$B$410</f>
         <v>4086.8564641655207</v>
       </c>
     </row>
-    <row r="431" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>1780</v>
       </c>
       <c r="B431" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>6482.5999086763431</v>
       </c>
       <c r="C431" s="1"/>
@@ -7506,43 +7598,44 @@
       <c r="I431" s="1"/>
       <c r="J431" s="1"/>
       <c r="K431" s="1"/>
-      <c r="L431" s="1"/>
+      <c r="L431" s="12"/>
       <c r="M431" s="1"/>
       <c r="N431" s="1"/>
-    </row>
-    <row r="432" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O431" s="1"/>
+    </row>
+    <row r="432" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>1781</v>
       </c>
       <c r="B432" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>6623.5259936475677</v>
       </c>
     </row>
-    <row r="433" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>1782</v>
       </c>
       <c r="B433" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>7469.0825034749168</v>
       </c>
     </row>
-    <row r="434" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>1783</v>
       </c>
       <c r="B434" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>422.77825491367457</v>
       </c>
     </row>
-    <row r="436" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="438" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>1778</v>
       </c>
@@ -7551,7 +7644,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="439" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>1779</v>
       </c>
@@ -7559,7 +7652,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="440" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>1780</v>
       </c>
@@ -7567,7 +7660,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="441" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>1781</v>
       </c>
@@ -7575,7 +7668,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="442" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>1782</v>
       </c>
@@ -7583,7 +7676,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="443" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>1783</v>
       </c>
@@ -7591,23 +7684,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="444" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B444" s="1">
         <f>SUM(B438:B443)</f>
         <v>691</v>
       </c>
     </row>
-    <row r="445" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L445" s="3"/>
+    <row r="445" spans="1:15" x14ac:dyDescent="0.2">
       <c r="M445" s="3"/>
       <c r="N445" s="3"/>
-    </row>
-    <row r="446" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O445" s="3"/>
+    </row>
+    <row r="446" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="447" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>1778</v>
       </c>
@@ -7616,55 +7709,55 @@
         <v>10890.014471780029</v>
       </c>
     </row>
-    <row r="448" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>1779</v>
       </c>
       <c r="B448" s="1">
-        <f t="shared" ref="B448:B452" si="44">$A$401/$B$444*B439</f>
+        <f t="shared" ref="B448:B452" si="43">$A$401/$B$444*B439</f>
         <v>4761.2156295224313</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>1780</v>
       </c>
       <c r="B449" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>5774.2402315484806</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>1781</v>
       </c>
       <c r="B450" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>9876.9898697539793</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>1782</v>
       </c>
       <c r="B451" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>3494.9348769898697</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>1783</v>
       </c>
       <c r="B452" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>202.60492040520984</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="453" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B453" s="1">
         <f>SUM(B447:B452)</f>
         <v>35000</v>
@@ -7674,9 +7767,9 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A457" s="3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B457" s="3"/>
       <c r="C457" s="3"/>
@@ -7688,10 +7781,11 @@
       <c r="I457" s="3"/>
       <c r="J457" s="3"/>
       <c r="K457" s="3"/>
-    </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L457" s="14"/>
+    </row>
+    <row r="458" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A458" s="3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B458" s="3"/>
       <c r="C458" s="3"/>
@@ -7703,10 +7797,11 @@
       <c r="I458" s="3"/>
       <c r="J458" s="3"/>
       <c r="K458" s="3"/>
-    </row>
-    <row r="459" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L458" s="14"/>
+    </row>
+    <row r="459" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A459" s="11" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B459" s="3"/>
       <c r="C459" s="3"/>
@@ -7718,18 +7813,19 @@
       <c r="I459" s="3"/>
       <c r="J459" s="3"/>
       <c r="K459" s="3"/>
-    </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L459" s="14"/>
+    </row>
+    <row r="460" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A461" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>1793</v>
       </c>
@@ -7737,7 +7833,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>1794</v>
       </c>
@@ -7745,7 +7841,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>1795</v>
       </c>
@@ -7927,11 +8023,17 @@
       <c r="A489" s="1">
         <v>1794</v>
       </c>
+      <c r="B489" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>1795</v>
       </c>
+      <c r="B490" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
@@ -7981,12 +8083,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A498" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A499" s="1" t="s">
         <v>49</v>
       </c>
@@ -7994,368 +8096,997 @@
         <f>19000/198</f>
         <v>95.959595959595958</v>
       </c>
-    </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F499" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="J499" s="1">
+        <f>AVERAGE(F503,F506:F511)</f>
+        <v>32.56164157679305</v>
+      </c>
+    </row>
+    <row r="501" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C501" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L501" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="O501" s="2">
+        <f>B395/(1+B395)</f>
+        <v>0.13928223305507595</v>
+      </c>
+    </row>
+    <row r="502" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B502" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>51</v>
+        <v>216</v>
       </c>
       <c r="D502" s="1" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="E502" s="1" t="s">
-        <v>57</v>
+        <v>221</v>
+      </c>
+      <c r="F502" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="H502" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I502" s="1">
-        <f>SUM(C503:C511)/(SUM(B462:B470)-B463-B464)</f>
-        <v>24.225126676157274</v>
-      </c>
-    </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+      <c r="K502" s="1">
+        <v>1789</v>
+      </c>
+      <c r="L502" s="12">
+        <v>4.4539999999999997</v>
+      </c>
+      <c r="M502" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="O502" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="503" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>1793</v>
       </c>
       <c r="B503" s="1">
-        <f>B488*$D$499</f>
-        <v>12666.666666666666</v>
+        <f>B488*$D$499*$L$502/L503*M503</f>
+        <v>37993.010631143021</v>
       </c>
       <c r="C503" s="1">
         <f>B503*$C$410</f>
-        <v>18157.90568115942</v>
+        <v>54463.697651335431</v>
       </c>
       <c r="D503" s="1">
-        <f>B462*$I$502</f>
-        <v>8527.2445900073599</v>
+        <f>C503*0.15</f>
+        <v>8169.5546477003145</v>
       </c>
       <c r="E503" s="1">
-        <f>D503/$C$410*$D$453</f>
-        <v>3172.5175565471377</v>
-      </c>
-    </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.2">
+        <f>(C503+D503)/B462</f>
+        <v>177.93537584953336</v>
+      </c>
+      <c r="F503" s="1">
+        <f>E503*L503/$L$507*M503/M$507</f>
+        <v>64.217145319436227</v>
+      </c>
+      <c r="H503" s="1">
+        <f>C503+D503</f>
+        <v>62633.252299035747</v>
+      </c>
+      <c r="K503" s="1">
+        <v>1793</v>
+      </c>
+      <c r="L503" s="12">
+        <v>1.69</v>
+      </c>
+      <c r="M503" s="2">
+        <f>(1+0.01)^N503</f>
+        <v>1.1380932804332895</v>
+      </c>
+      <c r="N503" s="1">
+        <v>13</v>
+      </c>
+      <c r="O503" s="1">
+        <f>E503</f>
+        <v>177.93537584953336</v>
+      </c>
+    </row>
+    <row r="504" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>1794</v>
       </c>
-      <c r="D504" s="1">
-        <f t="shared" ref="D504:D524" si="45">B463*$I$502</f>
-        <v>15600.981579445284</v>
+      <c r="C504" s="1">
+        <v>0</v>
+      </c>
+      <c r="D504" s="3">
+        <f>B463*E504</f>
+        <v>64047.84382926664</v>
       </c>
       <c r="E504" s="1">
-        <f t="shared" ref="E504:E524" si="46">D504/$C$410*$D$453</f>
-        <v>5804.2650750464682</v>
-      </c>
-    </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.2">
+        <f>$J$499*L$507/L504*M504/M$507</f>
+        <v>99.45317364792956</v>
+      </c>
+      <c r="H504" s="1">
+        <f>C504+D504</f>
+        <v>64047.84382926664</v>
+      </c>
+      <c r="K504" s="1">
+        <v>1794</v>
+      </c>
+      <c r="L504" s="12">
+        <v>1.43</v>
+      </c>
+      <c r="M504" s="2">
+        <f t="shared" ref="M504:M524" si="44">(1+0.01)^N504</f>
+        <v>1.1494742132376226</v>
+      </c>
+      <c r="N504" s="1">
+        <v>14</v>
+      </c>
+      <c r="O504" s="1">
+        <f>$E$503*L$503/L504*M504/M$503</f>
+        <v>212.39013499130667</v>
+      </c>
+    </row>
+    <row r="505" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>1795</v>
       </c>
-      <c r="D505" s="1">
-        <f t="shared" si="45"/>
-        <v>15504.081072740655</v>
+      <c r="C505" s="1">
+        <v>0</v>
+      </c>
+      <c r="D505" s="3">
+        <f>B464*E505</f>
+        <v>510720.77759894973</v>
       </c>
       <c r="E505" s="1">
-        <f t="shared" si="46"/>
-        <v>5768.2137391766146</v>
-      </c>
-    </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.2">
+        <f>$J$499*L$507/L505*M505/M$507</f>
+        <v>798.00121499835893</v>
+      </c>
+      <c r="H505" s="1">
+        <f>C505+D505</f>
+        <v>510720.77759894973</v>
+      </c>
+      <c r="K505" s="1">
+        <v>1795</v>
+      </c>
+      <c r="L505" s="12">
+        <v>0.18</v>
+      </c>
+      <c r="M505" s="2">
+        <f t="shared" si="44"/>
+        <v>1.1609689553699984</v>
+      </c>
+      <c r="N505" s="1">
+        <v>15</v>
+      </c>
+      <c r="O505" s="1">
+        <f>$E$503*L$503/L505*M505/M$503</f>
+        <v>1704.1948442663563</v>
+      </c>
+    </row>
+    <row r="506" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>1796</v>
       </c>
       <c r="B506" s="1">
-        <f t="shared" ref="B506:B511" si="47">B491*$D$499</f>
-        <v>4318.181818181818</v>
+        <f>B491*$D$499*$L$502/L506*M506</f>
+        <v>56381.045684836885</v>
       </c>
       <c r="C506" s="1">
-        <f>B506*1.5</f>
-        <v>6477.272727272727</v>
+        <f>B506*$C$410</f>
+        <v>80823.292875032246</v>
       </c>
       <c r="D506" s="1">
-        <f t="shared" si="45"/>
-        <v>11846.086944640907</v>
+        <f>C506*0.15</f>
+        <v>12123.493931254836</v>
       </c>
       <c r="E506" s="1">
-        <f t="shared" si="46"/>
-        <v>4407.2758100896317</v>
-      </c>
-    </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.2">
+        <f>(C506+D506)/B465</f>
+        <v>190.07522864271388</v>
+      </c>
+      <c r="F506" s="1">
+        <f>E506*L506/$L$507*M$507/M506</f>
+        <v>17.064531638145873</v>
+      </c>
+      <c r="H506" s="1">
+        <f>C506+D506</f>
+        <v>92946.786806287084</v>
+      </c>
+      <c r="K506" s="1">
+        <v>1796</v>
+      </c>
+      <c r="L506" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="M506" s="2">
+        <f t="shared" si="44"/>
+        <v>1.1725786449236988</v>
+      </c>
+      <c r="N506" s="1">
+        <v>16</v>
+      </c>
+      <c r="O506" s="1">
+        <f>$E$503*L$503/L506*M506/M$503</f>
+        <v>774.55655671905913</v>
+      </c>
+    </row>
+    <row r="507" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>1797</v>
       </c>
       <c r="B507" s="1">
-        <f t="shared" si="47"/>
-        <v>13914.141414141413</v>
+        <f>B492*$D$499*$L$502/L507*M507</f>
+        <v>16310.131635643185</v>
       </c>
       <c r="C507" s="1">
-        <f t="shared" ref="C507:C511" si="48">B507*1.5</f>
-        <v>20871.21212121212</v>
+        <f t="shared" ref="C507:C511" si="45">B507*$C$410</f>
+        <v>23380.881464787111</v>
       </c>
       <c r="D507" s="1">
-        <f t="shared" si="45"/>
-        <v>22989.645215673252</v>
+        <f t="shared" ref="D507:D511" si="46">C507*0.15</f>
+        <v>3507.1322197180666</v>
       </c>
       <c r="E507" s="1">
-        <f t="shared" si="46"/>
-        <v>8553.1794351228236</v>
-      </c>
-    </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.2">
+        <f>(C507+D507)/B466</f>
+        <v>28.332996506327902</v>
+      </c>
+      <c r="F507" s="1">
+        <f t="shared" ref="F507:F524" si="47">E507*L507/$L$507*M$507/M507</f>
+        <v>28.332996506327898</v>
+      </c>
+      <c r="H507" s="1">
+        <f>C507+D507</f>
+        <v>26888.013684505178</v>
+      </c>
+      <c r="K507" s="1">
+        <v>1797</v>
+      </c>
+      <c r="L507" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="M507" s="2">
+        <f t="shared" si="44"/>
+        <v>1.1843044313729358</v>
+      </c>
+      <c r="N507" s="1">
+        <v>17</v>
+      </c>
+      <c r="O507" s="1">
+        <f>$E$503*L$503/L507*M507/M$503</f>
+        <v>69.537966425444424</v>
+      </c>
+    </row>
+    <row r="508" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>1798</v>
       </c>
       <c r="B508" s="1">
+        <f>B493*$D$499*$L$502/L508*M508</f>
+        <v>16359.624448882381</v>
+      </c>
+      <c r="C508" s="1">
+        <f t="shared" si="45"/>
+        <v>23451.830346473365</v>
+      </c>
+      <c r="D508" s="1">
+        <f t="shared" si="46"/>
+        <v>3517.7745519710047</v>
+      </c>
+      <c r="E508" s="1">
+        <f t="shared" ref="E507:E515" si="48">(C508+D508)/B467</f>
+        <v>39.20000711983193</v>
+      </c>
+      <c r="F508" s="1">
         <f t="shared" si="47"/>
-        <v>13818.181818181818</v>
-      </c>
-      <c r="C508" s="1">
-        <f t="shared" si="48"/>
-        <v>20727.272727272728</v>
-      </c>
-      <c r="D508" s="1">
-        <f t="shared" si="45"/>
-        <v>16666.887153196203</v>
-      </c>
-      <c r="E508" s="1">
-        <f t="shared" si="46"/>
-        <v>6200.8297696148602</v>
-      </c>
-    </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.2">
+        <v>38.811888237457353</v>
+      </c>
+      <c r="H508" s="1">
+        <f>C508+D508</f>
+        <v>26969.60489844437</v>
+      </c>
+      <c r="K508" s="1">
+        <v>1798</v>
+      </c>
+      <c r="L508" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="M508" s="2">
+        <f t="shared" si="44"/>
+        <v>1.1961474756866652</v>
+      </c>
+      <c r="N508" s="1">
+        <v>18</v>
+      </c>
+      <c r="O508" s="1">
+        <f>$E$503*L$503/L508*M508/M$503</f>
+        <v>70.23334608969887</v>
+      </c>
+    </row>
+    <row r="509" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
         <v>1799</v>
       </c>
       <c r="B509" s="1">
+        <f>B494*$D$499*$L$502/L509*M509</f>
+        <v>13425.116813364102</v>
+      </c>
+      <c r="C509" s="1">
+        <f t="shared" si="45"/>
+        <v>19245.158278074701</v>
+      </c>
+      <c r="D509" s="1">
+        <f t="shared" si="46"/>
+        <v>2886.7737417112053</v>
+      </c>
+      <c r="E509" s="1">
+        <f t="shared" si="48"/>
+        <v>30.31771509559713</v>
+      </c>
+      <c r="F509" s="1">
         <f t="shared" si="47"/>
-        <v>11227.272727272728</v>
-      </c>
-      <c r="C509" s="1">
-        <f t="shared" si="48"/>
-        <v>16840.909090909092</v>
-      </c>
-      <c r="D509" s="1">
-        <f t="shared" si="45"/>
-        <v>17684.34247359481</v>
-      </c>
-      <c r="E509" s="1">
-        <f t="shared" si="46"/>
-        <v>6579.3687962483255</v>
-      </c>
-    </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.2">
+        <v>29.720336335258441</v>
+      </c>
+      <c r="H509" s="1">
+        <f>C509+D509</f>
+        <v>22131.932019785905</v>
+      </c>
+      <c r="K509" s="1">
+        <v>1799</v>
+      </c>
+      <c r="L509" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="M509" s="2">
+        <f t="shared" si="44"/>
+        <v>1.2081089504435316</v>
+      </c>
+      <c r="N509" s="1">
+        <v>19</v>
+      </c>
+      <c r="O509" s="1">
+        <f>$E$503*L$503/L509*M509/M$503</f>
+        <v>70.935679550595836</v>
+      </c>
+    </row>
+    <row r="510" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>1800</v>
       </c>
       <c r="B510" s="1">
+        <f>B495*$D$499*$L$502/L510*M510</f>
+        <v>10082.606960600884</v>
+      </c>
+      <c r="C510" s="1">
+        <f t="shared" si="45"/>
+        <v>14453.607332430973</v>
+      </c>
+      <c r="D510" s="1">
+        <f t="shared" si="46"/>
+        <v>2168.0410998646457</v>
+      </c>
+      <c r="E510" s="1">
+        <f t="shared" si="48"/>
+        <v>24.957430078521949</v>
+      </c>
+      <c r="F510" s="1">
         <f t="shared" si="47"/>
-        <v>8348.484848484848</v>
-      </c>
-      <c r="C510" s="1">
-        <f t="shared" si="48"/>
-        <v>12522.727272727272</v>
-      </c>
-      <c r="D510" s="1">
-        <f t="shared" si="45"/>
-        <v>16133.934366320744</v>
-      </c>
-      <c r="E510" s="1">
-        <f t="shared" si="46"/>
-        <v>6002.5474223306637</v>
-      </c>
-    </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.2">
+        <v>24.223435751806466</v>
+      </c>
+      <c r="H510" s="1">
+        <f>C510+D510</f>
+        <v>16621.648432295617</v>
+      </c>
+      <c r="K510" s="1">
+        <v>1800</v>
+      </c>
+      <c r="L510" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="M510" s="2">
+        <f t="shared" si="44"/>
+        <v>1.220190039947967</v>
+      </c>
+      <c r="N510" s="1">
+        <v>20</v>
+      </c>
+      <c r="O510" s="1">
+        <f>$E$503*L$503/L510*M510/M$503</f>
+        <v>71.645036346101804</v>
+      </c>
+    </row>
+    <row r="511" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>1801</v>
       </c>
       <c r="B511" s="1">
+        <f>B496*$D$499*$L$502/L511*M511</f>
+        <v>6437.8024903606793</v>
+      </c>
+      <c r="C511" s="1">
+        <f t="shared" si="45"/>
+        <v>9228.7113484659822</v>
+      </c>
+      <c r="D511" s="1">
+        <f t="shared" si="46"/>
+        <v>1384.3067022698972</v>
+      </c>
+      <c r="E511" s="1">
+        <f t="shared" si="48"/>
+        <v>26.599042733673883</v>
+      </c>
+      <c r="F511" s="1">
         <f t="shared" si="47"/>
-        <v>5277.7777777777774</v>
-      </c>
-      <c r="C511" s="1">
-        <f t="shared" si="48"/>
-        <v>7916.6666666666661</v>
-      </c>
-      <c r="D511" s="1">
-        <f t="shared" si="45"/>
-        <v>9665.825543786752</v>
-      </c>
-      <c r="E511" s="1">
-        <f t="shared" si="46"/>
-        <v>3596.1207530179199</v>
-      </c>
-    </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.2">
+        <v>25.561157249119084</v>
+      </c>
+      <c r="H511" s="1">
+        <f>C511+D511</f>
+        <v>10613.01805073588</v>
+      </c>
+      <c r="K511" s="1">
+        <v>1801</v>
+      </c>
+      <c r="L511" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="M511" s="2">
+        <f t="shared" si="44"/>
+        <v>1.2323919403474466</v>
+      </c>
+      <c r="N511" s="1">
+        <v>21</v>
+      </c>
+      <c r="O511" s="1">
+        <f>$E$503*L$503/L511*M511/M$503</f>
+        <v>72.361486709562811</v>
+      </c>
+    </row>
+    <row r="512" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>1802</v>
       </c>
       <c r="D512" s="1">
-        <f t="shared" si="45"/>
+        <f>B471*$J$502</f>
         <v>0</v>
       </c>
-      <c r="E512" s="1">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="K512" s="1">
+        <v>1802</v>
+      </c>
+      <c r="L512" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="M512" s="2">
+        <f t="shared" si="44"/>
+        <v>1.2447158597509214</v>
+      </c>
+      <c r="N512" s="1">
+        <v>22</v>
+      </c>
+      <c r="O512" s="1">
+        <f>$E$503*L$503/L512*M512/M$503</f>
+        <v>73.08510157665846</v>
+      </c>
+    </row>
+    <row r="513" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>1803</v>
       </c>
+      <c r="B513" s="1">
+        <f>C513/(C$410)</f>
+        <v>4607.2827138017983</v>
+      </c>
+      <c r="C513" s="1">
+        <f>H513-D513</f>
+        <v>6604.6267076565209</v>
+      </c>
       <c r="D513" s="1">
-        <f t="shared" si="45"/>
-        <v>5377.9781221069152</v>
+        <f>O$501*H513</f>
+        <v>1068.7674771751956</v>
       </c>
       <c r="E513" s="1">
-        <f t="shared" si="46"/>
-        <v>2000.8491407768881</v>
-      </c>
-    </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.2">
+        <f>$J$499*L$507/L513*M513/M$507</f>
+        <v>34.564838670413138</v>
+      </c>
+      <c r="F513" s="1">
+        <f t="shared" si="47"/>
+        <v>32.56164157679305</v>
+      </c>
+      <c r="H513" s="3">
+        <f>B472*E513</f>
+        <v>7673.3941848317163</v>
+      </c>
+      <c r="K513" s="1">
+        <v>1803</v>
+      </c>
+      <c r="L513" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="M513" s="2">
+        <f t="shared" si="44"/>
+        <v>1.2571630183484304</v>
+      </c>
+      <c r="N513" s="1">
+        <v>23</v>
+      </c>
+      <c r="O513" s="1">
+        <f>$E$503*L$503/L513*M513/M$503</f>
+        <v>73.815952592425035</v>
+      </c>
+    </row>
+    <row r="514" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>1804</v>
       </c>
+      <c r="B514" s="1">
+        <f t="shared" ref="B514:B524" si="49">C514/(C$410)</f>
+        <v>8111.9306051518442</v>
+      </c>
+      <c r="C514" s="1">
+        <f t="shared" ref="C514:C524" si="50">H514-D514</f>
+        <v>11628.605591088763</v>
+      </c>
       <c r="D514" s="1">
-        <f t="shared" si="45"/>
-        <v>9375.1240236728645</v>
+        <f t="shared" ref="D514:D524" si="51">O$501*H514</f>
+        <v>1881.7529000156255</v>
       </c>
       <c r="E514" s="1">
-        <f t="shared" si="46"/>
-        <v>3487.9667454083587</v>
-      </c>
-    </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" ref="E514:E524" si="52">$J$499*L$507/L514*M514/M$507</f>
+        <v>34.91048705711728</v>
+      </c>
+      <c r="F514" s="1">
+        <f t="shared" si="47"/>
+        <v>32.56164157679305</v>
+      </c>
+      <c r="H514" s="3">
+        <f t="shared" ref="H514:H524" si="53">B473*E514</f>
+        <v>13510.358491104387</v>
+      </c>
+      <c r="L514" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="M514" s="2">
+        <f t="shared" si="44"/>
+        <v>1.269734648531915</v>
+      </c>
+      <c r="N514" s="1">
+        <v>24</v>
+      </c>
+      <c r="O514" s="1">
+        <f>$E$503*L$503/L514*M514/M$503</f>
+        <v>74.554112118349295</v>
+      </c>
+    </row>
+    <row r="515" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
         <v>1805</v>
       </c>
+      <c r="B515" s="1">
+        <f t="shared" si="49"/>
+        <v>10733.530503824561</v>
+      </c>
+      <c r="C515" s="1">
+        <f t="shared" si="50"/>
+        <v>15386.718514286364</v>
+      </c>
       <c r="D515" s="1">
-        <f t="shared" si="45"/>
-        <v>12282.139224811737</v>
+        <f t="shared" si="51"/>
+        <v>2489.8945930516829</v>
       </c>
       <c r="E515" s="1">
-        <f t="shared" si="46"/>
-        <v>4569.5068215039746</v>
-      </c>
-    </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="52"/>
+        <v>35.259591927688454</v>
+      </c>
+      <c r="F515" s="1">
+        <f t="shared" si="47"/>
+        <v>32.56164157679305</v>
+      </c>
+      <c r="H515" s="3">
+        <f t="shared" si="53"/>
+        <v>17876.613107338046</v>
+      </c>
+      <c r="L515" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="M515" s="2">
+        <f t="shared" si="44"/>
+        <v>1.2824319950172343</v>
+      </c>
+      <c r="N515" s="1">
+        <v>25</v>
+      </c>
+      <c r="O515" s="1">
+        <f>$E$503*L$503/L515*M515/M$503</f>
+        <v>75.299653239532802</v>
+      </c>
+    </row>
+    <row r="516" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
         <v>1806</v>
       </c>
+      <c r="B516" s="1">
+        <f t="shared" si="49"/>
+        <v>11097.454348717545</v>
+      </c>
+      <c r="C516" s="1">
+        <f t="shared" si="50"/>
+        <v>15908.410213025183</v>
+      </c>
       <c r="D516" s="1">
-        <f t="shared" si="45"/>
-        <v>12572.840744925625</v>
+        <f t="shared" si="51"/>
+        <v>2574.3152795498258</v>
       </c>
       <c r="E516" s="1">
-        <f t="shared" si="46"/>
-        <v>4677.6608291135353</v>
-      </c>
-    </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="52"/>
+        <v>35.612187846965334</v>
+      </c>
+      <c r="F516" s="1">
+        <f t="shared" si="47"/>
+        <v>32.56164157679305</v>
+      </c>
+      <c r="H516" s="3">
+        <f t="shared" si="53"/>
+        <v>18482.725492575009</v>
+      </c>
+      <c r="L516" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="M516" s="2">
+        <f t="shared" si="44"/>
+        <v>1.2952563149674066</v>
+      </c>
+      <c r="N516" s="1">
+        <v>26</v>
+      </c>
+      <c r="O516" s="1">
+        <f>$E$503*L$503/L516*M516/M$503</f>
+        <v>76.052649771928131</v>
+      </c>
+    </row>
+    <row r="517" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <v>1807</v>
       </c>
+      <c r="B517" s="1">
+        <f t="shared" si="49"/>
+        <v>12072.276976382347</v>
+      </c>
+      <c r="C517" s="1">
+        <f t="shared" si="50"/>
+        <v>17305.836844261823</v>
+      </c>
       <c r="D517" s="1">
-        <f t="shared" si="45"/>
-        <v>13541.845811971916</v>
+        <f t="shared" si="51"/>
+        <v>2800.4482922563307</v>
       </c>
       <c r="E517" s="1">
-        <f t="shared" si="46"/>
-        <v>5038.1741878120738</v>
-      </c>
-    </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="52"/>
+        <v>35.968309725434978</v>
+      </c>
+      <c r="F517" s="1">
+        <f t="shared" si="47"/>
+        <v>32.56164157679305</v>
+      </c>
+      <c r="H517" s="3">
+        <f t="shared" si="53"/>
+        <v>20106.285136518152</v>
+      </c>
+      <c r="L517" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="M517" s="2">
+        <f t="shared" si="44"/>
+        <v>1.3082088781170802</v>
+      </c>
+      <c r="N517" s="1">
+        <v>27</v>
+      </c>
+      <c r="O517" s="1">
+        <f>$E$503*L$503/L517*M517/M$503</f>
+        <v>76.813176269647386</v>
+      </c>
+    </row>
+    <row r="518" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
         <v>1808</v>
       </c>
+      <c r="B518" s="1">
+        <f t="shared" si="49"/>
+        <v>10229.904974852512</v>
+      </c>
+      <c r="C518" s="1">
+        <f t="shared" si="50"/>
+        <v>14664.761815310168</v>
+      </c>
       <c r="D518" s="1">
-        <f t="shared" si="45"/>
-        <v>11361.584411117761</v>
+        <f t="shared" si="51"/>
+        <v>2373.0668185311301</v>
       </c>
       <c r="E518" s="1">
-        <f t="shared" si="46"/>
-        <v>4227.0191307403629</v>
-      </c>
-    </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="52"/>
+        <v>36.327992822689332</v>
+      </c>
+      <c r="F518" s="1">
+        <f t="shared" si="47"/>
+        <v>32.56164157679305</v>
+      </c>
+      <c r="H518" s="3">
+        <f t="shared" si="53"/>
+        <v>17037.828633841298</v>
+      </c>
+      <c r="L518" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="M518" s="2">
+        <f t="shared" si="44"/>
+        <v>1.3212909668982511</v>
+      </c>
+      <c r="N518" s="1">
+        <v>28</v>
+      </c>
+      <c r="O518" s="1">
+        <f>$E$503*L$503/L518*M518/M$503</f>
+        <v>77.58130803234387</v>
+      </c>
+    </row>
+    <row r="519" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <v>1809</v>
       </c>
+      <c r="B519" s="1">
+        <f t="shared" si="49"/>
+        <v>12579.293172808511</v>
+      </c>
+      <c r="C519" s="1">
+        <f t="shared" si="50"/>
+        <v>18032.654129013914</v>
+      </c>
       <c r="D519" s="1">
-        <f t="shared" si="45"/>
-        <v>13832.547332085804</v>
+        <f t="shared" si="51"/>
+        <v>2918.0626117592492</v>
       </c>
       <c r="E519" s="1">
-        <f t="shared" si="46"/>
-        <v>5146.3281954216354</v>
-      </c>
-    </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="52"/>
+        <v>36.691272750916227</v>
+      </c>
+      <c r="F519" s="1">
+        <f t="shared" si="47"/>
+        <v>32.56164157679305</v>
+      </c>
+      <c r="H519" s="3">
+        <f t="shared" si="53"/>
+        <v>20950.716740773165</v>
+      </c>
+      <c r="L519" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="M519" s="2">
+        <f t="shared" si="44"/>
+        <v>1.3345038765672337</v>
+      </c>
+      <c r="N519" s="1">
+        <v>29</v>
+      </c>
+      <c r="O519" s="1">
+        <f>$E$503*L$503/L519*M519/M$503</f>
+        <v>78.357121112667315</v>
+      </c>
+    </row>
+    <row r="520" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
         <v>1810</v>
       </c>
+      <c r="B520" s="1">
+        <f t="shared" si="49"/>
+        <v>13773.114358508155</v>
+      </c>
+      <c r="C520" s="1">
+        <f t="shared" si="50"/>
+        <v>19744.019325601075</v>
+      </c>
       <c r="D520" s="1">
-        <f t="shared" si="45"/>
-        <v>14995.353412541352</v>
+        <f t="shared" si="51"/>
+        <v>3194.9974855442483</v>
       </c>
       <c r="E520" s="1">
-        <f t="shared" si="46"/>
-        <v>5578.944225859882</v>
-      </c>
-    </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="52"/>
+        <v>37.058185478425401</v>
+      </c>
+      <c r="F520" s="1">
+        <f t="shared" si="47"/>
+        <v>32.56164157679305</v>
+      </c>
+      <c r="H520" s="3">
+        <f t="shared" si="53"/>
+        <v>22939.016811145324</v>
+      </c>
+      <c r="L520" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="M520" s="2">
+        <f t="shared" si="44"/>
+        <v>1.3478489153329063</v>
+      </c>
+      <c r="N520" s="1">
+        <v>30</v>
+      </c>
+      <c r="O520" s="1">
+        <f>$E$503*L$503/L520*M520/M$503</f>
+        <v>79.140692323793999</v>
+      </c>
+    </row>
+    <row r="521" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
         <v>1811</v>
       </c>
+      <c r="B521" s="1">
+        <f t="shared" si="49"/>
+        <v>10562.354420006168</v>
+      </c>
+      <c r="C521" s="1">
+        <f t="shared" si="50"/>
+        <v>15141.33436811442</v>
+      </c>
       <c r="D521" s="1">
-        <f t="shared" si="45"/>
-        <v>11385.809537793919</v>
+        <f t="shared" si="51"/>
+        <v>2450.1862784941095</v>
       </c>
       <c r="E521" s="1">
-        <f t="shared" si="46"/>
-        <v>4236.0319647078259</v>
-      </c>
-    </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="52"/>
+        <v>37.428767333209635</v>
+      </c>
+      <c r="F521" s="1">
+        <f t="shared" si="47"/>
+        <v>32.56164157679305</v>
+      </c>
+      <c r="H521" s="3">
+        <f t="shared" si="53"/>
+        <v>17591.520646608529</v>
+      </c>
+      <c r="L521" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="M521" s="2">
+        <f t="shared" si="44"/>
+        <v>1.3613274044862349</v>
+      </c>
+      <c r="N521" s="1">
+        <v>31</v>
+      </c>
+      <c r="O521" s="1">
+        <f>$E$503*L$503/L521*M521/M$503</f>
+        <v>79.932099247031914</v>
+      </c>
+    </row>
+    <row r="522" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
         <v>1812</v>
       </c>
+      <c r="B522" s="1">
+        <f t="shared" si="49"/>
+        <v>10781.467091485021</v>
+      </c>
+      <c r="C522" s="1">
+        <f t="shared" si="50"/>
+        <v>15455.436517240201</v>
+      </c>
       <c r="D522" s="1">
-        <f t="shared" si="45"/>
-        <v>11506.935171174706</v>
+        <f t="shared" si="51"/>
+        <v>2501.0146108671265</v>
       </c>
       <c r="E522" s="1">
-        <f t="shared" si="46"/>
-        <v>4281.0961345451433</v>
-      </c>
-    </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="52"/>
+        <v>37.80305500654174</v>
+      </c>
+      <c r="F522" s="1">
+        <f t="shared" si="47"/>
+        <v>32.561641576793043</v>
+      </c>
+      <c r="H522" s="3">
+        <f t="shared" si="53"/>
+        <v>17956.451128107328</v>
+      </c>
+      <c r="L522" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="M522" s="2">
+        <f t="shared" si="44"/>
+        <v>1.3749406785310976</v>
+      </c>
+      <c r="N522" s="1">
+        <v>32</v>
+      </c>
+      <c r="O522" s="1">
+        <f>$E$503*L$503/L522*M522/M$503</f>
+        <v>80.731420239502256</v>
+      </c>
+    </row>
+    <row r="523" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
         <v>1813</v>
       </c>
+      <c r="B523" s="1">
+        <f t="shared" si="49"/>
+        <v>8505.102176527058</v>
+      </c>
+      <c r="C523" s="1">
+        <f t="shared" si="50"/>
+        <v>12192.224457631739</v>
+      </c>
       <c r="D523" s="1">
-        <f t="shared" si="45"/>
-        <v>8987.5219968543479</v>
+        <f t="shared" si="51"/>
+        <v>1972.9582838695178</v>
       </c>
       <c r="E523" s="1">
-        <f t="shared" si="46"/>
-        <v>3343.7614019289431</v>
-      </c>
-    </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="52"/>
+        <v>38.181085556607165</v>
+      </c>
+      <c r="F523" s="1">
+        <f t="shared" si="47"/>
+        <v>32.56164157679305</v>
+      </c>
+      <c r="H523" s="3">
+        <f t="shared" si="53"/>
+        <v>14165.182741501258</v>
+      </c>
+      <c r="L523" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="M523" s="2">
+        <f t="shared" si="44"/>
+        <v>1.3886900853164086</v>
+      </c>
+      <c r="N523" s="1">
+        <v>33</v>
+      </c>
+      <c r="O523" s="1">
+        <f>$E$503*L$503/L523*M523/M$503</f>
+        <v>81.538734441897276</v>
+      </c>
+    </row>
+    <row r="524" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
         <v>1814</v>
       </c>
+      <c r="B524" s="1">
+        <f t="shared" si="49"/>
+        <v>3357.3375033757084</v>
+      </c>
+      <c r="C524" s="1">
+        <f t="shared" si="50"/>
+        <v>4812.8066625880547</v>
+      </c>
       <c r="D524" s="1">
-        <f t="shared" si="45"/>
-        <v>3512.6433680428045</v>
+        <f t="shared" si="51"/>
+        <v>778.81331717706439</v>
       </c>
       <c r="E524" s="1">
-        <f t="shared" si="46"/>
-        <v>1306.8609252822016</v>
+        <f t="shared" si="52"/>
+        <v>38.562896412173231</v>
+      </c>
+      <c r="F524" s="1">
+        <f t="shared" si="47"/>
+        <v>32.561641576793043</v>
+      </c>
+      <c r="H524" s="3">
+        <f t="shared" si="53"/>
+        <v>5591.6199797651188</v>
+      </c>
+      <c r="L524" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="M524" s="2">
+        <f t="shared" si="44"/>
+        <v>1.4025769861695727</v>
+      </c>
+      <c r="N524" s="1">
+        <v>34</v>
+      </c>
+      <c r="O524" s="1">
+        <f>$E$503*L$503/L524*M524/M$503</f>
+        <v>82.354121786316242</v>
       </c>
     </row>
   </sheetData>
@@ -8367,26 +9098,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F52ADF-FFA8-0A46-9CC0-C7AD4F73CE98}">
-  <dimension ref="A1:E128"/>
+  <dimension ref="A1:G128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="F118" sqref="F118"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>212</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1688</v>
       </c>
@@ -8403,7 +9137,7 @@
         <v>0.80577151889783094</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1689</v>
       </c>
@@ -8420,7 +9154,7 @@
         <v>0.8057715188978305</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1690</v>
       </c>
@@ -8437,7 +9171,7 @@
         <v>0.80577151889783083</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1691</v>
       </c>
@@ -8454,7 +9188,7 @@
         <v>0.80577151889783083</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1692</v>
       </c>
@@ -8471,7 +9205,7 @@
         <v>0.80577151889783083</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1693</v>
       </c>
@@ -8488,7 +9222,7 @@
         <v>0.80577151889783083</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1694</v>
       </c>
@@ -8505,7 +9239,7 @@
         <v>0.80577151889783083</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1695</v>
       </c>
@@ -8522,7 +9256,7 @@
         <v>0.80577151889783083</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1696</v>
       </c>
@@ -8539,7 +9273,7 @@
         <v>0.80577151889783061</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1697</v>
       </c>
@@ -8556,28 +9290,28 @@
         <v>0.80577151889783094</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1698</v>
       </c>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1699</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1700</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1701</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1702</v>
       </c>
@@ -9028,38 +9762,38 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1751</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1752</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1753</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1754</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1755</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1756</v>
       </c>
       <c r="B70" s="1">
-        <f>Calcul!B385+Calcul!D385</f>
-        <v>8943.4195369725203</v>
+        <f>Calcul!B385</f>
+        <v>7697.7600927145941</v>
       </c>
       <c r="C70" s="1">
         <f>Calcul!B359</f>
@@ -9067,16 +9801,20 @@
       </c>
       <c r="D70">
         <f t="shared" ref="D70:D76" si="3">(B70-C70)/C70</f>
-        <v>1.6456388074185</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.2771483264640831</v>
+      </c>
+      <c r="E70" s="1">
+        <f>Calcul!D385</f>
+        <v>1245.659444257926</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1757</v>
       </c>
       <c r="B71" s="1">
-        <f>Calcul!B386+Calcul!D386</f>
-        <v>12192.040782193719</v>
+        <f>Calcul!B386</f>
+        <v>10493.906116551223</v>
       </c>
       <c r="C71" s="1">
         <f>Calcul!B360</f>
@@ -9084,16 +9822,20 @@
       </c>
       <c r="D71">
         <f t="shared" si="3"/>
-        <v>0.14711116049579159</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+        <v>-1.2661043500461867E-2</v>
+      </c>
+      <c r="E71" s="1">
+        <f>Calcul!D386</f>
+        <v>1698.1346656424962</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1758</v>
       </c>
       <c r="B72" s="1">
-        <f>Calcul!B387+Calcul!D387</f>
-        <v>6793.4339992911191</v>
+        <f>Calcul!B387</f>
+        <v>5847.2293417575765</v>
       </c>
       <c r="C72" s="1">
         <f>Calcul!B361</f>
@@ -9101,16 +9843,20 @@
       </c>
       <c r="D72">
         <f t="shared" si="3"/>
-        <v>0.19234063806797549</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2.6268771435553721E-2</v>
+      </c>
+      <c r="E72" s="1">
+        <f>Calcul!D387</f>
+        <v>946.20465753354233</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1759</v>
       </c>
       <c r="B73" s="1">
-        <f>Calcul!B388+Calcul!D388</f>
-        <v>7910.4598246606784</v>
+        <f>Calcul!B388</f>
+        <v>6808.6733157894741</v>
       </c>
       <c r="C73" s="1">
         <f>Calcul!B362</f>
@@ -9118,16 +9864,20 @@
       </c>
       <c r="D73">
         <f t="shared" si="3"/>
-        <v>1.7669303935692944</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.3815461496450028</v>
+      </c>
+      <c r="E73" s="1">
+        <f>Calcul!D388</f>
+        <v>1101.7865088712038</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1760</v>
       </c>
       <c r="B74" s="1">
-        <f>Calcul!B389+Calcul!D389</f>
-        <v>15976.749856030099</v>
+        <f>Calcul!B389</f>
+        <v>13751.472459119865</v>
       </c>
       <c r="C74" s="1">
         <f>Calcul!B363</f>
@@ -9135,16 +9885,20 @@
       </c>
       <c r="D74">
         <f t="shared" si="3"/>
-        <v>3.6468212850101316</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2.9996016398260634</v>
+      </c>
+      <c r="E74" s="1">
+        <f>Calcul!D389</f>
+        <v>2225.2773969102354</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1761</v>
       </c>
       <c r="B75" s="1">
-        <f>Calcul!B390+Calcul!D390</f>
-        <v>7771.1921690637191</v>
+        <f>Calcul!B390</f>
+        <v>6688.8031702564049</v>
       </c>
       <c r="C75" s="1">
         <f>Calcul!B364</f>
@@ -9152,16 +9906,20 @@
       </c>
       <c r="D75">
         <f t="shared" si="3"/>
-        <v>1.51366447416089</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.1635556730485479</v>
+      </c>
+      <c r="E75" s="1">
+        <f>Calcul!D390</f>
+        <v>1082.3889988073142</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1762</v>
       </c>
       <c r="B76" s="1">
-        <f>Calcul!B391+Calcul!D391</f>
-        <v>5029.703448969447</v>
+        <f>Calcul!B391</f>
+        <v>4329.1551209921654</v>
       </c>
       <c r="C76" s="1">
         <f>Calcul!B365</f>
@@ -9169,97 +9927,101 @@
       </c>
       <c r="D76">
         <f t="shared" si="3"/>
-        <v>0.44548833215902506</v>
-      </c>
-      <c r="E76">
+        <v>0.24415748940085874</v>
+      </c>
+      <c r="E76" s="1">
+        <f>Calcul!D391</f>
+        <v>700.54832797728193</v>
+      </c>
+      <c r="G76">
         <f>(SUM(B70:B76)-SUM(C70:C76))/SUM(C70:C76)</f>
-        <v>0.98365110140868006</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.70736374640231825</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1763</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1764</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1765</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1766</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1767</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1768</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1769</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1770</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1771</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1772</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1773</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1774</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1775</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1776</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1777</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1778</v>
       </c>
       <c r="B92" s="1">
-        <f>Calcul!B421+Calcul!B447</f>
-        <v>14930.418512184069</v>
+        <f>Calcul!B421</f>
+        <v>4040.4040404040402</v>
       </c>
       <c r="C92" s="1">
         <f>Calcul!B429</f>
@@ -9267,16 +10029,20 @@
       </c>
       <c r="D92">
         <f t="shared" ref="D92:D97" si="4">(B92-C92)/C92</f>
-        <v>4.2972515752611216</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.43351886956521735</v>
+      </c>
+      <c r="E92" s="1">
+        <f>Calcul!B447</f>
+        <v>10890.014471780029</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>1779</v>
       </c>
       <c r="B93" s="1">
-        <f>Calcul!B422+Calcul!B448</f>
-        <v>10619.801488108289</v>
+        <f>Calcul!B422</f>
+        <v>5858.5858585858587</v>
       </c>
       <c r="C93" s="1">
         <f>Calcul!B430</f>
@@ -9284,16 +10050,20 @@
       </c>
       <c r="D93">
         <f t="shared" si="4"/>
-        <v>1.5985256837926909</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.4335188695652174</v>
+      </c>
+      <c r="E93" s="1">
+        <f>Calcul!B448</f>
+        <v>4761.2156295224313</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>1780</v>
       </c>
       <c r="B94" s="1">
-        <f>Calcul!B423+Calcul!B449</f>
-        <v>15067.169524477773</v>
+        <f>Calcul!B423</f>
+        <v>9292.9292929292933</v>
       </c>
       <c r="C94" s="1">
         <f>Calcul!B431</f>
@@ -9301,16 +10071,20 @@
       </c>
       <c r="D94">
         <f t="shared" si="4"/>
-        <v>1.3242479463080545</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.43351886956521746</v>
+      </c>
+      <c r="E94" s="1">
+        <f>Calcul!B449</f>
+        <v>5774.2402315484806</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>1781</v>
       </c>
       <c r="B95" s="1">
-        <f>Calcul!B424+Calcul!B450</f>
-        <v>19371.939364703474</v>
+        <f>Calcul!B424</f>
+        <v>9494.9494949494947</v>
       </c>
       <c r="C95" s="1">
         <f>Calcul!B432</f>
@@ -9318,16 +10092,20 @@
       </c>
       <c r="D95">
         <f t="shared" si="4"/>
-        <v>1.9247170439555219</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.4335188695652174</v>
+      </c>
+      <c r="E95" s="1">
+        <f>Calcul!B450</f>
+        <v>9876.9898697539793</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1782</v>
       </c>
       <c r="B96" s="1">
-        <f>Calcul!B425+Calcul!B451</f>
-        <v>14202.005584060576</v>
+        <f>Calcul!B425</f>
+        <v>10707.070707070707</v>
       </c>
       <c r="C96" s="1">
         <f>Calcul!B433</f>
@@ -9335,16 +10113,20 @@
       </c>
       <c r="D96">
         <f t="shared" si="4"/>
-        <v>0.90143910948275552</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.4335188695652174</v>
+      </c>
+      <c r="E96" s="1">
+        <f>Calcul!B451</f>
+        <v>3494.9348769898697</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1783</v>
       </c>
       <c r="B97" s="1">
-        <f>Calcul!B426+Calcul!B452</f>
-        <v>808.6655264658159</v>
+        <f>Calcul!B426</f>
+        <v>606.06060606060612</v>
       </c>
       <c r="C97" s="1">
         <f>Calcul!B434</f>
@@ -9352,421 +10134,489 @@
       </c>
       <c r="D97">
         <f t="shared" si="4"/>
-        <v>0.91274153073680231</v>
-      </c>
-      <c r="E97">
+        <v>0.43351886956521746</v>
+      </c>
+      <c r="E97" s="1">
+        <f>Calcul!B452</f>
+        <v>202.60492040520984</v>
+      </c>
+      <c r="G97">
         <f>(SUM(B92:B97)-SUM(C92:C97))/SUM(C92:C97)</f>
-        <v>1.6878478804347825</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.4335188695652174</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1784</v>
       </c>
       <c r="B98" s="1"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>1785</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1786</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1787</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>1788</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>1789</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>1790</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>1791</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>1792</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>1793</v>
       </c>
       <c r="B107" s="1">
-        <f>Calcul!D503</f>
-        <v>8527.2445900073599</v>
+        <f>Calcul!C503</f>
+        <v>54463.697651335431</v>
       </c>
       <c r="C107" s="1">
-        <f>Calcul!E503</f>
-        <v>3172.5175565471377</v>
+        <f>Calcul!B503</f>
+        <v>37993.010631143021</v>
       </c>
       <c r="D107">
         <f t="shared" ref="D107:D128" si="5">(B107-C107)/C107</f>
-        <v>1.6878478804347825</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.4335188695652174</v>
+      </c>
+      <c r="E107" s="1">
+        <f>Calcul!D503</f>
+        <v>8169.5546477003145</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>1794</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="E108" s="1">
         <f>Calcul!D504</f>
-        <v>15600.981579445284</v>
-      </c>
-      <c r="C108" s="1">
-        <f>Calcul!E504</f>
-        <v>5804.2650750464682</v>
-      </c>
-      <c r="D108">
-        <f t="shared" si="5"/>
-        <v>1.687847880434783</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+        <v>64047.84382926664</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>1795</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="E109" s="1">
         <f>Calcul!D505</f>
-        <v>15504.081072740655</v>
-      </c>
-      <c r="C109" s="1">
-        <f>Calcul!E505</f>
-        <v>5768.2137391766146</v>
-      </c>
-      <c r="D109">
-        <f t="shared" si="5"/>
-        <v>1.6878478804347827</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+        <v>510720.77759894973</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>1796</v>
       </c>
       <c r="B110" s="1">
-        <f>Calcul!D506</f>
-        <v>11846.086944640907</v>
+        <f>Calcul!C506</f>
+        <v>80823.292875032246</v>
       </c>
       <c r="C110" s="1">
-        <f>Calcul!E506</f>
-        <v>4407.2758100896317</v>
+        <f>Calcul!B506</f>
+        <v>56381.045684836885</v>
       </c>
       <c r="D110">
         <f t="shared" si="5"/>
-        <v>1.6878478804347827</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.43351886956521735</v>
+      </c>
+      <c r="E110" s="1">
+        <f>Calcul!D506</f>
+        <v>12123.493931254836</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>1797</v>
       </c>
       <c r="B111" s="1">
-        <f>Calcul!D507</f>
-        <v>22989.645215673252</v>
+        <f>Calcul!C507</f>
+        <v>23380.881464787111</v>
       </c>
       <c r="C111" s="1">
-        <f>Calcul!E507</f>
-        <v>8553.1794351228236</v>
+        <f>Calcul!B507</f>
+        <v>16310.131635643185</v>
       </c>
       <c r="D111">
         <f t="shared" si="5"/>
-        <v>1.6878478804347825</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.43351886956521751</v>
+      </c>
+      <c r="E111" s="1">
+        <f>Calcul!D507</f>
+        <v>3507.1322197180666</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>1798</v>
       </c>
       <c r="B112" s="1">
-        <f>Calcul!D508</f>
-        <v>16666.887153196203</v>
+        <f>Calcul!C508</f>
+        <v>23451.830346473365</v>
       </c>
       <c r="C112" s="1">
-        <f>Calcul!E508</f>
-        <v>6200.8297696148602</v>
+        <f>Calcul!B508</f>
+        <v>16359.624448882381</v>
       </c>
       <c r="D112">
         <f t="shared" si="5"/>
-        <v>1.6878478804347825</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.43351886956521746</v>
+      </c>
+      <c r="E112" s="1">
+        <f>Calcul!D508</f>
+        <v>3517.7745519710047</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>1799</v>
       </c>
       <c r="B113" s="1">
-        <f>Calcul!D509</f>
-        <v>17684.34247359481</v>
+        <f>Calcul!C509</f>
+        <v>19245.158278074701</v>
       </c>
       <c r="C113" s="1">
-        <f>Calcul!E509</f>
-        <v>6579.3687962483255</v>
+        <f>Calcul!B509</f>
+        <v>13425.116813364102</v>
       </c>
       <c r="D113">
         <f t="shared" si="5"/>
-        <v>1.6878478804347827</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.4335188695652174</v>
+      </c>
+      <c r="E113" s="1">
+        <f>Calcul!D509</f>
+        <v>2886.7737417112053</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>1800</v>
       </c>
       <c r="B114" s="1">
-        <f>Calcul!D510</f>
-        <v>16133.934366320744</v>
+        <f>Calcul!C510</f>
+        <v>14453.607332430973</v>
       </c>
       <c r="C114" s="1">
-        <f>Calcul!E510</f>
-        <v>6002.5474223306637</v>
+        <f>Calcul!B510</f>
+        <v>10082.606960600884</v>
       </c>
       <c r="D114">
         <f t="shared" si="5"/>
-        <v>1.687847880434783</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.43351886956521751</v>
+      </c>
+      <c r="E114" s="1">
+        <f>Calcul!D510</f>
+        <v>2168.0410998646457</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>1801</v>
       </c>
       <c r="B115" s="1">
-        <f>Calcul!D511</f>
-        <v>9665.825543786752</v>
+        <f>Calcul!C511</f>
+        <v>9228.7113484659822</v>
       </c>
       <c r="C115" s="1">
-        <f>Calcul!E511</f>
-        <v>3596.1207530179199</v>
+        <f>Calcul!B511</f>
+        <v>6437.8024903606793</v>
       </c>
       <c r="D115">
         <f t="shared" si="5"/>
-        <v>1.687847880434783</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.4335188695652174</v>
+      </c>
+      <c r="E115" s="1">
+        <f>Calcul!D511</f>
+        <v>1384.3067022698972</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>1802</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>1803</v>
       </c>
       <c r="B117" s="1">
-        <f>Calcul!D513</f>
-        <v>5377.9781221069152</v>
+        <f>Calcul!C513</f>
+        <v>6604.6267076565209</v>
       </c>
       <c r="C117" s="1">
-        <f>Calcul!E513</f>
-        <v>2000.8491407768881</v>
+        <f>Calcul!B513</f>
+        <v>4607.2827138017983</v>
       </c>
       <c r="D117">
         <f t="shared" si="5"/>
-        <v>1.687847880434783</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.4335188695652174</v>
+      </c>
+      <c r="E117" s="1">
+        <f>Calcul!D513</f>
+        <v>1068.7674771751956</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>1804</v>
       </c>
       <c r="B118" s="1">
-        <f>Calcul!D514</f>
-        <v>9375.1240236728645</v>
+        <f>Calcul!C514</f>
+        <v>11628.605591088763</v>
       </c>
       <c r="C118" s="1">
-        <f>Calcul!E514</f>
-        <v>3487.9667454083587</v>
+        <f>Calcul!B514</f>
+        <v>8111.9306051518442</v>
       </c>
       <c r="D118">
         <f t="shared" si="5"/>
-        <v>1.6878478804347825</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.43351886956521751</v>
+      </c>
+      <c r="E118" s="1">
+        <f>Calcul!D514</f>
+        <v>1881.7529000156255</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>1805</v>
       </c>
       <c r="B119" s="1">
-        <f>Calcul!D515</f>
-        <v>12282.139224811737</v>
+        <f>Calcul!C515</f>
+        <v>15386.718514286364</v>
       </c>
       <c r="C119" s="1">
-        <f>Calcul!E515</f>
-        <v>4569.5068215039746</v>
+        <f>Calcul!B515</f>
+        <v>10733.530503824561</v>
       </c>
       <c r="D119">
         <f t="shared" si="5"/>
-        <v>1.6878478804347823</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.43351886956521751</v>
+      </c>
+      <c r="E119" s="1">
+        <f>Calcul!D515</f>
+        <v>2489.8945930516829</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>1806</v>
       </c>
       <c r="B120" s="1">
-        <f>Calcul!D516</f>
-        <v>12572.840744925625</v>
+        <f>Calcul!C516</f>
+        <v>15908.410213025183</v>
       </c>
       <c r="C120" s="1">
-        <f>Calcul!E516</f>
-        <v>4677.6608291135353</v>
+        <f>Calcul!B516</f>
+        <v>11097.454348717545</v>
       </c>
       <c r="D120">
         <f t="shared" si="5"/>
-        <v>1.6878478804347827</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.43351886956521757</v>
+      </c>
+      <c r="E120" s="1">
+        <f>Calcul!D516</f>
+        <v>2574.3152795498258</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>1807</v>
       </c>
       <c r="B121" s="1">
-        <f>Calcul!D517</f>
-        <v>13541.845811971916</v>
+        <f>Calcul!C517</f>
+        <v>17305.836844261823</v>
       </c>
       <c r="C121" s="1">
-        <f>Calcul!E517</f>
-        <v>5038.1741878120738</v>
+        <f>Calcul!B517</f>
+        <v>12072.276976382347</v>
       </c>
       <c r="D121">
         <f t="shared" si="5"/>
-        <v>1.687847880434783</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.4335188695652174</v>
+      </c>
+      <c r="E121" s="1">
+        <f>Calcul!D517</f>
+        <v>2800.4482922563307</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>1808</v>
       </c>
       <c r="B122" s="1">
-        <f>Calcul!D518</f>
-        <v>11361.584411117761</v>
+        <f>Calcul!C518</f>
+        <v>14664.761815310168</v>
       </c>
       <c r="C122" s="1">
-        <f>Calcul!E518</f>
-        <v>4227.0191307403629</v>
+        <f>Calcul!B518</f>
+        <v>10229.904974852512</v>
       </c>
       <c r="D122">
         <f t="shared" si="5"/>
-        <v>1.6878478804347825</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.43351886956521757</v>
+      </c>
+      <c r="E122" s="1">
+        <f>Calcul!D518</f>
+        <v>2373.0668185311301</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>1809</v>
       </c>
       <c r="B123" s="1">
-        <f>Calcul!D519</f>
-        <v>13832.547332085804</v>
+        <f>Calcul!C519</f>
+        <v>18032.654129013914</v>
       </c>
       <c r="C123" s="1">
-        <f>Calcul!E519</f>
-        <v>5146.3281954216354</v>
+        <f>Calcul!B519</f>
+        <v>12579.293172808511</v>
       </c>
       <c r="D123">
         <f t="shared" si="5"/>
-        <v>1.6878478804347827</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.4335188695652174</v>
+      </c>
+      <c r="E123" s="1">
+        <f>Calcul!D519</f>
+        <v>2918.0626117592492</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>1810</v>
       </c>
       <c r="B124" s="1">
-        <f>Calcul!D520</f>
-        <v>14995.353412541352</v>
+        <f>Calcul!C520</f>
+        <v>19744.019325601075</v>
       </c>
       <c r="C124" s="1">
-        <f>Calcul!E520</f>
-        <v>5578.944225859882</v>
+        <f>Calcul!B520</f>
+        <v>13773.114358508155</v>
       </c>
       <c r="D124">
         <f t="shared" si="5"/>
-        <v>1.6878478804347825</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.4335188695652174</v>
+      </c>
+      <c r="E124" s="1">
+        <f>Calcul!D520</f>
+        <v>3194.9974855442483</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>1811</v>
       </c>
       <c r="B125" s="1">
-        <f>Calcul!D521</f>
-        <v>11385.809537793919</v>
+        <f>Calcul!C521</f>
+        <v>15141.33436811442</v>
       </c>
       <c r="C125" s="1">
-        <f>Calcul!E521</f>
-        <v>4236.0319647078259</v>
+        <f>Calcul!B521</f>
+        <v>10562.354420006168</v>
       </c>
       <c r="D125">
         <f t="shared" si="5"/>
-        <v>1.687847880434783</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.43351886956521746</v>
+      </c>
+      <c r="E125" s="1">
+        <f>Calcul!D521</f>
+        <v>2450.1862784941095</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>1812</v>
       </c>
       <c r="B126" s="1">
-        <f>Calcul!D522</f>
-        <v>11506.935171174706</v>
+        <f>Calcul!C522</f>
+        <v>15455.436517240201</v>
       </c>
       <c r="C126" s="1">
-        <f>Calcul!E522</f>
-        <v>4281.0961345451433</v>
+        <f>Calcul!B522</f>
+        <v>10781.467091485021</v>
       </c>
       <c r="D126">
         <f t="shared" si="5"/>
-        <v>1.687847880434783</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.43351886956521751</v>
+      </c>
+      <c r="E126" s="1">
+        <f>Calcul!D522</f>
+        <v>2501.0146108671265</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>1813</v>
       </c>
       <c r="B127" s="1">
-        <f>Calcul!D523</f>
-        <v>8987.5219968543479</v>
+        <f>Calcul!C523</f>
+        <v>12192.224457631739</v>
       </c>
       <c r="C127" s="1">
-        <f>Calcul!E523</f>
-        <v>3343.7614019289431</v>
+        <f>Calcul!B523</f>
+        <v>8505.102176527058</v>
       </c>
       <c r="D127">
         <f t="shared" si="5"/>
-        <v>1.687847880434783</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.43351886956521746</v>
+      </c>
+      <c r="E127" s="1">
+        <f>Calcul!D523</f>
+        <v>1972.9582838695178</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>1814</v>
       </c>
       <c r="B128" s="1">
-        <f>Calcul!D524</f>
-        <v>3512.6433680428045</v>
+        <f>Calcul!C524</f>
+        <v>4812.8066625880547</v>
       </c>
       <c r="C128" s="1">
-        <f>Calcul!E524</f>
-        <v>1306.8609252822016</v>
+        <f>Calcul!B524</f>
+        <v>3357.3375033757084</v>
       </c>
       <c r="D128">
         <f t="shared" si="5"/>
-        <v>1.6878478804347827</v>
+        <v>0.4335188695652174</v>
+      </c>
+      <c r="E128" s="1">
+        <f>Calcul!D524</f>
+        <v>778.81331717706439</v>
       </c>
     </row>
   </sheetData>

--- a/External Data/Résultats de la course française.xlsx
+++ b/External Data/Résultats de la course française.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumedaudin/Répertoires Git/2016-Hamburg-Impact-of-War/External Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CB1F67-5FA0-014A-9570-AB79F1D65A4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEB8D32-25DB-F147-858E-FEF2A55369E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="-14620" windowWidth="26880" windowHeight="14620" xr2:uid="{E3D52932-A783-EC49-8617-8937D12F747E}"/>
+    <workbookView xWindow="1160" yWindow="-14620" windowWidth="26880" windowHeight="14620" activeTab="1" xr2:uid="{E3D52932-A783-EC49-8617-8937D12F747E}"/>
   </bookViews>
   <sheets>
     <sheet name="Calcul" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="226">
   <si>
     <t>Estimation de l’armement corsaire à Dunkerque, Saint-Malo et Bayonne (en milliers de lt) Villier 2002, p. 327</t>
   </si>
@@ -1069,6 +1069,12 @@
   </si>
   <si>
     <t>Valeur des prises --1797 prizes</t>
+  </si>
+  <si>
+    <t>Crowhurst via Hillmann (et UKDA)</t>
+  </si>
+  <si>
+    <t>Il y a 6 vaisseaux sans date</t>
   </si>
 </sst>
 </file>
@@ -1203,7 +1209,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1219,6 +1225,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
@@ -1554,10 +1563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747C72A1-6A8D-9E42-88DE-481B3F912E70}">
-  <dimension ref="A1:O524"/>
+  <dimension ref="A1:O551"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A499" workbookViewId="0">
-      <selection activeCell="E502" sqref="E502"/>
+    <sheetView topLeftCell="A527" workbookViewId="0">
+      <selection activeCell="H539" sqref="H539"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6748,7 +6757,7 @@
         <v>1757</v>
       </c>
       <c r="B360" s="1">
-        <f t="shared" ref="B359:B365" si="34">(B346+C346+D346)*$H$356</f>
+        <f t="shared" ref="B360:B365" si="34">(B346+C346+D346)*$H$356</f>
         <v>10628.473684210527</v>
       </c>
       <c r="M360" s="1">
@@ -6857,7 +6866,7 @@
         <v>1182.06</v>
       </c>
       <c r="C370" s="1">
-        <f>(N370*I$377+M358*J$377)*$M$382</f>
+        <f t="shared" ref="C370:C376" si="35">(N370*I$377+M358*J$377)*$M$382</f>
         <v>1530.65412679474</v>
       </c>
       <c r="D370" s="1">
@@ -6891,19 +6900,19 @@
         <v>1568.0419999999999</v>
       </c>
       <c r="C371" s="1">
-        <f>(N371*I$377+M359*J$377)*$M$382</f>
+        <f t="shared" si="35"/>
         <v>2490.7132768923552</v>
       </c>
       <c r="D371" s="1">
         <v>2662.0610000000001</v>
       </c>
       <c r="E371" s="1">
-        <f t="shared" ref="E371:E377" si="35">SUM(B371:D371)</f>
+        <f t="shared" ref="E371:E377" si="36">SUM(B371:D371)</f>
         <v>6720.8162768923557</v>
       </c>
       <c r="F371" s="1"/>
       <c r="G371" s="2">
-        <f t="shared" ref="G371:G377" si="36">E371/E346</f>
+        <f t="shared" ref="G371:G377" si="37">E371/E346</f>
         <v>0.98733895649953807</v>
       </c>
       <c r="I371" s="1">
@@ -6930,18 +6939,18 @@
         <v>2450.9899999999998</v>
       </c>
       <c r="C372" s="1">
-        <f>(N372*I$377+M360*J$377)*$M$382</f>
+        <f t="shared" si="35"/>
         <v>428.5767469683355</v>
       </c>
       <c r="D372" s="1">
         <v>865.28800000000001</v>
       </c>
       <c r="E372" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>3744.8547469683353</v>
       </c>
       <c r="G372" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1.0262687714355536</v>
       </c>
       <c r="I372" s="1">
@@ -6964,18 +6973,18 @@
         <v>2626.9</v>
       </c>
       <c r="C373" s="1">
-        <f>(N373*I$377+M361*J$377)*$M$382</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="D373" s="1">
         <v>1733.711</v>
       </c>
       <c r="E373" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4360.6109999999999</v>
       </c>
       <c r="G373" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>2.3815461496450028</v>
       </c>
       <c r="I373" s="1">
@@ -6998,18 +7007,18 @@
         <v>4335.57</v>
       </c>
       <c r="C374" s="1">
-        <f>(N374*I$377+M362*J$377)*$M$382</f>
+        <f t="shared" si="35"/>
         <v>1852.3018108969927</v>
       </c>
       <c r="D374" s="1">
         <v>2619.2510000000002</v>
       </c>
       <c r="E374" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>8807.1228108969917</v>
       </c>
       <c r="G374" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>3.9996016398260634</v>
       </c>
       <c r="I374" s="1">
@@ -7032,18 +7041,18 @@
         <v>584.55600000000004</v>
       </c>
       <c r="C375" s="1">
-        <f>(N375*I$377+M363*J$377)*$M$382</f>
+        <f t="shared" si="35"/>
         <v>641.95423263612508</v>
       </c>
       <c r="D375" s="1">
         <v>3057.33</v>
       </c>
       <c r="E375" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4283.8402326361247</v>
       </c>
       <c r="G375" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>2.1635556730485477</v>
       </c>
       <c r="I375" s="1">
@@ -7066,18 +7075,18 @@
         <v>352.976</v>
       </c>
       <c r="C376" s="1">
-        <f>(N376*I$377+M364*J$377)*$M$382</f>
+        <f t="shared" si="35"/>
         <v>493.71096512981376</v>
       </c>
       <c r="D376" s="1">
         <v>1925.9179999999999</v>
       </c>
       <c r="E376" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>2772.6049651298135</v>
       </c>
       <c r="G376" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1.2441574894008587</v>
       </c>
       <c r="I376" s="1">
@@ -7098,19 +7107,19 @@
         <v>13101.094000000001</v>
       </c>
       <c r="C377" s="1">
-        <f t="shared" ref="C377:D377" si="37">SUM(C370:C376)</f>
+        <f t="shared" ref="C377:D377" si="38">SUM(C370:C376)</f>
         <v>7437.9111593183625</v>
       </c>
       <c r="D377" s="1">
+        <f t="shared" si="38"/>
+        <v>15080.870999999999</v>
+      </c>
+      <c r="E377" s="1">
+        <f t="shared" si="36"/>
+        <v>35619.876159318359</v>
+      </c>
+      <c r="G377" s="2">
         <f t="shared" si="37"/>
-        <v>15080.870999999999</v>
-      </c>
-      <c r="E377" s="1">
-        <f t="shared" si="35"/>
-        <v>35619.876159318359</v>
-      </c>
-      <c r="G377" s="2">
-        <f t="shared" si="36"/>
         <v>1.7073637464023179</v>
       </c>
       <c r="I377" s="1">
@@ -7200,7 +7209,7 @@
         <v>1757</v>
       </c>
       <c r="B386" s="1">
-        <f t="shared" ref="B385:B391" si="38">B360*E371/E346</f>
+        <f t="shared" ref="B386:B391" si="39">B360*E371/E346</f>
         <v>10493.906116551223</v>
       </c>
       <c r="C386" s="2">
@@ -7208,7 +7217,7 @@
         <v>0.98733895649953818</v>
       </c>
       <c r="D386" s="1">
-        <f t="shared" ref="D386:D391" si="39">$A$395*B386/$B$392</f>
+        <f t="shared" ref="D386:D391" si="40">$A$395*B386/$B$392</f>
         <v>1698.1346656424962</v>
       </c>
     </row>
@@ -7217,15 +7226,15 @@
         <v>1758</v>
       </c>
       <c r="B387" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>5847.2293417575765</v>
       </c>
       <c r="C387" s="2">
-        <f t="shared" ref="C385:C392" si="40">B387/B361</f>
+        <f t="shared" ref="C387:C392" si="41">B387/B361</f>
         <v>1.0262687714355536</v>
       </c>
       <c r="D387" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>946.20465753354233</v>
       </c>
     </row>
@@ -7234,15 +7243,15 @@
         <v>1759</v>
       </c>
       <c r="B388" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>6808.6733157894741</v>
       </c>
       <c r="C388" s="2">
+        <f t="shared" si="41"/>
+        <v>2.3815461496450028</v>
+      </c>
+      <c r="D388" s="1">
         <f t="shared" si="40"/>
-        <v>2.3815461496450028</v>
-      </c>
-      <c r="D388" s="1">
-        <f t="shared" si="39"/>
         <v>1101.7865088712038</v>
       </c>
     </row>
@@ -7251,15 +7260,15 @@
         <v>1760</v>
       </c>
       <c r="B389" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>13751.472459119865</v>
       </c>
       <c r="C389" s="2">
+        <f t="shared" si="41"/>
+        <v>3.9996016398260634</v>
+      </c>
+      <c r="D389" s="1">
         <f t="shared" si="40"/>
-        <v>3.9996016398260634</v>
-      </c>
-      <c r="D389" s="1">
-        <f t="shared" si="39"/>
         <v>2225.2773969102354</v>
       </c>
     </row>
@@ -7268,15 +7277,15 @@
         <v>1761</v>
       </c>
       <c r="B390" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>6688.8031702564049</v>
       </c>
       <c r="C390" s="2">
+        <f t="shared" si="41"/>
+        <v>2.1635556730485477</v>
+      </c>
+      <c r="D390" s="1">
         <f t="shared" si="40"/>
-        <v>2.1635556730485477</v>
-      </c>
-      <c r="D390" s="1">
-        <f t="shared" si="39"/>
         <v>1082.3889988073142</v>
       </c>
     </row>
@@ -7285,15 +7294,15 @@
         <v>1762</v>
       </c>
       <c r="B391" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>4329.1551209921654</v>
       </c>
       <c r="C391" s="2">
+        <f t="shared" si="41"/>
+        <v>1.2441574894008587</v>
+      </c>
+      <c r="D391" s="1">
         <f t="shared" si="40"/>
-        <v>1.2441574894008587</v>
-      </c>
-      <c r="D391" s="1">
-        <f t="shared" si="39"/>
         <v>700.54832797728193</v>
       </c>
     </row>
@@ -7303,7 +7312,7 @@
         <v>55616.999617181304</v>
       </c>
       <c r="C392" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1.7073637464023181</v>
       </c>
       <c r="D392" s="1">
@@ -7512,7 +7521,7 @@
         <v>1779</v>
       </c>
       <c r="B422" s="1">
-        <f t="shared" ref="B422:B426" si="41">B414/$B$419*$A$399</f>
+        <f t="shared" ref="B422:B426" si="42">B414/$B$419*$A$399</f>
         <v>5858.5858585858587</v>
       </c>
     </row>
@@ -7521,7 +7530,7 @@
         <v>1780</v>
       </c>
       <c r="B423" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>9292.9292929292933</v>
       </c>
     </row>
@@ -7530,7 +7539,7 @@
         <v>1781</v>
       </c>
       <c r="B424" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>9494.9494949494947</v>
       </c>
     </row>
@@ -7539,7 +7548,7 @@
         <v>1782</v>
       </c>
       <c r="B425" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>10707.070707070707</v>
       </c>
     </row>
@@ -7548,7 +7557,7 @@
         <v>1783</v>
       </c>
       <c r="B426" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>606.06060606060612</v>
       </c>
     </row>
@@ -7577,7 +7586,7 @@
         <v>1779</v>
       </c>
       <c r="B430" s="1">
-        <f t="shared" ref="B430:B434" si="42">B414/$B$419*$B$410</f>
+        <f t="shared" ref="B430:B434" si="43">B414/$B$419*$B$410</f>
         <v>4086.8564641655207</v>
       </c>
     </row>
@@ -7586,7 +7595,7 @@
         <v>1780</v>
       </c>
       <c r="B431" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>6482.5999086763431</v>
       </c>
       <c r="C431" s="1"/>
@@ -7608,7 +7617,7 @@
         <v>1781</v>
       </c>
       <c r="B432" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>6623.5259936475677</v>
       </c>
     </row>
@@ -7617,7 +7626,7 @@
         <v>1782</v>
       </c>
       <c r="B433" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>7469.0825034749168</v>
       </c>
     </row>
@@ -7626,7 +7635,7 @@
         <v>1783</v>
       </c>
       <c r="B434" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>422.77825491367457</v>
       </c>
     </row>
@@ -7714,7 +7723,7 @@
         <v>1779</v>
       </c>
       <c r="B448" s="1">
-        <f t="shared" ref="B448:B452" si="43">$A$401/$B$444*B439</f>
+        <f t="shared" ref="B448:B452" si="44">$A$401/$B$444*B439</f>
         <v>4761.2156295224313</v>
       </c>
     </row>
@@ -7723,7 +7732,7 @@
         <v>1780</v>
       </c>
       <c r="B449" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>5774.2402315484806</v>
       </c>
     </row>
@@ -7732,7 +7741,7 @@
         <v>1781</v>
       </c>
       <c r="B450" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>9876.9898697539793</v>
       </c>
     </row>
@@ -7741,7 +7750,7 @@
         <v>1782</v>
       </c>
       <c r="B451" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3494.9348769898697</v>
       </c>
     </row>
@@ -7750,7 +7759,7 @@
         <v>1783</v>
       </c>
       <c r="B452" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>202.60492040520984</v>
       </c>
       <c r="D452" s="1" t="s">
@@ -8083,1010 +8092,1273 @@
         <v>55</v>
       </c>
     </row>
-    <row r="498" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A498" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A499" s="15">
+        <v>1793</v>
+      </c>
+      <c r="B499">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A500" s="15">
+        <v>1794</v>
+      </c>
+      <c r="B500">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A501" s="15">
+        <v>1795</v>
+      </c>
+      <c r="B501">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A502" s="15">
+        <v>1796</v>
+      </c>
+      <c r="B502">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A503" s="15">
+        <v>1797</v>
+      </c>
+      <c r="B503">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A504" s="15">
+        <v>1798</v>
+      </c>
+      <c r="B504">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A505" s="15">
+        <v>1799</v>
+      </c>
+      <c r="B505">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A506" s="15">
+        <v>1800</v>
+      </c>
+      <c r="B506">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A507" s="15">
+        <v>1801</v>
+      </c>
+      <c r="B507">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A508" s="15">
+        <v>1802</v>
+      </c>
+      <c r="B508">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A509" s="15">
+        <v>1803</v>
+      </c>
+      <c r="B509">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A510" s="15">
+        <v>1804</v>
+      </c>
+      <c r="B510">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A511" s="15">
+        <v>1805</v>
+      </c>
+      <c r="B511">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A512" s="15">
+        <v>1806</v>
+      </c>
+      <c r="B512">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="513" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A513" s="15">
+        <v>1807</v>
+      </c>
+      <c r="B513">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="514" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A514" s="15">
+        <v>1808</v>
+      </c>
+      <c r="B514">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="515" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A515" s="15">
+        <v>1809</v>
+      </c>
+      <c r="B515">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="516" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A516" s="15">
+        <v>1810</v>
+      </c>
+      <c r="B516">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="517" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A517" s="15">
+        <v>1811</v>
+      </c>
+      <c r="B517">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="518" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A518" s="15">
+        <v>1812</v>
+      </c>
+      <c r="B518">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="519" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A519" s="15">
+        <v>1813</v>
+      </c>
+      <c r="B519">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="520" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A520" s="15">
+        <v>1814</v>
+      </c>
+      <c r="B520">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="521" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A521" s="15">
+        <v>1815</v>
+      </c>
+      <c r="B521">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A522" s="15"/>
+      <c r="B522"/>
+    </row>
+    <row r="523" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A523" s="15"/>
+      <c r="B523"/>
+    </row>
+    <row r="524" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A524" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="499" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A499" s="1" t="s">
+    <row r="525" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A525" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D499" s="1">
+      <c r="D525" s="1">
         <f>19000/198</f>
         <v>95.959595959595958</v>
       </c>
-      <c r="F499" s="1" t="s">
+      <c r="F525" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="J499" s="1">
-        <f>AVERAGE(F503,F506:F511)</f>
-        <v>32.56164157679305</v>
-      </c>
-    </row>
-    <row r="501" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C501" s="1" t="s">
+      <c r="J525" s="1">
+        <f>AVERAGE(F529,F532:F537)</f>
+        <v>58.929551037162881</v>
+      </c>
+    </row>
+    <row r="527" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C527" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="L501" s="12" t="s">
+      <c r="L527" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="O501" s="2">
+      <c r="O527" s="2">
         <f>B395/(1+B395)</f>
         <v>0.13928223305507595</v>
       </c>
     </row>
-    <row r="502" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B502" s="1" t="s">
+    <row r="528" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B528" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C502" s="1" t="s">
+      <c r="C528" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D502" s="1" t="s">
+      <c r="D528" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E502" s="1" t="s">
+      <c r="E528" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F502" s="1" t="s">
+      <c r="F528" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="H502" s="1" t="s">
+      <c r="H528" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="K502" s="1">
+      <c r="K528" s="1">
         <v>1789</v>
       </c>
-      <c r="L502" s="12">
+      <c r="L528" s="12">
         <v>4.4539999999999997</v>
       </c>
-      <c r="M502" s="1" t="s">
+      <c r="M528" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="O502" s="1" t="s">
+      <c r="O528" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="503" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A503" s="1">
+    <row r="529" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A529" s="1">
         <v>1793</v>
       </c>
-      <c r="B503" s="1">
-        <f>B488*$D$499*$L$502/L503*M503</f>
-        <v>37993.010631143021</v>
-      </c>
-      <c r="C503" s="1">
-        <f>B503*$C$410</f>
-        <v>54463.697651335431</v>
-      </c>
-      <c r="D503" s="1">
-        <f>C503*0.15</f>
-        <v>8169.5546477003145</v>
-      </c>
-      <c r="E503" s="1">
-        <f>(C503+D503)/B462</f>
-        <v>177.93537584953336</v>
-      </c>
-      <c r="F503" s="1">
-        <f>E503*L503/$L$507*M503/M$507</f>
-        <v>64.217145319436227</v>
-      </c>
-      <c r="H503" s="1">
-        <f>C503+D503</f>
-        <v>62633.252299035747</v>
-      </c>
-      <c r="K503" s="1">
+      <c r="B529" s="1">
+        <f>B499*$D$525*$L$528/L529*M529</f>
+        <v>52384.302536878997</v>
+      </c>
+      <c r="C529" s="1">
+        <f>B529*$C$410</f>
+        <v>75093.886155629138</v>
+      </c>
+      <c r="D529" s="1">
+        <f>C529*0.15</f>
+        <v>11264.082923344371</v>
+      </c>
+      <c r="E529" s="1">
+        <f>(C529+D529)/B462</f>
+        <v>245.33513942890201</v>
+      </c>
+      <c r="F529" s="1">
+        <f>E529*L529/$L$533*M529/M$533</f>
+        <v>88.541821576798412</v>
+      </c>
+      <c r="H529" s="1">
+        <f>C529+D529</f>
+        <v>86357.969078973503</v>
+      </c>
+      <c r="K529" s="1">
         <v>1793</v>
       </c>
-      <c r="L503" s="12">
+      <c r="L529" s="12">
         <v>1.69</v>
       </c>
-      <c r="M503" s="2">
-        <f>(1+0.01)^N503</f>
+      <c r="M529" s="2">
+        <f>(1+0.01)^N529</f>
         <v>1.1380932804332895</v>
       </c>
-      <c r="N503" s="1">
+      <c r="N529" s="1">
         <v>13</v>
       </c>
-      <c r="O503" s="1">
-        <f>E503</f>
-        <v>177.93537584953336</v>
-      </c>
-    </row>
-    <row r="504" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A504" s="1">
+      <c r="O529" s="1">
+        <f>E529</f>
+        <v>245.33513942890201</v>
+      </c>
+    </row>
+    <row r="530" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A530" s="1">
         <v>1794</v>
       </c>
-      <c r="C504" s="1">
+      <c r="B530" s="1">
+        <f t="shared" ref="B530:B551" si="45">B500*$D$525*$L$528/L530*M530</f>
+        <v>2748.4750941427433</v>
+      </c>
+      <c r="C530" s="1">
+        <f t="shared" ref="C530:C551" si="46">B530*$C$410</f>
+        <v>3939.99090998366</v>
+      </c>
+      <c r="D530" s="1">
+        <f t="shared" ref="D530:D551" si="47">C530*0.15</f>
+        <v>590.998636497549</v>
+      </c>
+      <c r="E530" s="1">
+        <f t="shared" ref="E530:E551" si="48">(C530+D530)/B463</f>
+        <v>7.0356980535422498</v>
+      </c>
+      <c r="F530" s="1">
+        <f t="shared" ref="F530:F550" si="49">E530*L530/$L$533*M530/M$533</f>
+        <v>2.1700342837385316</v>
+      </c>
+      <c r="H530" s="1">
+        <f t="shared" ref="H530:H550" si="50">C530+D530</f>
+        <v>4530.9895464812089</v>
+      </c>
+      <c r="K530" s="1">
+        <v>1794</v>
+      </c>
+      <c r="L530" s="12">
+        <v>1.43</v>
+      </c>
+      <c r="M530" s="2">
+        <f t="shared" ref="M530:M551" si="51">(1+0.01)^N530</f>
+        <v>1.1494742132376226</v>
+      </c>
+      <c r="N530" s="1">
+        <v>14</v>
+      </c>
+      <c r="O530" s="1">
+        <f t="shared" ref="O530:O550" si="52">$E$529*L$529/L530*M530/M$529</f>
+        <v>292.84094370013491</v>
+      </c>
+    </row>
+    <row r="531" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A531" s="1">
+        <v>1795</v>
+      </c>
+      <c r="B531" s="1">
+        <f t="shared" si="45"/>
+        <v>63403.693961679419</v>
+      </c>
+      <c r="C531" s="1">
+        <f t="shared" si="46"/>
+        <v>90890.391694205682</v>
+      </c>
+      <c r="D531" s="1">
+        <f t="shared" si="47"/>
+        <v>13633.558754130852</v>
+      </c>
+      <c r="E531" s="1">
+        <f t="shared" si="48"/>
+        <v>163.31867257552582</v>
+      </c>
+      <c r="F531" s="1">
+        <f t="shared" si="49"/>
+        <v>6.4040259808068134</v>
+      </c>
+      <c r="H531" s="1">
+        <f t="shared" si="50"/>
+        <v>104523.95044833653</v>
+      </c>
+      <c r="K531" s="1">
+        <v>1795</v>
+      </c>
+      <c r="L531" s="12">
+        <v>0.18</v>
+      </c>
+      <c r="M531" s="2">
+        <f t="shared" si="51"/>
+        <v>1.1609689553699984</v>
+      </c>
+      <c r="N531" s="1">
+        <v>15</v>
+      </c>
+      <c r="O531" s="1">
+        <f t="shared" si="52"/>
+        <v>2349.7231943672487</v>
+      </c>
+    </row>
+    <row r="532" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A532" s="1">
+        <v>1796</v>
+      </c>
+      <c r="B532" s="1">
+        <f t="shared" si="45"/>
+        <v>164131.4885491918</v>
+      </c>
+      <c r="C532" s="1">
+        <f t="shared" si="46"/>
+        <v>235285.58592509385</v>
+      </c>
+      <c r="D532" s="1">
+        <f t="shared" si="47"/>
+        <v>35292.837888764079</v>
+      </c>
+      <c r="E532" s="1">
+        <f t="shared" si="48"/>
+        <v>553.33011004878927</v>
+      </c>
+      <c r="F532" s="1">
+        <f t="shared" si="49"/>
+        <v>48.697919476241076</v>
+      </c>
+      <c r="H532" s="1">
+        <f t="shared" si="50"/>
+        <v>270578.42381385795</v>
+      </c>
+      <c r="K532" s="1">
+        <v>1796</v>
+      </c>
+      <c r="L532" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="M532" s="2">
+        <f t="shared" si="51"/>
+        <v>1.1725786449236988</v>
+      </c>
+      <c r="N532" s="1">
+        <v>16</v>
+      </c>
+      <c r="O532" s="1">
+        <f t="shared" si="52"/>
+        <v>1067.9491918399146</v>
+      </c>
+    </row>
+    <row r="533" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A533" s="1">
+        <v>1797</v>
+      </c>
+      <c r="B533" s="1">
+        <f t="shared" si="45"/>
+        <v>35094.903933246031</v>
+      </c>
+      <c r="C533" s="1">
+        <f t="shared" si="46"/>
+        <v>50309.207013886757</v>
+      </c>
+      <c r="D533" s="1">
+        <f t="shared" si="47"/>
+        <v>7546.3810520830129</v>
+      </c>
+      <c r="E533" s="1">
+        <f t="shared" si="48"/>
+        <v>60.964792482581423</v>
+      </c>
+      <c r="F533" s="1">
+        <f t="shared" si="49"/>
+        <v>60.96479248258143</v>
+      </c>
+      <c r="H533" s="1">
+        <f t="shared" si="50"/>
+        <v>57855.588065969772</v>
+      </c>
+      <c r="K533" s="1">
+        <v>1797</v>
+      </c>
+      <c r="L533" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="M533" s="2">
+        <f t="shared" si="51"/>
+        <v>1.1843044313729358</v>
+      </c>
+      <c r="N533" s="1">
+        <v>17</v>
+      </c>
+      <c r="O533" s="1">
+        <f t="shared" si="52"/>
+        <v>95.878105222961238</v>
+      </c>
+    </row>
+    <row r="534" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A534" s="1">
+        <v>1798</v>
+      </c>
+      <c r="B534" s="1">
+        <f t="shared" si="45"/>
+        <v>31355.946860357893</v>
+      </c>
+      <c r="C534" s="1">
+        <f t="shared" si="46"/>
+        <v>44949.34149740728</v>
+      </c>
+      <c r="D534" s="1">
+        <f t="shared" si="47"/>
+        <v>6742.4012246110915</v>
+      </c>
+      <c r="E534" s="1">
+        <f t="shared" si="48"/>
+        <v>75.133346979677867</v>
+      </c>
+      <c r="F534" s="1">
+        <f t="shared" si="49"/>
+        <v>75.884680449474658</v>
+      </c>
+      <c r="H534" s="1">
+        <f t="shared" si="50"/>
+        <v>51691.742722018374</v>
+      </c>
+      <c r="K534" s="1">
+        <v>1798</v>
+      </c>
+      <c r="L534" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="M534" s="2">
+        <f t="shared" si="51"/>
+        <v>1.1961474756866652</v>
+      </c>
+      <c r="N534" s="1">
+        <v>18</v>
+      </c>
+      <c r="O534" s="1">
+        <f t="shared" si="52"/>
+        <v>96.836886275190849</v>
+      </c>
+    </row>
+    <row r="535" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A535" s="1">
+        <v>1799</v>
+      </c>
+      <c r="B535" s="1">
+        <f t="shared" si="45"/>
+        <v>22604.683865236984</v>
+      </c>
+      <c r="C535" s="1">
+        <f t="shared" si="46"/>
+        <v>32404.240861373633</v>
+      </c>
+      <c r="D535" s="1">
+        <f t="shared" si="47"/>
+        <v>4860.6361292060446</v>
+      </c>
+      <c r="E535" s="1">
+        <f t="shared" si="48"/>
+        <v>51.047776699424219</v>
+      </c>
+      <c r="F535" s="1">
+        <f t="shared" si="49"/>
+        <v>52.073837011082631</v>
+      </c>
+      <c r="H535" s="1">
+        <f t="shared" si="50"/>
+        <v>37264.87699057968</v>
+      </c>
+      <c r="K535" s="1">
+        <v>1799</v>
+      </c>
+      <c r="L535" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="M535" s="2">
+        <f t="shared" si="51"/>
+        <v>1.2081089504435316</v>
+      </c>
+      <c r="N535" s="1">
+        <v>19</v>
+      </c>
+      <c r="O535" s="1">
+        <f t="shared" si="52"/>
+        <v>97.805255137942737</v>
+      </c>
+    </row>
+    <row r="536" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A536" s="1">
+        <v>1800</v>
+      </c>
+      <c r="B536" s="1">
+        <f t="shared" si="45"/>
+        <v>16688.452900304914</v>
+      </c>
+      <c r="C536" s="1">
+        <f t="shared" si="46"/>
+        <v>23923.212136437476</v>
+      </c>
+      <c r="D536" s="1">
+        <f t="shared" si="47"/>
+        <v>3588.4818204656212</v>
+      </c>
+      <c r="E536" s="1">
+        <f t="shared" si="48"/>
+        <v>41.308849785139785</v>
+      </c>
+      <c r="F536" s="1">
+        <f t="shared" si="49"/>
+        <v>42.560549242479304</v>
+      </c>
+      <c r="H536" s="1">
+        <f t="shared" si="50"/>
+        <v>27511.693956903098</v>
+      </c>
+      <c r="K536" s="1">
+        <v>1800</v>
+      </c>
+      <c r="L536" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="M536" s="2">
+        <f t="shared" si="51"/>
+        <v>1.220190039947967</v>
+      </c>
+      <c r="N536" s="1">
+        <v>20</v>
+      </c>
+      <c r="O536" s="1">
+        <f t="shared" si="52"/>
+        <v>98.783307689322172</v>
+      </c>
+    </row>
+    <row r="537" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A537" s="1">
+        <v>1801</v>
+      </c>
+      <c r="B537" s="1">
+        <f t="shared" si="45"/>
+        <v>10183.433030206892</v>
+      </c>
+      <c r="C537" s="1">
+        <f t="shared" si="46"/>
+        <v>14598.143405755281</v>
+      </c>
+      <c r="D537" s="1">
+        <f t="shared" si="47"/>
+        <v>2189.7215108632922</v>
+      </c>
+      <c r="E537" s="1">
+        <f t="shared" si="48"/>
+        <v>42.074849415084145</v>
+      </c>
+      <c r="F537" s="1">
+        <f t="shared" si="49"/>
+        <v>43.783257021482704</v>
+      </c>
+      <c r="H537" s="1">
+        <f t="shared" si="50"/>
+        <v>16787.864916618575</v>
+      </c>
+      <c r="K537" s="1">
+        <v>1801</v>
+      </c>
+      <c r="L537" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="M537" s="2">
+        <f t="shared" si="51"/>
+        <v>1.2323919403474466</v>
+      </c>
+      <c r="N537" s="1">
+        <v>21</v>
+      </c>
+      <c r="O537" s="1">
+        <f t="shared" si="52"/>
+        <v>99.771140766215396</v>
+      </c>
+    </row>
+    <row r="538" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A538" s="1">
+        <v>1802</v>
+      </c>
+      <c r="B538" s="1">
+        <f t="shared" si="45"/>
+        <v>472.88585565558458</v>
+      </c>
+      <c r="C538" s="1">
+        <f t="shared" si="46"/>
+        <v>677.89079723277416</v>
+      </c>
+      <c r="D538" s="1">
+        <f t="shared" si="47"/>
+        <v>101.68361958491612</v>
+      </c>
+      <c r="H538" s="1">
         <v>0</v>
       </c>
-      <c r="D504" s="3">
-        <f>B463*E504</f>
-        <v>64047.84382926664</v>
-      </c>
-      <c r="E504" s="1">
-        <f>$J$499*L$507/L504*M504/M$507</f>
-        <v>99.45317364792956</v>
-      </c>
-      <c r="H504" s="1">
-        <f>C504+D504</f>
-        <v>64047.84382926664</v>
-      </c>
-      <c r="K504" s="1">
-        <v>1794</v>
-      </c>
-      <c r="L504" s="12">
-        <v>1.43</v>
-      </c>
-      <c r="M504" s="2">
-        <f t="shared" ref="M504:M524" si="44">(1+0.01)^N504</f>
-        <v>1.1494742132376226</v>
-      </c>
-      <c r="N504" s="1">
-        <v>14</v>
-      </c>
-      <c r="O504" s="1">
-        <f>$E$503*L$503/L504*M504/M$503</f>
-        <v>212.39013499130667</v>
-      </c>
-    </row>
-    <row r="505" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A505" s="1">
-        <v>1795</v>
-      </c>
-      <c r="C505" s="1">
+      <c r="K538" s="1">
+        <v>1802</v>
+      </c>
+      <c r="L538" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="M538" s="2">
+        <f t="shared" si="51"/>
+        <v>1.2447158597509214</v>
+      </c>
+      <c r="N538" s="1">
+        <v>22</v>
+      </c>
+      <c r="O538" s="1">
+        <f t="shared" si="52"/>
+        <v>100.76885217387756</v>
+      </c>
+    </row>
+    <row r="539" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A539" s="1">
+        <v>1803</v>
+      </c>
+      <c r="B539" s="1">
+        <f t="shared" si="45"/>
+        <v>9194.0832485837018</v>
+      </c>
+      <c r="C539" s="1">
+        <f t="shared" si="46"/>
+        <v>13179.89182519821</v>
+      </c>
+      <c r="D539" s="1">
+        <f t="shared" si="47"/>
+        <v>1976.9837737797316</v>
+      </c>
+      <c r="E539" s="1">
+        <f t="shared" si="48"/>
+        <v>68.274214409810554</v>
+      </c>
+      <c r="F539" s="1">
+        <f t="shared" si="49"/>
+        <v>72.474454362467057</v>
+      </c>
+      <c r="H539" s="1">
+        <f t="shared" si="50"/>
+        <v>15156.875598977942</v>
+      </c>
+      <c r="K539" s="1">
+        <v>1803</v>
+      </c>
+      <c r="L539" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="M539" s="2">
+        <f t="shared" si="51"/>
+        <v>1.2571630183484304</v>
+      </c>
+      <c r="N539" s="1">
+        <v>23</v>
+      </c>
+      <c r="O539" s="1">
+        <f t="shared" si="52"/>
+        <v>101.77654069561632</v>
+      </c>
+    </row>
+    <row r="540" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A540" s="1">
+        <v>1804</v>
+      </c>
+      <c r="B540" s="1">
+        <f t="shared" si="45"/>
+        <v>4341.517752188357</v>
+      </c>
+      <c r="C540" s="1">
+        <f t="shared" si="46"/>
+        <v>6223.6476203143775</v>
+      </c>
+      <c r="D540" s="1">
+        <f t="shared" si="47"/>
+        <v>933.54714304715662</v>
+      </c>
+      <c r="E540" s="1">
+        <f t="shared" si="48"/>
+        <v>18.494043316179678</v>
+      </c>
+      <c r="F540" s="1">
+        <f t="shared" si="49"/>
+        <v>19.828117642674595</v>
+      </c>
+      <c r="H540" s="1">
+        <f t="shared" si="50"/>
+        <v>7157.1947633615346</v>
+      </c>
+      <c r="L540" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="M540" s="2">
+        <f t="shared" si="51"/>
+        <v>1.269734648531915</v>
+      </c>
+      <c r="N540" s="1">
+        <v>24</v>
+      </c>
+      <c r="O540" s="1">
+        <f t="shared" si="52"/>
+        <v>102.79430610257251</v>
+      </c>
+    </row>
+    <row r="541" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A541" s="1">
+        <v>1805</v>
+      </c>
+      <c r="B541" s="1">
+        <f t="shared" si="45"/>
+        <v>3654.1107747585343</v>
+      </c>
+      <c r="C541" s="1">
+        <f t="shared" si="46"/>
+        <v>5238.2367470979352</v>
+      </c>
+      <c r="D541" s="1">
+        <f t="shared" si="47"/>
+        <v>785.73551206469028</v>
+      </c>
+      <c r="E541" s="1">
+        <f t="shared" si="48"/>
+        <v>11.881602089078156</v>
+      </c>
+      <c r="F541" s="1">
+        <f t="shared" si="49"/>
+        <v>12.866072495762889</v>
+      </c>
+      <c r="H541" s="1">
+        <f t="shared" si="50"/>
+        <v>6023.9722591626251</v>
+      </c>
+      <c r="L541" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="M541" s="2">
+        <f t="shared" si="51"/>
+        <v>1.2824319950172343</v>
+      </c>
+      <c r="N541" s="1">
+        <v>25</v>
+      </c>
+      <c r="O541" s="1">
+        <f t="shared" si="52"/>
+        <v>103.82224916359824</v>
+      </c>
+    </row>
+    <row r="542" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A542" s="1">
+        <v>1806</v>
+      </c>
+      <c r="B542" s="1">
+        <f t="shared" si="45"/>
+        <v>7258.2820355953681</v>
+      </c>
+      <c r="C542" s="1">
+        <f t="shared" si="46"/>
+        <v>10404.884258652197</v>
+      </c>
+      <c r="D542" s="1">
+        <f t="shared" si="47"/>
+        <v>1560.7326387978294</v>
+      </c>
+      <c r="E542" s="1">
+        <f t="shared" si="48"/>
+        <v>23.055138530732229</v>
+      </c>
+      <c r="F542" s="1">
+        <f t="shared" si="49"/>
+        <v>25.215065470759598</v>
+      </c>
+      <c r="H542" s="1">
+        <f t="shared" si="50"/>
+        <v>11965.616897450027</v>
+      </c>
+      <c r="L542" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="M542" s="2">
+        <f t="shared" si="51"/>
+        <v>1.2952563149674066</v>
+      </c>
+      <c r="N542" s="1">
+        <v>26</v>
+      </c>
+      <c r="O542" s="1">
+        <f t="shared" si="52"/>
+        <v>104.86047165523422</v>
+      </c>
+    </row>
+    <row r="543" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A543" s="1">
+        <v>1807</v>
+      </c>
+      <c r="B543" s="1">
+        <f t="shared" si="45"/>
+        <v>11928.186884259772</v>
+      </c>
+      <c r="C543" s="1">
+        <f t="shared" si="46"/>
+        <v>17099.280978286723</v>
+      </c>
+      <c r="D543" s="1">
+        <f t="shared" si="47"/>
+        <v>2564.8921467430082</v>
+      </c>
+      <c r="E543" s="1">
+        <f t="shared" si="48"/>
+        <v>35.177411672682879</v>
+      </c>
+      <c r="F543" s="1">
+        <f t="shared" si="49"/>
+        <v>38.85774724834387</v>
+      </c>
+      <c r="H543" s="1">
+        <f t="shared" si="50"/>
+        <v>19664.173125029731</v>
+      </c>
+      <c r="L543" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="M543" s="2">
+        <f t="shared" si="51"/>
+        <v>1.3082088781170802</v>
+      </c>
+      <c r="N543" s="1">
+        <v>27</v>
+      </c>
+      <c r="O543" s="1">
+        <f t="shared" si="52"/>
+        <v>105.90907637178653</v>
+      </c>
+    </row>
+    <row r="544" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A544" s="1">
+        <v>1808</v>
+      </c>
+      <c r="B544" s="1">
+        <f t="shared" si="45"/>
+        <v>19075.158859078758</v>
+      </c>
+      <c r="C544" s="1">
+        <f t="shared" si="46"/>
+        <v>27344.600164443524</v>
+      </c>
+      <c r="D544" s="1">
+        <f t="shared" si="47"/>
+        <v>4101.6900246665282</v>
+      </c>
+      <c r="E544" s="1">
+        <f t="shared" si="48"/>
+        <v>67.049659251833802</v>
+      </c>
+      <c r="F544" s="1">
+        <f t="shared" si="49"/>
+        <v>74.80518248196627</v>
+      </c>
+      <c r="H544" s="1">
+        <f t="shared" si="50"/>
+        <v>31446.290189110052</v>
+      </c>
+      <c r="L544" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="M544" s="2">
+        <f t="shared" si="51"/>
+        <v>1.3212909668982511</v>
+      </c>
+      <c r="N544" s="1">
+        <v>28</v>
+      </c>
+      <c r="O544" s="1">
+        <f t="shared" si="52"/>
+        <v>106.9681671355044</v>
+      </c>
+    </row>
+    <row r="545" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A545" s="1">
+        <v>1809</v>
+      </c>
+      <c r="B545" s="1">
+        <f t="shared" si="45"/>
+        <v>21293.901021108442</v>
+      </c>
+      <c r="C545" s="1">
+        <f t="shared" si="46"/>
+        <v>30525.208920413002</v>
+      </c>
+      <c r="D545" s="1">
+        <f t="shared" si="47"/>
+        <v>4578.78133806195</v>
+      </c>
+      <c r="E545" s="1">
+        <f t="shared" si="48"/>
+        <v>61.478091520971894</v>
+      </c>
+      <c r="F545" s="1">
+        <f t="shared" si="49"/>
+        <v>69.275052330575136</v>
+      </c>
+      <c r="H545" s="1">
+        <f t="shared" si="50"/>
+        <v>35103.990258474951</v>
+      </c>
+      <c r="L545" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="M545" s="2">
+        <f t="shared" si="51"/>
+        <v>1.3345038765672337</v>
+      </c>
+      <c r="N545" s="1">
+        <v>29</v>
+      </c>
+      <c r="O545" s="1">
+        <f t="shared" si="52"/>
+        <v>108.03784880685946</v>
+      </c>
+    </row>
+    <row r="546" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A546" s="1">
+        <v>1810</v>
+      </c>
+      <c r="B546" s="1">
+        <f t="shared" si="45"/>
+        <v>26883.550039149417</v>
+      </c>
+      <c r="C546" s="1">
+        <f t="shared" si="46"/>
+        <v>38538.07626202143</v>
+      </c>
+      <c r="D546" s="1">
+        <f t="shared" si="47"/>
+        <v>5780.7114393032143</v>
+      </c>
+      <c r="E546" s="1">
+        <f t="shared" si="48"/>
+        <v>71.597395317164214</v>
+      </c>
+      <c r="F546" s="1">
+        <f t="shared" si="49"/>
+        <v>81.484514506990465</v>
+      </c>
+      <c r="H546" s="1">
+        <f t="shared" si="50"/>
+        <v>44318.787701324647</v>
+      </c>
+      <c r="L546" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="M546" s="2">
+        <f t="shared" si="51"/>
+        <v>1.3478489153329063</v>
+      </c>
+      <c r="N546" s="1">
+        <v>30</v>
+      </c>
+      <c r="O546" s="1">
+        <f t="shared" si="52"/>
+        <v>109.11822729492808</v>
+      </c>
+    </row>
+    <row r="547" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A547" s="1">
+        <v>1811</v>
+      </c>
+      <c r="B547" s="1">
+        <f t="shared" si="45"/>
+        <v>27928.167983527783</v>
+      </c>
+      <c r="C547" s="1">
+        <f t="shared" si="46"/>
+        <v>40035.555796774242</v>
+      </c>
+      <c r="D547" s="1">
+        <f t="shared" si="47"/>
+        <v>6005.3333695161364</v>
+      </c>
+      <c r="E547" s="1">
+        <f t="shared" si="48"/>
+        <v>97.959338651681648</v>
+      </c>
+      <c r="F547" s="1">
+        <f t="shared" si="49"/>
+        <v>112.60173372591954</v>
+      </c>
+      <c r="H547" s="1">
+        <f t="shared" si="50"/>
+        <v>46040.889166290377</v>
+      </c>
+      <c r="L547" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="M547" s="2">
+        <f t="shared" si="51"/>
+        <v>1.3613274044862349</v>
+      </c>
+      <c r="N547" s="1">
+        <v>31</v>
+      </c>
+      <c r="O547" s="1">
+        <f t="shared" si="52"/>
+        <v>110.20940956787732</v>
+      </c>
+    </row>
+    <row r="548" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A548" s="1">
+        <v>1812</v>
+      </c>
+      <c r="B548" s="1">
+        <f t="shared" si="45"/>
+        <v>10969.563757974527</v>
+      </c>
+      <c r="C548" s="1">
+        <f t="shared" si="46"/>
+        <v>15725.076637955222</v>
+      </c>
+      <c r="D548" s="1">
+        <f t="shared" si="47"/>
+        <v>2358.7614956932835</v>
+      </c>
+      <c r="E548" s="1">
+        <f t="shared" si="48"/>
+        <v>38.071238176102121</v>
+      </c>
+      <c r="F548" s="1">
+        <f t="shared" si="49"/>
+        <v>44.199525614951696</v>
+      </c>
+      <c r="H548" s="1">
+        <f t="shared" si="50"/>
+        <v>18083.838133648507</v>
+      </c>
+      <c r="L548" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="M548" s="2">
+        <f t="shared" si="51"/>
+        <v>1.3749406785310976</v>
+      </c>
+      <c r="N548" s="1">
+        <v>32</v>
+      </c>
+      <c r="O548" s="1">
+        <f t="shared" si="52"/>
+        <v>111.31150366355611</v>
+      </c>
+    </row>
+    <row r="549" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A549" s="1">
+        <v>1813</v>
+      </c>
+      <c r="B549" s="1">
+        <f t="shared" si="45"/>
+        <v>10155.987779258083</v>
+      </c>
+      <c r="C549" s="1">
+        <f t="shared" si="46"/>
+        <v>14558.80012064021</v>
+      </c>
+      <c r="D549" s="1">
+        <f t="shared" si="47"/>
+        <v>2183.8200180960312</v>
+      </c>
+      <c r="E549" s="1">
+        <f t="shared" si="48"/>
+        <v>45.128356169100378</v>
+      </c>
+      <c r="F549" s="1">
+        <f t="shared" si="49"/>
+        <v>52.916546724397762</v>
+      </c>
+      <c r="H549" s="1">
+        <f t="shared" si="50"/>
+        <v>16742.620138736242</v>
+      </c>
+      <c r="L549" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="M549" s="2">
+        <f t="shared" si="51"/>
+        <v>1.3886900853164086</v>
+      </c>
+      <c r="N549" s="1">
+        <v>33</v>
+      </c>
+      <c r="O549" s="1">
+        <f t="shared" si="52"/>
+        <v>112.42461870019169</v>
+      </c>
+    </row>
+    <row r="550" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A550" s="1">
+        <v>1814</v>
+      </c>
+      <c r="B550" s="1">
+        <f t="shared" si="45"/>
+        <v>3330.3726159255402</v>
+      </c>
+      <c r="C550" s="1">
+        <f t="shared" si="46"/>
+        <v>4774.1519876125367</v>
+      </c>
+      <c r="D550" s="1">
+        <f t="shared" si="47"/>
+        <v>716.12279814188048</v>
+      </c>
+      <c r="E550" s="1">
+        <f t="shared" si="48"/>
+        <v>37.863964039685634</v>
+      </c>
+      <c r="F550" s="1">
+        <f t="shared" si="49"/>
+        <v>44.842460401545182</v>
+      </c>
+      <c r="H550" s="1">
+        <f t="shared" si="50"/>
+        <v>5490.2747857544173</v>
+      </c>
+      <c r="L550" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="M550" s="2">
+        <f t="shared" si="51"/>
+        <v>1.4025769861695727</v>
+      </c>
+      <c r="N550" s="1">
+        <v>34</v>
+      </c>
+      <c r="O550" s="1">
+        <f>$E$529*L$529/L550*M550/M$529</f>
+        <v>113.5488648871936</v>
+      </c>
+    </row>
+    <row r="551" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A551" s="1">
+        <v>1815</v>
+      </c>
+      <c r="B551" s="1">
+        <f>B521*$D$525*$L$528/L551*M551</f>
+        <v>134.54705368339179</v>
+      </c>
+      <c r="C551" s="1">
+        <f t="shared" si="46"/>
+        <v>192.87574029954644</v>
+      </c>
+      <c r="D551" s="1">
+        <f t="shared" si="47"/>
+        <v>28.931361044931965</v>
+      </c>
+      <c r="H551" s="1">
         <v>0</v>
       </c>
-      <c r="D505" s="3">
-        <f>B464*E505</f>
-        <v>510720.77759894973</v>
-      </c>
-      <c r="E505" s="1">
-        <f>$J$499*L$507/L505*M505/M$507</f>
-        <v>798.00121499835893</v>
-      </c>
-      <c r="H505" s="1">
-        <f>C505+D505</f>
-        <v>510720.77759894973</v>
-      </c>
-      <c r="K505" s="1">
-        <v>1795</v>
-      </c>
-      <c r="L505" s="12">
-        <v>0.18</v>
-      </c>
-      <c r="M505" s="2">
-        <f t="shared" si="44"/>
-        <v>1.1609689553699984</v>
-      </c>
-      <c r="N505" s="1">
-        <v>15</v>
-      </c>
-      <c r="O505" s="1">
-        <f>$E$503*L$503/L505*M505/M$503</f>
-        <v>1704.1948442663563</v>
-      </c>
-    </row>
-    <row r="506" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A506" s="1">
-        <v>1796</v>
-      </c>
-      <c r="B506" s="1">
-        <f>B491*$D$499*$L$502/L506*M506</f>
-        <v>56381.045684836885</v>
-      </c>
-      <c r="C506" s="1">
-        <f>B506*$C$410</f>
-        <v>80823.292875032246</v>
-      </c>
-      <c r="D506" s="1">
-        <f>C506*0.15</f>
-        <v>12123.493931254836</v>
-      </c>
-      <c r="E506" s="1">
-        <f>(C506+D506)/B465</f>
-        <v>190.07522864271388</v>
-      </c>
-      <c r="F506" s="1">
-        <f>E506*L506/$L$507*M$507/M506</f>
-        <v>17.064531638145873</v>
-      </c>
-      <c r="H506" s="1">
-        <f>C506+D506</f>
-        <v>92946.786806287084</v>
-      </c>
-      <c r="K506" s="1">
-        <v>1796</v>
-      </c>
-      <c r="L506" s="12">
-        <v>0.4</v>
-      </c>
-      <c r="M506" s="2">
-        <f t="shared" si="44"/>
-        <v>1.1725786449236988</v>
-      </c>
-      <c r="N506" s="1">
-        <v>16</v>
-      </c>
-      <c r="O506" s="1">
-        <f>$E$503*L$503/L506*M506/M$503</f>
-        <v>774.55655671905913</v>
-      </c>
-    </row>
-    <row r="507" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A507" s="1">
-        <v>1797</v>
-      </c>
-      <c r="B507" s="1">
-        <f>B492*$D$499*$L$502/L507*M507</f>
-        <v>16310.131635643185</v>
-      </c>
-      <c r="C507" s="1">
-        <f t="shared" ref="C507:C511" si="45">B507*$C$410</f>
-        <v>23380.881464787111</v>
-      </c>
-      <c r="D507" s="1">
-        <f t="shared" ref="D507:D511" si="46">C507*0.15</f>
-        <v>3507.1322197180666</v>
-      </c>
-      <c r="E507" s="1">
-        <f>(C507+D507)/B466</f>
-        <v>28.332996506327902</v>
-      </c>
-      <c r="F507" s="1">
-        <f t="shared" ref="F507:F524" si="47">E507*L507/$L$507*M$507/M507</f>
-        <v>28.332996506327898</v>
-      </c>
-      <c r="H507" s="1">
-        <f>C507+D507</f>
-        <v>26888.013684505178</v>
-      </c>
-      <c r="K507" s="1">
-        <v>1797</v>
-      </c>
-      <c r="L507" s="12">
+      <c r="L551" s="12">
         <v>4.5</v>
       </c>
-      <c r="M507" s="2">
-        <f t="shared" si="44"/>
-        <v>1.1843044313729358</v>
-      </c>
-      <c r="N507" s="1">
-        <v>17</v>
-      </c>
-      <c r="O507" s="1">
-        <f>$E$503*L$503/L507*M507/M$503</f>
-        <v>69.537966425444424</v>
-      </c>
-    </row>
-    <row r="508" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A508" s="1">
-        <v>1798</v>
-      </c>
-      <c r="B508" s="1">
-        <f>B493*$D$499*$L$502/L508*M508</f>
-        <v>16359.624448882381</v>
-      </c>
-      <c r="C508" s="1">
-        <f t="shared" si="45"/>
-        <v>23451.830346473365</v>
-      </c>
-      <c r="D508" s="1">
-        <f t="shared" si="46"/>
-        <v>3517.7745519710047</v>
-      </c>
-      <c r="E508" s="1">
-        <f t="shared" ref="E507:E515" si="48">(C508+D508)/B467</f>
-        <v>39.20000711983193</v>
-      </c>
-      <c r="F508" s="1">
-        <f t="shared" si="47"/>
-        <v>38.811888237457353</v>
-      </c>
-      <c r="H508" s="1">
-        <f>C508+D508</f>
-        <v>26969.60489844437</v>
-      </c>
-      <c r="K508" s="1">
-        <v>1798</v>
-      </c>
-      <c r="L508" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="M508" s="2">
-        <f t="shared" si="44"/>
-        <v>1.1961474756866652</v>
-      </c>
-      <c r="N508" s="1">
-        <v>18</v>
-      </c>
-      <c r="O508" s="1">
-        <f>$E$503*L$503/L508*M508/M$503</f>
-        <v>70.23334608969887</v>
-      </c>
-    </row>
-    <row r="509" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A509" s="1">
-        <v>1799</v>
-      </c>
-      <c r="B509" s="1">
-        <f>B494*$D$499*$L$502/L509*M509</f>
-        <v>13425.116813364102</v>
-      </c>
-      <c r="C509" s="1">
-        <f t="shared" si="45"/>
-        <v>19245.158278074701</v>
-      </c>
-      <c r="D509" s="1">
-        <f t="shared" si="46"/>
-        <v>2886.7737417112053</v>
-      </c>
-      <c r="E509" s="1">
-        <f t="shared" si="48"/>
-        <v>30.31771509559713</v>
-      </c>
-      <c r="F509" s="1">
-        <f t="shared" si="47"/>
-        <v>29.720336335258441</v>
-      </c>
-      <c r="H509" s="1">
-        <f>C509+D509</f>
-        <v>22131.932019785905</v>
-      </c>
-      <c r="K509" s="1">
-        <v>1799</v>
-      </c>
-      <c r="L509" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="M509" s="2">
-        <f t="shared" si="44"/>
-        <v>1.2081089504435316</v>
-      </c>
-      <c r="N509" s="1">
-        <v>19</v>
-      </c>
-      <c r="O509" s="1">
-        <f>$E$503*L$503/L509*M509/M$503</f>
-        <v>70.935679550595836</v>
-      </c>
-    </row>
-    <row r="510" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A510" s="1">
-        <v>1800</v>
-      </c>
-      <c r="B510" s="1">
-        <f>B495*$D$499*$L$502/L510*M510</f>
-        <v>10082.606960600884</v>
-      </c>
-      <c r="C510" s="1">
-        <f t="shared" si="45"/>
-        <v>14453.607332430973</v>
-      </c>
-      <c r="D510" s="1">
-        <f t="shared" si="46"/>
-        <v>2168.0410998646457</v>
-      </c>
-      <c r="E510" s="1">
-        <f t="shared" si="48"/>
-        <v>24.957430078521949</v>
-      </c>
-      <c r="F510" s="1">
-        <f t="shared" si="47"/>
-        <v>24.223435751806466</v>
-      </c>
-      <c r="H510" s="1">
-        <f>C510+D510</f>
-        <v>16621.648432295617</v>
-      </c>
-      <c r="K510" s="1">
-        <v>1800</v>
-      </c>
-      <c r="L510" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="M510" s="2">
-        <f t="shared" si="44"/>
-        <v>1.220190039947967</v>
-      </c>
-      <c r="N510" s="1">
-        <v>20</v>
-      </c>
-      <c r="O510" s="1">
-        <f>$E$503*L$503/L510*M510/M$503</f>
-        <v>71.645036346101804</v>
-      </c>
-    </row>
-    <row r="511" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A511" s="1">
-        <v>1801</v>
-      </c>
-      <c r="B511" s="1">
-        <f>B496*$D$499*$L$502/L511*M511</f>
-        <v>6437.8024903606793</v>
-      </c>
-      <c r="C511" s="1">
-        <f t="shared" si="45"/>
-        <v>9228.7113484659822</v>
-      </c>
-      <c r="D511" s="1">
-        <f t="shared" si="46"/>
-        <v>1384.3067022698972</v>
-      </c>
-      <c r="E511" s="1">
-        <f t="shared" si="48"/>
-        <v>26.599042733673883</v>
-      </c>
-      <c r="F511" s="1">
-        <f t="shared" si="47"/>
-        <v>25.561157249119084</v>
-      </c>
-      <c r="H511" s="1">
-        <f>C511+D511</f>
-        <v>10613.01805073588</v>
-      </c>
-      <c r="K511" s="1">
-        <v>1801</v>
-      </c>
-      <c r="L511" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="M511" s="2">
-        <f t="shared" si="44"/>
-        <v>1.2323919403474466</v>
-      </c>
-      <c r="N511" s="1">
-        <v>21</v>
-      </c>
-      <c r="O511" s="1">
-        <f>$E$503*L$503/L511*M511/M$503</f>
-        <v>72.361486709562811</v>
-      </c>
-    </row>
-    <row r="512" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A512" s="1">
-        <v>1802</v>
-      </c>
-      <c r="D512" s="1">
-        <f>B471*$J$502</f>
-        <v>0</v>
-      </c>
-      <c r="K512" s="1">
-        <v>1802</v>
-      </c>
-      <c r="L512" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="M512" s="2">
-        <f t="shared" si="44"/>
-        <v>1.2447158597509214</v>
-      </c>
-      <c r="N512" s="1">
-        <v>22</v>
-      </c>
-      <c r="O512" s="1">
-        <f>$E$503*L$503/L512*M512/M$503</f>
-        <v>73.08510157665846</v>
-      </c>
-    </row>
-    <row r="513" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A513" s="1">
-        <v>1803</v>
-      </c>
-      <c r="B513" s="1">
-        <f>C513/(C$410)</f>
-        <v>4607.2827138017983</v>
-      </c>
-      <c r="C513" s="1">
-        <f>H513-D513</f>
-        <v>6604.6267076565209</v>
-      </c>
-      <c r="D513" s="1">
-        <f>O$501*H513</f>
-        <v>1068.7674771751956</v>
-      </c>
-      <c r="E513" s="1">
-        <f>$J$499*L$507/L513*M513/M$507</f>
-        <v>34.564838670413138</v>
-      </c>
-      <c r="F513" s="1">
-        <f t="shared" si="47"/>
-        <v>32.56164157679305</v>
-      </c>
-      <c r="H513" s="3">
-        <f>B472*E513</f>
-        <v>7673.3941848317163</v>
-      </c>
-      <c r="K513" s="1">
-        <v>1803</v>
-      </c>
-      <c r="L513" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="M513" s="2">
-        <f t="shared" si="44"/>
-        <v>1.2571630183484304</v>
-      </c>
-      <c r="N513" s="1">
-        <v>23</v>
-      </c>
-      <c r="O513" s="1">
-        <f>$E$503*L$503/L513*M513/M$503</f>
-        <v>73.815952592425035</v>
-      </c>
-    </row>
-    <row r="514" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A514" s="1">
-        <v>1804</v>
-      </c>
-      <c r="B514" s="1">
-        <f t="shared" ref="B514:B524" si="49">C514/(C$410)</f>
-        <v>8111.9306051518442</v>
-      </c>
-      <c r="C514" s="1">
-        <f t="shared" ref="C514:C524" si="50">H514-D514</f>
-        <v>11628.605591088763</v>
-      </c>
-      <c r="D514" s="1">
-        <f t="shared" ref="D514:D524" si="51">O$501*H514</f>
-        <v>1881.7529000156255</v>
-      </c>
-      <c r="E514" s="1">
-        <f t="shared" ref="E514:E524" si="52">$J$499*L$507/L514*M514/M$507</f>
-        <v>34.91048705711728</v>
-      </c>
-      <c r="F514" s="1">
-        <f t="shared" si="47"/>
-        <v>32.56164157679305</v>
-      </c>
-      <c r="H514" s="3">
-        <f t="shared" ref="H514:H524" si="53">B473*E514</f>
-        <v>13510.358491104387</v>
-      </c>
-      <c r="L514" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="M514" s="2">
-        <f t="shared" si="44"/>
-        <v>1.269734648531915</v>
-      </c>
-      <c r="N514" s="1">
-        <v>24</v>
-      </c>
-      <c r="O514" s="1">
-        <f>$E$503*L$503/L514*M514/M$503</f>
-        <v>74.554112118349295</v>
-      </c>
-    </row>
-    <row r="515" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A515" s="1">
-        <v>1805</v>
-      </c>
-      <c r="B515" s="1">
-        <f t="shared" si="49"/>
-        <v>10733.530503824561</v>
-      </c>
-      <c r="C515" s="1">
-        <f t="shared" si="50"/>
-        <v>15386.718514286364</v>
-      </c>
-      <c r="D515" s="1">
+      <c r="M551" s="2">
         <f t="shared" si="51"/>
-        <v>2489.8945930516829</v>
-      </c>
-      <c r="E515" s="1">
-        <f t="shared" si="52"/>
-        <v>35.259591927688454</v>
-      </c>
-      <c r="F515" s="1">
-        <f t="shared" si="47"/>
-        <v>32.56164157679305</v>
-      </c>
-      <c r="H515" s="3">
-        <f t="shared" si="53"/>
-        <v>17876.613107338046</v>
-      </c>
-      <c r="L515" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="M515" s="2">
-        <f t="shared" si="44"/>
-        <v>1.2824319950172343</v>
-      </c>
-      <c r="N515" s="1">
-        <v>25</v>
-      </c>
-      <c r="O515" s="1">
-        <f>$E$503*L$503/L515*M515/M$503</f>
-        <v>75.299653239532802</v>
-      </c>
-    </row>
-    <row r="516" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A516" s="1">
-        <v>1806</v>
-      </c>
-      <c r="B516" s="1">
-        <f t="shared" si="49"/>
-        <v>11097.454348717545</v>
-      </c>
-      <c r="C516" s="1">
-        <f t="shared" si="50"/>
-        <v>15908.410213025183</v>
-      </c>
-      <c r="D516" s="1">
-        <f t="shared" si="51"/>
-        <v>2574.3152795498258</v>
-      </c>
-      <c r="E516" s="1">
-        <f t="shared" si="52"/>
-        <v>35.612187846965334</v>
-      </c>
-      <c r="F516" s="1">
-        <f t="shared" si="47"/>
-        <v>32.56164157679305</v>
-      </c>
-      <c r="H516" s="3">
-        <f t="shared" si="53"/>
-        <v>18482.725492575009</v>
-      </c>
-      <c r="L516" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="M516" s="2">
-        <f t="shared" si="44"/>
-        <v>1.2952563149674066</v>
-      </c>
-      <c r="N516" s="1">
-        <v>26</v>
-      </c>
-      <c r="O516" s="1">
-        <f>$E$503*L$503/L516*M516/M$503</f>
-        <v>76.052649771928131</v>
-      </c>
-    </row>
-    <row r="517" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A517" s="1">
-        <v>1807</v>
-      </c>
-      <c r="B517" s="1">
-        <f t="shared" si="49"/>
-        <v>12072.276976382347</v>
-      </c>
-      <c r="C517" s="1">
-        <f t="shared" si="50"/>
-        <v>17305.836844261823</v>
-      </c>
-      <c r="D517" s="1">
-        <f t="shared" si="51"/>
-        <v>2800.4482922563307</v>
-      </c>
-      <c r="E517" s="1">
-        <f t="shared" si="52"/>
-        <v>35.968309725434978</v>
-      </c>
-      <c r="F517" s="1">
-        <f t="shared" si="47"/>
-        <v>32.56164157679305</v>
-      </c>
-      <c r="H517" s="3">
-        <f t="shared" si="53"/>
-        <v>20106.285136518152</v>
-      </c>
-      <c r="L517" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="M517" s="2">
-        <f t="shared" si="44"/>
-        <v>1.3082088781170802</v>
-      </c>
-      <c r="N517" s="1">
-        <v>27</v>
-      </c>
-      <c r="O517" s="1">
-        <f>$E$503*L$503/L517*M517/M$503</f>
-        <v>76.813176269647386</v>
-      </c>
-    </row>
-    <row r="518" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A518" s="1">
-        <v>1808</v>
-      </c>
-      <c r="B518" s="1">
-        <f t="shared" si="49"/>
-        <v>10229.904974852512</v>
-      </c>
-      <c r="C518" s="1">
-        <f t="shared" si="50"/>
-        <v>14664.761815310168</v>
-      </c>
-      <c r="D518" s="1">
-        <f t="shared" si="51"/>
-        <v>2373.0668185311301</v>
-      </c>
-      <c r="E518" s="1">
-        <f t="shared" si="52"/>
-        <v>36.327992822689332</v>
-      </c>
-      <c r="F518" s="1">
-        <f t="shared" si="47"/>
-        <v>32.56164157679305</v>
-      </c>
-      <c r="H518" s="3">
-        <f t="shared" si="53"/>
-        <v>17037.828633841298</v>
-      </c>
-      <c r="L518" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="M518" s="2">
-        <f t="shared" si="44"/>
-        <v>1.3212909668982511</v>
-      </c>
-      <c r="N518" s="1">
-        <v>28</v>
-      </c>
-      <c r="O518" s="1">
-        <f>$E$503*L$503/L518*M518/M$503</f>
-        <v>77.58130803234387</v>
-      </c>
-    </row>
-    <row r="519" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A519" s="1">
-        <v>1809</v>
-      </c>
-      <c r="B519" s="1">
-        <f t="shared" si="49"/>
-        <v>12579.293172808511</v>
-      </c>
-      <c r="C519" s="1">
-        <f t="shared" si="50"/>
-        <v>18032.654129013914</v>
-      </c>
-      <c r="D519" s="1">
-        <f t="shared" si="51"/>
-        <v>2918.0626117592492</v>
-      </c>
-      <c r="E519" s="1">
-        <f t="shared" si="52"/>
-        <v>36.691272750916227</v>
-      </c>
-      <c r="F519" s="1">
-        <f t="shared" si="47"/>
-        <v>32.56164157679305</v>
-      </c>
-      <c r="H519" s="3">
-        <f t="shared" si="53"/>
-        <v>20950.716740773165</v>
-      </c>
-      <c r="L519" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="M519" s="2">
-        <f t="shared" si="44"/>
-        <v>1.3345038765672337</v>
-      </c>
-      <c r="N519" s="1">
-        <v>29</v>
-      </c>
-      <c r="O519" s="1">
-        <f>$E$503*L$503/L519*M519/M$503</f>
-        <v>78.357121112667315</v>
-      </c>
-    </row>
-    <row r="520" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A520" s="1">
-        <v>1810</v>
-      </c>
-      <c r="B520" s="1">
-        <f t="shared" si="49"/>
-        <v>13773.114358508155</v>
-      </c>
-      <c r="C520" s="1">
-        <f t="shared" si="50"/>
-        <v>19744.019325601075</v>
-      </c>
-      <c r="D520" s="1">
-        <f t="shared" si="51"/>
-        <v>3194.9974855442483</v>
-      </c>
-      <c r="E520" s="1">
-        <f t="shared" si="52"/>
-        <v>37.058185478425401</v>
-      </c>
-      <c r="F520" s="1">
-        <f t="shared" si="47"/>
-        <v>32.56164157679305</v>
-      </c>
-      <c r="H520" s="3">
-        <f t="shared" si="53"/>
-        <v>22939.016811145324</v>
-      </c>
-      <c r="L520" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="M520" s="2">
-        <f t="shared" si="44"/>
-        <v>1.3478489153329063</v>
-      </c>
-      <c r="N520" s="1">
-        <v>30</v>
-      </c>
-      <c r="O520" s="1">
-        <f>$E$503*L$503/L520*M520/M$503</f>
-        <v>79.140692323793999</v>
-      </c>
-    </row>
-    <row r="521" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A521" s="1">
-        <v>1811</v>
-      </c>
-      <c r="B521" s="1">
-        <f t="shared" si="49"/>
-        <v>10562.354420006168</v>
-      </c>
-      <c r="C521" s="1">
-        <f t="shared" si="50"/>
-        <v>15141.33436811442</v>
-      </c>
-      <c r="D521" s="1">
-        <f t="shared" si="51"/>
-        <v>2450.1862784941095</v>
-      </c>
-      <c r="E521" s="1">
-        <f t="shared" si="52"/>
-        <v>37.428767333209635</v>
-      </c>
-      <c r="F521" s="1">
-        <f t="shared" si="47"/>
-        <v>32.56164157679305</v>
-      </c>
-      <c r="H521" s="3">
-        <f t="shared" si="53"/>
-        <v>17591.520646608529</v>
-      </c>
-      <c r="L521" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="M521" s="2">
-        <f t="shared" si="44"/>
-        <v>1.3613274044862349</v>
-      </c>
-      <c r="N521" s="1">
-        <v>31</v>
-      </c>
-      <c r="O521" s="1">
-        <f>$E$503*L$503/L521*M521/M$503</f>
-        <v>79.932099247031914</v>
-      </c>
-    </row>
-    <row r="522" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A522" s="1">
-        <v>1812</v>
-      </c>
-      <c r="B522" s="1">
-        <f t="shared" si="49"/>
-        <v>10781.467091485021</v>
-      </c>
-      <c r="C522" s="1">
-        <f t="shared" si="50"/>
-        <v>15455.436517240201</v>
-      </c>
-      <c r="D522" s="1">
-        <f t="shared" si="51"/>
-        <v>2501.0146108671265</v>
-      </c>
-      <c r="E522" s="1">
-        <f t="shared" si="52"/>
-        <v>37.80305500654174</v>
-      </c>
-      <c r="F522" s="1">
-        <f t="shared" si="47"/>
-        <v>32.561641576793043</v>
-      </c>
-      <c r="H522" s="3">
-        <f t="shared" si="53"/>
-        <v>17956.451128107328</v>
-      </c>
-      <c r="L522" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="M522" s="2">
-        <f t="shared" si="44"/>
-        <v>1.3749406785310976</v>
-      </c>
-      <c r="N522" s="1">
-        <v>32</v>
-      </c>
-      <c r="O522" s="1">
-        <f>$E$503*L$503/L522*M522/M$503</f>
-        <v>80.731420239502256</v>
-      </c>
-    </row>
-    <row r="523" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A523" s="1">
-        <v>1813</v>
-      </c>
-      <c r="B523" s="1">
-        <f t="shared" si="49"/>
-        <v>8505.102176527058</v>
-      </c>
-      <c r="C523" s="1">
-        <f t="shared" si="50"/>
-        <v>12192.224457631739</v>
-      </c>
-      <c r="D523" s="1">
-        <f t="shared" si="51"/>
-        <v>1972.9582838695178</v>
-      </c>
-      <c r="E523" s="1">
-        <f t="shared" si="52"/>
-        <v>38.181085556607165</v>
-      </c>
-      <c r="F523" s="1">
-        <f t="shared" si="47"/>
-        <v>32.56164157679305</v>
-      </c>
-      <c r="H523" s="3">
-        <f t="shared" si="53"/>
-        <v>14165.182741501258</v>
-      </c>
-      <c r="L523" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="M523" s="2">
-        <f t="shared" si="44"/>
-        <v>1.3886900853164086</v>
-      </c>
-      <c r="N523" s="1">
-        <v>33</v>
-      </c>
-      <c r="O523" s="1">
-        <f>$E$503*L$503/L523*M523/M$503</f>
-        <v>81.538734441897276</v>
-      </c>
-    </row>
-    <row r="524" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A524" s="1">
-        <v>1814</v>
-      </c>
-      <c r="B524" s="1">
-        <f t="shared" si="49"/>
-        <v>3357.3375033757084</v>
-      </c>
-      <c r="C524" s="1">
-        <f t="shared" si="50"/>
-        <v>4812.8066625880547</v>
-      </c>
-      <c r="D524" s="1">
-        <f t="shared" si="51"/>
-        <v>778.81331717706439</v>
-      </c>
-      <c r="E524" s="1">
-        <f t="shared" si="52"/>
-        <v>38.562896412173231</v>
-      </c>
-      <c r="F524" s="1">
-        <f t="shared" si="47"/>
-        <v>32.561641576793043</v>
-      </c>
-      <c r="H524" s="3">
-        <f t="shared" si="53"/>
-        <v>5591.6199797651188</v>
-      </c>
-      <c r="L524" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="M524" s="2">
-        <f t="shared" si="44"/>
-        <v>1.4025769861695727</v>
-      </c>
-      <c r="N524" s="1">
-        <v>34</v>
-      </c>
-      <c r="O524" s="1">
-        <f>$E$503*L$503/L524*M524/M$503</f>
-        <v>82.354121786316242</v>
+        <v>1.4166027560312682</v>
+      </c>
+      <c r="N551" s="1">
+        <v>35</v>
+      </c>
+      <c r="O551" s="1">
+        <f>$E$529*L$529/L551*M551/M$529</f>
+        <v>114.68435353606552</v>
       </c>
     </row>
   </sheetData>
@@ -9098,10 +9370,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F52ADF-FFA8-0A46-9CC0-C7AD4F73CE98}">
-  <dimension ref="A1:G128"/>
+  <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E107" sqref="E107"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10196,42 +10468,62 @@
         <v>1793</v>
       </c>
       <c r="B107" s="1">
-        <f>Calcul!C503</f>
-        <v>54463.697651335431</v>
+        <f>Calcul!C529</f>
+        <v>75093.886155629138</v>
       </c>
       <c r="C107" s="1">
-        <f>Calcul!B503</f>
-        <v>37993.010631143021</v>
+        <f>Calcul!B529</f>
+        <v>52384.302536878997</v>
       </c>
       <c r="D107">
-        <f t="shared" ref="D107:D128" si="5">(B107-C107)/C107</f>
-        <v>0.4335188695652174</v>
+        <f t="shared" ref="D107:D129" si="5">(B107-C107)/C107</f>
+        <v>0.43351886956521757</v>
       </c>
       <c r="E107" s="1">
-        <f>Calcul!D503</f>
-        <v>8169.5546477003145</v>
+        <f>Calcul!D529</f>
+        <v>11264.082923344371</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>1794</v>
       </c>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
+      <c r="B108" s="1">
+        <f>Calcul!C530</f>
+        <v>3939.99090998366</v>
+      </c>
+      <c r="C108" s="1">
+        <f>Calcul!B530</f>
+        <v>2748.4750941427433</v>
+      </c>
+      <c r="D108">
+        <f t="shared" ref="D108:D109" si="6">(B108-C108)/C108</f>
+        <v>0.43351886956521746</v>
+      </c>
       <c r="E108" s="1">
-        <f>Calcul!D504</f>
-        <v>64047.84382926664</v>
+        <f>Calcul!D530</f>
+        <v>590.998636497549</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>1795</v>
       </c>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
+      <c r="B109" s="1">
+        <f>Calcul!C531</f>
+        <v>90890.391694205682</v>
+      </c>
+      <c r="C109" s="1">
+        <f>Calcul!B531</f>
+        <v>63403.693961679419</v>
+      </c>
+      <c r="D109">
+        <f>(B109-C109)/C109</f>
+        <v>0.4335188695652174</v>
+      </c>
       <c r="E109" s="1">
-        <f>Calcul!D505</f>
-        <v>510720.77759894973</v>
+        <f>Calcul!D531</f>
+        <v>13633.558754130852</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
@@ -10239,20 +10531,20 @@
         <v>1796</v>
       </c>
       <c r="B110" s="1">
-        <f>Calcul!C506</f>
-        <v>80823.292875032246</v>
+        <f>Calcul!C532</f>
+        <v>235285.58592509385</v>
       </c>
       <c r="C110" s="1">
-        <f>Calcul!B506</f>
-        <v>56381.045684836885</v>
+        <f>Calcul!B532</f>
+        <v>164131.4885491918</v>
       </c>
       <c r="D110">
         <f t="shared" si="5"/>
-        <v>0.43351886956521735</v>
+        <v>0.43351886956521746</v>
       </c>
       <c r="E110" s="1">
-        <f>Calcul!D506</f>
-        <v>12123.493931254836</v>
+        <f>Calcul!D532</f>
+        <v>35292.837888764079</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
@@ -10260,20 +10552,20 @@
         <v>1797</v>
       </c>
       <c r="B111" s="1">
-        <f>Calcul!C507</f>
-        <v>23380.881464787111</v>
+        <f>Calcul!C533</f>
+        <v>50309.207013886757</v>
       </c>
       <c r="C111" s="1">
-        <f>Calcul!B507</f>
-        <v>16310.131635643185</v>
+        <f>Calcul!B533</f>
+        <v>35094.903933246031</v>
       </c>
       <c r="D111">
         <f t="shared" si="5"/>
         <v>0.43351886956521751</v>
       </c>
       <c r="E111" s="1">
-        <f>Calcul!D507</f>
-        <v>3507.1322197180666</v>
+        <f>Calcul!D533</f>
+        <v>7546.3810520830129</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
@@ -10281,20 +10573,20 @@
         <v>1798</v>
       </c>
       <c r="B112" s="1">
-        <f>Calcul!C508</f>
-        <v>23451.830346473365</v>
+        <f>Calcul!C534</f>
+        <v>44949.34149740728</v>
       </c>
       <c r="C112" s="1">
-        <f>Calcul!B508</f>
-        <v>16359.624448882381</v>
+        <f>Calcul!B534</f>
+        <v>31355.946860357893</v>
       </c>
       <c r="D112">
         <f t="shared" si="5"/>
-        <v>0.43351886956521746</v>
+        <v>0.43351886956521757</v>
       </c>
       <c r="E112" s="1">
-        <f>Calcul!D508</f>
-        <v>3517.7745519710047</v>
+        <f>Calcul!D534</f>
+        <v>6742.4012246110915</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -10302,20 +10594,20 @@
         <v>1799</v>
       </c>
       <c r="B113" s="1">
-        <f>Calcul!C509</f>
-        <v>19245.158278074701</v>
+        <f>Calcul!C535</f>
+        <v>32404.240861373633</v>
       </c>
       <c r="C113" s="1">
-        <f>Calcul!B509</f>
-        <v>13425.116813364102</v>
+        <f>Calcul!B535</f>
+        <v>22604.683865236984</v>
       </c>
       <c r="D113">
         <f t="shared" si="5"/>
-        <v>0.4335188695652174</v>
+        <v>0.43351886956521751</v>
       </c>
       <c r="E113" s="1">
-        <f>Calcul!D509</f>
-        <v>2886.7737417112053</v>
+        <f>Calcul!D535</f>
+        <v>4860.6361292060446</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -10323,20 +10615,20 @@
         <v>1800</v>
       </c>
       <c r="B114" s="1">
-        <f>Calcul!C510</f>
-        <v>14453.607332430973</v>
+        <f>Calcul!C536</f>
+        <v>23923.212136437476</v>
       </c>
       <c r="C114" s="1">
-        <f>Calcul!B510</f>
-        <v>10082.606960600884</v>
+        <f>Calcul!B536</f>
+        <v>16688.452900304914</v>
       </c>
       <c r="D114">
         <f t="shared" si="5"/>
-        <v>0.43351886956521751</v>
+        <v>0.43351886956521757</v>
       </c>
       <c r="E114" s="1">
-        <f>Calcul!D510</f>
-        <v>2168.0410998646457</v>
+        <f>Calcul!D536</f>
+        <v>3588.4818204656212</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -10344,48 +10636,62 @@
         <v>1801</v>
       </c>
       <c r="B115" s="1">
-        <f>Calcul!C511</f>
-        <v>9228.7113484659822</v>
+        <f>Calcul!C537</f>
+        <v>14598.143405755281</v>
       </c>
       <c r="C115" s="1">
-        <f>Calcul!B511</f>
-        <v>6437.8024903606793</v>
+        <f>Calcul!B537</f>
+        <v>10183.433030206892</v>
       </c>
       <c r="D115">
         <f t="shared" si="5"/>
-        <v>0.4335188695652174</v>
+        <v>0.43351886956521751</v>
       </c>
       <c r="E115" s="1">
-        <f>Calcul!D511</f>
-        <v>1384.3067022698972</v>
+        <f>Calcul!D537</f>
+        <v>2189.7215108632922</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>1802</v>
       </c>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
+      <c r="B116" s="1">
+        <f>Calcul!C538</f>
+        <v>677.89079723277416</v>
+      </c>
+      <c r="C116" s="1">
+        <f>Calcul!B538</f>
+        <v>472.88585565558458</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="5"/>
+        <v>0.4335188695652174</v>
+      </c>
+      <c r="E116" s="1">
+        <f>Calcul!D538</f>
+        <v>101.68361958491612</v>
+      </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>1803</v>
       </c>
       <c r="B117" s="1">
-        <f>Calcul!C513</f>
-        <v>6604.6267076565209</v>
+        <f>Calcul!C539</f>
+        <v>13179.89182519821</v>
       </c>
       <c r="C117" s="1">
-        <f>Calcul!B513</f>
-        <v>4607.2827138017983</v>
+        <f>Calcul!B539</f>
+        <v>9194.0832485837018</v>
       </c>
       <c r="D117">
         <f t="shared" si="5"/>
-        <v>0.4335188695652174</v>
+        <v>0.43351886956521746</v>
       </c>
       <c r="E117" s="1">
-        <f>Calcul!D513</f>
-        <v>1068.7674771751956</v>
+        <f>Calcul!D539</f>
+        <v>1976.9837737797316</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -10393,20 +10699,20 @@
         <v>1804</v>
       </c>
       <c r="B118" s="1">
-        <f>Calcul!C514</f>
-        <v>11628.605591088763</v>
+        <f>Calcul!C540</f>
+        <v>6223.6476203143775</v>
       </c>
       <c r="C118" s="1">
-        <f>Calcul!B514</f>
-        <v>8111.9306051518442</v>
+        <f>Calcul!B540</f>
+        <v>4341.517752188357</v>
       </c>
       <c r="D118">
         <f t="shared" si="5"/>
-        <v>0.43351886956521751</v>
+        <v>0.43351886956521746</v>
       </c>
       <c r="E118" s="1">
-        <f>Calcul!D514</f>
-        <v>1881.7529000156255</v>
+        <f>Calcul!D540</f>
+        <v>933.54714304715662</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -10414,20 +10720,20 @@
         <v>1805</v>
       </c>
       <c r="B119" s="1">
-        <f>Calcul!C515</f>
-        <v>15386.718514286364</v>
+        <f>Calcul!C541</f>
+        <v>5238.2367470979352</v>
       </c>
       <c r="C119" s="1">
-        <f>Calcul!B515</f>
-        <v>10733.530503824561</v>
+        <f>Calcul!B541</f>
+        <v>3654.1107747585343</v>
       </c>
       <c r="D119">
         <f t="shared" si="5"/>
         <v>0.43351886956521751</v>
       </c>
       <c r="E119" s="1">
-        <f>Calcul!D515</f>
-        <v>2489.8945930516829</v>
+        <f>Calcul!D541</f>
+        <v>785.73551206469028</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -10435,20 +10741,20 @@
         <v>1806</v>
       </c>
       <c r="B120" s="1">
-        <f>Calcul!C516</f>
-        <v>15908.410213025183</v>
+        <f>Calcul!C542</f>
+        <v>10404.884258652197</v>
       </c>
       <c r="C120" s="1">
-        <f>Calcul!B516</f>
-        <v>11097.454348717545</v>
+        <f>Calcul!B542</f>
+        <v>7258.2820355953681</v>
       </c>
       <c r="D120">
         <f t="shared" si="5"/>
-        <v>0.43351886956521757</v>
+        <v>0.43351886956521735</v>
       </c>
       <c r="E120" s="1">
-        <f>Calcul!D516</f>
-        <v>2574.3152795498258</v>
+        <f>Calcul!D542</f>
+        <v>1560.7326387978294</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -10456,20 +10762,20 @@
         <v>1807</v>
       </c>
       <c r="B121" s="1">
-        <f>Calcul!C517</f>
-        <v>17305.836844261823</v>
+        <f>Calcul!C543</f>
+        <v>17099.280978286723</v>
       </c>
       <c r="C121" s="1">
-        <f>Calcul!B517</f>
-        <v>12072.276976382347</v>
+        <f>Calcul!B543</f>
+        <v>11928.186884259772</v>
       </c>
       <c r="D121">
         <f t="shared" si="5"/>
-        <v>0.4335188695652174</v>
+        <v>0.43351886956521746</v>
       </c>
       <c r="E121" s="1">
-        <f>Calcul!D517</f>
-        <v>2800.4482922563307</v>
+        <f>Calcul!D543</f>
+        <v>2564.8921467430082</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -10477,20 +10783,20 @@
         <v>1808</v>
       </c>
       <c r="B122" s="1">
-        <f>Calcul!C518</f>
-        <v>14664.761815310168</v>
+        <f>Calcul!C544</f>
+        <v>27344.600164443524</v>
       </c>
       <c r="C122" s="1">
-        <f>Calcul!B518</f>
-        <v>10229.904974852512</v>
+        <f>Calcul!B544</f>
+        <v>19075.158859078758</v>
       </c>
       <c r="D122">
         <f t="shared" si="5"/>
-        <v>0.43351886956521757</v>
+        <v>0.43351886956521746</v>
       </c>
       <c r="E122" s="1">
-        <f>Calcul!D518</f>
-        <v>2373.0668185311301</v>
+        <f>Calcul!D544</f>
+        <v>4101.6900246665282</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -10498,20 +10804,20 @@
         <v>1809</v>
       </c>
       <c r="B123" s="1">
-        <f>Calcul!C519</f>
-        <v>18032.654129013914</v>
+        <f>Calcul!C545</f>
+        <v>30525.208920413002</v>
       </c>
       <c r="C123" s="1">
-        <f>Calcul!B519</f>
-        <v>12579.293172808511</v>
+        <f>Calcul!B545</f>
+        <v>21293.901021108442</v>
       </c>
       <c r="D123">
         <f t="shared" si="5"/>
         <v>0.4335188695652174</v>
       </c>
       <c r="E123" s="1">
-        <f>Calcul!D519</f>
-        <v>2918.0626117592492</v>
+        <f>Calcul!D545</f>
+        <v>4578.78133806195</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -10519,20 +10825,20 @@
         <v>1810</v>
       </c>
       <c r="B124" s="1">
-        <f>Calcul!C520</f>
-        <v>19744.019325601075</v>
+        <f>Calcul!C546</f>
+        <v>38538.07626202143</v>
       </c>
       <c r="C124" s="1">
-        <f>Calcul!B520</f>
-        <v>13773.114358508155</v>
+        <f>Calcul!B546</f>
+        <v>26883.550039149417</v>
       </c>
       <c r="D124">
         <f t="shared" si="5"/>
-        <v>0.4335188695652174</v>
+        <v>0.43351886956521746</v>
       </c>
       <c r="E124" s="1">
-        <f>Calcul!D520</f>
-        <v>3194.9974855442483</v>
+        <f>Calcul!D546</f>
+        <v>5780.7114393032143</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -10540,20 +10846,20 @@
         <v>1811</v>
       </c>
       <c r="B125" s="1">
-        <f>Calcul!C521</f>
-        <v>15141.33436811442</v>
+        <f>Calcul!C547</f>
+        <v>40035.555796774242</v>
       </c>
       <c r="C125" s="1">
-        <f>Calcul!B521</f>
-        <v>10562.354420006168</v>
+        <f>Calcul!B547</f>
+        <v>27928.167983527783</v>
       </c>
       <c r="D125">
         <f t="shared" si="5"/>
-        <v>0.43351886956521746</v>
+        <v>0.43351886956521735</v>
       </c>
       <c r="E125" s="1">
-        <f>Calcul!D521</f>
-        <v>2450.1862784941095</v>
+        <f>Calcul!D547</f>
+        <v>6005.3333695161364</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -10561,20 +10867,20 @@
         <v>1812</v>
       </c>
       <c r="B126" s="1">
-        <f>Calcul!C522</f>
-        <v>15455.436517240201</v>
+        <f>Calcul!C548</f>
+        <v>15725.076637955222</v>
       </c>
       <c r="C126" s="1">
-        <f>Calcul!B522</f>
-        <v>10781.467091485021</v>
+        <f>Calcul!B548</f>
+        <v>10969.563757974527</v>
       </c>
       <c r="D126">
         <f t="shared" si="5"/>
-        <v>0.43351886956521751</v>
+        <v>0.4335188695652174</v>
       </c>
       <c r="E126" s="1">
-        <f>Calcul!D522</f>
-        <v>2501.0146108671265</v>
+        <f>Calcul!D548</f>
+        <v>2358.7614956932835</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -10582,20 +10888,20 @@
         <v>1813</v>
       </c>
       <c r="B127" s="1">
-        <f>Calcul!C523</f>
-        <v>12192.224457631739</v>
+        <f>Calcul!C549</f>
+        <v>14558.80012064021</v>
       </c>
       <c r="C127" s="1">
-        <f>Calcul!B523</f>
-        <v>8505.102176527058</v>
+        <f>Calcul!B549</f>
+        <v>10155.987779258083</v>
       </c>
       <c r="D127">
         <f t="shared" si="5"/>
-        <v>0.43351886956521746</v>
+        <v>0.4335188695652174</v>
       </c>
       <c r="E127" s="1">
-        <f>Calcul!D523</f>
-        <v>1972.9582838695178</v>
+        <f>Calcul!D549</f>
+        <v>2183.8200180960312</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -10603,20 +10909,41 @@
         <v>1814</v>
       </c>
       <c r="B128" s="1">
-        <f>Calcul!C524</f>
-        <v>4812.8066625880547</v>
+        <f>Calcul!C550</f>
+        <v>4774.1519876125367</v>
       </c>
       <c r="C128" s="1">
-        <f>Calcul!B524</f>
-        <v>3357.3375033757084</v>
+        <f>Calcul!B550</f>
+        <v>3330.3726159255402</v>
       </c>
       <c r="D128">
         <f t="shared" si="5"/>
-        <v>0.4335188695652174</v>
+        <v>0.43351886956521751</v>
       </c>
       <c r="E128" s="1">
-        <f>Calcul!D524</f>
-        <v>778.81331717706439</v>
+        <f>Calcul!D550</f>
+        <v>716.12279814188048</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>1815</v>
+      </c>
+      <c r="B129" s="1">
+        <f>Calcul!C551</f>
+        <v>192.87574029954644</v>
+      </c>
+      <c r="C129" s="1">
+        <f>Calcul!B551</f>
+        <v>134.54705368339179</v>
+      </c>
+      <c r="D129">
+        <f t="shared" si="5"/>
+        <v>0.43351886956521746</v>
+      </c>
+      <c r="E129" s="1">
+        <f>Calcul!D551</f>
+        <v>28.931361044931965</v>
       </c>
     </row>
   </sheetData>

--- a/External Data/Résultats de la course française.xlsx
+++ b/External Data/Résultats de la course française.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumedaudin/Répertoires Git/2016-Hamburg-Impact-of-War/External Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEB8D32-25DB-F147-858E-FEF2A55369E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932F7EB6-FEC4-9C42-9697-E7C44A25A1BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="-14620" windowWidth="26880" windowHeight="14620" activeTab="1" xr2:uid="{E3D52932-A783-EC49-8617-8937D12F747E}"/>
+    <workbookView xWindow="1940" yWindow="1980" windowWidth="26880" windowHeight="14620" activeTab="1" xr2:uid="{E3D52932-A783-EC49-8617-8937D12F747E}"/>
   </bookViews>
   <sheets>
     <sheet name="Calcul" sheetId="1" r:id="rId1"/>
@@ -1176,7 +1176,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1195,6 +1195,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1209,7 +1215,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1228,6 +1234,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
@@ -1565,8 +1572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747C72A1-6A8D-9E42-88DE-481B3F912E70}">
   <dimension ref="A1:O551"/>
   <sheetViews>
-    <sheetView topLeftCell="A527" workbookViewId="0">
-      <selection activeCell="H539" sqref="H539"/>
+    <sheetView topLeftCell="A516" workbookViewId="0">
+      <selection activeCell="H529" sqref="H529"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8373,11 +8380,11 @@
         <f>C529*0.15</f>
         <v>11264.082923344371</v>
       </c>
-      <c r="E529" s="1">
+      <c r="E529" s="16">
         <f>(C529+D529)/B462</f>
         <v>245.33513942890201</v>
       </c>
-      <c r="F529" s="1">
+      <c r="F529" s="16">
         <f>E529*L529/$L$533*M529/M$533</f>
         <v>88.541821576798412</v>
       </c>
@@ -8408,27 +8415,27 @@
         <v>1794</v>
       </c>
       <c r="B530" s="1">
-        <f t="shared" ref="B530:B551" si="45">B500*$D$525*$L$528/L530*M530</f>
+        <f>B500*$D$525*$L$528/L530*M530</f>
         <v>2748.4750941427433</v>
       </c>
       <c r="C530" s="1">
-        <f t="shared" ref="C530:C551" si="46">B530*$C$410</f>
+        <f t="shared" ref="C530:C551" si="45">B530*$C$410</f>
         <v>3939.99090998366</v>
       </c>
       <c r="D530" s="1">
-        <f t="shared" ref="D530:D551" si="47">C530*0.15</f>
+        <f>C530*0.15</f>
         <v>590.998636497549</v>
       </c>
-      <c r="E530" s="1">
-        <f t="shared" ref="E530:E551" si="48">(C530+D530)/B463</f>
+      <c r="E530" s="16">
+        <f>(C530+D530)/B463</f>
         <v>7.0356980535422498</v>
       </c>
-      <c r="F530" s="1">
-        <f t="shared" ref="F530:F550" si="49">E530*L530/$L$533*M530/M$533</f>
+      <c r="F530" s="16">
+        <f>E530*L530/$L$533*M530/M$533</f>
         <v>2.1700342837385316</v>
       </c>
       <c r="H530" s="1">
-        <f t="shared" ref="H530:H550" si="50">C530+D530</f>
+        <f>C530+D530</f>
         <v>4530.9895464812089</v>
       </c>
       <c r="K530" s="1">
@@ -8438,14 +8445,14 @@
         <v>1.43</v>
       </c>
       <c r="M530" s="2">
-        <f t="shared" ref="M530:M551" si="51">(1+0.01)^N530</f>
+        <f t="shared" ref="M530:M551" si="46">(1+0.01)^N530</f>
         <v>1.1494742132376226</v>
       </c>
       <c r="N530" s="1">
         <v>14</v>
       </c>
       <c r="O530" s="1">
-        <f t="shared" ref="O530:O550" si="52">$E$529*L$529/L530*M530/M$529</f>
+        <f t="shared" ref="O530:O549" si="47">$E$529*L$529/L530*M530/M$529</f>
         <v>292.84094370013491</v>
       </c>
     </row>
@@ -8454,27 +8461,27 @@
         <v>1795</v>
       </c>
       <c r="B531" s="1">
+        <f t="shared" ref="B530:B550" si="48">B501*$D$525*$L$528/L531*M531</f>
+        <v>63403.693961679419</v>
+      </c>
+      <c r="C531" s="1">
         <f t="shared" si="45"/>
-        <v>63403.693961679419</v>
-      </c>
-      <c r="C531" s="1">
-        <f t="shared" si="46"/>
         <v>90890.391694205682</v>
       </c>
       <c r="D531" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="D530:D551" si="49">C531*0.15</f>
         <v>13633.558754130852</v>
       </c>
-      <c r="E531" s="1">
-        <f t="shared" si="48"/>
+      <c r="E531" s="16">
+        <f t="shared" ref="E530:E550" si="50">(C531+D531)/B464</f>
         <v>163.31867257552582</v>
       </c>
-      <c r="F531" s="1">
-        <f t="shared" si="49"/>
+      <c r="F531" s="16">
+        <f t="shared" ref="F530:F550" si="51">E531*L531/$L$533*M531/M$533</f>
         <v>6.4040259808068134</v>
       </c>
       <c r="H531" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" ref="H530:H550" si="52">C531+D531</f>
         <v>104523.95044833653</v>
       </c>
       <c r="K531" s="1">
@@ -8484,14 +8491,14 @@
         <v>0.18</v>
       </c>
       <c r="M531" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="46"/>
         <v>1.1609689553699984</v>
       </c>
       <c r="N531" s="1">
         <v>15</v>
       </c>
       <c r="O531" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="47"/>
         <v>2349.7231943672487</v>
       </c>
     </row>
@@ -8500,27 +8507,27 @@
         <v>1796</v>
       </c>
       <c r="B532" s="1">
+        <f t="shared" si="48"/>
+        <v>164131.4885491918</v>
+      </c>
+      <c r="C532" s="1">
         <f t="shared" si="45"/>
-        <v>164131.4885491918</v>
-      </c>
-      <c r="C532" s="1">
-        <f t="shared" si="46"/>
         <v>235285.58592509385</v>
       </c>
       <c r="D532" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>35292.837888764079</v>
       </c>
-      <c r="E532" s="1">
-        <f t="shared" si="48"/>
+      <c r="E532" s="16">
+        <f t="shared" si="50"/>
         <v>553.33011004878927</v>
       </c>
-      <c r="F532" s="1">
-        <f t="shared" si="49"/>
+      <c r="F532" s="16">
+        <f t="shared" si="51"/>
         <v>48.697919476241076</v>
       </c>
       <c r="H532" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>270578.42381385795</v>
       </c>
       <c r="K532" s="1">
@@ -8530,14 +8537,14 @@
         <v>0.4</v>
       </c>
       <c r="M532" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="46"/>
         <v>1.1725786449236988</v>
       </c>
       <c r="N532" s="1">
         <v>16</v>
       </c>
       <c r="O532" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="47"/>
         <v>1067.9491918399146</v>
       </c>
     </row>
@@ -8546,27 +8553,27 @@
         <v>1797</v>
       </c>
       <c r="B533" s="1">
+        <f t="shared" si="48"/>
+        <v>35094.903933246031</v>
+      </c>
+      <c r="C533" s="1">
         <f t="shared" si="45"/>
-        <v>35094.903933246031</v>
-      </c>
-      <c r="C533" s="1">
-        <f t="shared" si="46"/>
         <v>50309.207013886757</v>
       </c>
       <c r="D533" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>7546.3810520830129</v>
       </c>
-      <c r="E533" s="1">
-        <f t="shared" si="48"/>
+      <c r="E533" s="16">
+        <f t="shared" si="50"/>
         <v>60.964792482581423</v>
       </c>
-      <c r="F533" s="1">
-        <f t="shared" si="49"/>
+      <c r="F533" s="16">
+        <f t="shared" si="51"/>
         <v>60.96479248258143</v>
       </c>
       <c r="H533" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>57855.588065969772</v>
       </c>
       <c r="K533" s="1">
@@ -8576,14 +8583,14 @@
         <v>4.5</v>
       </c>
       <c r="M533" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="46"/>
         <v>1.1843044313729358</v>
       </c>
       <c r="N533" s="1">
         <v>17</v>
       </c>
       <c r="O533" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="47"/>
         <v>95.878105222961238</v>
       </c>
     </row>
@@ -8592,27 +8599,27 @@
         <v>1798</v>
       </c>
       <c r="B534" s="1">
+        <f t="shared" si="48"/>
+        <v>31355.946860357893</v>
+      </c>
+      <c r="C534" s="1">
         <f t="shared" si="45"/>
-        <v>31355.946860357893</v>
-      </c>
-      <c r="C534" s="1">
-        <f t="shared" si="46"/>
         <v>44949.34149740728</v>
       </c>
       <c r="D534" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>6742.4012246110915</v>
       </c>
-      <c r="E534" s="1">
-        <f t="shared" si="48"/>
+      <c r="E534" s="16">
+        <f t="shared" si="50"/>
         <v>75.133346979677867</v>
       </c>
-      <c r="F534" s="1">
-        <f t="shared" si="49"/>
+      <c r="F534" s="16">
+        <f t="shared" si="51"/>
         <v>75.884680449474658</v>
       </c>
       <c r="H534" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>51691.742722018374</v>
       </c>
       <c r="K534" s="1">
@@ -8622,14 +8629,14 @@
         <v>4.5</v>
       </c>
       <c r="M534" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="46"/>
         <v>1.1961474756866652</v>
       </c>
       <c r="N534" s="1">
         <v>18</v>
       </c>
       <c r="O534" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="47"/>
         <v>96.836886275190849</v>
       </c>
     </row>
@@ -8638,27 +8645,27 @@
         <v>1799</v>
       </c>
       <c r="B535" s="1">
+        <f t="shared" si="48"/>
+        <v>22604.683865236984</v>
+      </c>
+      <c r="C535" s="1">
         <f t="shared" si="45"/>
-        <v>22604.683865236984</v>
-      </c>
-      <c r="C535" s="1">
-        <f t="shared" si="46"/>
         <v>32404.240861373633</v>
       </c>
       <c r="D535" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>4860.6361292060446</v>
       </c>
-      <c r="E535" s="1">
-        <f t="shared" si="48"/>
+      <c r="E535" s="16">
+        <f t="shared" si="50"/>
         <v>51.047776699424219</v>
       </c>
-      <c r="F535" s="1">
-        <f t="shared" si="49"/>
+      <c r="F535" s="16">
+        <f t="shared" si="51"/>
         <v>52.073837011082631</v>
       </c>
       <c r="H535" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>37264.87699057968</v>
       </c>
       <c r="K535" s="1">
@@ -8668,14 +8675,14 @@
         <v>4.5</v>
       </c>
       <c r="M535" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="46"/>
         <v>1.2081089504435316</v>
       </c>
       <c r="N535" s="1">
         <v>19</v>
       </c>
       <c r="O535" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="47"/>
         <v>97.805255137942737</v>
       </c>
     </row>
@@ -8684,27 +8691,27 @@
         <v>1800</v>
       </c>
       <c r="B536" s="1">
+        <f t="shared" si="48"/>
+        <v>16688.452900304914</v>
+      </c>
+      <c r="C536" s="1">
         <f t="shared" si="45"/>
-        <v>16688.452900304914</v>
-      </c>
-      <c r="C536" s="1">
-        <f t="shared" si="46"/>
         <v>23923.212136437476</v>
       </c>
       <c r="D536" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>3588.4818204656212</v>
       </c>
-      <c r="E536" s="1">
-        <f t="shared" si="48"/>
+      <c r="E536" s="16">
+        <f t="shared" si="50"/>
         <v>41.308849785139785</v>
       </c>
-      <c r="F536" s="1">
-        <f t="shared" si="49"/>
+      <c r="F536" s="16">
+        <f t="shared" si="51"/>
         <v>42.560549242479304</v>
       </c>
       <c r="H536" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>27511.693956903098</v>
       </c>
       <c r="K536" s="1">
@@ -8714,14 +8721,14 @@
         <v>4.5</v>
       </c>
       <c r="M536" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="46"/>
         <v>1.220190039947967</v>
       </c>
       <c r="N536" s="1">
         <v>20</v>
       </c>
       <c r="O536" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="47"/>
         <v>98.783307689322172</v>
       </c>
     </row>
@@ -8730,27 +8737,27 @@
         <v>1801</v>
       </c>
       <c r="B537" s="1">
+        <f t="shared" si="48"/>
+        <v>10183.433030206892</v>
+      </c>
+      <c r="C537" s="1">
         <f t="shared" si="45"/>
-        <v>10183.433030206892</v>
-      </c>
-      <c r="C537" s="1">
-        <f t="shared" si="46"/>
         <v>14598.143405755281</v>
       </c>
       <c r="D537" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>2189.7215108632922</v>
       </c>
-      <c r="E537" s="1">
-        <f t="shared" si="48"/>
+      <c r="E537" s="16">
+        <f t="shared" si="50"/>
         <v>42.074849415084145</v>
       </c>
-      <c r="F537" s="1">
-        <f t="shared" si="49"/>
+      <c r="F537" s="16">
+        <f t="shared" si="51"/>
         <v>43.783257021482704</v>
       </c>
       <c r="H537" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>16787.864916618575</v>
       </c>
       <c r="K537" s="1">
@@ -8760,14 +8767,14 @@
         <v>4.5</v>
       </c>
       <c r="M537" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="46"/>
         <v>1.2323919403474466</v>
       </c>
       <c r="N537" s="1">
         <v>21</v>
       </c>
       <c r="O537" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="47"/>
         <v>99.771140766215396</v>
       </c>
     </row>
@@ -8776,17 +8783,19 @@
         <v>1802</v>
       </c>
       <c r="B538" s="1">
+        <f t="shared" si="48"/>
+        <v>472.88585565558458</v>
+      </c>
+      <c r="C538" s="1">
         <f t="shared" si="45"/>
-        <v>472.88585565558458</v>
-      </c>
-      <c r="C538" s="1">
-        <f t="shared" si="46"/>
         <v>677.89079723277416</v>
       </c>
       <c r="D538" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>101.68361958491612</v>
       </c>
+      <c r="E538" s="16"/>
+      <c r="F538" s="16"/>
       <c r="H538" s="1">
         <v>0</v>
       </c>
@@ -8797,14 +8806,14 @@
         <v>4.5</v>
       </c>
       <c r="M538" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="46"/>
         <v>1.2447158597509214</v>
       </c>
       <c r="N538" s="1">
         <v>22</v>
       </c>
       <c r="O538" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="47"/>
         <v>100.76885217387756</v>
       </c>
     </row>
@@ -8813,27 +8822,27 @@
         <v>1803</v>
       </c>
       <c r="B539" s="1">
+        <f t="shared" si="48"/>
+        <v>9194.0832485837018</v>
+      </c>
+      <c r="C539" s="1">
         <f t="shared" si="45"/>
-        <v>9194.0832485837018</v>
-      </c>
-      <c r="C539" s="1">
-        <f t="shared" si="46"/>
         <v>13179.89182519821</v>
       </c>
       <c r="D539" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1976.9837737797316</v>
       </c>
-      <c r="E539" s="1">
-        <f t="shared" si="48"/>
+      <c r="E539" s="16">
+        <f t="shared" si="50"/>
         <v>68.274214409810554</v>
       </c>
-      <c r="F539" s="1">
-        <f t="shared" si="49"/>
+      <c r="F539" s="16">
+        <f t="shared" si="51"/>
         <v>72.474454362467057</v>
       </c>
       <c r="H539" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>15156.875598977942</v>
       </c>
       <c r="K539" s="1">
@@ -8843,14 +8852,14 @@
         <v>4.5</v>
       </c>
       <c r="M539" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="46"/>
         <v>1.2571630183484304</v>
       </c>
       <c r="N539" s="1">
         <v>23</v>
       </c>
       <c r="O539" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="47"/>
         <v>101.77654069561632</v>
       </c>
     </row>
@@ -8859,41 +8868,41 @@
         <v>1804</v>
       </c>
       <c r="B540" s="1">
+        <f t="shared" si="48"/>
+        <v>4341.517752188357</v>
+      </c>
+      <c r="C540" s="1">
         <f t="shared" si="45"/>
-        <v>4341.517752188357</v>
-      </c>
-      <c r="C540" s="1">
-        <f t="shared" si="46"/>
         <v>6223.6476203143775</v>
       </c>
       <c r="D540" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>933.54714304715662</v>
       </c>
-      <c r="E540" s="1">
-        <f t="shared" si="48"/>
+      <c r="E540" s="16">
+        <f t="shared" si="50"/>
         <v>18.494043316179678</v>
       </c>
-      <c r="F540" s="1">
-        <f t="shared" si="49"/>
+      <c r="F540" s="16">
+        <f t="shared" si="51"/>
         <v>19.828117642674595</v>
       </c>
       <c r="H540" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>7157.1947633615346</v>
       </c>
       <c r="L540" s="12">
         <v>4.5</v>
       </c>
       <c r="M540" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="46"/>
         <v>1.269734648531915</v>
       </c>
       <c r="N540" s="1">
         <v>24</v>
       </c>
       <c r="O540" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="47"/>
         <v>102.79430610257251</v>
       </c>
     </row>
@@ -8902,41 +8911,41 @@
         <v>1805</v>
       </c>
       <c r="B541" s="1">
+        <f t="shared" si="48"/>
+        <v>3654.1107747585343</v>
+      </c>
+      <c r="C541" s="1">
         <f t="shared" si="45"/>
-        <v>3654.1107747585343</v>
-      </c>
-      <c r="C541" s="1">
-        <f t="shared" si="46"/>
         <v>5238.2367470979352</v>
       </c>
       <c r="D541" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>785.73551206469028</v>
       </c>
-      <c r="E541" s="1">
-        <f t="shared" si="48"/>
+      <c r="E541" s="16">
+        <f t="shared" si="50"/>
         <v>11.881602089078156</v>
       </c>
-      <c r="F541" s="1">
-        <f t="shared" si="49"/>
+      <c r="F541" s="16">
+        <f t="shared" si="51"/>
         <v>12.866072495762889</v>
       </c>
       <c r="H541" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>6023.9722591626251</v>
       </c>
       <c r="L541" s="12">
         <v>4.5</v>
       </c>
       <c r="M541" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="46"/>
         <v>1.2824319950172343</v>
       </c>
       <c r="N541" s="1">
         <v>25</v>
       </c>
       <c r="O541" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="47"/>
         <v>103.82224916359824</v>
       </c>
     </row>
@@ -8945,41 +8954,41 @@
         <v>1806</v>
       </c>
       <c r="B542" s="1">
+        <f t="shared" si="48"/>
+        <v>7258.2820355953681</v>
+      </c>
+      <c r="C542" s="1">
         <f t="shared" si="45"/>
-        <v>7258.2820355953681</v>
-      </c>
-      <c r="C542" s="1">
-        <f t="shared" si="46"/>
         <v>10404.884258652197</v>
       </c>
       <c r="D542" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1560.7326387978294</v>
       </c>
-      <c r="E542" s="1">
-        <f t="shared" si="48"/>
+      <c r="E542" s="16">
+        <f t="shared" si="50"/>
         <v>23.055138530732229</v>
       </c>
-      <c r="F542" s="1">
-        <f t="shared" si="49"/>
+      <c r="F542" s="16">
+        <f t="shared" si="51"/>
         <v>25.215065470759598</v>
       </c>
       <c r="H542" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>11965.616897450027</v>
       </c>
       <c r="L542" s="12">
         <v>4.5</v>
       </c>
       <c r="M542" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="46"/>
         <v>1.2952563149674066</v>
       </c>
       <c r="N542" s="1">
         <v>26</v>
       </c>
       <c r="O542" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="47"/>
         <v>104.86047165523422</v>
       </c>
     </row>
@@ -8988,41 +8997,41 @@
         <v>1807</v>
       </c>
       <c r="B543" s="1">
+        <f t="shared" si="48"/>
+        <v>11928.186884259772</v>
+      </c>
+      <c r="C543" s="1">
         <f t="shared" si="45"/>
-        <v>11928.186884259772</v>
-      </c>
-      <c r="C543" s="1">
-        <f t="shared" si="46"/>
         <v>17099.280978286723</v>
       </c>
       <c r="D543" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>2564.8921467430082</v>
       </c>
-      <c r="E543" s="1">
-        <f t="shared" si="48"/>
+      <c r="E543" s="16">
+        <f t="shared" si="50"/>
         <v>35.177411672682879</v>
       </c>
-      <c r="F543" s="1">
-        <f t="shared" si="49"/>
+      <c r="F543" s="16">
+        <f t="shared" si="51"/>
         <v>38.85774724834387</v>
       </c>
       <c r="H543" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>19664.173125029731</v>
       </c>
       <c r="L543" s="12">
         <v>4.5</v>
       </c>
       <c r="M543" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="46"/>
         <v>1.3082088781170802</v>
       </c>
       <c r="N543" s="1">
         <v>27</v>
       </c>
       <c r="O543" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="47"/>
         <v>105.90907637178653</v>
       </c>
     </row>
@@ -9031,41 +9040,41 @@
         <v>1808</v>
       </c>
       <c r="B544" s="1">
+        <f t="shared" si="48"/>
+        <v>19075.158859078758</v>
+      </c>
+      <c r="C544" s="1">
         <f t="shared" si="45"/>
-        <v>19075.158859078758</v>
-      </c>
-      <c r="C544" s="1">
-        <f t="shared" si="46"/>
         <v>27344.600164443524</v>
       </c>
       <c r="D544" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>4101.6900246665282</v>
       </c>
-      <c r="E544" s="1">
-        <f t="shared" si="48"/>
+      <c r="E544" s="16">
+        <f t="shared" si="50"/>
         <v>67.049659251833802</v>
       </c>
-      <c r="F544" s="1">
-        <f t="shared" si="49"/>
+      <c r="F544" s="16">
+        <f t="shared" si="51"/>
         <v>74.80518248196627</v>
       </c>
       <c r="H544" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>31446.290189110052</v>
       </c>
       <c r="L544" s="12">
         <v>4.5</v>
       </c>
       <c r="M544" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="46"/>
         <v>1.3212909668982511</v>
       </c>
       <c r="N544" s="1">
         <v>28</v>
       </c>
       <c r="O544" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="47"/>
         <v>106.9681671355044</v>
       </c>
     </row>
@@ -9074,41 +9083,41 @@
         <v>1809</v>
       </c>
       <c r="B545" s="1">
+        <f t="shared" si="48"/>
+        <v>21293.901021108442</v>
+      </c>
+      <c r="C545" s="1">
         <f t="shared" si="45"/>
-        <v>21293.901021108442</v>
-      </c>
-      <c r="C545" s="1">
-        <f t="shared" si="46"/>
         <v>30525.208920413002</v>
       </c>
       <c r="D545" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>4578.78133806195</v>
       </c>
-      <c r="E545" s="1">
-        <f t="shared" si="48"/>
+      <c r="E545" s="16">
+        <f t="shared" si="50"/>
         <v>61.478091520971894</v>
       </c>
-      <c r="F545" s="1">
-        <f t="shared" si="49"/>
+      <c r="F545" s="16">
+        <f t="shared" si="51"/>
         <v>69.275052330575136</v>
       </c>
       <c r="H545" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>35103.990258474951</v>
       </c>
       <c r="L545" s="12">
         <v>4.5</v>
       </c>
       <c r="M545" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="46"/>
         <v>1.3345038765672337</v>
       </c>
       <c r="N545" s="1">
         <v>29</v>
       </c>
       <c r="O545" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="47"/>
         <v>108.03784880685946</v>
       </c>
     </row>
@@ -9117,41 +9126,41 @@
         <v>1810</v>
       </c>
       <c r="B546" s="1">
+        <f t="shared" si="48"/>
+        <v>26883.550039149417</v>
+      </c>
+      <c r="C546" s="1">
         <f t="shared" si="45"/>
-        <v>26883.550039149417</v>
-      </c>
-      <c r="C546" s="1">
-        <f t="shared" si="46"/>
         <v>38538.07626202143</v>
       </c>
       <c r="D546" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>5780.7114393032143</v>
       </c>
-      <c r="E546" s="1">
-        <f t="shared" si="48"/>
+      <c r="E546" s="16">
+        <f t="shared" si="50"/>
         <v>71.597395317164214</v>
       </c>
-      <c r="F546" s="1">
-        <f t="shared" si="49"/>
+      <c r="F546" s="16">
+        <f t="shared" si="51"/>
         <v>81.484514506990465</v>
       </c>
       <c r="H546" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>44318.787701324647</v>
       </c>
       <c r="L546" s="12">
         <v>4.5</v>
       </c>
       <c r="M546" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="46"/>
         <v>1.3478489153329063</v>
       </c>
       <c r="N546" s="1">
         <v>30</v>
       </c>
       <c r="O546" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="47"/>
         <v>109.11822729492808</v>
       </c>
     </row>
@@ -9160,41 +9169,41 @@
         <v>1811</v>
       </c>
       <c r="B547" s="1">
+        <f t="shared" si="48"/>
+        <v>27928.167983527783</v>
+      </c>
+      <c r="C547" s="1">
         <f t="shared" si="45"/>
-        <v>27928.167983527783</v>
-      </c>
-      <c r="C547" s="1">
-        <f t="shared" si="46"/>
         <v>40035.555796774242</v>
       </c>
       <c r="D547" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>6005.3333695161364</v>
       </c>
-      <c r="E547" s="1">
-        <f t="shared" si="48"/>
+      <c r="E547" s="16">
+        <f t="shared" si="50"/>
         <v>97.959338651681648</v>
       </c>
-      <c r="F547" s="1">
-        <f t="shared" si="49"/>
+      <c r="F547" s="16">
+        <f t="shared" si="51"/>
         <v>112.60173372591954</v>
       </c>
       <c r="H547" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>46040.889166290377</v>
       </c>
       <c r="L547" s="12">
         <v>4.5</v>
       </c>
       <c r="M547" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="46"/>
         <v>1.3613274044862349</v>
       </c>
       <c r="N547" s="1">
         <v>31</v>
       </c>
       <c r="O547" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="47"/>
         <v>110.20940956787732</v>
       </c>
     </row>
@@ -9203,41 +9212,41 @@
         <v>1812</v>
       </c>
       <c r="B548" s="1">
+        <f t="shared" si="48"/>
+        <v>10969.563757974527</v>
+      </c>
+      <c r="C548" s="1">
         <f t="shared" si="45"/>
-        <v>10969.563757974527</v>
-      </c>
-      <c r="C548" s="1">
-        <f t="shared" si="46"/>
         <v>15725.076637955222</v>
       </c>
       <c r="D548" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>2358.7614956932835</v>
       </c>
-      <c r="E548" s="1">
-        <f t="shared" si="48"/>
+      <c r="E548" s="16">
+        <f t="shared" si="50"/>
         <v>38.071238176102121</v>
       </c>
-      <c r="F548" s="1">
-        <f t="shared" si="49"/>
+      <c r="F548" s="16">
+        <f t="shared" si="51"/>
         <v>44.199525614951696</v>
       </c>
       <c r="H548" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>18083.838133648507</v>
       </c>
       <c r="L548" s="12">
         <v>4.5</v>
       </c>
       <c r="M548" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="46"/>
         <v>1.3749406785310976</v>
       </c>
       <c r="N548" s="1">
         <v>32</v>
       </c>
       <c r="O548" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="47"/>
         <v>111.31150366355611</v>
       </c>
     </row>
@@ -9246,41 +9255,41 @@
         <v>1813</v>
       </c>
       <c r="B549" s="1">
+        <f t="shared" si="48"/>
+        <v>10155.987779258083</v>
+      </c>
+      <c r="C549" s="1">
         <f t="shared" si="45"/>
-        <v>10155.987779258083</v>
-      </c>
-      <c r="C549" s="1">
-        <f t="shared" si="46"/>
         <v>14558.80012064021</v>
       </c>
       <c r="D549" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>2183.8200180960312</v>
       </c>
-      <c r="E549" s="1">
-        <f t="shared" si="48"/>
+      <c r="E549" s="16">
+        <f t="shared" si="50"/>
         <v>45.128356169100378</v>
       </c>
-      <c r="F549" s="1">
-        <f t="shared" si="49"/>
+      <c r="F549" s="16">
+        <f t="shared" si="51"/>
         <v>52.916546724397762</v>
       </c>
       <c r="H549" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>16742.620138736242</v>
       </c>
       <c r="L549" s="12">
         <v>4.5</v>
       </c>
       <c r="M549" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="46"/>
         <v>1.3886900853164086</v>
       </c>
       <c r="N549" s="1">
         <v>33</v>
       </c>
       <c r="O549" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="47"/>
         <v>112.42461870019169</v>
       </c>
     </row>
@@ -9289,34 +9298,34 @@
         <v>1814</v>
       </c>
       <c r="B550" s="1">
+        <f t="shared" si="48"/>
+        <v>3330.3726159255402</v>
+      </c>
+      <c r="C550" s="1">
         <f t="shared" si="45"/>
-        <v>3330.3726159255402</v>
-      </c>
-      <c r="C550" s="1">
-        <f t="shared" si="46"/>
         <v>4774.1519876125367</v>
       </c>
       <c r="D550" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>716.12279814188048</v>
       </c>
-      <c r="E550" s="1">
-        <f t="shared" si="48"/>
+      <c r="E550" s="16">
+        <f t="shared" si="50"/>
         <v>37.863964039685634</v>
       </c>
-      <c r="F550" s="1">
-        <f t="shared" si="49"/>
+      <c r="F550" s="16">
+        <f t="shared" si="51"/>
         <v>44.842460401545182</v>
       </c>
       <c r="H550" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>5490.2747857544173</v>
       </c>
       <c r="L550" s="12">
         <v>4.5</v>
       </c>
       <c r="M550" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="46"/>
         <v>1.4025769861695727</v>
       </c>
       <c r="N550" s="1">
@@ -9336,13 +9345,15 @@
         <v>134.54705368339179</v>
       </c>
       <c r="C551" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>192.87574029954644</v>
       </c>
       <c r="D551" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>28.931361044931965</v>
       </c>
+      <c r="E551" s="16"/>
+      <c r="F551" s="16"/>
       <c r="H551" s="1">
         <v>0</v>
       </c>
@@ -9350,7 +9361,7 @@
         <v>4.5</v>
       </c>
       <c r="M551" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="46"/>
         <v>1.4166027560312682</v>
       </c>
       <c r="N551" s="1">
@@ -9372,8 +9383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F52ADF-FFA8-0A46-9CC0-C7AD4F73CE98}">
   <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10497,7 +10508,7 @@
         <v>2748.4750941427433</v>
       </c>
       <c r="D108">
-        <f t="shared" ref="D108:D109" si="6">(B108-C108)/C108</f>
+        <f t="shared" ref="D108" si="6">(B108-C108)/C108</f>
         <v>0.43351886956521746</v>
       </c>
       <c r="E108" s="1">
